--- a/work-book/cloudTech/SAP/[SAP-C02]AWS問題集チェックシート.xlsx
+++ b/work-book/cloudTech/SAP/[SAP-C02]AWS問題集チェックシート.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f8aaa7f11ecf284d/デスクトップ/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f8aaa7f11ecf284d/デスクトップ/program/readeing-learning-history/work-book/cloudTech/SAP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="650" documentId="13_ncr:1_{2340BEE1-0D6C-449A-A451-323B2560AB5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{4DD90A60-A3FD-4949-B54B-3C8D40D7AA1D}"/>
+  <xr:revisionPtr revIDLastSave="654" documentId="13_ncr:1_{2340BEE1-0D6C-449A-A451-323B2560AB5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{05D9185B-83B6-423E-84BF-C2935111D8F8}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2280" yWindow="2280" windowWidth="16920" windowHeight="10450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="問題チェックシート" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="16">
   <si>
     <t>* [ファイル] ⇨ [コピーを作成] を選択し、コピーしてからお使いください</t>
   </si>
@@ -254,42 +254,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="11">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -606,8 +571,8 @@
   <dimension ref="A1:AC303"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C4" sqref="C4:C13"/>
+      <pane ySplit="3" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1110,7 +1075,9 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C14" s="3"/>
+      <c r="C14" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D14" s="7"/>
       <c r="E14" s="7"/>
       <c r="F14" s="11"/>
@@ -1144,7 +1111,9 @@
         <f t="shared" si="0"/>
         <v>12</v>
       </c>
-      <c r="C15" s="3"/>
+      <c r="C15" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D15" s="7"/>
       <c r="E15" s="7"/>
       <c r="F15" s="11"/>
@@ -1178,7 +1147,9 @@
         <f t="shared" si="0"/>
         <v>13</v>
       </c>
-      <c r="C16" s="3"/>
+      <c r="C16" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D16" s="7"/>
       <c r="E16" s="7"/>
       <c r="F16" s="11"/>
@@ -1212,7 +1183,9 @@
         <f t="shared" si="0"/>
         <v>14</v>
       </c>
-      <c r="C17" s="3"/>
+      <c r="C17" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D17" s="7"/>
       <c r="E17" s="7"/>
       <c r="F17" s="11"/>
@@ -1246,7 +1219,9 @@
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="C18" s="3"/>
+      <c r="C18" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D18" s="7"/>
       <c r="E18" s="7"/>
       <c r="F18" s="11"/>
@@ -1280,7 +1255,9 @@
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="C19" s="3"/>
+      <c r="C19" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D19" s="7"/>
       <c r="E19" s="7"/>
       <c r="F19" s="11"/>
@@ -1314,7 +1291,9 @@
         <f t="shared" si="0"/>
         <v>17</v>
       </c>
-      <c r="C20" s="3"/>
+      <c r="C20" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D20" s="7"/>
       <c r="E20" s="7"/>
       <c r="F20" s="11"/>
@@ -1348,7 +1327,9 @@
         <f t="shared" si="0"/>
         <v>18</v>
       </c>
-      <c r="C21" s="3"/>
+      <c r="C21" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D21" s="7"/>
       <c r="E21" s="7"/>
       <c r="F21" s="11"/>
@@ -1382,7 +1363,9 @@
         <f t="shared" si="0"/>
         <v>19</v>
       </c>
-      <c r="C22" s="3"/>
+      <c r="C22" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D22" s="7"/>
       <c r="E22" s="7"/>
       <c r="F22" s="11"/>
@@ -1416,7 +1399,9 @@
         <f t="shared" si="0"/>
         <v>20</v>
       </c>
-      <c r="C23" s="3"/>
+      <c r="C23" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D23" s="7"/>
       <c r="E23" s="7"/>
       <c r="F23" s="11"/>
@@ -10089,80 +10074,55 @@
   <customSheetViews>
     <customSheetView guid="{2A2FD979-9F8D-413C-9CCD-B7F26FC2F3D3}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="B3:G267" xr:uid="{C6EE5199-56C0-4092-B433-134A14846002}"/>
+      <autoFilter ref="B3:G267" xr:uid="{179F117E-EFC9-4765-B74E-AD26E27EF20D}"/>
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="7"/>
-  <conditionalFormatting sqref="J1:J3 C4:G301">
-    <cfRule type="cellIs" dxfId="15" priority="27" operator="equal">
+  <conditionalFormatting sqref="C4:G303">
+    <cfRule type="cellIs" dxfId="10" priority="6" operator="equal">
       <formula>"Again"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="13" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:H301">
-    <cfRule type="expression" dxfId="12" priority="17">
+  <conditionalFormatting sqref="C4:H303">
+    <cfRule type="expression" dxfId="7" priority="4">
       <formula>$C4="OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D4:H301">
-    <cfRule type="expression" dxfId="11" priority="18">
+  <conditionalFormatting sqref="D4:H303">
+    <cfRule type="expression" dxfId="6" priority="5">
       <formula>$D4="OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4:H301">
-    <cfRule type="expression" dxfId="10" priority="16">
+  <conditionalFormatting sqref="E4:H303">
+    <cfRule type="expression" dxfId="5" priority="3">
       <formula>$E4="OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F4:H301">
-    <cfRule type="expression" dxfId="9" priority="15">
+  <conditionalFormatting sqref="F4:H303">
+    <cfRule type="expression" dxfId="4" priority="2">
       <formula>$F4="OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G4:H301">
-    <cfRule type="expression" dxfId="8" priority="14">
+  <conditionalFormatting sqref="G4:H303">
+    <cfRule type="expression" dxfId="3" priority="1">
       <formula>$G4="OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C302:G303">
-    <cfRule type="cellIs" dxfId="7" priority="6" operator="equal">
+  <conditionalFormatting sqref="J1:J3">
+    <cfRule type="cellIs" dxfId="2" priority="27" operator="equal">
       <formula>"Again"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="28" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="5" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="29" operator="equal">
       <formula>"OK"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C302:H303">
-    <cfRule type="expression" dxfId="4" priority="4">
-      <formula>$C302="OK"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="D302:H303">
-    <cfRule type="expression" dxfId="3" priority="5">
-      <formula>$D302="OK"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E302:H303">
-    <cfRule type="expression" dxfId="2" priority="3">
-      <formula>$E302="OK"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F302:H303">
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>$F302="OK"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G302:H303">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$G302="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">

--- a/work-book/cloudTech/SAP/[SAP-C02]AWS問題集チェックシート.xlsx
+++ b/work-book/cloudTech/SAP/[SAP-C02]AWS問題集チェックシート.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f8aaa7f11ecf284d/デスクトップ/program/readeing-learning-history/work-book/cloudTech/SAP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="654" documentId="13_ncr:1_{2340BEE1-0D6C-449A-A451-323B2560AB5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{05D9185B-83B6-423E-84BF-C2935111D8F8}"/>
+  <xr:revisionPtr revIDLastSave="659" documentId="13_ncr:1_{2340BEE1-0D6C-449A-A451-323B2560AB5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F765DE1C-ACE4-4470-9CFE-2B28EAA62706}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="2280" windowWidth="16920" windowHeight="10450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="問題チェックシート" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="16">
   <si>
     <t>* [ファイル] ⇨ [コピーを作成] を選択し、コピーしてからお使いください</t>
   </si>
@@ -367,6 +367,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
@@ -571,8 +575,8 @@
   <dimension ref="A1:AC303"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D21" sqref="D21"/>
+      <pane ySplit="3" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1435,7 +1439,9 @@
         <f t="shared" si="0"/>
         <v>21</v>
       </c>
-      <c r="C24" s="3"/>
+      <c r="C24" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D24" s="7"/>
       <c r="E24" s="7"/>
       <c r="F24" s="11"/>
@@ -1469,7 +1475,9 @@
         <f t="shared" si="0"/>
         <v>22</v>
       </c>
-      <c r="C25" s="3"/>
+      <c r="C25" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D25" s="7"/>
       <c r="E25" s="7"/>
       <c r="F25" s="11"/>
@@ -1503,7 +1511,9 @@
         <f t="shared" si="0"/>
         <v>23</v>
       </c>
-      <c r="C26" s="3"/>
+      <c r="C26" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D26" s="7"/>
       <c r="E26" s="7"/>
       <c r="F26" s="11"/>
@@ -1537,7 +1547,9 @@
         <f t="shared" si="0"/>
         <v>24</v>
       </c>
-      <c r="C27" s="3"/>
+      <c r="C27" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D27" s="7"/>
       <c r="E27" s="7"/>
       <c r="F27" s="11"/>
@@ -1571,7 +1583,9 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="C28" s="3"/>
+      <c r="C28" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D28" s="7"/>
       <c r="E28" s="7"/>
       <c r="F28" s="11"/>
@@ -1605,7 +1619,9 @@
         <f t="shared" si="0"/>
         <v>26</v>
       </c>
-      <c r="C29" s="3"/>
+      <c r="C29" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D29" s="7"/>
       <c r="E29" s="7"/>
       <c r="F29" s="11"/>
@@ -1639,7 +1655,9 @@
         <f t="shared" si="0"/>
         <v>27</v>
       </c>
-      <c r="C30" s="3"/>
+      <c r="C30" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D30" s="7"/>
       <c r="E30" s="13"/>
       <c r="F30" s="11"/>
@@ -1673,7 +1691,9 @@
         <f t="shared" si="0"/>
         <v>28</v>
       </c>
-      <c r="C31" s="3"/>
+      <c r="C31" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D31" s="7"/>
       <c r="E31" s="7"/>
       <c r="F31" s="11"/>
@@ -1707,7 +1727,9 @@
         <f t="shared" si="0"/>
         <v>29</v>
       </c>
-      <c r="C32" s="3"/>
+      <c r="C32" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D32" s="7"/>
       <c r="E32" s="7"/>
       <c r="F32" s="11"/>
@@ -1741,7 +1763,9 @@
         <f t="shared" si="0"/>
         <v>30</v>
       </c>
-      <c r="C33" s="3"/>
+      <c r="C33" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D33" s="7"/>
       <c r="E33" s="7"/>
       <c r="F33" s="11"/>
@@ -1775,7 +1799,9 @@
         <f t="shared" si="0"/>
         <v>31</v>
       </c>
-      <c r="C34" s="3"/>
+      <c r="C34" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="D34" s="7"/>
       <c r="E34" s="7"/>
       <c r="F34" s="11"/>
@@ -1809,7 +1835,9 @@
         <f t="shared" si="0"/>
         <v>32</v>
       </c>
-      <c r="C35" s="3"/>
+      <c r="C35" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D35" s="7"/>
       <c r="E35" s="7"/>
       <c r="F35" s="11"/>
@@ -1843,7 +1871,9 @@
         <f t="shared" si="0"/>
         <v>33</v>
       </c>
-      <c r="C36" s="3"/>
+      <c r="C36" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D36" s="7"/>
       <c r="E36" s="7"/>
       <c r="F36" s="11"/>
@@ -1877,7 +1907,9 @@
         <f t="shared" si="0"/>
         <v>34</v>
       </c>
-      <c r="C37" s="3"/>
+      <c r="C37" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D37" s="7"/>
       <c r="E37" s="7"/>
       <c r="F37" s="11"/>
@@ -1911,7 +1943,9 @@
         <f t="shared" si="0"/>
         <v>35</v>
       </c>
-      <c r="C38" s="3"/>
+      <c r="C38" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D38" s="7"/>
       <c r="E38" s="7"/>
       <c r="F38" s="11"/>
@@ -1945,7 +1979,9 @@
         <f t="shared" si="0"/>
         <v>36</v>
       </c>
-      <c r="C39" s="3"/>
+      <c r="C39" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D39" s="7"/>
       <c r="E39" s="13"/>
       <c r="F39" s="11"/>
@@ -1979,7 +2015,9 @@
         <f t="shared" si="0"/>
         <v>37</v>
       </c>
-      <c r="C40" s="3"/>
+      <c r="C40" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D40" s="7"/>
       <c r="E40" s="7"/>
       <c r="F40" s="11"/>
@@ -2013,7 +2051,9 @@
         <f t="shared" si="0"/>
         <v>38</v>
       </c>
-      <c r="C41" s="3"/>
+      <c r="C41" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D41" s="7"/>
       <c r="E41" s="7"/>
       <c r="F41" s="11"/>
@@ -2047,7 +2087,9 @@
         <f t="shared" si="0"/>
         <v>39</v>
       </c>
-      <c r="C42" s="3"/>
+      <c r="C42" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D42" s="7"/>
       <c r="E42" s="7"/>
       <c r="F42" s="11"/>
@@ -2081,7 +2123,9 @@
         <f t="shared" si="0"/>
         <v>40</v>
       </c>
-      <c r="C43" s="3"/>
+      <c r="C43" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D43" s="7"/>
       <c r="E43" s="7"/>
       <c r="F43" s="11"/>
@@ -2115,7 +2159,9 @@
         <f t="shared" si="0"/>
         <v>41</v>
       </c>
-      <c r="C44" s="3"/>
+      <c r="C44" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D44" s="7"/>
       <c r="E44" s="7"/>
       <c r="F44" s="11"/>
@@ -2149,7 +2195,9 @@
         <f t="shared" si="0"/>
         <v>42</v>
       </c>
-      <c r="C45" s="3"/>
+      <c r="C45" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
       <c r="F45" s="11"/>
@@ -2183,7 +2231,9 @@
         <f t="shared" si="0"/>
         <v>43</v>
       </c>
-      <c r="C46" s="3"/>
+      <c r="C46" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D46" s="7"/>
       <c r="E46" s="7"/>
       <c r="F46" s="11"/>
@@ -2217,7 +2267,9 @@
         <f t="shared" si="0"/>
         <v>44</v>
       </c>
-      <c r="C47" s="3"/>
+      <c r="C47" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D47" s="7"/>
       <c r="E47" s="7"/>
       <c r="F47" s="11"/>
@@ -2251,7 +2303,9 @@
         <f t="shared" si="0"/>
         <v>45</v>
       </c>
-      <c r="C48" s="3"/>
+      <c r="C48" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D48" s="7"/>
       <c r="E48" s="7"/>
       <c r="F48" s="11"/>
@@ -2285,7 +2339,9 @@
         <f t="shared" si="0"/>
         <v>46</v>
       </c>
-      <c r="C49" s="3"/>
+      <c r="C49" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D49" s="7"/>
       <c r="E49" s="7"/>
       <c r="F49" s="11"/>
@@ -2319,7 +2375,9 @@
         <f t="shared" si="0"/>
         <v>47</v>
       </c>
-      <c r="C50" s="3"/>
+      <c r="C50" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D50" s="7"/>
       <c r="E50" s="7"/>
       <c r="F50" s="11"/>
@@ -2353,7 +2411,9 @@
         <f t="shared" si="0"/>
         <v>48</v>
       </c>
-      <c r="C51" s="3"/>
+      <c r="C51" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D51" s="7"/>
       <c r="E51" s="7"/>
       <c r="F51" s="11"/>
@@ -2387,7 +2447,9 @@
         <f t="shared" si="0"/>
         <v>49</v>
       </c>
-      <c r="C52" s="3"/>
+      <c r="C52" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D52" s="7"/>
       <c r="E52" s="7"/>
       <c r="F52" s="11"/>
@@ -2421,7 +2483,9 @@
         <f t="shared" si="0"/>
         <v>50</v>
       </c>
-      <c r="C53" s="3"/>
+      <c r="C53" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D53" s="7"/>
       <c r="E53" s="7"/>
       <c r="F53" s="11"/>
@@ -10074,7 +10138,7 @@
   <customSheetViews>
     <customSheetView guid="{2A2FD979-9F8D-413C-9CCD-B7F26FC2F3D3}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="B3:G267" xr:uid="{179F117E-EFC9-4765-B74E-AD26E27EF20D}"/>
+      <autoFilter ref="B3:G267" xr:uid="{B3DF0F93-D0E5-4959-A194-CA5E31B81EE7}"/>
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="7"/>

--- a/work-book/cloudTech/SAP/[SAP-C02]AWS問題集チェックシート.xlsx
+++ b/work-book/cloudTech/SAP/[SAP-C02]AWS問題集チェックシート.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f8aaa7f11ecf284d/デスクトップ/program/readeing-learning-history/work-book/cloudTech/SAP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="659" documentId="13_ncr:1_{2340BEE1-0D6C-449A-A451-323B2560AB5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F765DE1C-ACE4-4470-9CFE-2B28EAA62706}"/>
+  <xr:revisionPtr revIDLastSave="664" documentId="13_ncr:1_{2340BEE1-0D6C-449A-A451-323B2560AB5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DB31634E-1D72-48E1-A9E4-00ABC2272D4F}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2280" yWindow="2280" windowWidth="16920" windowHeight="10450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="問題チェックシート" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="16">
   <si>
     <t>* [ファイル] ⇨ [コピーを作成] を選択し、コピーしてからお使いください</t>
   </si>
@@ -574,9 +574,9 @@
   </sheetPr>
   <dimension ref="A1:AC303"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C58" sqref="C58"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C77" sqref="C77:C83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2519,7 +2519,9 @@
         <f t="shared" si="0"/>
         <v>51</v>
       </c>
-      <c r="C54" s="3"/>
+      <c r="C54" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D54" s="7"/>
       <c r="E54" s="7"/>
       <c r="F54" s="11"/>
@@ -2553,7 +2555,9 @@
         <f t="shared" si="0"/>
         <v>52</v>
       </c>
-      <c r="C55" s="3"/>
+      <c r="C55" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D55" s="7"/>
       <c r="E55" s="7"/>
       <c r="F55" s="11"/>
@@ -2587,7 +2591,9 @@
         <f t="shared" si="0"/>
         <v>53</v>
       </c>
-      <c r="C56" s="3"/>
+      <c r="C56" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D56" s="7"/>
       <c r="E56" s="7"/>
       <c r="F56" s="11"/>
@@ -2621,7 +2627,9 @@
         <f t="shared" si="0"/>
         <v>54</v>
       </c>
-      <c r="C57" s="3"/>
+      <c r="C57" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D57" s="7"/>
       <c r="E57" s="7"/>
       <c r="F57" s="11"/>
@@ -2655,7 +2663,9 @@
         <f t="shared" si="0"/>
         <v>55</v>
       </c>
-      <c r="C58" s="3"/>
+      <c r="C58" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D58" s="7"/>
       <c r="E58" s="7"/>
       <c r="F58" s="11"/>
@@ -2689,7 +2699,9 @@
         <f t="shared" si="0"/>
         <v>56</v>
       </c>
-      <c r="C59" s="3"/>
+      <c r="C59" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D59" s="7"/>
       <c r="E59" s="7"/>
       <c r="F59" s="11"/>
@@ -2723,7 +2735,9 @@
         <f t="shared" si="0"/>
         <v>57</v>
       </c>
-      <c r="C60" s="3"/>
+      <c r="C60" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D60" s="7"/>
       <c r="E60" s="7"/>
       <c r="F60" s="11"/>
@@ -2757,7 +2771,9 @@
         <f t="shared" si="0"/>
         <v>58</v>
       </c>
-      <c r="C61" s="3"/>
+      <c r="C61" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D61" s="7"/>
       <c r="E61" s="7"/>
       <c r="F61" s="11"/>
@@ -2791,7 +2807,9 @@
         <f t="shared" si="0"/>
         <v>59</v>
       </c>
-      <c r="C62" s="3"/>
+      <c r="C62" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D62" s="7"/>
       <c r="E62" s="7"/>
       <c r="F62" s="11"/>
@@ -2825,7 +2843,9 @@
         <f t="shared" si="0"/>
         <v>60</v>
       </c>
-      <c r="C63" s="3"/>
+      <c r="C63" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D63" s="7"/>
       <c r="E63" s="7"/>
       <c r="F63" s="11"/>
@@ -2859,7 +2879,9 @@
         <f t="shared" si="0"/>
         <v>61</v>
       </c>
-      <c r="C64" s="3"/>
+      <c r="C64" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D64" s="7"/>
       <c r="E64" s="7"/>
       <c r="F64" s="11"/>
@@ -2893,7 +2915,9 @@
         <f t="shared" si="0"/>
         <v>62</v>
       </c>
-      <c r="C65" s="3"/>
+      <c r="C65" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D65" s="7"/>
       <c r="E65" s="7"/>
       <c r="F65" s="11"/>
@@ -2927,7 +2951,9 @@
         <f t="shared" si="0"/>
         <v>63</v>
       </c>
-      <c r="C66" s="3"/>
+      <c r="C66" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D66" s="7"/>
       <c r="E66" s="7"/>
       <c r="F66" s="11"/>
@@ -2961,7 +2987,9 @@
         <f t="shared" si="0"/>
         <v>64</v>
       </c>
-      <c r="C67" s="3"/>
+      <c r="C67" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D67" s="7"/>
       <c r="E67" s="7"/>
       <c r="F67" s="11"/>
@@ -2995,7 +3023,9 @@
         <f t="shared" si="0"/>
         <v>65</v>
       </c>
-      <c r="C68" s="3"/>
+      <c r="C68" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D68" s="7"/>
       <c r="E68" s="7"/>
       <c r="F68" s="11"/>
@@ -3029,7 +3059,9 @@
         <f t="shared" si="0"/>
         <v>66</v>
       </c>
-      <c r="C69" s="3"/>
+      <c r="C69" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D69" s="7"/>
       <c r="E69" s="7"/>
       <c r="F69" s="11"/>
@@ -3063,7 +3095,9 @@
         <f t="shared" si="0"/>
         <v>67</v>
       </c>
-      <c r="C70" s="3"/>
+      <c r="C70" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D70" s="7"/>
       <c r="E70" s="7"/>
       <c r="F70" s="11"/>
@@ -3097,7 +3131,9 @@
         <f t="shared" si="0"/>
         <v>68</v>
       </c>
-      <c r="C71" s="3"/>
+      <c r="C71" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D71" s="7"/>
       <c r="E71" s="7"/>
       <c r="F71" s="11"/>
@@ -3131,7 +3167,9 @@
         <f t="shared" si="0"/>
         <v>69</v>
       </c>
-      <c r="C72" s="3"/>
+      <c r="C72" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="D72" s="7"/>
       <c r="E72" s="7"/>
       <c r="F72" s="11"/>
@@ -3165,7 +3203,9 @@
         <f t="shared" si="0"/>
         <v>70</v>
       </c>
-      <c r="C73" s="3"/>
+      <c r="C73" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D73" s="7"/>
       <c r="E73" s="7"/>
       <c r="F73" s="11"/>
@@ -3199,7 +3239,9 @@
         <f t="shared" si="0"/>
         <v>71</v>
       </c>
-      <c r="C74" s="3"/>
+      <c r="C74" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D74" s="7"/>
       <c r="E74" s="7"/>
       <c r="F74" s="11"/>
@@ -3233,7 +3275,9 @@
         <f t="shared" si="0"/>
         <v>72</v>
       </c>
-      <c r="C75" s="3"/>
+      <c r="C75" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D75" s="7"/>
       <c r="E75" s="7"/>
       <c r="F75" s="11"/>
@@ -3267,7 +3311,9 @@
         <f t="shared" si="0"/>
         <v>73</v>
       </c>
-      <c r="C76" s="3"/>
+      <c r="C76" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D76" s="7"/>
       <c r="E76" s="7"/>
       <c r="F76" s="11"/>
@@ -3301,7 +3347,9 @@
         <f t="shared" si="0"/>
         <v>74</v>
       </c>
-      <c r="C77" s="3"/>
+      <c r="C77" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D77" s="7"/>
       <c r="E77" s="7"/>
       <c r="F77" s="11"/>
@@ -3335,7 +3383,9 @@
         <f t="shared" si="0"/>
         <v>75</v>
       </c>
-      <c r="C78" s="3"/>
+      <c r="C78" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D78" s="7"/>
       <c r="E78" s="7"/>
       <c r="F78" s="11"/>
@@ -3369,7 +3419,9 @@
         <f t="shared" si="0"/>
         <v>76</v>
       </c>
-      <c r="C79" s="3"/>
+      <c r="C79" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D79" s="7"/>
       <c r="E79" s="7"/>
       <c r="F79" s="11"/>
@@ -3403,7 +3455,9 @@
         <f t="shared" si="0"/>
         <v>77</v>
       </c>
-      <c r="C80" s="3"/>
+      <c r="C80" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D80" s="7"/>
       <c r="E80" s="7"/>
       <c r="F80" s="11"/>
@@ -3437,7 +3491,9 @@
         <f t="shared" si="0"/>
         <v>78</v>
       </c>
-      <c r="C81" s="12"/>
+      <c r="C81" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D81" s="7"/>
       <c r="E81" s="7"/>
       <c r="F81" s="11"/>
@@ -3471,7 +3527,9 @@
         <f t="shared" si="0"/>
         <v>79</v>
       </c>
-      <c r="C82" s="12"/>
+      <c r="C82" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D82" s="7"/>
       <c r="E82" s="7"/>
       <c r="F82" s="11"/>
@@ -3505,7 +3563,9 @@
         <f t="shared" si="0"/>
         <v>80</v>
       </c>
-      <c r="C83" s="3"/>
+      <c r="C83" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D83" s="7"/>
       <c r="E83" s="7"/>
       <c r="F83" s="11"/>
@@ -10138,7 +10198,7 @@
   <customSheetViews>
     <customSheetView guid="{2A2FD979-9F8D-413C-9CCD-B7F26FC2F3D3}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="B3:G267" xr:uid="{B3DF0F93-D0E5-4959-A194-CA5E31B81EE7}"/>
+      <autoFilter ref="B3:G267" xr:uid="{16D5996E-E57B-4369-A008-4451398022AE}"/>
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="7"/>

--- a/work-book/cloudTech/SAP/[SAP-C02]AWS問題集チェックシート.xlsx
+++ b/work-book/cloudTech/SAP/[SAP-C02]AWS問題集チェックシート.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f8aaa7f11ecf284d/デスクトップ/program/readeing-learning-history/work-book/cloudTech/SAP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="664" documentId="13_ncr:1_{2340BEE1-0D6C-449A-A451-323B2560AB5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DB31634E-1D72-48E1-A9E4-00ABC2272D4F}"/>
+  <xr:revisionPtr revIDLastSave="684" documentId="13_ncr:1_{2340BEE1-0D6C-449A-A451-323B2560AB5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{38A0EDF7-2619-44A4-A9BE-CB3E35EF1D2C}"/>
   <bookViews>
-    <workbookView xWindow="2280" yWindow="2280" windowWidth="16920" windowHeight="10450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18090" yWindow="0" windowWidth="4560" windowHeight="14410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="問題チェックシート" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="16">
   <si>
     <t>* [ファイル] ⇨ [コピーを作成] を選択し、コピーしてからお使いください</t>
   </si>
@@ -575,8 +575,8 @@
   <dimension ref="A1:AC303"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C77" sqref="C77:C83"/>
+      <pane ySplit="3" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D121" sqref="D121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3599,7 +3599,9 @@
         <f t="shared" si="0"/>
         <v>81</v>
       </c>
-      <c r="C84" s="3"/>
+      <c r="C84" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D84" s="7"/>
       <c r="E84" s="7"/>
       <c r="F84" s="11"/>
@@ -3633,7 +3635,9 @@
         <f t="shared" si="0"/>
         <v>82</v>
       </c>
-      <c r="C85" s="3"/>
+      <c r="C85" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D85" s="7"/>
       <c r="E85" s="7"/>
       <c r="F85" s="11"/>
@@ -3667,7 +3671,9 @@
         <f t="shared" si="0"/>
         <v>83</v>
       </c>
-      <c r="C86" s="3"/>
+      <c r="C86" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="D86" s="7"/>
       <c r="E86" s="7"/>
       <c r="F86" s="11"/>
@@ -3701,7 +3707,9 @@
         <f t="shared" si="0"/>
         <v>84</v>
       </c>
-      <c r="C87" s="3"/>
+      <c r="C87" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D87" s="7"/>
       <c r="E87" s="7"/>
       <c r="F87" s="11"/>
@@ -3735,7 +3743,9 @@
         <f t="shared" si="0"/>
         <v>85</v>
       </c>
-      <c r="C88" s="3"/>
+      <c r="C88" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D88" s="7"/>
       <c r="E88" s="7"/>
       <c r="F88" s="11"/>
@@ -3769,7 +3779,9 @@
         <f t="shared" si="0"/>
         <v>86</v>
       </c>
-      <c r="C89" s="3"/>
+      <c r="C89" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D89" s="7"/>
       <c r="E89" s="7"/>
       <c r="F89" s="11"/>
@@ -3803,7 +3815,9 @@
         <f t="shared" si="0"/>
         <v>87</v>
       </c>
-      <c r="C90" s="3"/>
+      <c r="C90" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D90" s="7"/>
       <c r="E90" s="7"/>
       <c r="F90" s="11"/>
@@ -3837,7 +3851,9 @@
         <f t="shared" si="0"/>
         <v>88</v>
       </c>
-      <c r="C91" s="3"/>
+      <c r="C91" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="D91" s="7"/>
       <c r="E91" s="7"/>
       <c r="F91" s="11"/>
@@ -3871,7 +3887,9 @@
         <f t="shared" si="0"/>
         <v>89</v>
       </c>
-      <c r="C92" s="12"/>
+      <c r="C92" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D92" s="7"/>
       <c r="E92" s="7"/>
       <c r="F92" s="11"/>
@@ -3905,7 +3923,9 @@
         <f t="shared" si="0"/>
         <v>90</v>
       </c>
-      <c r="C93" s="3"/>
+      <c r="C93" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D93" s="7"/>
       <c r="E93" s="7"/>
       <c r="F93" s="11"/>
@@ -3939,7 +3959,9 @@
         <f t="shared" si="0"/>
         <v>91</v>
       </c>
-      <c r="C94" s="3"/>
+      <c r="C94" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D94" s="7"/>
       <c r="E94" s="7"/>
       <c r="F94" s="11"/>
@@ -3973,7 +3995,9 @@
         <f t="shared" si="0"/>
         <v>92</v>
       </c>
-      <c r="C95" s="3"/>
+      <c r="C95" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D95" s="7"/>
       <c r="E95" s="7"/>
       <c r="F95" s="11"/>
@@ -4007,7 +4031,9 @@
         <f t="shared" si="0"/>
         <v>93</v>
       </c>
-      <c r="C96" s="3"/>
+      <c r="C96" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D96" s="7"/>
       <c r="E96" s="7"/>
       <c r="F96" s="11"/>
@@ -4041,7 +4067,9 @@
         <f t="shared" si="0"/>
         <v>94</v>
       </c>
-      <c r="C97" s="3"/>
+      <c r="C97" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D97" s="7"/>
       <c r="E97" s="7"/>
       <c r="F97" s="11"/>
@@ -4075,7 +4103,9 @@
         <f t="shared" si="0"/>
         <v>95</v>
       </c>
-      <c r="C98" s="3"/>
+      <c r="C98" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D98" s="7"/>
       <c r="E98" s="13"/>
       <c r="F98" s="11"/>
@@ -4109,7 +4139,9 @@
         <f t="shared" si="0"/>
         <v>96</v>
       </c>
-      <c r="C99" s="3"/>
+      <c r="C99" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D99" s="7"/>
       <c r="E99" s="7"/>
       <c r="F99" s="11"/>
@@ -4143,7 +4175,9 @@
         <f t="shared" si="0"/>
         <v>97</v>
       </c>
-      <c r="C100" s="3"/>
+      <c r="C100" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="D100" s="7"/>
       <c r="E100" s="7"/>
       <c r="F100" s="11"/>
@@ -4177,7 +4211,9 @@
         <f t="shared" si="0"/>
         <v>98</v>
       </c>
-      <c r="C101" s="3"/>
+      <c r="C101" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D101" s="7"/>
       <c r="E101" s="7"/>
       <c r="F101" s="11"/>
@@ -4211,7 +4247,9 @@
         <f t="shared" si="0"/>
         <v>99</v>
       </c>
-      <c r="C102" s="3"/>
+      <c r="C102" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D102" s="7"/>
       <c r="E102" s="13"/>
       <c r="F102" s="11"/>
@@ -4245,7 +4283,9 @@
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
-      <c r="C103" s="3"/>
+      <c r="C103" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D103" s="7"/>
       <c r="E103" s="7"/>
       <c r="F103" s="11"/>
@@ -4279,7 +4319,9 @@
         <f t="shared" si="0"/>
         <v>101</v>
       </c>
-      <c r="C104" s="3"/>
+      <c r="C104" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D104" s="7"/>
       <c r="E104" s="7"/>
       <c r="F104" s="11"/>
@@ -4313,7 +4355,9 @@
         <f t="shared" si="0"/>
         <v>102</v>
       </c>
-      <c r="C105" s="3"/>
+      <c r="C105" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D105" s="7"/>
       <c r="E105" s="13"/>
       <c r="F105" s="11"/>
@@ -4347,7 +4391,9 @@
         <f t="shared" si="0"/>
         <v>103</v>
       </c>
-      <c r="C106" s="3"/>
+      <c r="C106" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D106" s="7"/>
       <c r="E106" s="7"/>
       <c r="F106" s="11"/>
@@ -4381,7 +4427,9 @@
         <f t="shared" si="0"/>
         <v>104</v>
       </c>
-      <c r="C107" s="3"/>
+      <c r="C107" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D107" s="7"/>
       <c r="E107" s="7"/>
       <c r="F107" s="11"/>
@@ -4415,7 +4463,9 @@
         <f t="shared" si="0"/>
         <v>105</v>
       </c>
-      <c r="C108" s="12"/>
+      <c r="C108" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D108" s="7"/>
       <c r="E108" s="7"/>
       <c r="F108" s="11"/>
@@ -4449,7 +4499,9 @@
         <f t="shared" si="0"/>
         <v>106</v>
       </c>
-      <c r="C109" s="3"/>
+      <c r="C109" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="D109" s="7"/>
       <c r="E109" s="7"/>
       <c r="F109" s="11"/>
@@ -4483,7 +4535,9 @@
         <f t="shared" si="0"/>
         <v>107</v>
       </c>
-      <c r="C110" s="3"/>
+      <c r="C110" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D110" s="7"/>
       <c r="E110" s="7"/>
       <c r="F110" s="11"/>
@@ -4517,7 +4571,9 @@
         <f t="shared" si="0"/>
         <v>108</v>
       </c>
-      <c r="C111" s="3"/>
+      <c r="C111" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="D111" s="7"/>
       <c r="E111" s="7"/>
       <c r="F111" s="11"/>
@@ -4551,7 +4607,9 @@
         <f t="shared" si="0"/>
         <v>109</v>
       </c>
-      <c r="C112" s="3"/>
+      <c r="C112" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D112" s="7"/>
       <c r="E112" s="7"/>
       <c r="F112" s="11"/>
@@ -4585,7 +4643,9 @@
         <f t="shared" si="0"/>
         <v>110</v>
       </c>
-      <c r="C113" s="3"/>
+      <c r="C113" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="D113" s="7"/>
       <c r="E113" s="7"/>
       <c r="F113" s="11"/>
@@ -4619,7 +4679,9 @@
         <f t="shared" si="0"/>
         <v>111</v>
       </c>
-      <c r="C114" s="3"/>
+      <c r="C114" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="D114" s="7"/>
       <c r="E114" s="7"/>
       <c r="F114" s="11"/>
@@ -4653,7 +4715,9 @@
         <f t="shared" si="0"/>
         <v>112</v>
       </c>
-      <c r="C115" s="3"/>
+      <c r="C115" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D115" s="7"/>
       <c r="E115" s="7"/>
       <c r="F115" s="11"/>
@@ -4687,7 +4751,9 @@
         <f t="shared" si="0"/>
         <v>113</v>
       </c>
-      <c r="C116" s="3"/>
+      <c r="C116" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="D116" s="7"/>
       <c r="E116" s="7"/>
       <c r="F116" s="11"/>
@@ -4721,7 +4787,9 @@
         <f t="shared" si="0"/>
         <v>114</v>
       </c>
-      <c r="C117" s="12"/>
+      <c r="C117" s="12" t="s">
+        <v>5</v>
+      </c>
       <c r="D117" s="7"/>
       <c r="E117" s="7"/>
       <c r="F117" s="11"/>
@@ -4755,7 +4823,9 @@
         <f t="shared" si="0"/>
         <v>115</v>
       </c>
-      <c r="C118" s="12"/>
+      <c r="C118" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D118" s="7"/>
       <c r="E118" s="7"/>
       <c r="F118" s="11"/>
@@ -4789,7 +4859,9 @@
         <f t="shared" si="0"/>
         <v>116</v>
       </c>
-      <c r="C119" s="12"/>
+      <c r="C119" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D119" s="7"/>
       <c r="E119" s="7"/>
       <c r="F119" s="11"/>
@@ -4823,7 +4895,9 @@
         <f t="shared" si="0"/>
         <v>117</v>
       </c>
-      <c r="C120" s="3"/>
+      <c r="C120" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D120" s="7"/>
       <c r="E120" s="7"/>
       <c r="F120" s="11"/>
@@ -4857,7 +4931,9 @@
         <f t="shared" si="0"/>
         <v>118</v>
       </c>
-      <c r="C121" s="3"/>
+      <c r="C121" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D121" s="7"/>
       <c r="E121" s="7"/>
       <c r="F121" s="11"/>
@@ -4891,7 +4967,9 @@
         <f t="shared" si="0"/>
         <v>119</v>
       </c>
-      <c r="C122" s="3"/>
+      <c r="C122" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D122" s="7"/>
       <c r="E122" s="7"/>
       <c r="F122" s="11"/>
@@ -4925,7 +5003,9 @@
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="C123" s="3"/>
+      <c r="C123" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D123" s="7"/>
       <c r="E123" s="7"/>
       <c r="F123" s="11"/>
@@ -4959,7 +5039,9 @@
         <f t="shared" si="0"/>
         <v>121</v>
       </c>
-      <c r="C124" s="3"/>
+      <c r="C124" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="D124" s="7"/>
       <c r="E124" s="7"/>
       <c r="F124" s="11"/>
@@ -4993,7 +5075,9 @@
         <f t="shared" si="0"/>
         <v>122</v>
       </c>
-      <c r="C125" s="12"/>
+      <c r="C125" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D125" s="7"/>
       <c r="E125" s="7"/>
       <c r="F125" s="11"/>
@@ -5027,7 +5111,9 @@
         <f t="shared" si="0"/>
         <v>123</v>
       </c>
-      <c r="C126" s="3"/>
+      <c r="C126" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="D126" s="7"/>
       <c r="E126" s="7"/>
       <c r="F126" s="11"/>
@@ -5061,7 +5147,9 @@
         <f t="shared" si="0"/>
         <v>124</v>
       </c>
-      <c r="C127" s="12"/>
+      <c r="C127" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D127" s="7"/>
       <c r="E127" s="7"/>
       <c r="F127" s="11"/>
@@ -10198,7 +10286,7 @@
   <customSheetViews>
     <customSheetView guid="{2A2FD979-9F8D-413C-9CCD-B7F26FC2F3D3}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="B3:G267" xr:uid="{16D5996E-E57B-4369-A008-4451398022AE}"/>
+      <autoFilter ref="B3:G267" xr:uid="{011F4D13-4D32-4A00-B60F-66A3DF271710}"/>
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="7"/>

--- a/work-book/cloudTech/SAP/[SAP-C02]AWS問題集チェックシート.xlsx
+++ b/work-book/cloudTech/SAP/[SAP-C02]AWS問題集チェックシート.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f8aaa7f11ecf284d/デスクトップ/program/readeing-learning-history/work-book/cloudTech/SAP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="684" documentId="13_ncr:1_{2340BEE1-0D6C-449A-A451-323B2560AB5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{38A0EDF7-2619-44A4-A9BE-CB3E35EF1D2C}"/>
+  <xr:revisionPtr revIDLastSave="685" documentId="13_ncr:1_{2340BEE1-0D6C-449A-A451-323B2560AB5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C89AC302-7FDC-49CC-8E22-541FBB4562C9}"/>
   <bookViews>
     <workbookView xWindow="18090" yWindow="0" windowWidth="4560" windowHeight="14410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="16">
   <si>
     <t>* [ファイル] ⇨ [コピーを作成] を選択し、コピーしてからお使いください</t>
   </si>
@@ -575,8 +575,8 @@
   <dimension ref="A1:AC303"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D121" sqref="D121"/>
+      <pane ySplit="3" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C127" sqref="C127:C133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5183,7 +5183,9 @@
         <f t="shared" si="0"/>
         <v>125</v>
       </c>
-      <c r="C128" s="3"/>
+      <c r="C128" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D128" s="7"/>
       <c r="E128" s="7"/>
       <c r="F128" s="11"/>
@@ -5217,7 +5219,9 @@
         <f t="shared" si="0"/>
         <v>126</v>
       </c>
-      <c r="C129" s="3"/>
+      <c r="C129" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D129" s="7"/>
       <c r="E129" s="7"/>
       <c r="F129" s="11"/>
@@ -5251,7 +5255,9 @@
         <f t="shared" si="0"/>
         <v>127</v>
       </c>
-      <c r="C130" s="3"/>
+      <c r="C130" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D130" s="13"/>
       <c r="E130" s="7"/>
       <c r="F130" s="11"/>
@@ -5285,7 +5291,9 @@
         <f t="shared" si="0"/>
         <v>128</v>
       </c>
-      <c r="C131" s="12"/>
+      <c r="C131" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D131" s="7"/>
       <c r="E131" s="7"/>
       <c r="F131" s="11"/>
@@ -5319,7 +5327,9 @@
         <f t="shared" si="0"/>
         <v>129</v>
       </c>
-      <c r="C132" s="12"/>
+      <c r="C132" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D132" s="7"/>
       <c r="E132" s="7"/>
       <c r="F132" s="11"/>
@@ -5353,7 +5363,9 @@
         <f t="shared" si="0"/>
         <v>130</v>
       </c>
-      <c r="C133" s="12"/>
+      <c r="C133" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D133" s="13"/>
       <c r="E133" s="7"/>
       <c r="F133" s="11"/>
@@ -10286,7 +10298,7 @@
   <customSheetViews>
     <customSheetView guid="{2A2FD979-9F8D-413C-9CCD-B7F26FC2F3D3}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="B3:G267" xr:uid="{011F4D13-4D32-4A00-B60F-66A3DF271710}"/>
+      <autoFilter ref="B3:G267" xr:uid="{45009FC7-E3D2-4D6A-9EB9-98BD943F0A46}"/>
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="7"/>

--- a/work-book/cloudTech/SAP/[SAP-C02]AWS問題集チェックシート.xlsx
+++ b/work-book/cloudTech/SAP/[SAP-C02]AWS問題集チェックシート.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f8aaa7f11ecf284d/デスクトップ/program/readeing-learning-history/work-book/cloudTech/SAP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="685" documentId="13_ncr:1_{2340BEE1-0D6C-449A-A451-323B2560AB5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C89AC302-7FDC-49CC-8E22-541FBB4562C9}"/>
+  <xr:revisionPtr revIDLastSave="692" documentId="13_ncr:1_{2340BEE1-0D6C-449A-A451-323B2560AB5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{84945133-A462-4506-9240-678C7FBDFF79}"/>
   <bookViews>
     <workbookView xWindow="18090" yWindow="0" windowWidth="4560" windowHeight="14410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="16">
   <si>
     <t>* [ファイル] ⇨ [コピーを作成] を選択し、コピーしてからお使いください</t>
   </si>
@@ -575,8 +575,8 @@
   <dimension ref="A1:AC303"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A108" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C127" sqref="C127:C133"/>
+      <pane ySplit="3" topLeftCell="A147" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D151" sqref="D151"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5399,7 +5399,9 @@
         <f t="shared" si="0"/>
         <v>131</v>
       </c>
-      <c r="C134" s="3"/>
+      <c r="C134" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D134" s="7"/>
       <c r="E134" s="7"/>
       <c r="F134" s="11"/>
@@ -5433,7 +5435,9 @@
         <f t="shared" si="0"/>
         <v>132</v>
       </c>
-      <c r="C135" s="3"/>
+      <c r="C135" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D135" s="7"/>
       <c r="E135" s="7"/>
       <c r="F135" s="11"/>
@@ -5467,7 +5471,9 @@
         <f t="shared" si="0"/>
         <v>133</v>
       </c>
-      <c r="C136" s="3"/>
+      <c r="C136" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D136" s="13"/>
       <c r="E136" s="7"/>
       <c r="F136" s="11"/>
@@ -5501,7 +5507,9 @@
         <f t="shared" si="0"/>
         <v>134</v>
       </c>
-      <c r="C137" s="3"/>
+      <c r="C137" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D137" s="13"/>
       <c r="E137" s="13"/>
       <c r="F137" s="11"/>
@@ -5535,7 +5543,9 @@
         <f t="shared" si="0"/>
         <v>135</v>
       </c>
-      <c r="C138" s="3"/>
+      <c r="C138" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D138" s="7"/>
       <c r="E138" s="7"/>
       <c r="F138" s="11"/>
@@ -5569,7 +5579,9 @@
         <f t="shared" si="0"/>
         <v>136</v>
       </c>
-      <c r="C139" s="3"/>
+      <c r="C139" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D139" s="7"/>
       <c r="E139" s="7"/>
       <c r="F139" s="11"/>
@@ -5603,7 +5615,9 @@
         <f t="shared" si="0"/>
         <v>137</v>
       </c>
-      <c r="C140" s="3"/>
+      <c r="C140" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D140" s="7"/>
       <c r="E140" s="7"/>
       <c r="F140" s="11"/>
@@ -5637,7 +5651,9 @@
         <f t="shared" si="0"/>
         <v>138</v>
       </c>
-      <c r="C141" s="12"/>
+      <c r="C141" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D141" s="7"/>
       <c r="E141" s="7"/>
       <c r="F141" s="11"/>
@@ -5671,7 +5687,9 @@
         <f t="shared" si="0"/>
         <v>139</v>
       </c>
-      <c r="C142" s="3"/>
+      <c r="C142" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D142" s="7"/>
       <c r="E142" s="7"/>
       <c r="F142" s="11"/>
@@ -5705,7 +5723,9 @@
         <f t="shared" si="0"/>
         <v>140</v>
       </c>
-      <c r="C143" s="3"/>
+      <c r="C143" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D143" s="7"/>
       <c r="E143" s="7"/>
       <c r="F143" s="11"/>
@@ -5739,7 +5759,9 @@
         <f t="shared" si="0"/>
         <v>141</v>
       </c>
-      <c r="C144" s="3"/>
+      <c r="C144" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="D144" s="7"/>
       <c r="E144" s="7"/>
       <c r="F144" s="11"/>
@@ -5773,7 +5795,9 @@
         <f t="shared" si="0"/>
         <v>142</v>
       </c>
-      <c r="C145" s="3"/>
+      <c r="C145" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D145" s="7"/>
       <c r="E145" s="7"/>
       <c r="F145" s="11"/>
@@ -5807,7 +5831,9 @@
         <f t="shared" si="0"/>
         <v>143</v>
       </c>
-      <c r="C146" s="3"/>
+      <c r="C146" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D146" s="7"/>
       <c r="E146" s="7"/>
       <c r="F146" s="11"/>
@@ -5841,7 +5867,9 @@
         <f t="shared" si="0"/>
         <v>144</v>
       </c>
-      <c r="C147" s="3"/>
+      <c r="C147" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D147" s="7"/>
       <c r="E147" s="7"/>
       <c r="F147" s="11"/>
@@ -5875,7 +5903,9 @@
         <f t="shared" si="0"/>
         <v>145</v>
       </c>
-      <c r="C148" s="3"/>
+      <c r="C148" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D148" s="7"/>
       <c r="E148" s="7"/>
       <c r="F148" s="11"/>
@@ -5909,7 +5939,9 @@
         <f t="shared" si="0"/>
         <v>146</v>
       </c>
-      <c r="C149" s="3"/>
+      <c r="C149" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="D149" s="7"/>
       <c r="E149" s="13"/>
       <c r="F149" s="11"/>
@@ -5943,7 +5975,9 @@
         <f t="shared" si="0"/>
         <v>147</v>
       </c>
-      <c r="C150" s="12"/>
+      <c r="C150" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D150" s="13"/>
       <c r="E150" s="7"/>
       <c r="F150" s="11"/>
@@ -5977,7 +6011,9 @@
         <f t="shared" si="0"/>
         <v>148</v>
       </c>
-      <c r="C151" s="3"/>
+      <c r="C151" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D151" s="7"/>
       <c r="E151" s="7"/>
       <c r="F151" s="14"/>
@@ -6011,7 +6047,9 @@
         <f t="shared" si="0"/>
         <v>149</v>
       </c>
-      <c r="C152" s="3"/>
+      <c r="C152" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D152" s="7"/>
       <c r="E152" s="7"/>
       <c r="F152" s="11"/>
@@ -6045,7 +6083,9 @@
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
-      <c r="C153" s="3"/>
+      <c r="C153" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D153" s="7"/>
       <c r="E153" s="7"/>
       <c r="F153" s="11"/>
@@ -6079,7 +6119,9 @@
         <f t="shared" si="0"/>
         <v>151</v>
       </c>
-      <c r="C154" s="3"/>
+      <c r="C154" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D154" s="7"/>
       <c r="E154" s="7"/>
       <c r="F154" s="11"/>
@@ -6113,7 +6155,9 @@
         <f t="shared" si="0"/>
         <v>152</v>
       </c>
-      <c r="C155" s="12"/>
+      <c r="C155" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D155" s="7"/>
       <c r="E155" s="7"/>
       <c r="F155" s="11"/>
@@ -6147,7 +6191,9 @@
         <f t="shared" si="0"/>
         <v>153</v>
       </c>
-      <c r="C156" s="12"/>
+      <c r="C156" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="D156" s="7"/>
       <c r="E156" s="7"/>
       <c r="F156" s="11"/>
@@ -6181,7 +6227,9 @@
         <f t="shared" si="0"/>
         <v>154</v>
       </c>
-      <c r="C157" s="3"/>
+      <c r="C157" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="D157" s="7"/>
       <c r="E157" s="7"/>
       <c r="F157" s="11"/>
@@ -6215,7 +6263,9 @@
         <f t="shared" si="0"/>
         <v>155</v>
       </c>
-      <c r="C158" s="3"/>
+      <c r="C158" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D158" s="7"/>
       <c r="E158" s="7"/>
       <c r="F158" s="11"/>
@@ -6249,7 +6299,9 @@
         <f t="shared" si="0"/>
         <v>156</v>
       </c>
-      <c r="C159" s="3"/>
+      <c r="C159" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D159" s="7"/>
       <c r="E159" s="7"/>
       <c r="F159" s="11"/>
@@ -6283,7 +6335,9 @@
         <f t="shared" si="0"/>
         <v>157</v>
       </c>
-      <c r="C160" s="3"/>
+      <c r="C160" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D160" s="7"/>
       <c r="E160" s="7"/>
       <c r="F160" s="11"/>
@@ -6317,7 +6371,9 @@
         <f t="shared" si="0"/>
         <v>158</v>
       </c>
-      <c r="C161" s="3"/>
+      <c r="C161" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D161" s="7"/>
       <c r="E161" s="7"/>
       <c r="F161" s="11"/>
@@ -6351,7 +6407,9 @@
         <f t="shared" si="0"/>
         <v>159</v>
       </c>
-      <c r="C162" s="3"/>
+      <c r="C162" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D162" s="7"/>
       <c r="E162" s="7"/>
       <c r="F162" s="11"/>
@@ -6385,7 +6443,9 @@
         <f t="shared" si="0"/>
         <v>160</v>
       </c>
-      <c r="C163" s="3"/>
+      <c r="C163" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D163" s="7"/>
       <c r="E163" s="7"/>
       <c r="F163" s="11"/>
@@ -10298,7 +10358,7 @@
   <customSheetViews>
     <customSheetView guid="{2A2FD979-9F8D-413C-9CCD-B7F26FC2F3D3}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="B3:G267" xr:uid="{45009FC7-E3D2-4D6A-9EB9-98BD943F0A46}"/>
+      <autoFilter ref="B3:G267" xr:uid="{4929CE21-ECD6-4441-8288-EE421C976A56}"/>
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="7"/>

--- a/work-book/cloudTech/SAP/[SAP-C02]AWS問題集チェックシート.xlsx
+++ b/work-book/cloudTech/SAP/[SAP-C02]AWS問題集チェックシート.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f8aaa7f11ecf284d/デスクトップ/program/readeing-learning-history/work-book/cloudTech/SAP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="692" documentId="13_ncr:1_{2340BEE1-0D6C-449A-A451-323B2560AB5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{84945133-A462-4506-9240-678C7FBDFF79}"/>
+  <xr:revisionPtr revIDLastSave="697" documentId="13_ncr:1_{2340BEE1-0D6C-449A-A451-323B2560AB5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B07201DA-ABF9-4A87-AB79-5FD44A1708E1}"/>
   <bookViews>
     <workbookView xWindow="18090" yWindow="0" windowWidth="4560" windowHeight="14410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="16">
   <si>
     <t>* [ファイル] ⇨ [コピーを作成] を選択し、コピーしてからお使いください</t>
   </si>
@@ -575,8 +575,8 @@
   <dimension ref="A1:AC303"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A147" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D151" sqref="D151"/>
+      <pane ySplit="3" topLeftCell="A165" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C181" sqref="C181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -6479,7 +6479,9 @@
         <f t="shared" si="0"/>
         <v>161</v>
       </c>
-      <c r="C164" s="12"/>
+      <c r="C164" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D164" s="13"/>
       <c r="E164" s="7"/>
       <c r="F164" s="11"/>
@@ -6513,7 +6515,9 @@
         <f t="shared" si="0"/>
         <v>162</v>
       </c>
-      <c r="C165" s="12"/>
+      <c r="C165" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D165" s="13"/>
       <c r="E165" s="7"/>
       <c r="F165" s="11"/>
@@ -6547,7 +6551,9 @@
         <f t="shared" si="0"/>
         <v>163</v>
       </c>
-      <c r="C166" s="12"/>
+      <c r="C166" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D166" s="7"/>
       <c r="E166" s="7"/>
       <c r="F166" s="11"/>
@@ -6581,7 +6587,9 @@
         <f t="shared" si="0"/>
         <v>164</v>
       </c>
-      <c r="C167" s="3"/>
+      <c r="C167" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="D167" s="7"/>
       <c r="E167" s="7"/>
       <c r="F167" s="11"/>
@@ -6615,7 +6623,9 @@
         <f t="shared" si="0"/>
         <v>165</v>
       </c>
-      <c r="C168" s="3"/>
+      <c r="C168" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D168" s="7"/>
       <c r="E168" s="7"/>
       <c r="F168" s="11"/>
@@ -6649,7 +6659,9 @@
         <f t="shared" si="0"/>
         <v>166</v>
       </c>
-      <c r="C169" s="3"/>
+      <c r="C169" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D169" s="7"/>
       <c r="E169" s="7"/>
       <c r="F169" s="11"/>
@@ -6683,7 +6695,9 @@
         <f t="shared" si="0"/>
         <v>167</v>
       </c>
-      <c r="C170" s="3"/>
+      <c r="C170" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D170" s="7"/>
       <c r="E170" s="7"/>
       <c r="F170" s="11"/>
@@ -6717,7 +6731,9 @@
         <f t="shared" si="0"/>
         <v>168</v>
       </c>
-      <c r="C171" s="3"/>
+      <c r="C171" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D171" s="7"/>
       <c r="E171" s="7"/>
       <c r="F171" s="11"/>
@@ -6751,7 +6767,9 @@
         <f t="shared" si="0"/>
         <v>169</v>
       </c>
-      <c r="C172" s="3"/>
+      <c r="C172" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D172" s="7"/>
       <c r="E172" s="7"/>
       <c r="F172" s="11"/>
@@ -6785,7 +6803,9 @@
         <f t="shared" si="0"/>
         <v>170</v>
       </c>
-      <c r="C173" s="12"/>
+      <c r="C173" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D173" s="7"/>
       <c r="E173" s="7"/>
       <c r="F173" s="11"/>
@@ -6819,7 +6839,9 @@
         <f t="shared" si="0"/>
         <v>171</v>
       </c>
-      <c r="C174" s="3"/>
+      <c r="C174" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D174" s="7"/>
       <c r="E174" s="7"/>
       <c r="F174" s="11"/>
@@ -6853,7 +6875,9 @@
         <f t="shared" si="0"/>
         <v>172</v>
       </c>
-      <c r="C175" s="3"/>
+      <c r="C175" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D175" s="7"/>
       <c r="E175" s="7"/>
       <c r="F175" s="11"/>
@@ -6887,7 +6911,9 @@
         <f t="shared" si="0"/>
         <v>173</v>
       </c>
-      <c r="C176" s="12"/>
+      <c r="C176" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D176" s="7"/>
       <c r="E176" s="7"/>
       <c r="F176" s="11"/>
@@ -6921,7 +6947,9 @@
         <f t="shared" si="0"/>
         <v>174</v>
       </c>
-      <c r="C177" s="12"/>
+      <c r="C177" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D177" s="7"/>
       <c r="E177" s="7"/>
       <c r="F177" s="11"/>
@@ -6955,7 +6983,9 @@
         <f t="shared" si="0"/>
         <v>175</v>
       </c>
-      <c r="C178" s="12"/>
+      <c r="C178" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D178" s="7"/>
       <c r="E178" s="7"/>
       <c r="F178" s="11"/>
@@ -6989,7 +7019,9 @@
         <f t="shared" si="0"/>
         <v>176</v>
       </c>
-      <c r="C179" s="3"/>
+      <c r="C179" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D179" s="13"/>
       <c r="E179" s="7"/>
       <c r="F179" s="11"/>
@@ -7023,7 +7055,9 @@
         <f t="shared" si="0"/>
         <v>177</v>
       </c>
-      <c r="C180" s="12"/>
+      <c r="C180" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D180" s="7"/>
       <c r="E180" s="7"/>
       <c r="F180" s="11"/>
@@ -7057,7 +7091,9 @@
         <f t="shared" si="0"/>
         <v>178</v>
       </c>
-      <c r="C181" s="3"/>
+      <c r="C181" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="D181" s="13"/>
       <c r="E181" s="7"/>
       <c r="F181" s="11"/>
@@ -7091,7 +7127,9 @@
         <f t="shared" si="0"/>
         <v>179</v>
       </c>
-      <c r="C182" s="3"/>
+      <c r="C182" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D182" s="7"/>
       <c r="E182" s="7"/>
       <c r="F182" s="11"/>
@@ -7125,7 +7163,9 @@
         <f t="shared" si="0"/>
         <v>180</v>
       </c>
-      <c r="C183" s="3"/>
+      <c r="C183" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D183" s="7"/>
       <c r="E183" s="7"/>
       <c r="F183" s="11"/>
@@ -10358,7 +10398,7 @@
   <customSheetViews>
     <customSheetView guid="{2A2FD979-9F8D-413C-9CCD-B7F26FC2F3D3}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="B3:G267" xr:uid="{4929CE21-ECD6-4441-8288-EE421C976A56}"/>
+      <autoFilter ref="B3:G267" xr:uid="{CACDC5A7-7E0A-4623-B7B7-A438FD684C05}"/>
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="7"/>

--- a/work-book/cloudTech/SAP/[SAP-C02]AWS問題集チェックシート.xlsx
+++ b/work-book/cloudTech/SAP/[SAP-C02]AWS問題集チェックシート.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f8aaa7f11ecf284d/デスクトップ/program/readeing-learning-history/work-book/cloudTech/SAP/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kobek\OneDrive\デスクトップ\program\readeing-learning-history\work-book\cloudTech\SAP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="697" documentId="13_ncr:1_{2340BEE1-0D6C-449A-A451-323B2560AB5B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B07201DA-ABF9-4A87-AB79-5FD44A1708E1}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBFBD9B5-1CAE-4DC7-BDF0-E9577B072F61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18090" yWindow="0" windowWidth="4560" windowHeight="14410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="問題チェックシート" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="16">
   <si>
     <t>* [ファイル] ⇨ [コピーを作成] を選択し、コピーしてからお使いください</t>
   </si>
@@ -367,10 +367,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
@@ -576,7 +572,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A165" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C181" sqref="C181"/>
+      <selection pane="bottomLeft" activeCell="C172" sqref="C172"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7199,7 +7195,9 @@
         <f t="shared" si="0"/>
         <v>181</v>
       </c>
-      <c r="C184" s="3"/>
+      <c r="C184" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D184" s="7"/>
       <c r="E184" s="7"/>
       <c r="F184" s="11"/>
@@ -7233,7 +7231,9 @@
         <f t="shared" si="0"/>
         <v>182</v>
       </c>
-      <c r="C185" s="3"/>
+      <c r="C185" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D185" s="7"/>
       <c r="E185" s="7"/>
       <c r="F185" s="11"/>
@@ -7267,7 +7267,9 @@
         <f t="shared" si="0"/>
         <v>183</v>
       </c>
-      <c r="C186" s="3"/>
+      <c r="C186" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D186" s="7"/>
       <c r="E186" s="7"/>
       <c r="F186" s="11"/>
@@ -7301,7 +7303,9 @@
         <f t="shared" si="0"/>
         <v>184</v>
       </c>
-      <c r="C187" s="12"/>
+      <c r="C187" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D187" s="7"/>
       <c r="E187" s="7"/>
       <c r="F187" s="11"/>
@@ -7335,7 +7339,9 @@
         <f t="shared" si="0"/>
         <v>185</v>
       </c>
-      <c r="C188" s="3"/>
+      <c r="C188" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D188" s="13"/>
       <c r="E188" s="7"/>
       <c r="F188" s="11"/>
@@ -7369,7 +7375,9 @@
         <f t="shared" si="0"/>
         <v>186</v>
       </c>
-      <c r="C189" s="12"/>
+      <c r="C189" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D189" s="7"/>
       <c r="E189" s="7"/>
       <c r="F189" s="11"/>
@@ -7403,7 +7411,9 @@
         <f t="shared" si="0"/>
         <v>187</v>
       </c>
-      <c r="C190" s="3"/>
+      <c r="C190" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D190" s="7"/>
       <c r="E190" s="7"/>
       <c r="F190" s="11"/>
@@ -7437,7 +7447,9 @@
         <f t="shared" si="0"/>
         <v>188</v>
       </c>
-      <c r="C191" s="3"/>
+      <c r="C191" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="D191" s="7"/>
       <c r="E191" s="7"/>
       <c r="F191" s="11"/>
@@ -7471,7 +7483,9 @@
         <f t="shared" si="0"/>
         <v>189</v>
       </c>
-      <c r="C192" s="3"/>
+      <c r="C192" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D192" s="7"/>
       <c r="E192" s="7"/>
       <c r="F192" s="11"/>
@@ -7505,7 +7519,9 @@
         <f t="shared" si="0"/>
         <v>190</v>
       </c>
-      <c r="C193" s="3"/>
+      <c r="C193" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D193" s="7"/>
       <c r="E193" s="7"/>
       <c r="F193" s="11"/>
@@ -10398,7 +10414,7 @@
   <customSheetViews>
     <customSheetView guid="{2A2FD979-9F8D-413C-9CCD-B7F26FC2F3D3}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="B3:G267" xr:uid="{CACDC5A7-7E0A-4623-B7B7-A438FD684C05}"/>
+      <autoFilter ref="B3:G267" xr:uid="{26511AC7-7BF2-4A48-A7C0-F5E4787E090D}"/>
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="7"/>

--- a/work-book/cloudTech/SAP/[SAP-C02]AWS問題集チェックシート.xlsx
+++ b/work-book/cloudTech/SAP/[SAP-C02]AWS問題集チェックシート.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kobek\OneDrive\デスクトップ\program\readeing-learning-history\work-book\cloudTech\SAP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f8aaa7f11ecf284d/デスクトップ/program/readeing-learning-history/work-book/cloudTech/SAP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBFBD9B5-1CAE-4DC7-BDF0-E9577B072F61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{CBFBD9B5-1CAE-4DC7-BDF0-E9577B072F61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D1FB530C-29E1-4127-996C-2D1DCC3C9B2A}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18150" yWindow="0" windowWidth="4500" windowHeight="14410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="問題チェックシート" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="16">
   <si>
     <t>* [ファイル] ⇨ [コピーを作成] を選択し、コピーしてからお使いください</t>
   </si>
@@ -570,9 +570,9 @@
   </sheetPr>
   <dimension ref="A1:AC303"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A165" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C172" sqref="C172"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A185" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C195" sqref="C195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7555,7 +7555,9 @@
         <f t="shared" si="0"/>
         <v>191</v>
       </c>
-      <c r="C194" s="3"/>
+      <c r="C194" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D194" s="7"/>
       <c r="E194" s="7"/>
       <c r="F194" s="11"/>
@@ -7589,7 +7591,9 @@
         <f t="shared" si="0"/>
         <v>192</v>
       </c>
-      <c r="C195" s="3"/>
+      <c r="C195" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="D195" s="7"/>
       <c r="E195" s="7"/>
       <c r="F195" s="11"/>
@@ -7623,7 +7627,9 @@
         <f t="shared" si="0"/>
         <v>193</v>
       </c>
-      <c r="C196" s="3"/>
+      <c r="C196" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="D196" s="7"/>
       <c r="E196" s="7"/>
       <c r="F196" s="11"/>
@@ -7657,7 +7663,9 @@
         <f t="shared" si="0"/>
         <v>194</v>
       </c>
-      <c r="C197" s="3"/>
+      <c r="C197" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D197" s="13"/>
       <c r="E197" s="7"/>
       <c r="F197" s="11"/>
@@ -7691,7 +7699,9 @@
         <f t="shared" si="0"/>
         <v>195</v>
       </c>
-      <c r="C198" s="12"/>
+      <c r="C198" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D198" s="7"/>
       <c r="E198" s="7"/>
       <c r="F198" s="11"/>
@@ -7725,7 +7735,9 @@
         <f t="shared" si="0"/>
         <v>196</v>
       </c>
-      <c r="C199" s="3"/>
+      <c r="C199" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D199" s="7"/>
       <c r="E199" s="7"/>
       <c r="F199" s="11"/>
@@ -7759,7 +7771,9 @@
         <f t="shared" si="0"/>
         <v>197</v>
       </c>
-      <c r="C200" s="3"/>
+      <c r="C200" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D200" s="13"/>
       <c r="E200" s="7"/>
       <c r="F200" s="11"/>
@@ -7793,7 +7807,9 @@
         <f t="shared" si="0"/>
         <v>198</v>
       </c>
-      <c r="C201" s="3"/>
+      <c r="C201" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="D201" s="13"/>
       <c r="E201" s="7"/>
       <c r="F201" s="11"/>
@@ -7827,7 +7843,9 @@
         <f t="shared" si="0"/>
         <v>199</v>
       </c>
-      <c r="C202" s="12"/>
+      <c r="C202" s="12" t="s">
+        <v>5</v>
+      </c>
       <c r="D202" s="7"/>
       <c r="E202" s="7"/>
       <c r="F202" s="11"/>
@@ -7861,7 +7879,9 @@
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
-      <c r="C203" s="3"/>
+      <c r="C203" s="3" t="s">
+        <v>5</v>
+      </c>
       <c r="D203" s="7"/>
       <c r="E203" s="7"/>
       <c r="F203" s="11"/>
@@ -10414,7 +10434,7 @@
   <customSheetViews>
     <customSheetView guid="{2A2FD979-9F8D-413C-9CCD-B7F26FC2F3D3}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="B3:G267" xr:uid="{26511AC7-7BF2-4A48-A7C0-F5E4787E090D}"/>
+      <autoFilter ref="B3:G267" xr:uid="{52800154-CD21-4174-AB25-4BF2E56D2D3C}"/>
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="7"/>

--- a/work-book/cloudTech/SAP/[SAP-C02]AWS問題集チェックシート.xlsx
+++ b/work-book/cloudTech/SAP/[SAP-C02]AWS問題集チェックシート.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f8aaa7f11ecf284d/デスクトップ/program/readeing-learning-history/work-book/cloudTech/SAP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="6" documentId="13_ncr:1_{CBFBD9B5-1CAE-4DC7-BDF0-E9577B072F61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D1FB530C-29E1-4127-996C-2D1DCC3C9B2A}"/>
+  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{CBFBD9B5-1CAE-4DC7-BDF0-E9577B072F61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{667B0001-E664-4C6A-8C9F-4A5312DA148A}"/>
   <bookViews>
-    <workbookView xWindow="18150" yWindow="0" windowWidth="4500" windowHeight="14410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17780" yWindow="0" windowWidth="4870" windowHeight="14410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="問題チェックシート" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="16">
   <si>
     <t>* [ファイル] ⇨ [コピーを作成] を選択し、コピーしてからお使いください</t>
   </si>
@@ -367,6 +367,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
@@ -571,8 +575,8 @@
   <dimension ref="A1:AC303"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A185" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C195" sqref="C195"/>
+      <pane ySplit="3" topLeftCell="A203" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C214" sqref="C214"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7915,7 +7919,9 @@
         <f t="shared" si="0"/>
         <v>201</v>
       </c>
-      <c r="C204" s="3"/>
+      <c r="C204" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D204" s="7"/>
       <c r="E204" s="7"/>
       <c r="F204" s="11"/>
@@ -7949,7 +7955,9 @@
         <f t="shared" si="0"/>
         <v>202</v>
       </c>
-      <c r="C205" s="3"/>
+      <c r="C205" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="D205" s="7"/>
       <c r="E205" s="7"/>
       <c r="F205" s="11"/>
@@ -7983,7 +7991,9 @@
         <f t="shared" si="0"/>
         <v>203</v>
       </c>
-      <c r="C206" s="3"/>
+      <c r="C206" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D206" s="7"/>
       <c r="E206" s="7"/>
       <c r="F206" s="11"/>
@@ -8017,7 +8027,9 @@
         <f t="shared" si="0"/>
         <v>204</v>
       </c>
-      <c r="C207" s="3"/>
+      <c r="C207" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D207" s="7"/>
       <c r="E207" s="7"/>
       <c r="F207" s="11"/>
@@ -8051,7 +8063,9 @@
         <f t="shared" si="0"/>
         <v>205</v>
       </c>
-      <c r="C208" s="3"/>
+      <c r="C208" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D208" s="7"/>
       <c r="E208" s="7"/>
       <c r="F208" s="11"/>
@@ -8085,7 +8099,9 @@
         <f t="shared" si="0"/>
         <v>206</v>
       </c>
-      <c r="C209" s="12"/>
+      <c r="C209" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D209" s="7"/>
       <c r="E209" s="7"/>
       <c r="F209" s="11"/>
@@ -8119,7 +8135,9 @@
         <f t="shared" si="0"/>
         <v>207</v>
       </c>
-      <c r="C210" s="3"/>
+      <c r="C210" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D210" s="7"/>
       <c r="E210" s="7"/>
       <c r="F210" s="11"/>
@@ -8153,7 +8171,9 @@
         <f t="shared" si="0"/>
         <v>208</v>
       </c>
-      <c r="C211" s="3"/>
+      <c r="C211" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D211" s="7"/>
       <c r="E211" s="7"/>
       <c r="F211" s="11"/>
@@ -8187,7 +8207,9 @@
         <f t="shared" si="0"/>
         <v>209</v>
       </c>
-      <c r="C212" s="3"/>
+      <c r="C212" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="D212" s="7"/>
       <c r="E212" s="7"/>
       <c r="F212" s="11"/>
@@ -8221,7 +8243,9 @@
         <f t="shared" si="0"/>
         <v>210</v>
       </c>
-      <c r="C213" s="3"/>
+      <c r="C213" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="D213" s="7"/>
       <c r="E213" s="7"/>
       <c r="F213" s="11"/>
@@ -8255,7 +8279,9 @@
         <f t="shared" si="0"/>
         <v>211</v>
       </c>
-      <c r="C214" s="3"/>
+      <c r="C214" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="D214" s="7"/>
       <c r="E214" s="7"/>
       <c r="F214" s="11"/>
@@ -8289,7 +8315,9 @@
         <f t="shared" si="0"/>
         <v>212</v>
       </c>
-      <c r="C215" s="3"/>
+      <c r="C215" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D215" s="7"/>
       <c r="E215" s="7"/>
       <c r="F215" s="11"/>
@@ -8323,7 +8351,9 @@
         <f t="shared" si="0"/>
         <v>213</v>
       </c>
-      <c r="C216" s="3"/>
+      <c r="C216" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D216" s="7"/>
       <c r="E216" s="7"/>
       <c r="F216" s="11"/>
@@ -8357,7 +8387,9 @@
         <f t="shared" si="0"/>
         <v>214</v>
       </c>
-      <c r="C217" s="3"/>
+      <c r="C217" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D217" s="7"/>
       <c r="E217" s="7"/>
       <c r="F217" s="11"/>
@@ -8391,7 +8423,9 @@
         <f t="shared" si="0"/>
         <v>215</v>
       </c>
-      <c r="C218" s="12"/>
+      <c r="C218" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D218" s="7"/>
       <c r="E218" s="7"/>
       <c r="F218" s="11"/>
@@ -8425,7 +8459,9 @@
         <f t="shared" si="0"/>
         <v>216</v>
       </c>
-      <c r="C219" s="12"/>
+      <c r="C219" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D219" s="13"/>
       <c r="E219" s="7"/>
       <c r="F219" s="11"/>
@@ -8459,7 +8495,9 @@
         <f t="shared" si="0"/>
         <v>217</v>
       </c>
-      <c r="C220" s="3"/>
+      <c r="C220" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D220" s="7"/>
       <c r="E220" s="7"/>
       <c r="F220" s="11"/>
@@ -8493,7 +8531,9 @@
         <f t="shared" si="0"/>
         <v>218</v>
       </c>
-      <c r="C221" s="12"/>
+      <c r="C221" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="D221" s="7"/>
       <c r="E221" s="7"/>
       <c r="F221" s="11"/>
@@ -8527,7 +8567,9 @@
         <f t="shared" si="0"/>
         <v>219</v>
       </c>
-      <c r="C222" s="3"/>
+      <c r="C222" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D222" s="7"/>
       <c r="E222" s="7"/>
       <c r="F222" s="11"/>
@@ -8561,7 +8603,9 @@
         <f t="shared" si="0"/>
         <v>220</v>
       </c>
-      <c r="C223" s="3"/>
+      <c r="C223" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D223" s="7"/>
       <c r="E223" s="7"/>
       <c r="F223" s="11"/>
@@ -10434,7 +10478,7 @@
   <customSheetViews>
     <customSheetView guid="{2A2FD979-9F8D-413C-9CCD-B7F26FC2F3D3}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="B3:G267" xr:uid="{52800154-CD21-4174-AB25-4BF2E56D2D3C}"/>
+      <autoFilter ref="B3:G267" xr:uid="{F0DBD0BF-5B6C-43D2-B106-29FFAE81F33B}"/>
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="7"/>

--- a/work-book/cloudTech/SAP/[SAP-C02]AWS問題集チェックシート.xlsx
+++ b/work-book/cloudTech/SAP/[SAP-C02]AWS問題集チェックシート.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f8aaa7f11ecf284d/デスクトップ/program/readeing-learning-history/work-book/cloudTech/SAP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="12" documentId="13_ncr:1_{CBFBD9B5-1CAE-4DC7-BDF0-E9577B072F61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{667B0001-E664-4C6A-8C9F-4A5312DA148A}"/>
+  <xr:revisionPtr revIDLastSave="21" documentId="13_ncr:1_{CBFBD9B5-1CAE-4DC7-BDF0-E9577B072F61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{322E16D8-B55C-41ED-9CB1-DD610D01CDD8}"/>
   <bookViews>
-    <workbookView xWindow="17780" yWindow="0" windowWidth="4870" windowHeight="14410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17960" yWindow="0" windowWidth="4690" windowHeight="14410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="問題チェックシート" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="16">
   <si>
     <t>* [ファイル] ⇨ [コピーを作成] を選択し、コピーしてからお使いください</t>
   </si>
@@ -575,8 +575,8 @@
   <dimension ref="A1:AC303"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A203" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C214" sqref="C214"/>
+      <pane ySplit="3" topLeftCell="A239" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C246" sqref="C246"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8639,7 +8639,9 @@
         <f t="shared" si="0"/>
         <v>221</v>
       </c>
-      <c r="C224" s="3"/>
+      <c r="C224" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D224" s="7"/>
       <c r="E224" s="7"/>
       <c r="F224" s="11"/>
@@ -8673,7 +8675,9 @@
         <f t="shared" si="0"/>
         <v>222</v>
       </c>
-      <c r="C225" s="3"/>
+      <c r="C225" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D225" s="7"/>
       <c r="E225" s="7"/>
       <c r="F225" s="11"/>
@@ -8707,7 +8711,9 @@
         <f t="shared" si="0"/>
         <v>223</v>
       </c>
-      <c r="C226" s="3"/>
+      <c r="C226" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D226" s="7"/>
       <c r="E226" s="7"/>
       <c r="F226" s="11"/>
@@ -8741,7 +8747,9 @@
         <f t="shared" si="0"/>
         <v>224</v>
       </c>
-      <c r="C227" s="3"/>
+      <c r="C227" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="D227" s="7"/>
       <c r="E227" s="7"/>
       <c r="F227" s="11"/>
@@ -8775,7 +8783,9 @@
         <f t="shared" si="0"/>
         <v>225</v>
       </c>
-      <c r="C228" s="12"/>
+      <c r="C228" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D228" s="7"/>
       <c r="E228" s="7"/>
       <c r="F228" s="11"/>
@@ -8809,7 +8819,9 @@
         <f t="shared" si="0"/>
         <v>226</v>
       </c>
-      <c r="C229" s="3"/>
+      <c r="C229" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="D229" s="7"/>
       <c r="E229" s="7"/>
       <c r="F229" s="11"/>
@@ -8843,7 +8855,9 @@
         <f t="shared" si="0"/>
         <v>227</v>
       </c>
-      <c r="C230" s="3"/>
+      <c r="C230" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="D230" s="7"/>
       <c r="E230" s="7"/>
       <c r="F230" s="11"/>
@@ -8877,7 +8891,9 @@
         <f t="shared" si="0"/>
         <v>228</v>
       </c>
-      <c r="C231" s="3"/>
+      <c r="C231" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D231" s="7"/>
       <c r="E231" s="7"/>
       <c r="F231" s="11"/>
@@ -8911,7 +8927,9 @@
         <f t="shared" si="0"/>
         <v>229</v>
       </c>
-      <c r="C232" s="3"/>
+      <c r="C232" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D232" s="7"/>
       <c r="E232" s="7"/>
       <c r="F232" s="11"/>
@@ -8945,7 +8963,9 @@
         <f t="shared" si="0"/>
         <v>230</v>
       </c>
-      <c r="C233" s="3"/>
+      <c r="C233" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D233" s="7"/>
       <c r="E233" s="7"/>
       <c r="F233" s="11"/>
@@ -8979,7 +8999,9 @@
         <f t="shared" si="0"/>
         <v>231</v>
       </c>
-      <c r="C234" s="12"/>
+      <c r="C234" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D234" s="7"/>
       <c r="E234" s="7"/>
       <c r="F234" s="11"/>
@@ -9013,7 +9035,9 @@
         <f t="shared" ref="B235:B299" si="1">ROW()-3</f>
         <v>232</v>
       </c>
-      <c r="C235" s="3"/>
+      <c r="C235" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D235" s="7"/>
       <c r="E235" s="7"/>
       <c r="F235" s="11"/>
@@ -9047,7 +9071,9 @@
         <f t="shared" si="1"/>
         <v>233</v>
       </c>
-      <c r="C236" s="3"/>
+      <c r="C236" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D236" s="7"/>
       <c r="E236" s="7"/>
       <c r="F236" s="11"/>
@@ -9081,7 +9107,9 @@
         <f t="shared" si="1"/>
         <v>234</v>
       </c>
-      <c r="C237" s="3"/>
+      <c r="C237" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="D237" s="7"/>
       <c r="E237" s="7"/>
       <c r="F237" s="11"/>
@@ -9115,7 +9143,9 @@
         <f t="shared" si="1"/>
         <v>235</v>
       </c>
-      <c r="C238" s="3"/>
+      <c r="C238" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D238" s="7"/>
       <c r="E238" s="7"/>
       <c r="F238" s="11"/>
@@ -9149,7 +9179,9 @@
         <f t="shared" si="1"/>
         <v>236</v>
       </c>
-      <c r="C239" s="12"/>
+      <c r="C239" s="12" t="s">
+        <v>5</v>
+      </c>
       <c r="D239" s="7"/>
       <c r="E239" s="7"/>
       <c r="F239" s="11"/>
@@ -9183,7 +9215,9 @@
         <f t="shared" si="1"/>
         <v>237</v>
       </c>
-      <c r="C240" s="3"/>
+      <c r="C240" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D240" s="7"/>
       <c r="E240" s="7"/>
       <c r="F240" s="11"/>
@@ -9217,7 +9251,9 @@
         <f t="shared" si="1"/>
         <v>238</v>
       </c>
-      <c r="C241" s="3"/>
+      <c r="C241" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D241" s="7"/>
       <c r="E241" s="7"/>
       <c r="F241" s="11"/>
@@ -9251,7 +9287,9 @@
         <f t="shared" si="1"/>
         <v>239</v>
       </c>
-      <c r="C242" s="3"/>
+      <c r="C242" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D242" s="7"/>
       <c r="E242" s="7"/>
       <c r="F242" s="11"/>
@@ -9285,7 +9323,9 @@
         <f t="shared" si="1"/>
         <v>240</v>
       </c>
-      <c r="C243" s="3"/>
+      <c r="C243" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D243" s="7"/>
       <c r="E243" s="7"/>
       <c r="F243" s="11"/>
@@ -9319,7 +9359,9 @@
         <f t="shared" si="1"/>
         <v>241</v>
       </c>
-      <c r="C244" s="3"/>
+      <c r="C244" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D244" s="7"/>
       <c r="E244" s="7"/>
       <c r="F244" s="11"/>
@@ -9353,7 +9395,9 @@
         <f t="shared" si="1"/>
         <v>242</v>
       </c>
-      <c r="C245" s="3"/>
+      <c r="C245" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D245" s="7"/>
       <c r="E245" s="7"/>
       <c r="F245" s="11"/>
@@ -9387,7 +9431,9 @@
         <f t="shared" si="1"/>
         <v>243</v>
       </c>
-      <c r="C246" s="3"/>
+      <c r="C246" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="D246" s="7"/>
       <c r="E246" s="7"/>
       <c r="F246" s="11"/>
@@ -9421,7 +9467,9 @@
         <f t="shared" si="1"/>
         <v>244</v>
       </c>
-      <c r="C247" s="3"/>
+      <c r="C247" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D247" s="7"/>
       <c r="E247" s="7"/>
       <c r="F247" s="11"/>
@@ -9455,7 +9503,9 @@
         <f t="shared" si="1"/>
         <v>245</v>
       </c>
-      <c r="C248" s="3"/>
+      <c r="C248" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D248" s="7"/>
       <c r="E248" s="7"/>
       <c r="F248" s="11"/>
@@ -9489,7 +9539,9 @@
         <f t="shared" si="1"/>
         <v>246</v>
       </c>
-      <c r="C249" s="3"/>
+      <c r="C249" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D249" s="13"/>
       <c r="E249" s="7"/>
       <c r="F249" s="11"/>
@@ -9523,7 +9575,9 @@
         <f t="shared" si="1"/>
         <v>247</v>
       </c>
-      <c r="C250" s="3"/>
+      <c r="C250" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D250" s="7"/>
       <c r="E250" s="7"/>
       <c r="F250" s="11"/>
@@ -9557,7 +9611,9 @@
         <f t="shared" si="1"/>
         <v>248</v>
       </c>
-      <c r="C251" s="3"/>
+      <c r="C251" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D251" s="7"/>
       <c r="E251" s="7"/>
       <c r="F251" s="11"/>
@@ -9591,7 +9647,9 @@
         <f t="shared" si="1"/>
         <v>249</v>
       </c>
-      <c r="C252" s="3"/>
+      <c r="C252" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D252" s="7"/>
       <c r="E252" s="7"/>
       <c r="F252" s="11"/>
@@ -9625,7 +9683,9 @@
         <f t="shared" si="1"/>
         <v>250</v>
       </c>
-      <c r="C253" s="12"/>
+      <c r="C253" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D253" s="7"/>
       <c r="E253" s="7"/>
       <c r="F253" s="11"/>
@@ -10478,7 +10538,7 @@
   <customSheetViews>
     <customSheetView guid="{2A2FD979-9F8D-413C-9CCD-B7F26FC2F3D3}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="B3:G267" xr:uid="{F0DBD0BF-5B6C-43D2-B106-29FFAE81F33B}"/>
+      <autoFilter ref="B3:G267" xr:uid="{1B7F403B-AE4D-45DE-A6D3-C643E93C7FA6}"/>
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="7"/>

--- a/work-book/cloudTech/SAP/[SAP-C02]AWS問題集チェックシート.xlsx
+++ b/work-book/cloudTech/SAP/[SAP-C02]AWS問題集チェックシート.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f8aaa7f11ecf284d/デスクトップ/program/readeing-learning-history/work-book/cloudTech/SAP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="21" documentId="13_ncr:1_{CBFBD9B5-1CAE-4DC7-BDF0-E9577B072F61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{322E16D8-B55C-41ED-9CB1-DD610D01CDD8}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="13_ncr:1_{CBFBD9B5-1CAE-4DC7-BDF0-E9577B072F61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{56ABF923-25B0-4DCB-B89E-DB05576ACEDB}"/>
   <bookViews>
-    <workbookView xWindow="17960" yWindow="0" windowWidth="4690" windowHeight="14410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="問題チェックシート" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="16">
   <si>
     <t>* [ファイル] ⇨ [コピーを作成] を選択し、コピーしてからお使いください</t>
   </si>
@@ -576,7 +576,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A239" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C246" sqref="C246"/>
+      <selection pane="bottomLeft" activeCell="C263" sqref="C263"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9719,7 +9719,9 @@
         <f t="shared" si="1"/>
         <v>251</v>
       </c>
-      <c r="C254" s="3"/>
+      <c r="C254" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="D254" s="13"/>
       <c r="E254" s="7"/>
       <c r="F254" s="11"/>
@@ -9753,7 +9755,9 @@
         <f t="shared" si="1"/>
         <v>252</v>
       </c>
-      <c r="C255" s="12"/>
+      <c r="C255" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D255" s="7"/>
       <c r="E255" s="7"/>
       <c r="F255" s="11"/>
@@ -9787,7 +9791,9 @@
         <f t="shared" si="1"/>
         <v>253</v>
       </c>
-      <c r="C256" s="12"/>
+      <c r="C256" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="D256" s="7"/>
       <c r="E256" s="7"/>
       <c r="F256" s="11"/>
@@ -9821,7 +9827,9 @@
         <f t="shared" si="1"/>
         <v>254</v>
       </c>
-      <c r="C257" s="3"/>
+      <c r="C257" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D257" s="7"/>
       <c r="E257" s="13"/>
       <c r="F257" s="11"/>
@@ -9855,7 +9863,9 @@
         <f t="shared" si="1"/>
         <v>255</v>
       </c>
-      <c r="C258" s="12"/>
+      <c r="C258" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="D258" s="7"/>
       <c r="E258" s="7"/>
       <c r="F258" s="11"/>
@@ -9889,7 +9899,9 @@
         <f t="shared" si="1"/>
         <v>256</v>
       </c>
-      <c r="C259" s="3"/>
+      <c r="C259" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D259" s="7"/>
       <c r="E259" s="7"/>
       <c r="F259" s="11"/>
@@ -9923,7 +9935,9 @@
         <f t="shared" si="1"/>
         <v>257</v>
       </c>
-      <c r="C260" s="3"/>
+      <c r="C260" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D260" s="7"/>
       <c r="E260" s="7"/>
       <c r="F260" s="11"/>
@@ -9957,7 +9971,9 @@
         <f t="shared" si="1"/>
         <v>258</v>
       </c>
-      <c r="C261" s="3"/>
+      <c r="C261" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D261" s="7"/>
       <c r="E261" s="7"/>
       <c r="F261" s="11"/>
@@ -9991,7 +10007,9 @@
         <f t="shared" si="1"/>
         <v>259</v>
       </c>
-      <c r="C262" s="3"/>
+      <c r="C262" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D262" s="7"/>
       <c r="E262" s="7"/>
       <c r="F262" s="11"/>
@@ -10025,7 +10043,9 @@
         <f t="shared" si="1"/>
         <v>260</v>
       </c>
-      <c r="C263" s="3"/>
+      <c r="C263" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="D263" s="7"/>
       <c r="E263" s="7"/>
       <c r="F263" s="11"/>
@@ -10538,7 +10558,7 @@
   <customSheetViews>
     <customSheetView guid="{2A2FD979-9F8D-413C-9CCD-B7F26FC2F3D3}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="B3:G267" xr:uid="{1B7F403B-AE4D-45DE-A6D3-C643E93C7FA6}"/>
+      <autoFilter ref="B3:G267" xr:uid="{C580847A-5635-43BD-BC61-6FD890408C11}"/>
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="7"/>

--- a/work-book/cloudTech/SAP/[SAP-C02]AWS問題集チェックシート.xlsx
+++ b/work-book/cloudTech/SAP/[SAP-C02]AWS問題集チェックシート.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f8aaa7f11ecf284d/デスクトップ/program/readeing-learning-history/work-book/cloudTech/SAP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="27" documentId="13_ncr:1_{CBFBD9B5-1CAE-4DC7-BDF0-E9577B072F61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{56ABF923-25B0-4DCB-B89E-DB05576ACEDB}"/>
+  <xr:revisionPtr revIDLastSave="30" documentId="13_ncr:1_{CBFBD9B5-1CAE-4DC7-BDF0-E9577B072F61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2F399478-A557-4DC5-97FF-EC1E71FC97BA}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="16">
   <si>
     <t>* [ファイル] ⇨ [コピーを作成] を選択し、コピーしてからお使いください</t>
   </si>
@@ -575,8 +575,8 @@
   <dimension ref="A1:AC303"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A239" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C263" sqref="C263"/>
+      <pane ySplit="3" topLeftCell="A260" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C271" sqref="C271"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10078,7 +10078,9 @@
         <f t="shared" si="1"/>
         <v>261</v>
       </c>
-      <c r="C264" s="3"/>
+      <c r="C264" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D264" s="7"/>
       <c r="E264" s="7"/>
       <c r="F264" s="11"/>
@@ -10090,7 +10092,9 @@
         <f t="shared" si="1"/>
         <v>262</v>
       </c>
-      <c r="C265" s="3"/>
+      <c r="C265" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="D265" s="7"/>
       <c r="E265" s="7"/>
       <c r="F265" s="11"/>
@@ -10102,7 +10106,9 @@
         <f t="shared" si="1"/>
         <v>263</v>
       </c>
-      <c r="C266" s="3"/>
+      <c r="C266" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D266" s="7"/>
       <c r="E266" s="7"/>
       <c r="F266" s="11"/>
@@ -10114,7 +10120,9 @@
         <f t="shared" si="1"/>
         <v>264</v>
       </c>
-      <c r="C267" s="3"/>
+      <c r="C267" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D267" s="7"/>
       <c r="E267" s="7"/>
       <c r="F267" s="11"/>
@@ -10126,7 +10134,9 @@
         <f t="shared" si="1"/>
         <v>265</v>
       </c>
-      <c r="C268" s="3"/>
+      <c r="C268" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D268" s="7"/>
       <c r="E268" s="7"/>
       <c r="F268" s="11"/>
@@ -10138,7 +10148,9 @@
         <f t="shared" si="1"/>
         <v>266</v>
       </c>
-      <c r="C269" s="3"/>
+      <c r="C269" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D269" s="7"/>
       <c r="E269" s="7"/>
       <c r="F269" s="11"/>
@@ -10150,7 +10162,9 @@
         <f t="shared" si="1"/>
         <v>267</v>
       </c>
-      <c r="C270" s="3"/>
+      <c r="C270" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D270" s="7"/>
       <c r="E270" s="7"/>
       <c r="F270" s="11"/>
@@ -10162,7 +10176,9 @@
         <f t="shared" si="1"/>
         <v>268</v>
       </c>
-      <c r="C271" s="3"/>
+      <c r="C271" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="D271" s="7"/>
       <c r="E271" s="7"/>
       <c r="F271" s="11"/>
@@ -10174,7 +10190,9 @@
         <f t="shared" si="1"/>
         <v>269</v>
       </c>
-      <c r="C272" s="3"/>
+      <c r="C272" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D272" s="7"/>
       <c r="E272" s="7"/>
       <c r="F272" s="11"/>
@@ -10186,7 +10204,9 @@
         <f t="shared" si="1"/>
         <v>270</v>
       </c>
-      <c r="C273" s="3"/>
+      <c r="C273" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D273" s="7"/>
       <c r="E273" s="7"/>
       <c r="F273" s="11"/>
@@ -10558,7 +10578,7 @@
   <customSheetViews>
     <customSheetView guid="{2A2FD979-9F8D-413C-9CCD-B7F26FC2F3D3}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="B3:G267" xr:uid="{C580847A-5635-43BD-BC61-6FD890408C11}"/>
+      <autoFilter ref="B3:G267" xr:uid="{5468D367-5830-4F3D-AA39-1CB7CBE919F1}"/>
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="7"/>

--- a/work-book/cloudTech/SAP/[SAP-C02]AWS問題集チェックシート.xlsx
+++ b/work-book/cloudTech/SAP/[SAP-C02]AWS問題集チェックシート.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f8aaa7f11ecf284d/デスクトップ/program/readeing-learning-history/work-book/cloudTech/SAP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="30" documentId="13_ncr:1_{CBFBD9B5-1CAE-4DC7-BDF0-E9577B072F61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2F399478-A557-4DC5-97FF-EC1E71FC97BA}"/>
+  <xr:revisionPtr revIDLastSave="36" documentId="13_ncr:1_{CBFBD9B5-1CAE-4DC7-BDF0-E9577B072F61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B3E5EE1C-A578-4383-AE4A-C23C70D0E4D7}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="16">
   <si>
     <t>* [ファイル] ⇨ [コピーを作成] を選択し、コピーしてからお使いください</t>
   </si>
@@ -575,8 +575,8 @@
   <dimension ref="A1:AC303"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A260" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C271" sqref="C271"/>
+      <pane ySplit="3" topLeftCell="A270" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C293" sqref="C293"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10218,7 +10218,9 @@
         <f t="shared" si="1"/>
         <v>271</v>
       </c>
-      <c r="C274" s="3"/>
+      <c r="C274" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D274" s="7"/>
       <c r="E274" s="7"/>
       <c r="F274" s="11"/>
@@ -10230,7 +10232,9 @@
         <f t="shared" si="1"/>
         <v>272</v>
       </c>
-      <c r="C275" s="3"/>
+      <c r="C275" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D275" s="7"/>
       <c r="E275" s="7"/>
       <c r="F275" s="11"/>
@@ -10242,7 +10246,9 @@
         <f t="shared" si="1"/>
         <v>273</v>
       </c>
-      <c r="C276" s="3"/>
+      <c r="C276" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D276" s="7"/>
       <c r="E276" s="7"/>
       <c r="F276" s="11"/>
@@ -10254,7 +10260,9 @@
         <f t="shared" si="1"/>
         <v>274</v>
       </c>
-      <c r="C277" s="3"/>
+      <c r="C277" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D277" s="7"/>
       <c r="E277" s="7"/>
       <c r="F277" s="11"/>
@@ -10266,7 +10274,9 @@
         <f t="shared" si="1"/>
         <v>275</v>
       </c>
-      <c r="C278" s="3"/>
+      <c r="C278" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D278" s="7"/>
       <c r="E278" s="7"/>
       <c r="F278" s="11"/>
@@ -10278,7 +10288,9 @@
         <f t="shared" si="1"/>
         <v>276</v>
       </c>
-      <c r="C279" s="3"/>
+      <c r="C279" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D279" s="7"/>
       <c r="E279" s="7"/>
       <c r="F279" s="11"/>
@@ -10290,7 +10302,9 @@
         <f t="shared" si="1"/>
         <v>277</v>
       </c>
-      <c r="C280" s="3"/>
+      <c r="C280" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D280" s="7"/>
       <c r="E280" s="7"/>
       <c r="F280" s="11"/>
@@ -10302,7 +10316,9 @@
         <f t="shared" si="1"/>
         <v>278</v>
       </c>
-      <c r="C281" s="3"/>
+      <c r="C281" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D281" s="7"/>
       <c r="E281" s="7"/>
       <c r="F281" s="11"/>
@@ -10314,7 +10330,9 @@
         <f t="shared" si="1"/>
         <v>279</v>
       </c>
-      <c r="C282" s="3"/>
+      <c r="C282" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D282" s="7"/>
       <c r="E282" s="7"/>
       <c r="F282" s="11"/>
@@ -10326,7 +10344,9 @@
         <f t="shared" si="1"/>
         <v>280</v>
       </c>
-      <c r="C283" s="3"/>
+      <c r="C283" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D283" s="7"/>
       <c r="E283" s="7"/>
       <c r="F283" s="11"/>
@@ -10338,7 +10358,9 @@
         <f t="shared" si="1"/>
         <v>281</v>
       </c>
-      <c r="C284" s="3"/>
+      <c r="C284" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D284" s="7"/>
       <c r="E284" s="7"/>
       <c r="F284" s="11"/>
@@ -10350,7 +10372,9 @@
         <f t="shared" si="1"/>
         <v>282</v>
       </c>
-      <c r="C285" s="3"/>
+      <c r="C285" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="D285" s="7"/>
       <c r="E285" s="7"/>
       <c r="F285" s="11"/>
@@ -10362,7 +10386,9 @@
         <f t="shared" si="1"/>
         <v>283</v>
       </c>
-      <c r="C286" s="3"/>
+      <c r="C286" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D286" s="7"/>
       <c r="E286" s="7"/>
       <c r="F286" s="11"/>
@@ -10374,7 +10400,9 @@
         <f t="shared" si="1"/>
         <v>284</v>
       </c>
-      <c r="C287" s="3"/>
+      <c r="C287" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D287" s="7"/>
       <c r="E287" s="7"/>
       <c r="F287" s="11"/>
@@ -10386,7 +10414,9 @@
         <f t="shared" si="1"/>
         <v>285</v>
       </c>
-      <c r="C288" s="3"/>
+      <c r="C288" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D288" s="7"/>
       <c r="E288" s="7"/>
       <c r="F288" s="11"/>
@@ -10398,7 +10428,9 @@
         <f t="shared" si="1"/>
         <v>286</v>
       </c>
-      <c r="C289" s="3"/>
+      <c r="C289" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="D289" s="7"/>
       <c r="E289" s="7"/>
       <c r="F289" s="11"/>
@@ -10410,7 +10442,9 @@
         <f t="shared" si="1"/>
         <v>287</v>
       </c>
-      <c r="C290" s="3"/>
+      <c r="C290" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D290" s="7"/>
       <c r="E290" s="7"/>
       <c r="F290" s="11"/>
@@ -10422,7 +10456,9 @@
         <f t="shared" si="1"/>
         <v>288</v>
       </c>
-      <c r="C291" s="3"/>
+      <c r="C291" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="D291" s="7"/>
       <c r="E291" s="7"/>
       <c r="F291" s="11"/>
@@ -10434,7 +10470,9 @@
         <f t="shared" si="1"/>
         <v>289</v>
       </c>
-      <c r="C292" s="3"/>
+      <c r="C292" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D292" s="7"/>
       <c r="E292" s="7"/>
       <c r="F292" s="11"/>
@@ -10446,7 +10484,9 @@
         <f t="shared" si="1"/>
         <v>290</v>
       </c>
-      <c r="C293" s="3"/>
+      <c r="C293" s="3" t="s">
+        <v>14</v>
+      </c>
       <c r="D293" s="7"/>
       <c r="E293" s="7"/>
       <c r="F293" s="11"/>
@@ -10578,7 +10618,7 @@
   <customSheetViews>
     <customSheetView guid="{2A2FD979-9F8D-413C-9CCD-B7F26FC2F3D3}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="B3:G267" xr:uid="{5468D367-5830-4F3D-AA39-1CB7CBE919F1}"/>
+      <autoFilter ref="B3:G267" xr:uid="{AA2C6A09-3744-496F-BDC2-039D53ED04A5}"/>
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="7"/>

--- a/work-book/cloudTech/SAP/[SAP-C02]AWS問題集チェックシート.xlsx
+++ b/work-book/cloudTech/SAP/[SAP-C02]AWS問題集チェックシート.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f8aaa7f11ecf284d/デスクトップ/program/readeing-learning-history/work-book/cloudTech/SAP/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kobek\OneDrive\デスクトップ\program\readeing-learning-history\work-book\cloudTech\SAP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="36" documentId="13_ncr:1_{CBFBD9B5-1CAE-4DC7-BDF0-E9577B072F61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B3E5EE1C-A578-4383-AE4A-C23C70D0E4D7}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE8035C7-66F3-402E-8DB8-EA92825E0BD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="16">
   <si>
     <t>* [ファイル] ⇨ [コピーを作成] を選択し、コピーしてからお使いください</t>
   </si>
@@ -367,10 +367,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
@@ -574,9 +570,9 @@
   </sheetPr>
   <dimension ref="A1:AC303"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A270" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C293" sqref="C293"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A290" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C294" sqref="C294:C303"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10498,7 +10494,9 @@
         <f t="shared" si="1"/>
         <v>291</v>
       </c>
-      <c r="C294" s="3"/>
+      <c r="C294" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D294" s="7"/>
       <c r="E294" s="7"/>
       <c r="F294" s="11"/>
@@ -10510,7 +10508,9 @@
         <f t="shared" si="1"/>
         <v>292</v>
       </c>
-      <c r="C295" s="3"/>
+      <c r="C295" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D295" s="7"/>
       <c r="E295" s="7"/>
       <c r="F295" s="11"/>
@@ -10522,7 +10522,9 @@
         <f t="shared" si="1"/>
         <v>293</v>
       </c>
-      <c r="C296" s="3"/>
+      <c r="C296" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D296" s="7"/>
       <c r="E296" s="7"/>
       <c r="F296" s="11"/>
@@ -10534,7 +10536,9 @@
         <f t="shared" si="1"/>
         <v>294</v>
       </c>
-      <c r="C297" s="3"/>
+      <c r="C297" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D297" s="7"/>
       <c r="E297" s="7"/>
       <c r="F297" s="11"/>
@@ -10546,7 +10550,9 @@
         <f t="shared" si="1"/>
         <v>295</v>
       </c>
-      <c r="C298" s="3"/>
+      <c r="C298" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D298" s="7"/>
       <c r="E298" s="7"/>
       <c r="F298" s="11"/>
@@ -10558,7 +10564,9 @@
         <f t="shared" si="1"/>
         <v>296</v>
       </c>
-      <c r="C299" s="3"/>
+      <c r="C299" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D299" s="7"/>
       <c r="E299" s="7"/>
       <c r="F299" s="11"/>
@@ -10570,7 +10578,9 @@
         <f t="shared" ref="B300:B303" si="2">ROW()-3</f>
         <v>297</v>
       </c>
-      <c r="C300" s="3"/>
+      <c r="C300" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D300" s="7"/>
       <c r="E300" s="7"/>
       <c r="F300" s="11"/>
@@ -10582,7 +10592,9 @@
         <f t="shared" si="2"/>
         <v>298</v>
       </c>
-      <c r="C301" s="3"/>
+      <c r="C301" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D301" s="7"/>
       <c r="E301" s="7"/>
       <c r="F301" s="11"/>
@@ -10594,7 +10606,9 @@
         <f t="shared" si="2"/>
         <v>299</v>
       </c>
-      <c r="C302" s="3"/>
+      <c r="C302" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D302" s="7"/>
       <c r="E302" s="7"/>
       <c r="F302" s="11"/>
@@ -10606,7 +10620,9 @@
         <f t="shared" si="2"/>
         <v>300</v>
       </c>
-      <c r="C303" s="3"/>
+      <c r="C303" s="3" t="s">
+        <v>2</v>
+      </c>
       <c r="D303" s="7"/>
       <c r="E303" s="7"/>
       <c r="F303" s="11"/>
@@ -10618,7 +10634,7 @@
   <customSheetViews>
     <customSheetView guid="{2A2FD979-9F8D-413C-9CCD-B7F26FC2F3D3}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="B3:G267" xr:uid="{AA2C6A09-3744-496F-BDC2-039D53ED04A5}"/>
+      <autoFilter ref="B3:G267" xr:uid="{521C13D6-6471-4FD3-8EDE-6BF1ADA42D0D}"/>
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="7"/>

--- a/work-book/cloudTech/SAP/[SAP-C02]AWS問題集チェックシート.xlsx
+++ b/work-book/cloudTech/SAP/[SAP-C02]AWS問題集チェックシート.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kobek\OneDrive\デスクトップ\program\readeing-learning-history\work-book\cloudTech\SAP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f8aaa7f11ecf284d/デスクトップ/program/readeing-learning-history/work-book/cloudTech/SAP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE8035C7-66F3-402E-8DB8-EA92825E0BD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="49" documentId="13_ncr:1_{BE8035C7-66F3-402E-8DB8-EA92825E0BD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D7913755-3369-42C5-9FFE-305349787931}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="17">
   <si>
     <t>* [ファイル] ⇨ [コピーを作成] を選択し、コピーしてからお使いください</t>
   </si>
@@ -86,6 +86,10 @@
   </si>
   <si>
     <t>理解に自信がある設問にマークしてください。</t>
+  </si>
+  <si>
+    <t>NG</t>
+    <phoneticPr fontId="7"/>
   </si>
 </sst>
 </file>
@@ -570,17 +574,18 @@
   </sheetPr>
   <dimension ref="A1:AC303"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A290" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C294" sqref="C294:C303"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D43" sqref="D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7.6328125" customWidth="1"/>
-    <col min="2" max="2" width="7.453125" customWidth="1"/>
-    <col min="3" max="3" width="14.6328125" customWidth="1"/>
-    <col min="4" max="7" width="14.453125" customWidth="1"/>
+    <col min="2" max="2" width="6" customWidth="1"/>
+    <col min="3" max="3" width="7.453125" customWidth="1"/>
+    <col min="4" max="4" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="14.453125" customWidth="1"/>
     <col min="8" max="8" width="33.453125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -718,7 +723,9 @@
       <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="7"/>
+      <c r="D4" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="E4" s="7"/>
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
@@ -754,7 +761,9 @@
       <c r="C5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="7"/>
+      <c r="D5" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="E5" s="7"/>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
@@ -790,7 +799,9 @@
       <c r="C6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="7"/>
+      <c r="D6" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="E6" s="7"/>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
@@ -826,7 +837,9 @@
       <c r="C7" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="7"/>
+      <c r="D7" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="E7" s="7"/>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
@@ -862,7 +875,9 @@
       <c r="C8" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="7"/>
+      <c r="D8" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="E8" s="7"/>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
@@ -898,7 +913,9 @@
       <c r="C9" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="7"/>
+      <c r="D9" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="E9" s="7"/>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
@@ -934,7 +951,9 @@
       <c r="C10" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D10" s="7"/>
+      <c r="D10" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="E10" s="7"/>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
@@ -970,7 +989,9 @@
       <c r="C11" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D11" s="7"/>
+      <c r="D11" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="E11" s="7"/>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
@@ -1006,7 +1027,9 @@
       <c r="C12" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="7"/>
+      <c r="D12" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="E12" s="7"/>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
@@ -1042,7 +1065,9 @@
       <c r="C13" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D13" s="7"/>
+      <c r="D13" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="E13" s="13"/>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
@@ -1078,7 +1103,9 @@
       <c r="C14" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D14" s="7"/>
+      <c r="D14" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="E14" s="7"/>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
@@ -1114,7 +1141,9 @@
       <c r="C15" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D15" s="7"/>
+      <c r="D15" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="E15" s="7"/>
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
@@ -1150,7 +1179,9 @@
       <c r="C16" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D16" s="7"/>
+      <c r="D16" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="E16" s="7"/>
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
@@ -1186,7 +1217,9 @@
       <c r="C17" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D17" s="7"/>
+      <c r="D17" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="E17" s="7"/>
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
@@ -1222,7 +1255,9 @@
       <c r="C18" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D18" s="7"/>
+      <c r="D18" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="E18" s="7"/>
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
@@ -1258,7 +1293,9 @@
       <c r="C19" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D19" s="7"/>
+      <c r="D19" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="E19" s="7"/>
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
@@ -1294,7 +1331,9 @@
       <c r="C20" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D20" s="7"/>
+      <c r="D20" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="E20" s="7"/>
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
@@ -1330,7 +1369,9 @@
       <c r="C21" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D21" s="7"/>
+      <c r="D21" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="E21" s="7"/>
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
@@ -1366,7 +1407,9 @@
       <c r="C22" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D22" s="7"/>
+      <c r="D22" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="E22" s="7"/>
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
@@ -1402,7 +1445,9 @@
       <c r="C23" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D23" s="7"/>
+      <c r="D23" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="E23" s="7"/>
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
@@ -1438,7 +1483,9 @@
       <c r="C24" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D24" s="7"/>
+      <c r="D24" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="E24" s="7"/>
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
@@ -1474,7 +1521,9 @@
       <c r="C25" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D25" s="7"/>
+      <c r="D25" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="E25" s="7"/>
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
@@ -1510,7 +1559,9 @@
       <c r="C26" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D26" s="7"/>
+      <c r="D26" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="E26" s="7"/>
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
@@ -1546,7 +1597,9 @@
       <c r="C27" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D27" s="7"/>
+      <c r="D27" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="E27" s="7"/>
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
@@ -1582,7 +1635,9 @@
       <c r="C28" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D28" s="7"/>
+      <c r="D28" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="E28" s="7"/>
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
@@ -1618,7 +1673,9 @@
       <c r="C29" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D29" s="7"/>
+      <c r="D29" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="E29" s="7"/>
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
@@ -1654,7 +1711,9 @@
       <c r="C30" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D30" s="7"/>
+      <c r="D30" s="13" t="s">
+        <v>16</v>
+      </c>
       <c r="E30" s="13"/>
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
@@ -1690,7 +1749,9 @@
       <c r="C31" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D31" s="7"/>
+      <c r="D31" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="E31" s="7"/>
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
@@ -1726,7 +1787,9 @@
       <c r="C32" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D32" s="7"/>
+      <c r="D32" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="E32" s="7"/>
       <c r="F32" s="11"/>
       <c r="G32" s="11"/>
@@ -1762,7 +1825,9 @@
       <c r="C33" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D33" s="7"/>
+      <c r="D33" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="E33" s="7"/>
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
@@ -1798,7 +1863,9 @@
       <c r="C34" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D34" s="7"/>
+      <c r="D34" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="E34" s="7"/>
       <c r="F34" s="11"/>
       <c r="G34" s="11"/>
@@ -1834,7 +1901,9 @@
       <c r="C35" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D35" s="7"/>
+      <c r="D35" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="E35" s="7"/>
       <c r="F35" s="11"/>
       <c r="G35" s="11"/>
@@ -1870,7 +1939,9 @@
       <c r="C36" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D36" s="7"/>
+      <c r="D36" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="E36" s="7"/>
       <c r="F36" s="11"/>
       <c r="G36" s="11"/>
@@ -1906,7 +1977,9 @@
       <c r="C37" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D37" s="7"/>
+      <c r="D37" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="E37" s="7"/>
       <c r="F37" s="11"/>
       <c r="G37" s="11"/>
@@ -1942,7 +2015,9 @@
       <c r="C38" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D38" s="7"/>
+      <c r="D38" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="E38" s="7"/>
       <c r="F38" s="11"/>
       <c r="G38" s="11"/>
@@ -1978,7 +2053,9 @@
       <c r="C39" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D39" s="7"/>
+      <c r="D39" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="E39" s="13"/>
       <c r="F39" s="11"/>
       <c r="G39" s="11"/>
@@ -2014,7 +2091,9 @@
       <c r="C40" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D40" s="7"/>
+      <c r="D40" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="E40" s="7"/>
       <c r="F40" s="11"/>
       <c r="G40" s="11"/>
@@ -2050,7 +2129,9 @@
       <c r="C41" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D41" s="7"/>
+      <c r="D41" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="E41" s="7"/>
       <c r="F41" s="11"/>
       <c r="G41" s="11"/>
@@ -2086,7 +2167,9 @@
       <c r="C42" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D42" s="7"/>
+      <c r="D42" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="E42" s="7"/>
       <c r="F42" s="11"/>
       <c r="G42" s="11"/>
@@ -2122,7 +2205,9 @@
       <c r="C43" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D43" s="7"/>
+      <c r="D43" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="E43" s="7"/>
       <c r="F43" s="11"/>
       <c r="G43" s="11"/>
@@ -10634,7 +10719,7 @@
   <customSheetViews>
     <customSheetView guid="{2A2FD979-9F8D-413C-9CCD-B7F26FC2F3D3}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="B3:G267" xr:uid="{521C13D6-6471-4FD3-8EDE-6BF1ADA42D0D}"/>
+      <autoFilter ref="B3:G267" xr:uid="{D982B534-3F3F-4C12-AEAC-413CBC54CE80}"/>
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="7"/>

--- a/work-book/cloudTech/SAP/[SAP-C02]AWS問題集チェックシート.xlsx
+++ b/work-book/cloudTech/SAP/[SAP-C02]AWS問題集チェックシート.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f8aaa7f11ecf284d/デスクトップ/program/readeing-learning-history/work-book/cloudTech/SAP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="49" documentId="13_ncr:1_{BE8035C7-66F3-402E-8DB8-EA92825E0BD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D7913755-3369-42C5-9FFE-305349787931}"/>
+  <xr:revisionPtr revIDLastSave="92" documentId="13_ncr:1_{BE8035C7-66F3-402E-8DB8-EA92825E0BD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7AD7E000-1890-491E-B8C0-F870C25A6BCB}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="17">
   <si>
     <t>* [ファイル] ⇨ [コピーを作成] を選択し、コピーしてからお使いください</t>
   </si>
@@ -371,6 +371,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
@@ -575,8 +579,8 @@
   <dimension ref="A1:AC303"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D43" sqref="D43"/>
+      <pane ySplit="3" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D83" sqref="D83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2243,7 +2247,9 @@
       <c r="C44" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D44" s="7"/>
+      <c r="D44" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="E44" s="7"/>
       <c r="F44" s="11"/>
       <c r="G44" s="11"/>
@@ -2279,7 +2285,9 @@
       <c r="C45" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D45" s="7"/>
+      <c r="D45" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="E45" s="7"/>
       <c r="F45" s="11"/>
       <c r="G45" s="11"/>
@@ -2315,7 +2323,9 @@
       <c r="C46" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D46" s="7"/>
+      <c r="D46" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="E46" s="7"/>
       <c r="F46" s="11"/>
       <c r="G46" s="11"/>
@@ -2351,7 +2361,9 @@
       <c r="C47" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D47" s="7"/>
+      <c r="D47" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="E47" s="7"/>
       <c r="F47" s="11"/>
       <c r="G47" s="11"/>
@@ -2387,7 +2399,9 @@
       <c r="C48" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D48" s="7"/>
+      <c r="D48" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="E48" s="7"/>
       <c r="F48" s="11"/>
       <c r="G48" s="11"/>
@@ -2423,7 +2437,9 @@
       <c r="C49" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D49" s="7"/>
+      <c r="D49" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="E49" s="7"/>
       <c r="F49" s="11"/>
       <c r="G49" s="11"/>
@@ -2459,7 +2475,9 @@
       <c r="C50" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D50" s="7"/>
+      <c r="D50" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="E50" s="7"/>
       <c r="F50" s="11"/>
       <c r="G50" s="11"/>
@@ -2495,7 +2513,9 @@
       <c r="C51" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D51" s="7"/>
+      <c r="D51" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="E51" s="7"/>
       <c r="F51" s="11"/>
       <c r="G51" s="11"/>
@@ -2531,7 +2551,9 @@
       <c r="C52" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D52" s="7"/>
+      <c r="D52" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="E52" s="7"/>
       <c r="F52" s="11"/>
       <c r="G52" s="11"/>
@@ -2567,7 +2589,9 @@
       <c r="C53" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D53" s="7"/>
+      <c r="D53" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="E53" s="7"/>
       <c r="F53" s="11"/>
       <c r="G53" s="11"/>
@@ -2603,7 +2627,9 @@
       <c r="C54" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D54" s="7"/>
+      <c r="D54" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="E54" s="7"/>
       <c r="F54" s="11"/>
       <c r="G54" s="11"/>
@@ -2639,7 +2665,9 @@
       <c r="C55" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D55" s="7"/>
+      <c r="D55" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="E55" s="7"/>
       <c r="F55" s="11"/>
       <c r="G55" s="11"/>
@@ -2675,7 +2703,9 @@
       <c r="C56" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D56" s="7"/>
+      <c r="D56" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="E56" s="7"/>
       <c r="F56" s="11"/>
       <c r="G56" s="11"/>
@@ -2711,7 +2741,9 @@
       <c r="C57" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D57" s="7"/>
+      <c r="D57" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="E57" s="7"/>
       <c r="F57" s="11"/>
       <c r="G57" s="11"/>
@@ -2747,7 +2779,9 @@
       <c r="C58" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D58" s="7"/>
+      <c r="D58" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="E58" s="7"/>
       <c r="F58" s="11"/>
       <c r="G58" s="11"/>
@@ -2783,7 +2817,9 @@
       <c r="C59" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D59" s="7"/>
+      <c r="D59" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="E59" s="7"/>
       <c r="F59" s="11"/>
       <c r="G59" s="11"/>
@@ -2819,7 +2855,9 @@
       <c r="C60" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D60" s="7"/>
+      <c r="D60" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="E60" s="7"/>
       <c r="F60" s="11"/>
       <c r="G60" s="11"/>
@@ -2855,7 +2893,9 @@
       <c r="C61" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D61" s="7"/>
+      <c r="D61" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="E61" s="7"/>
       <c r="F61" s="11"/>
       <c r="G61" s="11"/>
@@ -2891,7 +2931,9 @@
       <c r="C62" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D62" s="7"/>
+      <c r="D62" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="E62" s="7"/>
       <c r="F62" s="11"/>
       <c r="G62" s="11"/>
@@ -2927,7 +2969,9 @@
       <c r="C63" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D63" s="7"/>
+      <c r="D63" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="E63" s="7"/>
       <c r="F63" s="11"/>
       <c r="G63" s="11"/>
@@ -2963,7 +3007,9 @@
       <c r="C64" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D64" s="7"/>
+      <c r="D64" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="E64" s="7"/>
       <c r="F64" s="11"/>
       <c r="G64" s="11"/>
@@ -2999,7 +3045,9 @@
       <c r="C65" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D65" s="7"/>
+      <c r="D65" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="E65" s="7"/>
       <c r="F65" s="11"/>
       <c r="G65" s="11"/>
@@ -3035,7 +3083,9 @@
       <c r="C66" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D66" s="7"/>
+      <c r="D66" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="E66" s="7"/>
       <c r="F66" s="11"/>
       <c r="G66" s="11"/>
@@ -3071,7 +3121,9 @@
       <c r="C67" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D67" s="7"/>
+      <c r="D67" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="E67" s="7"/>
       <c r="F67" s="11"/>
       <c r="G67" s="11"/>
@@ -3107,7 +3159,9 @@
       <c r="C68" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D68" s="7"/>
+      <c r="D68" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="E68" s="7"/>
       <c r="F68" s="11"/>
       <c r="G68" s="11"/>
@@ -3143,7 +3197,9 @@
       <c r="C69" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D69" s="7"/>
+      <c r="D69" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="E69" s="7"/>
       <c r="F69" s="11"/>
       <c r="G69" s="11"/>
@@ -3179,7 +3235,9 @@
       <c r="C70" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D70" s="7"/>
+      <c r="D70" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="E70" s="7"/>
       <c r="F70" s="11"/>
       <c r="G70" s="11"/>
@@ -3215,7 +3273,9 @@
       <c r="C71" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D71" s="7"/>
+      <c r="D71" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="E71" s="7"/>
       <c r="F71" s="11"/>
       <c r="G71" s="11"/>
@@ -3251,7 +3311,9 @@
       <c r="C72" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D72" s="7"/>
+      <c r="D72" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="E72" s="7"/>
       <c r="F72" s="11"/>
       <c r="G72" s="11"/>
@@ -3287,7 +3349,9 @@
       <c r="C73" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D73" s="7"/>
+      <c r="D73" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="E73" s="7"/>
       <c r="F73" s="11"/>
       <c r="G73" s="11"/>
@@ -3323,7 +3387,9 @@
       <c r="C74" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D74" s="7"/>
+      <c r="D74" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="E74" s="7"/>
       <c r="F74" s="11"/>
       <c r="G74" s="11"/>
@@ -3359,7 +3425,9 @@
       <c r="C75" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D75" s="7"/>
+      <c r="D75" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="E75" s="7"/>
       <c r="F75" s="11"/>
       <c r="G75" s="11"/>
@@ -3395,7 +3463,9 @@
       <c r="C76" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D76" s="7"/>
+      <c r="D76" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="E76" s="7"/>
       <c r="F76" s="11"/>
       <c r="G76" s="11"/>
@@ -3431,7 +3501,9 @@
       <c r="C77" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D77" s="7"/>
+      <c r="D77" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="E77" s="7"/>
       <c r="F77" s="11"/>
       <c r="G77" s="11"/>
@@ -3467,7 +3539,9 @@
       <c r="C78" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D78" s="7"/>
+      <c r="D78" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="E78" s="7"/>
       <c r="F78" s="11"/>
       <c r="G78" s="11"/>
@@ -3503,7 +3577,9 @@
       <c r="C79" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D79" s="7"/>
+      <c r="D79" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="E79" s="7"/>
       <c r="F79" s="11"/>
       <c r="G79" s="11"/>
@@ -3539,7 +3615,9 @@
       <c r="C80" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D80" s="7"/>
+      <c r="D80" s="13" t="s">
+        <v>16</v>
+      </c>
       <c r="E80" s="7"/>
       <c r="F80" s="11"/>
       <c r="G80" s="11"/>
@@ -3575,7 +3653,9 @@
       <c r="C81" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D81" s="7"/>
+      <c r="D81" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="E81" s="7"/>
       <c r="F81" s="11"/>
       <c r="G81" s="11"/>
@@ -3611,7 +3691,9 @@
       <c r="C82" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D82" s="7"/>
+      <c r="D82" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="E82" s="7"/>
       <c r="F82" s="11"/>
       <c r="G82" s="11"/>
@@ -3647,7 +3729,9 @@
       <c r="C83" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D83" s="7"/>
+      <c r="D83" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="E83" s="7"/>
       <c r="F83" s="11"/>
       <c r="G83" s="11"/>
@@ -10719,7 +10803,7 @@
   <customSheetViews>
     <customSheetView guid="{2A2FD979-9F8D-413C-9CCD-B7F26FC2F3D3}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="B3:G267" xr:uid="{D982B534-3F3F-4C12-AEAC-413CBC54CE80}"/>
+      <autoFilter ref="B3:G267" xr:uid="{6C73E134-16BC-4817-81BC-222BB9195BB0}"/>
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="7"/>

--- a/work-book/cloudTech/SAP/[SAP-C02]AWS問題集チェックシート.xlsx
+++ b/work-book/cloudTech/SAP/[SAP-C02]AWS問題集チェックシート.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f8aaa7f11ecf284d/デスクトップ/program/readeing-learning-history/work-book/cloudTech/SAP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="92" documentId="13_ncr:1_{BE8035C7-66F3-402E-8DB8-EA92825E0BD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7AD7E000-1890-491E-B8C0-F870C25A6BCB}"/>
+  <xr:revisionPtr revIDLastSave="120" documentId="13_ncr:1_{BE8035C7-66F3-402E-8DB8-EA92825E0BD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{501E4DA7-D703-4C99-89DC-463D0CD432C3}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="17">
   <si>
     <t>* [ファイル] ⇨ [コピーを作成] を選択し、コピーしてからお使いください</t>
   </si>
@@ -579,8 +579,8 @@
   <dimension ref="A1:AC303"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D83" sqref="D83"/>
+      <pane ySplit="3" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D103" sqref="D103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3767,7 +3767,9 @@
       <c r="C84" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D84" s="7"/>
+      <c r="D84" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="E84" s="7"/>
       <c r="F84" s="11"/>
       <c r="G84" s="11"/>
@@ -3803,7 +3805,9 @@
       <c r="C85" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D85" s="7"/>
+      <c r="D85" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="E85" s="7"/>
       <c r="F85" s="11"/>
       <c r="G85" s="11"/>
@@ -3839,7 +3843,9 @@
       <c r="C86" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D86" s="7"/>
+      <c r="D86" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="E86" s="7"/>
       <c r="F86" s="11"/>
       <c r="G86" s="11"/>
@@ -3875,7 +3881,9 @@
       <c r="C87" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D87" s="7"/>
+      <c r="D87" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="E87" s="7"/>
       <c r="F87" s="11"/>
       <c r="G87" s="11"/>
@@ -3911,7 +3919,9 @@
       <c r="C88" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D88" s="7"/>
+      <c r="D88" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="E88" s="7"/>
       <c r="F88" s="11"/>
       <c r="G88" s="11"/>
@@ -3947,7 +3957,9 @@
       <c r="C89" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D89" s="7"/>
+      <c r="D89" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="E89" s="7"/>
       <c r="F89" s="11"/>
       <c r="G89" s="11"/>
@@ -3983,7 +3995,9 @@
       <c r="C90" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D90" s="7"/>
+      <c r="D90" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="E90" s="7"/>
       <c r="F90" s="11"/>
       <c r="G90" s="11"/>
@@ -4019,7 +4033,9 @@
       <c r="C91" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D91" s="7"/>
+      <c r="D91" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="E91" s="7"/>
       <c r="F91" s="11"/>
       <c r="G91" s="11"/>
@@ -4055,7 +4071,9 @@
       <c r="C92" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D92" s="7"/>
+      <c r="D92" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="E92" s="7"/>
       <c r="F92" s="11"/>
       <c r="G92" s="11"/>
@@ -4091,7 +4109,9 @@
       <c r="C93" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D93" s="7"/>
+      <c r="D93" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="E93" s="7"/>
       <c r="F93" s="11"/>
       <c r="G93" s="11"/>
@@ -4127,7 +4147,9 @@
       <c r="C94" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D94" s="7"/>
+      <c r="D94" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="E94" s="7"/>
       <c r="F94" s="11"/>
       <c r="G94" s="11"/>
@@ -4163,7 +4185,9 @@
       <c r="C95" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D95" s="7"/>
+      <c r="D95" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="E95" s="7"/>
       <c r="F95" s="11"/>
       <c r="G95" s="11"/>
@@ -4199,7 +4223,9 @@
       <c r="C96" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D96" s="7"/>
+      <c r="D96" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="E96" s="7"/>
       <c r="F96" s="11"/>
       <c r="G96" s="11"/>
@@ -4235,7 +4261,9 @@
       <c r="C97" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D97" s="7"/>
+      <c r="D97" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="E97" s="7"/>
       <c r="F97" s="11"/>
       <c r="G97" s="11"/>
@@ -4271,7 +4299,9 @@
       <c r="C98" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D98" s="7"/>
+      <c r="D98" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="E98" s="13"/>
       <c r="F98" s="11"/>
       <c r="G98" s="11"/>
@@ -4307,7 +4337,9 @@
       <c r="C99" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D99" s="7"/>
+      <c r="D99" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="E99" s="7"/>
       <c r="F99" s="11"/>
       <c r="G99" s="11"/>
@@ -4379,7 +4411,9 @@
       <c r="C101" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D101" s="7"/>
+      <c r="D101" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="E101" s="7"/>
       <c r="F101" s="11"/>
       <c r="G101" s="11"/>
@@ -4415,7 +4449,9 @@
       <c r="C102" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D102" s="7"/>
+      <c r="D102" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="E102" s="13"/>
       <c r="F102" s="11"/>
       <c r="G102" s="11"/>
@@ -4451,7 +4487,9 @@
       <c r="C103" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D103" s="7"/>
+      <c r="D103" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="E103" s="7"/>
       <c r="F103" s="11"/>
       <c r="G103" s="11"/>
@@ -10803,7 +10841,7 @@
   <customSheetViews>
     <customSheetView guid="{2A2FD979-9F8D-413C-9CCD-B7F26FC2F3D3}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="B3:G267" xr:uid="{6C73E134-16BC-4817-81BC-222BB9195BB0}"/>
+      <autoFilter ref="B3:G267" xr:uid="{D4897CB5-8A12-4E81-AB43-F6CCDD69D116}"/>
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="7"/>

--- a/work-book/cloudTech/SAP/[SAP-C02]AWS問題集チェックシート.xlsx
+++ b/work-book/cloudTech/SAP/[SAP-C02]AWS問題集チェックシート.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f8aaa7f11ecf284d/デスクトップ/program/readeing-learning-history/work-book/cloudTech/SAP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="120" documentId="13_ncr:1_{BE8035C7-66F3-402E-8DB8-EA92825E0BD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{501E4DA7-D703-4C99-89DC-463D0CD432C3}"/>
+  <xr:revisionPtr revIDLastSave="140" documentId="13_ncr:1_{BE8035C7-66F3-402E-8DB8-EA92825E0BD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{34AA7578-A7BF-48E6-905F-0EEA441EB1AF}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="415" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="17">
   <si>
     <t>* [ファイル] ⇨ [コピーを作成] を選択し、コピーしてからお使いください</t>
   </si>
@@ -579,8 +579,8 @@
   <dimension ref="A1:AC303"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A85" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D103" sqref="D103"/>
+      <pane ySplit="3" topLeftCell="A109" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D123" sqref="D123"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4525,7 +4525,9 @@
       <c r="C104" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D104" s="7"/>
+      <c r="D104" s="13" t="s">
+        <v>16</v>
+      </c>
       <c r="E104" s="7"/>
       <c r="F104" s="11"/>
       <c r="G104" s="11"/>
@@ -4561,7 +4563,9 @@
       <c r="C105" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D105" s="7"/>
+      <c r="D105" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="E105" s="13"/>
       <c r="F105" s="11"/>
       <c r="G105" s="11"/>
@@ -4597,7 +4601,9 @@
       <c r="C106" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D106" s="7"/>
+      <c r="D106" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="E106" s="7"/>
       <c r="F106" s="11"/>
       <c r="G106" s="11"/>
@@ -4633,7 +4639,9 @@
       <c r="C107" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D107" s="7"/>
+      <c r="D107" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="E107" s="7"/>
       <c r="F107" s="11"/>
       <c r="G107" s="11"/>
@@ -4669,7 +4677,9 @@
       <c r="C108" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D108" s="7"/>
+      <c r="D108" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="E108" s="7"/>
       <c r="F108" s="11"/>
       <c r="G108" s="11"/>
@@ -4741,7 +4751,9 @@
       <c r="C110" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D110" s="7"/>
+      <c r="D110" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="E110" s="7"/>
       <c r="F110" s="11"/>
       <c r="G110" s="11"/>
@@ -4777,7 +4789,9 @@
       <c r="C111" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D111" s="7"/>
+      <c r="D111" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="E111" s="7"/>
       <c r="F111" s="11"/>
       <c r="G111" s="11"/>
@@ -4813,7 +4827,9 @@
       <c r="C112" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D112" s="7"/>
+      <c r="D112" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="E112" s="7"/>
       <c r="F112" s="11"/>
       <c r="G112" s="11"/>
@@ -4921,7 +4937,9 @@
       <c r="C115" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D115" s="7"/>
+      <c r="D115" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="E115" s="7"/>
       <c r="F115" s="11"/>
       <c r="G115" s="11"/>
@@ -4957,7 +4975,9 @@
       <c r="C116" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D116" s="7"/>
+      <c r="D116" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="E116" s="7"/>
       <c r="F116" s="11"/>
       <c r="G116" s="11"/>
@@ -4993,7 +5013,9 @@
       <c r="C117" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D117" s="7"/>
+      <c r="D117" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="E117" s="7"/>
       <c r="F117" s="11"/>
       <c r="G117" s="11"/>
@@ -5029,7 +5051,9 @@
       <c r="C118" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D118" s="7"/>
+      <c r="D118" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="E118" s="7"/>
       <c r="F118" s="11"/>
       <c r="G118" s="11"/>
@@ -5065,7 +5089,9 @@
       <c r="C119" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D119" s="7"/>
+      <c r="D119" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="E119" s="7"/>
       <c r="F119" s="11"/>
       <c r="G119" s="11"/>
@@ -5101,7 +5127,9 @@
       <c r="C120" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D120" s="7"/>
+      <c r="D120" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="E120" s="7"/>
       <c r="F120" s="11"/>
       <c r="G120" s="11"/>
@@ -5137,7 +5165,9 @@
       <c r="C121" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D121" s="7"/>
+      <c r="D121" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="E121" s="7"/>
       <c r="F121" s="11"/>
       <c r="G121" s="11"/>
@@ -5173,7 +5203,9 @@
       <c r="C122" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D122" s="7"/>
+      <c r="D122" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="E122" s="7"/>
       <c r="F122" s="11"/>
       <c r="G122" s="11"/>
@@ -5209,7 +5241,9 @@
       <c r="C123" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D123" s="7"/>
+      <c r="D123" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="E123" s="7"/>
       <c r="F123" s="11"/>
       <c r="G123" s="11"/>
@@ -10841,7 +10875,7 @@
   <customSheetViews>
     <customSheetView guid="{2A2FD979-9F8D-413C-9CCD-B7F26FC2F3D3}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="B3:G267" xr:uid="{D4897CB5-8A12-4E81-AB43-F6CCDD69D116}"/>
+      <autoFilter ref="B3:G267" xr:uid="{BBA06EE6-0DF1-4EA5-BBFC-6EAA5C39FB20}"/>
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="7"/>

--- a/work-book/cloudTech/SAP/[SAP-C02]AWS問題集チェックシート.xlsx
+++ b/work-book/cloudTech/SAP/[SAP-C02]AWS問題集チェックシート.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f8aaa7f11ecf284d/デスクトップ/program/readeing-learning-history/work-book/cloudTech/SAP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="140" documentId="13_ncr:1_{BE8035C7-66F3-402E-8DB8-EA92825E0BD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{34AA7578-A7BF-48E6-905F-0EEA441EB1AF}"/>
+  <xr:revisionPtr revIDLastSave="196" documentId="13_ncr:1_{BE8035C7-66F3-402E-8DB8-EA92825E0BD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{82FDA3CB-DF6B-4C6D-BDB2-92A80349CFBF}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17910" yWindow="0" windowWidth="4740" windowHeight="14410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="問題チェックシート" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="17">
   <si>
     <t>* [ファイル] ⇨ [コピーを作成] を選択し、コピーしてからお使いください</t>
   </si>
@@ -579,8 +579,8 @@
   <dimension ref="A1:AC303"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A109" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D123" sqref="D123"/>
+      <pane ySplit="3" topLeftCell="A160" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D173" sqref="D173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5315,7 +5315,9 @@
       <c r="C125" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D125" s="7"/>
+      <c r="D125" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="E125" s="7"/>
       <c r="F125" s="11"/>
       <c r="G125" s="11"/>
@@ -5351,7 +5353,9 @@
       <c r="C126" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D126" s="7"/>
+      <c r="D126" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="E126" s="7"/>
       <c r="F126" s="11"/>
       <c r="G126" s="11"/>
@@ -5387,7 +5391,9 @@
       <c r="C127" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D127" s="7"/>
+      <c r="D127" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="E127" s="7"/>
       <c r="F127" s="11"/>
       <c r="G127" s="11"/>
@@ -5423,7 +5429,9 @@
       <c r="C128" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D128" s="7"/>
+      <c r="D128" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="E128" s="7"/>
       <c r="F128" s="11"/>
       <c r="G128" s="11"/>
@@ -5459,7 +5467,9 @@
       <c r="C129" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D129" s="7"/>
+      <c r="D129" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="E129" s="7"/>
       <c r="F129" s="11"/>
       <c r="G129" s="11"/>
@@ -5495,7 +5505,9 @@
       <c r="C130" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D130" s="13"/>
+      <c r="D130" s="13" t="s">
+        <v>5</v>
+      </c>
       <c r="E130" s="7"/>
       <c r="F130" s="11"/>
       <c r="G130" s="11"/>
@@ -5531,7 +5543,9 @@
       <c r="C131" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D131" s="7"/>
+      <c r="D131" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="E131" s="7"/>
       <c r="F131" s="11"/>
       <c r="G131" s="11"/>
@@ -5567,7 +5581,9 @@
       <c r="C132" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D132" s="7"/>
+      <c r="D132" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="E132" s="7"/>
       <c r="F132" s="11"/>
       <c r="G132" s="11"/>
@@ -5603,7 +5619,9 @@
       <c r="C133" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D133" s="13"/>
+      <c r="D133" s="13" t="s">
+        <v>5</v>
+      </c>
       <c r="E133" s="7"/>
       <c r="F133" s="11"/>
       <c r="G133" s="11"/>
@@ -5639,7 +5657,9 @@
       <c r="C134" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D134" s="7"/>
+      <c r="D134" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="E134" s="7"/>
       <c r="F134" s="11"/>
       <c r="G134" s="11"/>
@@ -5675,7 +5695,9 @@
       <c r="C135" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D135" s="7"/>
+      <c r="D135" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="E135" s="7"/>
       <c r="F135" s="11"/>
       <c r="G135" s="11"/>
@@ -5711,7 +5733,9 @@
       <c r="C136" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D136" s="13"/>
+      <c r="D136" s="13" t="s">
+        <v>14</v>
+      </c>
       <c r="E136" s="7"/>
       <c r="F136" s="11"/>
       <c r="G136" s="11"/>
@@ -5747,7 +5771,9 @@
       <c r="C137" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D137" s="13"/>
+      <c r="D137" s="13" t="s">
+        <v>5</v>
+      </c>
       <c r="E137" s="13"/>
       <c r="F137" s="11"/>
       <c r="G137" s="11"/>
@@ -5783,7 +5809,9 @@
       <c r="C138" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D138" s="7"/>
+      <c r="D138" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="E138" s="7"/>
       <c r="F138" s="11"/>
       <c r="G138" s="11"/>
@@ -5819,7 +5847,9 @@
       <c r="C139" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D139" s="7"/>
+      <c r="D139" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="E139" s="7"/>
       <c r="F139" s="11"/>
       <c r="G139" s="11"/>
@@ -5855,7 +5885,9 @@
       <c r="C140" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D140" s="7"/>
+      <c r="D140" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="E140" s="7"/>
       <c r="F140" s="11"/>
       <c r="G140" s="11"/>
@@ -5891,7 +5923,9 @@
       <c r="C141" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D141" s="7"/>
+      <c r="D141" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="E141" s="7"/>
       <c r="F141" s="11"/>
       <c r="G141" s="11"/>
@@ -5927,7 +5961,9 @@
       <c r="C142" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D142" s="7"/>
+      <c r="D142" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="E142" s="7"/>
       <c r="F142" s="11"/>
       <c r="G142" s="11"/>
@@ -5963,7 +5999,9 @@
       <c r="C143" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D143" s="7"/>
+      <c r="D143" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="E143" s="7"/>
       <c r="F143" s="11"/>
       <c r="G143" s="11"/>
@@ -6035,7 +6073,9 @@
       <c r="C145" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D145" s="7"/>
+      <c r="D145" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="E145" s="7"/>
       <c r="F145" s="11"/>
       <c r="G145" s="11"/>
@@ -6071,7 +6111,9 @@
       <c r="C146" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D146" s="7"/>
+      <c r="D146" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="E146" s="7"/>
       <c r="F146" s="11"/>
       <c r="G146" s="11"/>
@@ -6107,7 +6149,9 @@
       <c r="C147" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D147" s="7"/>
+      <c r="D147" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="E147" s="7"/>
       <c r="F147" s="11"/>
       <c r="G147" s="11"/>
@@ -6143,7 +6187,9 @@
       <c r="C148" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D148" s="7"/>
+      <c r="D148" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="E148" s="7"/>
       <c r="F148" s="11"/>
       <c r="G148" s="11"/>
@@ -6215,7 +6261,9 @@
       <c r="C150" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D150" s="13"/>
+      <c r="D150" s="13" t="s">
+        <v>5</v>
+      </c>
       <c r="E150" s="7"/>
       <c r="F150" s="11"/>
       <c r="G150" s="11"/>
@@ -6251,7 +6299,9 @@
       <c r="C151" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D151" s="7"/>
+      <c r="D151" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="E151" s="7"/>
       <c r="F151" s="14"/>
       <c r="G151" s="11"/>
@@ -6287,7 +6337,9 @@
       <c r="C152" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D152" s="7"/>
+      <c r="D152" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="E152" s="7"/>
       <c r="F152" s="11"/>
       <c r="G152" s="11"/>
@@ -6323,7 +6375,9 @@
       <c r="C153" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D153" s="7"/>
+      <c r="D153" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="E153" s="7"/>
       <c r="F153" s="11"/>
       <c r="G153" s="11"/>
@@ -6359,7 +6413,9 @@
       <c r="C154" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D154" s="7"/>
+      <c r="D154" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="E154" s="7"/>
       <c r="F154" s="11"/>
       <c r="G154" s="11"/>
@@ -6395,7 +6451,9 @@
       <c r="C155" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D155" s="7"/>
+      <c r="D155" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="E155" s="7"/>
       <c r="F155" s="11"/>
       <c r="G155" s="11"/>
@@ -6503,7 +6561,9 @@
       <c r="C158" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D158" s="7"/>
+      <c r="D158" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="E158" s="7"/>
       <c r="F158" s="11"/>
       <c r="G158" s="11"/>
@@ -6539,7 +6599,9 @@
       <c r="C159" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D159" s="7"/>
+      <c r="D159" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="E159" s="7"/>
       <c r="F159" s="11"/>
       <c r="G159" s="11"/>
@@ -6575,7 +6637,9 @@
       <c r="C160" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D160" s="7"/>
+      <c r="D160" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="E160" s="7"/>
       <c r="F160" s="11"/>
       <c r="G160" s="11"/>
@@ -6611,7 +6675,9 @@
       <c r="C161" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D161" s="7"/>
+      <c r="D161" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="E161" s="7"/>
       <c r="F161" s="11"/>
       <c r="G161" s="11"/>
@@ -6647,7 +6713,9 @@
       <c r="C162" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D162" s="7"/>
+      <c r="D162" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="E162" s="7"/>
       <c r="F162" s="11"/>
       <c r="G162" s="11"/>
@@ -6683,7 +6751,9 @@
       <c r="C163" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D163" s="7"/>
+      <c r="D163" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="E163" s="7"/>
       <c r="F163" s="11"/>
       <c r="G163" s="11"/>
@@ -6719,7 +6789,9 @@
       <c r="C164" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D164" s="13"/>
+      <c r="D164" s="13" t="s">
+        <v>14</v>
+      </c>
       <c r="E164" s="7"/>
       <c r="F164" s="11"/>
       <c r="G164" s="11"/>
@@ -6755,7 +6827,9 @@
       <c r="C165" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D165" s="13"/>
+      <c r="D165" s="13" t="s">
+        <v>5</v>
+      </c>
       <c r="E165" s="7"/>
       <c r="F165" s="11"/>
       <c r="G165" s="11"/>
@@ -6791,7 +6865,9 @@
       <c r="C166" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D166" s="7"/>
+      <c r="D166" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="E166" s="7"/>
       <c r="F166" s="11"/>
       <c r="G166" s="11"/>
@@ -6827,7 +6903,9 @@
       <c r="C167" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D167" s="7"/>
+      <c r="D167" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="E167" s="7"/>
       <c r="F167" s="11"/>
       <c r="G167" s="11"/>
@@ -6863,7 +6941,9 @@
       <c r="C168" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D168" s="7"/>
+      <c r="D168" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="E168" s="7"/>
       <c r="F168" s="11"/>
       <c r="G168" s="11"/>
@@ -6899,7 +6979,9 @@
       <c r="C169" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D169" s="7"/>
+      <c r="D169" s="13" t="s">
+        <v>16</v>
+      </c>
       <c r="E169" s="7"/>
       <c r="F169" s="11"/>
       <c r="G169" s="11"/>
@@ -6935,7 +7017,9 @@
       <c r="C170" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D170" s="7"/>
+      <c r="D170" s="13" t="s">
+        <v>16</v>
+      </c>
       <c r="E170" s="7"/>
       <c r="F170" s="11"/>
       <c r="G170" s="11"/>
@@ -6971,7 +7055,9 @@
       <c r="C171" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D171" s="7"/>
+      <c r="D171" s="13" t="s">
+        <v>16</v>
+      </c>
       <c r="E171" s="7"/>
       <c r="F171" s="11"/>
       <c r="G171" s="11"/>
@@ -7007,7 +7093,9 @@
       <c r="C172" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D172" s="7"/>
+      <c r="D172" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="E172" s="7"/>
       <c r="F172" s="11"/>
       <c r="G172" s="11"/>
@@ -7043,7 +7131,9 @@
       <c r="C173" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D173" s="7"/>
+      <c r="D173" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="E173" s="7"/>
       <c r="F173" s="11"/>
       <c r="G173" s="11"/>
@@ -10875,7 +10965,7 @@
   <customSheetViews>
     <customSheetView guid="{2A2FD979-9F8D-413C-9CCD-B7F26FC2F3D3}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="B3:G267" xr:uid="{BBA06EE6-0DF1-4EA5-BBFC-6EAA5C39FB20}"/>
+      <autoFilter ref="B3:G267" xr:uid="{BD95E1BC-E3D9-4886-974F-DACBD625C813}"/>
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="7"/>

--- a/work-book/cloudTech/SAP/[SAP-C02]AWS問題集チェックシート.xlsx
+++ b/work-book/cloudTech/SAP/[SAP-C02]AWS問題集チェックシート.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f8aaa7f11ecf284d/デスクトップ/program/readeing-learning-history/work-book/cloudTech/SAP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="196" documentId="13_ncr:1_{BE8035C7-66F3-402E-8DB8-EA92825E0BD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{82FDA3CB-DF6B-4C6D-BDB2-92A80349CFBF}"/>
+  <xr:revisionPtr revIDLastSave="234" documentId="13_ncr:1_{BE8035C7-66F3-402E-8DB8-EA92825E0BD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CBBD2353-D4FE-4133-81D1-E7F77C218F01}"/>
   <bookViews>
-    <workbookView xWindow="17910" yWindow="0" windowWidth="4740" windowHeight="14410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17610" yWindow="0" windowWidth="5040" windowHeight="14410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="問題チェックシート" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="17">
   <si>
     <t>* [ファイル] ⇨ [コピーを作成] を選択し、コピーしてからお使いください</t>
   </si>
@@ -579,8 +579,8 @@
   <dimension ref="A1:AC303"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A160" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D173" sqref="D173"/>
+      <pane ySplit="3" topLeftCell="A196" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D211" sqref="D211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -7169,7 +7169,9 @@
       <c r="C174" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D174" s="7"/>
+      <c r="D174" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="E174" s="7"/>
       <c r="F174" s="11"/>
       <c r="G174" s="11"/>
@@ -7205,7 +7207,9 @@
       <c r="C175" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D175" s="7"/>
+      <c r="D175" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="E175" s="7"/>
       <c r="F175" s="11"/>
       <c r="G175" s="11"/>
@@ -7241,7 +7245,9 @@
       <c r="C176" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D176" s="7"/>
+      <c r="D176" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="E176" s="7"/>
       <c r="F176" s="11"/>
       <c r="G176" s="11"/>
@@ -7277,7 +7283,9 @@
       <c r="C177" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D177" s="7"/>
+      <c r="D177" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="E177" s="7"/>
       <c r="F177" s="11"/>
       <c r="G177" s="11"/>
@@ -7313,7 +7321,9 @@
       <c r="C178" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D178" s="7"/>
+      <c r="D178" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="E178" s="7"/>
       <c r="F178" s="11"/>
       <c r="G178" s="11"/>
@@ -7349,7 +7359,9 @@
       <c r="C179" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D179" s="13"/>
+      <c r="D179" s="13" t="s">
+        <v>2</v>
+      </c>
       <c r="E179" s="7"/>
       <c r="F179" s="11"/>
       <c r="G179" s="11"/>
@@ -7385,7 +7397,9 @@
       <c r="C180" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D180" s="7"/>
+      <c r="D180" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="E180" s="7"/>
       <c r="F180" s="11"/>
       <c r="G180" s="11"/>
@@ -7457,7 +7471,9 @@
       <c r="C182" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D182" s="7"/>
+      <c r="D182" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="E182" s="7"/>
       <c r="F182" s="11"/>
       <c r="G182" s="11"/>
@@ -7493,7 +7509,9 @@
       <c r="C183" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D183" s="7"/>
+      <c r="D183" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="E183" s="7"/>
       <c r="F183" s="11"/>
       <c r="G183" s="11"/>
@@ -7529,7 +7547,9 @@
       <c r="C184" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D184" s="7"/>
+      <c r="D184" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="E184" s="7"/>
       <c r="F184" s="11"/>
       <c r="G184" s="11"/>
@@ -7565,7 +7585,9 @@
       <c r="C185" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D185" s="7"/>
+      <c r="D185" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="E185" s="7"/>
       <c r="F185" s="11"/>
       <c r="G185" s="11"/>
@@ -7601,7 +7623,9 @@
       <c r="C186" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D186" s="7"/>
+      <c r="D186" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="E186" s="7"/>
       <c r="F186" s="11"/>
       <c r="G186" s="11"/>
@@ -7637,7 +7661,9 @@
       <c r="C187" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D187" s="7"/>
+      <c r="D187" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="E187" s="7"/>
       <c r="F187" s="11"/>
       <c r="G187" s="11"/>
@@ -7673,7 +7699,9 @@
       <c r="C188" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D188" s="13"/>
+      <c r="D188" s="13" t="s">
+        <v>5</v>
+      </c>
       <c r="E188" s="7"/>
       <c r="F188" s="11"/>
       <c r="G188" s="11"/>
@@ -7709,7 +7737,9 @@
       <c r="C189" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D189" s="7"/>
+      <c r="D189" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="E189" s="7"/>
       <c r="F189" s="11"/>
       <c r="G189" s="11"/>
@@ -7745,7 +7775,9 @@
       <c r="C190" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D190" s="7"/>
+      <c r="D190" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="E190" s="7"/>
       <c r="F190" s="11"/>
       <c r="G190" s="11"/>
@@ -7781,7 +7813,9 @@
       <c r="C191" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D191" s="7"/>
+      <c r="D191" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="E191" s="7"/>
       <c r="F191" s="11"/>
       <c r="G191" s="11"/>
@@ -7817,7 +7851,9 @@
       <c r="C192" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D192" s="7"/>
+      <c r="D192" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="E192" s="7"/>
       <c r="F192" s="11"/>
       <c r="G192" s="11"/>
@@ -7853,7 +7889,9 @@
       <c r="C193" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D193" s="7"/>
+      <c r="D193" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="E193" s="7"/>
       <c r="F193" s="11"/>
       <c r="G193" s="11"/>
@@ -7889,7 +7927,9 @@
       <c r="C194" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D194" s="7"/>
+      <c r="D194" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="E194" s="7"/>
       <c r="F194" s="11"/>
       <c r="G194" s="11"/>
@@ -7997,7 +8037,9 @@
       <c r="C197" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D197" s="13"/>
+      <c r="D197" s="13" t="s">
+        <v>2</v>
+      </c>
       <c r="E197" s="7"/>
       <c r="F197" s="11"/>
       <c r="G197" s="11"/>
@@ -8033,7 +8075,9 @@
       <c r="C198" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D198" s="7"/>
+      <c r="D198" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="E198" s="7"/>
       <c r="F198" s="11"/>
       <c r="G198" s="11"/>
@@ -8069,7 +8113,9 @@
       <c r="C199" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D199" s="7"/>
+      <c r="D199" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="E199" s="7"/>
       <c r="F199" s="11"/>
       <c r="G199" s="11"/>
@@ -8105,7 +8151,9 @@
       <c r="C200" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D200" s="13"/>
+      <c r="D200" s="13" t="s">
+        <v>2</v>
+      </c>
       <c r="E200" s="7"/>
       <c r="F200" s="11"/>
       <c r="G200" s="11"/>
@@ -8141,7 +8189,9 @@
       <c r="C201" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D201" s="13"/>
+      <c r="D201" s="13" t="s">
+        <v>5</v>
+      </c>
       <c r="E201" s="7"/>
       <c r="F201" s="11"/>
       <c r="G201" s="11"/>
@@ -8177,7 +8227,9 @@
       <c r="C202" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D202" s="7"/>
+      <c r="D202" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="E202" s="7"/>
       <c r="F202" s="11"/>
       <c r="G202" s="11"/>
@@ -8213,7 +8265,9 @@
       <c r="C203" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D203" s="7"/>
+      <c r="D203" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="E203" s="7"/>
       <c r="F203" s="11"/>
       <c r="G203" s="11"/>
@@ -8249,7 +8303,9 @@
       <c r="C204" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D204" s="7"/>
+      <c r="D204" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="E204" s="7"/>
       <c r="F204" s="11"/>
       <c r="G204" s="11"/>
@@ -8321,7 +8377,9 @@
       <c r="C206" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D206" s="7"/>
+      <c r="D206" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="E206" s="7"/>
       <c r="F206" s="11"/>
       <c r="G206" s="11"/>
@@ -8357,7 +8415,9 @@
       <c r="C207" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D207" s="7"/>
+      <c r="D207" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="E207" s="7"/>
       <c r="F207" s="11"/>
       <c r="G207" s="11"/>
@@ -8393,7 +8453,9 @@
       <c r="C208" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D208" s="7"/>
+      <c r="D208" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="E208" s="7"/>
       <c r="F208" s="11"/>
       <c r="G208" s="11"/>
@@ -8429,7 +8491,9 @@
       <c r="C209" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D209" s="7"/>
+      <c r="D209" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="E209" s="7"/>
       <c r="F209" s="11"/>
       <c r="G209" s="11"/>
@@ -8465,7 +8529,9 @@
       <c r="C210" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D210" s="7"/>
+      <c r="D210" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="E210" s="7"/>
       <c r="F210" s="11"/>
       <c r="G210" s="11"/>
@@ -8501,7 +8567,9 @@
       <c r="C211" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D211" s="7"/>
+      <c r="D211" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="E211" s="7"/>
       <c r="F211" s="11"/>
       <c r="G211" s="11"/>
@@ -10965,7 +11033,7 @@
   <customSheetViews>
     <customSheetView guid="{2A2FD979-9F8D-413C-9CCD-B7F26FC2F3D3}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="B3:G267" xr:uid="{BD95E1BC-E3D9-4886-974F-DACBD625C813}"/>
+      <autoFilter ref="B3:G267" xr:uid="{DE4FCC70-4911-4748-9917-4954307E6E24}"/>
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="7"/>

--- a/work-book/cloudTech/SAP/[SAP-C02]AWS問題集チェックシート.xlsx
+++ b/work-book/cloudTech/SAP/[SAP-C02]AWS問題集チェックシート.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f8aaa7f11ecf284d/デスクトップ/program/readeing-learning-history/work-book/cloudTech/SAP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="234" documentId="13_ncr:1_{BE8035C7-66F3-402E-8DB8-EA92825E0BD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CBBD2353-D4FE-4133-81D1-E7F77C218F01}"/>
+  <xr:revisionPtr revIDLastSave="247" documentId="13_ncr:1_{BE8035C7-66F3-402E-8DB8-EA92825E0BD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{092CBFE2-2D46-4C15-A454-EF776C6CA63E}"/>
   <bookViews>
-    <workbookView xWindow="17610" yWindow="0" windowWidth="5040" windowHeight="14410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17510" yWindow="0" windowWidth="5140" windowHeight="14410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="問題チェックシート" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="511" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="17">
   <si>
     <t>* [ファイル] ⇨ [コピーを作成] を選択し、コピーしてからお使いください</t>
   </si>
@@ -579,8 +579,8 @@
   <dimension ref="A1:AC303"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A196" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D211" sqref="D211"/>
+      <pane ySplit="3" topLeftCell="A205" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D223" sqref="D223"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8713,7 +8713,9 @@
       <c r="C215" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D215" s="7"/>
+      <c r="D215" s="13" t="s">
+        <v>16</v>
+      </c>
       <c r="E215" s="7"/>
       <c r="F215" s="11"/>
       <c r="G215" s="11"/>
@@ -8749,7 +8751,9 @@
       <c r="C216" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D216" s="7"/>
+      <c r="D216" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="E216" s="7"/>
       <c r="F216" s="11"/>
       <c r="G216" s="11"/>
@@ -8785,7 +8789,9 @@
       <c r="C217" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D217" s="7"/>
+      <c r="D217" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="E217" s="7"/>
       <c r="F217" s="11"/>
       <c r="G217" s="11"/>
@@ -8821,7 +8827,9 @@
       <c r="C218" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D218" s="7"/>
+      <c r="D218" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="E218" s="7"/>
       <c r="F218" s="11"/>
       <c r="G218" s="11"/>
@@ -8857,7 +8865,9 @@
       <c r="C219" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D219" s="13"/>
+      <c r="D219" s="13" t="s">
+        <v>14</v>
+      </c>
       <c r="E219" s="7"/>
       <c r="F219" s="11"/>
       <c r="G219" s="11"/>
@@ -8893,7 +8903,9 @@
       <c r="C220" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D220" s="7"/>
+      <c r="D220" s="13" t="s">
+        <v>16</v>
+      </c>
       <c r="E220" s="7"/>
       <c r="F220" s="11"/>
       <c r="G220" s="11"/>
@@ -8965,7 +8977,9 @@
       <c r="C222" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D222" s="7"/>
+      <c r="D222" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="E222" s="7"/>
       <c r="F222" s="11"/>
       <c r="G222" s="11"/>
@@ -9001,7 +9015,9 @@
       <c r="C223" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D223" s="7"/>
+      <c r="D223" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="E223" s="7"/>
       <c r="F223" s="11"/>
       <c r="G223" s="11"/>
@@ -11033,7 +11049,7 @@
   <customSheetViews>
     <customSheetView guid="{2A2FD979-9F8D-413C-9CCD-B7F26FC2F3D3}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="B3:G267" xr:uid="{DE4FCC70-4911-4748-9917-4954307E6E24}"/>
+      <autoFilter ref="B3:G267" xr:uid="{408F48B6-8F83-4DC3-9DB4-4BC11076279F}"/>
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="7"/>

--- a/work-book/cloudTech/SAP/[SAP-C02]AWS問題集チェックシート.xlsx
+++ b/work-book/cloudTech/SAP/[SAP-C02]AWS問題集チェックシート.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f8aaa7f11ecf284d/デスクトップ/program/readeing-learning-history/work-book/cloudTech/SAP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="247" documentId="13_ncr:1_{BE8035C7-66F3-402E-8DB8-EA92825E0BD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{092CBFE2-2D46-4C15-A454-EF776C6CA63E}"/>
+  <xr:revisionPtr revIDLastSave="255" documentId="13_ncr:1_{BE8035C7-66F3-402E-8DB8-EA92825E0BD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{280A6F6F-58E2-4E00-BD2D-7A11ECE14EB5}"/>
   <bookViews>
-    <workbookView xWindow="17510" yWindow="0" windowWidth="5140" windowHeight="14410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17250" yWindow="0" windowWidth="5400" windowHeight="14410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="問題チェックシート" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="18">
   <si>
     <t>* [ファイル] ⇨ [コピーを作成] を選択し、コピーしてからお使いください</t>
   </si>
@@ -89,6 +89,10 @@
   </si>
   <si>
     <t>NG</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>OK</t>
     <phoneticPr fontId="7"/>
   </si>
 </sst>
@@ -579,8 +583,8 @@
   <dimension ref="A1:AC303"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A205" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D223" sqref="D223"/>
+      <pane ySplit="3" topLeftCell="A222" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D233" sqref="D233"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9053,7 +9057,9 @@
       <c r="C224" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D224" s="7"/>
+      <c r="D224" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="E224" s="7"/>
       <c r="F224" s="11"/>
       <c r="G224" s="11"/>
@@ -9089,7 +9095,9 @@
       <c r="C225" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D225" s="7"/>
+      <c r="D225" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="E225" s="7"/>
       <c r="F225" s="11"/>
       <c r="G225" s="11"/>
@@ -9125,7 +9133,9 @@
       <c r="C226" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D226" s="7"/>
+      <c r="D226" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="E226" s="7"/>
       <c r="F226" s="11"/>
       <c r="G226" s="11"/>
@@ -9197,7 +9207,9 @@
       <c r="C228" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D228" s="7"/>
+      <c r="D228" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="E228" s="7"/>
       <c r="F228" s="11"/>
       <c r="G228" s="11"/>
@@ -9305,7 +9317,9 @@
       <c r="C231" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D231" s="7"/>
+      <c r="D231" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="E231" s="7"/>
       <c r="F231" s="11"/>
       <c r="G231" s="11"/>
@@ -9341,7 +9355,9 @@
       <c r="C232" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D232" s="7"/>
+      <c r="D232" s="13" t="s">
+        <v>17</v>
+      </c>
       <c r="E232" s="7"/>
       <c r="F232" s="11"/>
       <c r="G232" s="11"/>
@@ -9377,7 +9393,9 @@
       <c r="C233" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D233" s="7"/>
+      <c r="D233" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="E233" s="7"/>
       <c r="F233" s="11"/>
       <c r="G233" s="11"/>
@@ -11049,7 +11067,7 @@
   <customSheetViews>
     <customSheetView guid="{2A2FD979-9F8D-413C-9CCD-B7F26FC2F3D3}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="B3:G267" xr:uid="{408F48B6-8F83-4DC3-9DB4-4BC11076279F}"/>
+      <autoFilter ref="B3:G267" xr:uid="{9ED0D289-7806-4203-957F-48FC9B251700}"/>
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="7"/>

--- a/work-book/cloudTech/SAP/[SAP-C02]AWS問題集チェックシート.xlsx
+++ b/work-book/cloudTech/SAP/[SAP-C02]AWS問題集チェックシート.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f8aaa7f11ecf284d/デスクトップ/program/readeing-learning-history/work-book/cloudTech/SAP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="255" documentId="13_ncr:1_{BE8035C7-66F3-402E-8DB8-EA92825E0BD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{280A6F6F-58E2-4E00-BD2D-7A11ECE14EB5}"/>
+  <xr:revisionPtr revIDLastSave="275" documentId="13_ncr:1_{BE8035C7-66F3-402E-8DB8-EA92825E0BD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{614A27E5-E38E-43EF-A868-05036D1E0CE9}"/>
   <bookViews>
-    <workbookView xWindow="17250" yWindow="0" windowWidth="5400" windowHeight="14410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17470" yWindow="0" windowWidth="5180" windowHeight="14410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="問題チェックシート" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="18">
   <si>
     <t>* [ファイル] ⇨ [コピーを作成] を選択し、コピーしてからお使いください</t>
   </si>
@@ -583,8 +583,8 @@
   <dimension ref="A1:AC303"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A222" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D233" sqref="D233"/>
+      <pane ySplit="3" topLeftCell="A240" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D253" sqref="D253"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9431,7 +9431,9 @@
       <c r="C234" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D234" s="7"/>
+      <c r="D234" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="E234" s="7"/>
       <c r="F234" s="11"/>
       <c r="G234" s="11"/>
@@ -9467,7 +9469,9 @@
       <c r="C235" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D235" s="7"/>
+      <c r="D235" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="E235" s="7"/>
       <c r="F235" s="11"/>
       <c r="G235" s="11"/>
@@ -9503,7 +9507,9 @@
       <c r="C236" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D236" s="7"/>
+      <c r="D236" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="E236" s="7"/>
       <c r="F236" s="11"/>
       <c r="G236" s="11"/>
@@ -9575,7 +9581,9 @@
       <c r="C238" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D238" s="7"/>
+      <c r="D238" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="E238" s="7"/>
       <c r="F238" s="11"/>
       <c r="G238" s="11"/>
@@ -9611,7 +9619,9 @@
       <c r="C239" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="D239" s="7"/>
+      <c r="D239" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="E239" s="7"/>
       <c r="F239" s="11"/>
       <c r="G239" s="11"/>
@@ -9647,7 +9657,9 @@
       <c r="C240" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D240" s="7"/>
+      <c r="D240" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="E240" s="7"/>
       <c r="F240" s="11"/>
       <c r="G240" s="11"/>
@@ -9683,7 +9695,9 @@
       <c r="C241" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D241" s="7"/>
+      <c r="D241" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="E241" s="7"/>
       <c r="F241" s="11"/>
       <c r="G241" s="11"/>
@@ -9719,7 +9733,9 @@
       <c r="C242" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D242" s="7"/>
+      <c r="D242" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="E242" s="7"/>
       <c r="F242" s="11"/>
       <c r="G242" s="11"/>
@@ -9755,7 +9771,9 @@
       <c r="C243" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D243" s="7"/>
+      <c r="D243" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="E243" s="7"/>
       <c r="F243" s="11"/>
       <c r="G243" s="11"/>
@@ -9791,7 +9809,9 @@
       <c r="C244" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D244" s="7"/>
+      <c r="D244" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="E244" s="7"/>
       <c r="F244" s="11"/>
       <c r="G244" s="11"/>
@@ -9827,7 +9847,9 @@
       <c r="C245" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D245" s="7"/>
+      <c r="D245" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="E245" s="7"/>
       <c r="F245" s="11"/>
       <c r="G245" s="11"/>
@@ -9899,7 +9921,9 @@
       <c r="C247" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D247" s="7"/>
+      <c r="D247" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="E247" s="7"/>
       <c r="F247" s="11"/>
       <c r="G247" s="11"/>
@@ -9935,7 +9959,9 @@
       <c r="C248" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D248" s="7"/>
+      <c r="D248" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="E248" s="7"/>
       <c r="F248" s="11"/>
       <c r="G248" s="11"/>
@@ -9971,7 +9997,9 @@
       <c r="C249" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D249" s="13"/>
+      <c r="D249" s="13" t="s">
+        <v>14</v>
+      </c>
       <c r="E249" s="7"/>
       <c r="F249" s="11"/>
       <c r="G249" s="11"/>
@@ -10007,7 +10035,9 @@
       <c r="C250" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D250" s="7"/>
+      <c r="D250" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="E250" s="7"/>
       <c r="F250" s="11"/>
       <c r="G250" s="11"/>
@@ -10043,7 +10073,9 @@
       <c r="C251" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D251" s="7"/>
+      <c r="D251" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="E251" s="7"/>
       <c r="F251" s="11"/>
       <c r="G251" s="11"/>
@@ -10079,7 +10111,9 @@
       <c r="C252" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D252" s="7"/>
+      <c r="D252" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="E252" s="7"/>
       <c r="F252" s="11"/>
       <c r="G252" s="11"/>
@@ -10115,7 +10149,9 @@
       <c r="C253" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D253" s="7"/>
+      <c r="D253" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="E253" s="7"/>
       <c r="F253" s="11"/>
       <c r="G253" s="11"/>
@@ -11067,7 +11103,7 @@
   <customSheetViews>
     <customSheetView guid="{2A2FD979-9F8D-413C-9CCD-B7F26FC2F3D3}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="B3:G267" xr:uid="{9ED0D289-7806-4203-957F-48FC9B251700}"/>
+      <autoFilter ref="B3:G267" xr:uid="{16FBD365-CE3B-44A5-93EB-0EC6FD788E97}"/>
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="7"/>

--- a/work-book/cloudTech/SAP/[SAP-C02]AWS問題集チェックシート.xlsx
+++ b/work-book/cloudTech/SAP/[SAP-C02]AWS問題集チェックシート.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f8aaa7f11ecf284d/デスクトップ/program/readeing-learning-history/work-book/cloudTech/SAP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="275" documentId="13_ncr:1_{BE8035C7-66F3-402E-8DB8-EA92825E0BD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{614A27E5-E38E-43EF-A868-05036D1E0CE9}"/>
+  <xr:revisionPtr revIDLastSave="277" documentId="13_ncr:1_{BE8035C7-66F3-402E-8DB8-EA92825E0BD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{89F30067-7E08-4913-87B0-FD9891235D69}"/>
   <bookViews>
     <workbookView xWindow="17470" yWindow="0" windowWidth="5180" windowHeight="14410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="544" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="19">
   <si>
     <t>* [ファイル] ⇨ [コピーを作成] を選択し、コピーしてからお使いください</t>
   </si>
@@ -93,6 +93,10 @@
   </si>
   <si>
     <t>OK</t>
+    <phoneticPr fontId="7"/>
+  </si>
+  <si>
+    <t>Again</t>
     <phoneticPr fontId="7"/>
   </si>
 </sst>
@@ -583,8 +587,8 @@
   <dimension ref="A1:AC303"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A240" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D253" sqref="D253"/>
+      <pane ySplit="3" topLeftCell="A251" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D255" sqref="D255"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10073,8 +10077,8 @@
       <c r="C251" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D251" s="7" t="s">
-        <v>5</v>
+      <c r="D251" s="13" t="s">
+        <v>18</v>
       </c>
       <c r="E251" s="7"/>
       <c r="F251" s="11"/>
@@ -10223,7 +10227,9 @@
       <c r="C255" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D255" s="7"/>
+      <c r="D255" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="E255" s="7"/>
       <c r="F255" s="11"/>
       <c r="G255" s="11"/>
@@ -11103,7 +11109,7 @@
   <customSheetViews>
     <customSheetView guid="{2A2FD979-9F8D-413C-9CCD-B7F26FC2F3D3}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="B3:G267" xr:uid="{16FBD365-CE3B-44A5-93EB-0EC6FD788E97}"/>
+      <autoFilter ref="B3:G267" xr:uid="{7FE2EA14-335E-4F71-9A96-1AAB7163EDD8}"/>
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="7"/>

--- a/work-book/cloudTech/SAP/[SAP-C02]AWS問題集チェックシート.xlsx
+++ b/work-book/cloudTech/SAP/[SAP-C02]AWS問題集チェックシート.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f8aaa7f11ecf284d/デスクトップ/program/readeing-learning-history/work-book/cloudTech/SAP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="277" documentId="13_ncr:1_{BE8035C7-66F3-402E-8DB8-EA92825E0BD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{89F30067-7E08-4913-87B0-FD9891235D69}"/>
+  <xr:revisionPtr revIDLastSave="302" documentId="13_ncr:1_{BE8035C7-66F3-402E-8DB8-EA92825E0BD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BB707C52-F34E-4768-97FE-ACD136DF0C44}"/>
   <bookViews>
-    <workbookView xWindow="17470" yWindow="0" windowWidth="5180" windowHeight="14410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17540" yWindow="0" windowWidth="5110" windowHeight="14410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="問題チェックシート" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="19">
   <si>
     <t>* [ファイル] ⇨ [コピーを作成] を選択し、コピーしてからお使いください</t>
   </si>
@@ -587,8 +587,8 @@
   <dimension ref="A1:AC303"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A251" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D255" sqref="D255"/>
+      <pane ySplit="3" topLeftCell="A270" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D283" sqref="D283"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10301,7 +10301,9 @@
       <c r="C257" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D257" s="7"/>
+      <c r="D257" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="E257" s="13"/>
       <c r="F257" s="11"/>
       <c r="G257" s="11"/>
@@ -10373,7 +10375,9 @@
       <c r="C259" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D259" s="7"/>
+      <c r="D259" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="E259" s="7"/>
       <c r="F259" s="11"/>
       <c r="G259" s="11"/>
@@ -10409,7 +10413,9 @@
       <c r="C260" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D260" s="7"/>
+      <c r="D260" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="E260" s="7"/>
       <c r="F260" s="11"/>
       <c r="G260" s="11"/>
@@ -10445,7 +10451,9 @@
       <c r="C261" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D261" s="7"/>
+      <c r="D261" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="E261" s="7"/>
       <c r="F261" s="11"/>
       <c r="G261" s="11"/>
@@ -10481,7 +10489,9 @@
       <c r="C262" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D262" s="7"/>
+      <c r="D262" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="E262" s="7"/>
       <c r="F262" s="11"/>
       <c r="G262" s="11"/>
@@ -10552,7 +10562,9 @@
       <c r="C264" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D264" s="7"/>
+      <c r="D264" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="E264" s="7"/>
       <c r="F264" s="11"/>
       <c r="G264" s="11"/>
@@ -10580,7 +10592,9 @@
       <c r="C266" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D266" s="7"/>
+      <c r="D266" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="E266" s="7"/>
       <c r="F266" s="11"/>
       <c r="G266" s="11"/>
@@ -10594,7 +10608,9 @@
       <c r="C267" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D267" s="7"/>
+      <c r="D267" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="E267" s="7"/>
       <c r="F267" s="11"/>
       <c r="G267" s="11"/>
@@ -10608,7 +10624,9 @@
       <c r="C268" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D268" s="7"/>
+      <c r="D268" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="E268" s="7"/>
       <c r="F268" s="11"/>
       <c r="G268" s="11"/>
@@ -10622,7 +10640,9 @@
       <c r="C269" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D269" s="7"/>
+      <c r="D269" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="E269" s="7"/>
       <c r="F269" s="11"/>
       <c r="G269" s="11"/>
@@ -10636,7 +10656,9 @@
       <c r="C270" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D270" s="7"/>
+      <c r="D270" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="E270" s="7"/>
       <c r="F270" s="11"/>
       <c r="G270" s="11"/>
@@ -10664,7 +10686,9 @@
       <c r="C272" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D272" s="7"/>
+      <c r="D272" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="E272" s="7"/>
       <c r="F272" s="11"/>
       <c r="G272" s="11"/>
@@ -10678,7 +10702,9 @@
       <c r="C273" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D273" s="7"/>
+      <c r="D273" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="E273" s="7"/>
       <c r="F273" s="11"/>
       <c r="G273" s="11"/>
@@ -10692,7 +10718,9 @@
       <c r="C274" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D274" s="7"/>
+      <c r="D274" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="E274" s="7"/>
       <c r="F274" s="11"/>
       <c r="G274" s="11"/>
@@ -10706,7 +10734,9 @@
       <c r="C275" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D275" s="7"/>
+      <c r="D275" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="E275" s="7"/>
       <c r="F275" s="11"/>
       <c r="G275" s="11"/>
@@ -10720,7 +10750,9 @@
       <c r="C276" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D276" s="7"/>
+      <c r="D276" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="E276" s="7"/>
       <c r="F276" s="11"/>
       <c r="G276" s="11"/>
@@ -10734,7 +10766,9 @@
       <c r="C277" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D277" s="7"/>
+      <c r="D277" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="E277" s="7"/>
       <c r="F277" s="11"/>
       <c r="G277" s="11"/>
@@ -10748,7 +10782,9 @@
       <c r="C278" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D278" s="7"/>
+      <c r="D278" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="E278" s="7"/>
       <c r="F278" s="11"/>
       <c r="G278" s="11"/>
@@ -10762,7 +10798,9 @@
       <c r="C279" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D279" s="7"/>
+      <c r="D279" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="E279" s="7"/>
       <c r="F279" s="11"/>
       <c r="G279" s="11"/>
@@ -10776,7 +10814,9 @@
       <c r="C280" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D280" s="7"/>
+      <c r="D280" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="E280" s="7"/>
       <c r="F280" s="11"/>
       <c r="G280" s="11"/>
@@ -10790,7 +10830,9 @@
       <c r="C281" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D281" s="7"/>
+      <c r="D281" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="E281" s="7"/>
       <c r="F281" s="11"/>
       <c r="G281" s="11"/>
@@ -10804,7 +10846,9 @@
       <c r="C282" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D282" s="7"/>
+      <c r="D282" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="E282" s="7"/>
       <c r="F282" s="11"/>
       <c r="G282" s="11"/>
@@ -10818,7 +10862,9 @@
       <c r="C283" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D283" s="7"/>
+      <c r="D283" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="E283" s="7"/>
       <c r="F283" s="11"/>
       <c r="G283" s="11"/>
@@ -11109,7 +11155,7 @@
   <customSheetViews>
     <customSheetView guid="{2A2FD979-9F8D-413C-9CCD-B7F26FC2F3D3}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="B3:G267" xr:uid="{7FE2EA14-335E-4F71-9A96-1AAB7163EDD8}"/>
+      <autoFilter ref="B3:G267" xr:uid="{0CD87760-ACEE-4022-87A6-8E707FD896F5}"/>
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="7"/>

--- a/work-book/cloudTech/SAP/[SAP-C02]AWS問題集チェックシート.xlsx
+++ b/work-book/cloudTech/SAP/[SAP-C02]AWS問題集チェックシート.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f8aaa7f11ecf284d/デスクトップ/program/readeing-learning-history/work-book/cloudTech/SAP/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kobek\OneDrive\デスクトップ\program\readeing-learning-history\work-book\cloudTech\SAP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="302" documentId="13_ncr:1_{BE8035C7-66F3-402E-8DB8-EA92825E0BD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BB707C52-F34E-4768-97FE-ACD136DF0C44}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B8999BD-FC05-4DF7-AFA1-082B8FD27174}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17540" yWindow="0" windowWidth="5110" windowHeight="14410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17560" yWindow="0" windowWidth="5090" windowHeight="14410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="問題チェックシート" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="19">
   <si>
     <t>* [ファイル] ⇨ [コピーを作成] を選択し、コピーしてからお使いください</t>
   </si>
@@ -379,10 +379,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
@@ -587,8 +583,8 @@
   <dimension ref="A1:AC303"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A270" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D283" sqref="D283"/>
+      <pane ySplit="3" topLeftCell="A277" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D303" sqref="D303"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10878,7 +10874,9 @@
       <c r="C284" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D284" s="7"/>
+      <c r="D284" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="E284" s="7"/>
       <c r="F284" s="11"/>
       <c r="G284" s="11"/>
@@ -10906,7 +10904,9 @@
       <c r="C286" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D286" s="7"/>
+      <c r="D286" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="E286" s="7"/>
       <c r="F286" s="11"/>
       <c r="G286" s="11"/>
@@ -10920,7 +10920,9 @@
       <c r="C287" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D287" s="7"/>
+      <c r="D287" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="E287" s="7"/>
       <c r="F287" s="11"/>
       <c r="G287" s="11"/>
@@ -10934,7 +10936,9 @@
       <c r="C288" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D288" s="7"/>
+      <c r="D288" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="E288" s="7"/>
       <c r="F288" s="11"/>
       <c r="G288" s="11"/>
@@ -10962,7 +10966,9 @@
       <c r="C290" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D290" s="7"/>
+      <c r="D290" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="E290" s="7"/>
       <c r="F290" s="11"/>
       <c r="G290" s="11"/>
@@ -10990,7 +10996,9 @@
       <c r="C292" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D292" s="7"/>
+      <c r="D292" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="E292" s="7"/>
       <c r="F292" s="11"/>
       <c r="G292" s="11"/>
@@ -11018,7 +11026,9 @@
       <c r="C294" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D294" s="7"/>
+      <c r="D294" s="13" t="s">
+        <v>18</v>
+      </c>
       <c r="E294" s="7"/>
       <c r="F294" s="11"/>
       <c r="G294" s="11"/>
@@ -11032,7 +11042,9 @@
       <c r="C295" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D295" s="7"/>
+      <c r="D295" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="E295" s="7"/>
       <c r="F295" s="11"/>
       <c r="G295" s="11"/>
@@ -11046,7 +11058,9 @@
       <c r="C296" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D296" s="7"/>
+      <c r="D296" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="E296" s="7"/>
       <c r="F296" s="11"/>
       <c r="G296" s="11"/>
@@ -11060,7 +11074,9 @@
       <c r="C297" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D297" s="7"/>
+      <c r="D297" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="E297" s="7"/>
       <c r="F297" s="11"/>
       <c r="G297" s="11"/>
@@ -11074,7 +11090,9 @@
       <c r="C298" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D298" s="7"/>
+      <c r="D298" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="E298" s="7"/>
       <c r="F298" s="11"/>
       <c r="G298" s="11"/>
@@ -11088,7 +11106,9 @@
       <c r="C299" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D299" s="7"/>
+      <c r="D299" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="E299" s="7"/>
       <c r="F299" s="11"/>
       <c r="G299" s="11"/>
@@ -11102,7 +11122,9 @@
       <c r="C300" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D300" s="7"/>
+      <c r="D300" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="E300" s="7"/>
       <c r="F300" s="11"/>
       <c r="G300" s="11"/>
@@ -11116,7 +11138,9 @@
       <c r="C301" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D301" s="7"/>
+      <c r="D301" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="E301" s="7"/>
       <c r="F301" s="11"/>
       <c r="G301" s="11"/>
@@ -11130,7 +11154,9 @@
       <c r="C302" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D302" s="7"/>
+      <c r="D302" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="E302" s="7"/>
       <c r="F302" s="11"/>
       <c r="G302" s="11"/>
@@ -11144,7 +11170,9 @@
       <c r="C303" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D303" s="7"/>
+      <c r="D303" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="E303" s="7"/>
       <c r="F303" s="11"/>
       <c r="G303" s="11"/>
@@ -11155,7 +11183,7 @@
   <customSheetViews>
     <customSheetView guid="{2A2FD979-9F8D-413C-9CCD-B7F26FC2F3D3}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="B3:G267" xr:uid="{0CD87760-ACEE-4022-87A6-8E707FD896F5}"/>
+      <autoFilter ref="B3:G267" xr:uid="{0D0EEE85-55A4-485D-B9F4-ED214EF83049}"/>
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="7"/>

--- a/work-book/cloudTech/SAP/[SAP-C02]AWS問題集チェックシート.xlsx
+++ b/work-book/cloudTech/SAP/[SAP-C02]AWS問題集チェックシート.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kobek\OneDrive\デスクトップ\program\readeing-learning-history\work-book\cloudTech\SAP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f8aaa7f11ecf284d/デスクトップ/program/readeing-learning-history/work-book/cloudTech/SAP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B8999BD-FC05-4DF7-AFA1-082B8FD27174}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{1B8999BD-FC05-4DF7-AFA1-082B8FD27174}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E2C891CC-29A2-4B70-B90E-5DBF6DC735C5}"/>
   <bookViews>
-    <workbookView xWindow="17560" yWindow="0" windowWidth="5090" windowHeight="14410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16640" yWindow="0" windowWidth="6010" windowHeight="14410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="問題チェックシート" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="584" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="19">
   <si>
     <t>* [ファイル] ⇨ [コピーを作成] を選択し、コピーしてからお使いください</t>
   </si>
@@ -583,8 +583,8 @@
   <dimension ref="A1:AC303"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A277" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D303" sqref="D303"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -593,7 +593,8 @@
     <col min="2" max="2" width="6" customWidth="1"/>
     <col min="3" max="3" width="7.453125" customWidth="1"/>
     <col min="4" max="4" width="9.90625" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="14.453125" customWidth="1"/>
+    <col min="5" max="5" width="10.26953125" customWidth="1"/>
+    <col min="6" max="7" width="14.453125" customWidth="1"/>
     <col min="8" max="8" width="33.453125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -734,7 +735,9 @@
       <c r="D4" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="7"/>
+      <c r="E4" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
       <c r="H4" s="10"/>
@@ -772,7 +775,9 @@
       <c r="D5" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E5" s="7"/>
+      <c r="E5" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
       <c r="H5" s="10"/>
@@ -924,7 +929,9 @@
       <c r="D9" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E9" s="7"/>
+      <c r="E9" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
       <c r="H9" s="10"/>
@@ -962,7 +969,9 @@
       <c r="D10" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="7"/>
+      <c r="E10" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
       <c r="H10" s="10"/>
@@ -1000,7 +1009,9 @@
       <c r="D11" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="7"/>
+      <c r="E11" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
       <c r="H11" s="10"/>
@@ -1038,7 +1049,9 @@
       <c r="D12" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E12" s="7"/>
+      <c r="E12" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
       <c r="H12" s="10"/>
@@ -1076,7 +1089,9 @@
       <c r="D13" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E13" s="13"/>
+      <c r="E13" s="13" t="s">
+        <v>14</v>
+      </c>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
       <c r="H13" s="10"/>
@@ -11183,7 +11198,7 @@
   <customSheetViews>
     <customSheetView guid="{2A2FD979-9F8D-413C-9CCD-B7F26FC2F3D3}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="B3:G267" xr:uid="{0D0EEE85-55A4-485D-B9F4-ED214EF83049}"/>
+      <autoFilter ref="B3:G267" xr:uid="{660C9092-51B8-4D78-A9BD-4B983F18A754}"/>
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="7"/>

--- a/work-book/cloudTech/SAP/[SAP-C02]AWS問題集チェックシート.xlsx
+++ b/work-book/cloudTech/SAP/[SAP-C02]AWS問題集チェックシート.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f8aaa7f11ecf284d/デスクトップ/program/readeing-learning-history/work-book/cloudTech/SAP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="10" documentId="13_ncr:1_{1B8999BD-FC05-4DF7-AFA1-082B8FD27174}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E2C891CC-29A2-4B70-B90E-5DBF6DC735C5}"/>
+  <xr:revisionPtr revIDLastSave="32" documentId="13_ncr:1_{1B8999BD-FC05-4DF7-AFA1-082B8FD27174}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1453F2DB-ACE2-41CD-8152-155F3392DF86}"/>
   <bookViews>
     <workbookView xWindow="16640" yWindow="0" windowWidth="6010" windowHeight="14410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="591" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="19">
   <si>
     <t>* [ファイル] ⇨ [コピーを作成] を選択し、コピーしてからお使いください</t>
   </si>
@@ -379,6 +379,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
@@ -583,15 +587,15 @@
   <dimension ref="A1:AC303"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E13" sqref="E13"/>
+      <pane ySplit="3" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.6328125" customWidth="1"/>
+    <col min="1" max="1" width="7.6328125" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="6" customWidth="1"/>
-    <col min="3" max="3" width="7.453125" customWidth="1"/>
+    <col min="3" max="3" width="7.453125" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="9.90625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.26953125" customWidth="1"/>
     <col min="6" max="7" width="14.453125" customWidth="1"/>
@@ -1129,7 +1133,9 @@
       <c r="D14" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E14" s="7"/>
+      <c r="E14" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
       <c r="H14" s="10"/>
@@ -1167,7 +1173,9 @@
       <c r="D15" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E15" s="7"/>
+      <c r="E15" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="F15" s="11"/>
       <c r="G15" s="11"/>
       <c r="H15" s="10"/>
@@ -1205,7 +1213,9 @@
       <c r="D16" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E16" s="7"/>
+      <c r="E16" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="F16" s="11"/>
       <c r="G16" s="11"/>
       <c r="H16" s="10"/>
@@ -1243,7 +1253,9 @@
       <c r="D17" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E17" s="7"/>
+      <c r="E17" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
       <c r="H17" s="10"/>
@@ -1357,7 +1369,9 @@
       <c r="D20" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E20" s="7"/>
+      <c r="E20" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="F20" s="11"/>
       <c r="G20" s="11"/>
       <c r="H20" s="10"/>
@@ -1395,7 +1409,9 @@
       <c r="D21" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E21" s="7"/>
+      <c r="E21" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="F21" s="11"/>
       <c r="G21" s="11"/>
       <c r="H21" s="10"/>
@@ -1509,7 +1525,9 @@
       <c r="D24" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E24" s="7"/>
+      <c r="E24" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
       <c r="H24" s="10"/>
@@ -1585,7 +1603,9 @@
       <c r="D26" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E26" s="7"/>
+      <c r="E26" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="F26" s="11"/>
       <c r="G26" s="11"/>
       <c r="H26" s="10"/>
@@ -1623,7 +1643,9 @@
       <c r="D27" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E27" s="7"/>
+      <c r="E27" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="F27" s="11"/>
       <c r="G27" s="11"/>
       <c r="H27" s="10"/>
@@ -1737,7 +1759,9 @@
       <c r="D30" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E30" s="13"/>
+      <c r="E30" s="13" t="s">
+        <v>5</v>
+      </c>
       <c r="F30" s="11"/>
       <c r="G30" s="11"/>
       <c r="H30" s="10"/>
@@ -1813,7 +1837,9 @@
       <c r="D32" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E32" s="7"/>
+      <c r="E32" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F32" s="11"/>
       <c r="G32" s="11"/>
       <c r="H32" s="10"/>
@@ -1851,7 +1877,9 @@
       <c r="D33" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E33" s="7"/>
+      <c r="E33" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="F33" s="11"/>
       <c r="G33" s="11"/>
       <c r="H33" s="10"/>
@@ -1927,7 +1955,9 @@
       <c r="D35" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E35" s="7"/>
+      <c r="E35" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F35" s="11"/>
       <c r="G35" s="11"/>
       <c r="H35" s="10"/>
@@ -1965,7 +1995,9 @@
       <c r="D36" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E36" s="7"/>
+      <c r="E36" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="F36" s="11"/>
       <c r="G36" s="11"/>
       <c r="H36" s="10"/>
@@ -2003,7 +2035,9 @@
       <c r="D37" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E37" s="7"/>
+      <c r="E37" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="F37" s="11"/>
       <c r="G37" s="11"/>
       <c r="H37" s="10"/>
@@ -2041,7 +2075,9 @@
       <c r="D38" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E38" s="7"/>
+      <c r="E38" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F38" s="11"/>
       <c r="G38" s="11"/>
       <c r="H38" s="10"/>
@@ -2193,7 +2229,9 @@
       <c r="D42" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E42" s="7"/>
+      <c r="E42" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="F42" s="11"/>
       <c r="G42" s="11"/>
       <c r="H42" s="10"/>
@@ -2231,7 +2269,9 @@
       <c r="D43" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E43" s="7"/>
+      <c r="E43" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="F43" s="11"/>
       <c r="G43" s="11"/>
       <c r="H43" s="10"/>
@@ -11198,7 +11238,7 @@
   <customSheetViews>
     <customSheetView guid="{2A2FD979-9F8D-413C-9CCD-B7F26FC2F3D3}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="B3:G267" xr:uid="{660C9092-51B8-4D78-A9BD-4B983F18A754}"/>
+      <autoFilter ref="B3:G267" xr:uid="{6663201D-65F2-4897-8BA4-843036AD255F}"/>
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="7"/>

--- a/work-book/cloudTech/SAP/[SAP-C02]AWS問題集チェックシート.xlsx
+++ b/work-book/cloudTech/SAP/[SAP-C02]AWS問題集チェックシート.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f8aaa7f11ecf284d/デスクトップ/program/readeing-learning-history/work-book/cloudTech/SAP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="32" documentId="13_ncr:1_{1B8999BD-FC05-4DF7-AFA1-082B8FD27174}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1453F2DB-ACE2-41CD-8152-155F3392DF86}"/>
+  <xr:revisionPtr revIDLastSave="43" documentId="13_ncr:1_{1B8999BD-FC05-4DF7-AFA1-082B8FD27174}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E52E8121-BF96-453C-AA3A-CA897401A28C}"/>
   <bookViews>
-    <workbookView xWindow="16640" yWindow="0" windowWidth="6010" windowHeight="14410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17170" yWindow="0" windowWidth="5480" windowHeight="14410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="問題チェックシート" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="609" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="19">
   <si>
     <t>* [ファイル] ⇨ [コピーを作成] を選択し、コピーしてからお使いください</t>
   </si>
@@ -587,8 +587,8 @@
   <dimension ref="A1:AC303"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A28" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E43" sqref="E43"/>
+      <pane ySplit="3" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E63" sqref="E63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2423,7 +2423,9 @@
       <c r="D47" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E47" s="7"/>
+      <c r="E47" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F47" s="11"/>
       <c r="G47" s="11"/>
       <c r="H47" s="10"/>
@@ -2461,7 +2463,9 @@
       <c r="D48" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E48" s="7"/>
+      <c r="E48" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F48" s="11"/>
       <c r="G48" s="11"/>
       <c r="H48" s="10"/>
@@ -2499,7 +2503,9 @@
       <c r="D49" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E49" s="7"/>
+      <c r="E49" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="F49" s="11"/>
       <c r="G49" s="11"/>
       <c r="H49" s="10"/>
@@ -2613,7 +2619,9 @@
       <c r="D52" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E52" s="7"/>
+      <c r="E52" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="F52" s="11"/>
       <c r="G52" s="11"/>
       <c r="H52" s="10"/>
@@ -2689,7 +2697,9 @@
       <c r="D54" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E54" s="7"/>
+      <c r="E54" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F54" s="11"/>
       <c r="G54" s="11"/>
       <c r="H54" s="10"/>
@@ -2727,7 +2737,9 @@
       <c r="D55" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E55" s="7"/>
+      <c r="E55" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F55" s="11"/>
       <c r="G55" s="11"/>
       <c r="H55" s="10"/>
@@ -2765,7 +2777,9 @@
       <c r="D56" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E56" s="7"/>
+      <c r="E56" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F56" s="11"/>
       <c r="G56" s="11"/>
       <c r="H56" s="10"/>
@@ -2841,7 +2855,9 @@
       <c r="D58" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E58" s="7"/>
+      <c r="E58" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F58" s="11"/>
       <c r="G58" s="11"/>
       <c r="H58" s="10"/>
@@ -2917,7 +2933,9 @@
       <c r="D60" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E60" s="7"/>
+      <c r="E60" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F60" s="11"/>
       <c r="G60" s="11"/>
       <c r="H60" s="10"/>
@@ -2955,7 +2973,9 @@
       <c r="D61" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E61" s="7"/>
+      <c r="E61" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F61" s="11"/>
       <c r="G61" s="11"/>
       <c r="H61" s="10"/>
@@ -3031,7 +3051,9 @@
       <c r="D63" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E63" s="7"/>
+      <c r="E63" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="F63" s="11"/>
       <c r="G63" s="11"/>
       <c r="H63" s="10"/>
@@ -11238,7 +11260,7 @@
   <customSheetViews>
     <customSheetView guid="{2A2FD979-9F8D-413C-9CCD-B7F26FC2F3D3}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="B3:G267" xr:uid="{6663201D-65F2-4897-8BA4-843036AD255F}"/>
+      <autoFilter ref="B3:G267" xr:uid="{A336FC38-0323-49F5-9181-2B9FF1706172}"/>
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="7"/>

--- a/work-book/cloudTech/SAP/[SAP-C02]AWS問題集チェックシート.xlsx
+++ b/work-book/cloudTech/SAP/[SAP-C02]AWS問題集チェックシート.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f8aaa7f11ecf284d/デスクトップ/program/readeing-learning-history/work-book/cloudTech/SAP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="43" documentId="13_ncr:1_{1B8999BD-FC05-4DF7-AFA1-082B8FD27174}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E52E8121-BF96-453C-AA3A-CA897401A28C}"/>
+  <xr:revisionPtr revIDLastSave="59" documentId="13_ncr:1_{1B8999BD-FC05-4DF7-AFA1-082B8FD27174}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A0F8AE1D-6BCD-4432-8BD3-2D217360FBAD}"/>
   <bookViews>
-    <workbookView xWindow="17170" yWindow="0" windowWidth="5480" windowHeight="14410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="問題チェックシート" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="620" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="19">
   <si>
     <t>* [ファイル] ⇨ [コピーを作成] を選択し、コピーしてからお使いください</t>
   </si>
@@ -587,8 +587,8 @@
   <dimension ref="A1:AC303"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E63" sqref="E63"/>
+      <pane ySplit="3" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E92" sqref="E92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3091,7 +3091,9 @@
       <c r="D64" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E64" s="7"/>
+      <c r="E64" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F64" s="11"/>
       <c r="G64" s="11"/>
       <c r="H64" s="10"/>
@@ -3167,7 +3169,9 @@
       <c r="D66" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E66" s="7"/>
+      <c r="E66" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F66" s="11"/>
       <c r="G66" s="11"/>
       <c r="H66" s="10"/>
@@ -3319,7 +3323,9 @@
       <c r="D70" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E70" s="7"/>
+      <c r="E70" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="F70" s="11"/>
       <c r="G70" s="11"/>
       <c r="H70" s="10"/>
@@ -3357,7 +3363,9 @@
       <c r="D71" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E71" s="7"/>
+      <c r="E71" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="F71" s="11"/>
       <c r="G71" s="11"/>
       <c r="H71" s="10"/>
@@ -3471,7 +3479,9 @@
       <c r="D74" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E74" s="7"/>
+      <c r="E74" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F74" s="11"/>
       <c r="G74" s="11"/>
       <c r="H74" s="10"/>
@@ -3547,7 +3557,9 @@
       <c r="D76" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E76" s="7"/>
+      <c r="E76" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F76" s="11"/>
       <c r="G76" s="11"/>
       <c r="H76" s="10"/>
@@ -3623,7 +3635,9 @@
       <c r="D78" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E78" s="7"/>
+      <c r="E78" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F78" s="11"/>
       <c r="G78" s="11"/>
       <c r="H78" s="10"/>
@@ -3699,7 +3713,9 @@
       <c r="D80" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E80" s="7"/>
+      <c r="E80" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F80" s="11"/>
       <c r="G80" s="11"/>
       <c r="H80" s="10"/>
@@ -3737,7 +3753,9 @@
       <c r="D81" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E81" s="7"/>
+      <c r="E81" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F81" s="11"/>
       <c r="G81" s="11"/>
       <c r="H81" s="10"/>
@@ -3775,7 +3793,9 @@
       <c r="D82" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E82" s="7"/>
+      <c r="E82" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F82" s="11"/>
       <c r="G82" s="11"/>
       <c r="H82" s="10"/>
@@ -3851,7 +3871,9 @@
       <c r="D84" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E84" s="7"/>
+      <c r="E84" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F84" s="11"/>
       <c r="G84" s="11"/>
       <c r="H84" s="10"/>
@@ -3889,7 +3911,9 @@
       <c r="D85" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E85" s="7"/>
+      <c r="E85" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F85" s="11"/>
       <c r="G85" s="11"/>
       <c r="H85" s="10"/>
@@ -3965,7 +3989,9 @@
       <c r="D87" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E87" s="7"/>
+      <c r="E87" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F87" s="11"/>
       <c r="G87" s="11"/>
       <c r="H87" s="10"/>
@@ -4003,7 +4029,9 @@
       <c r="D88" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E88" s="7"/>
+      <c r="E88" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F88" s="11"/>
       <c r="G88" s="11"/>
       <c r="H88" s="10"/>
@@ -4041,7 +4069,9 @@
       <c r="D89" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E89" s="7"/>
+      <c r="E89" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F89" s="11"/>
       <c r="G89" s="11"/>
       <c r="H89" s="10"/>
@@ -4155,7 +4185,9 @@
       <c r="D92" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E92" s="7"/>
+      <c r="E92" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F92" s="11"/>
       <c r="G92" s="11"/>
       <c r="H92" s="10"/>
@@ -11260,7 +11292,7 @@
   <customSheetViews>
     <customSheetView guid="{2A2FD979-9F8D-413C-9CCD-B7F26FC2F3D3}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="B3:G267" xr:uid="{A336FC38-0323-49F5-9181-2B9FF1706172}"/>
+      <autoFilter ref="B3:G267" xr:uid="{B6203CFC-1741-4BED-82E3-075FBF726653}"/>
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="7"/>

--- a/work-book/cloudTech/SAP/[SAP-C02]AWS問題集チェックシート.xlsx
+++ b/work-book/cloudTech/SAP/[SAP-C02]AWS問題集チェックシート.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f8aaa7f11ecf284d/デスクトップ/program/readeing-learning-history/work-book/cloudTech/SAP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="59" documentId="13_ncr:1_{1B8999BD-FC05-4DF7-AFA1-082B8FD27174}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A0F8AE1D-6BCD-4432-8BD3-2D217360FBAD}"/>
+  <xr:revisionPtr revIDLastSave="74" documentId="13_ncr:1_{1B8999BD-FC05-4DF7-AFA1-082B8FD27174}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A8A23CCD-57B1-42FE-8A03-0060EEDC1630}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="17870" yWindow="0" windowWidth="4780" windowHeight="14410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="問題チェックシート" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="19">
   <si>
     <t>* [ファイル] ⇨ [コピーを作成] を選択し、コピーしてからお使いください</t>
   </si>
@@ -587,8 +587,8 @@
   <dimension ref="A1:AC303"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A88" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E92" sqref="E92"/>
+      <pane ySplit="3" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E111" sqref="E111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4263,7 +4263,9 @@
       <c r="D94" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E94" s="7"/>
+      <c r="E94" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="F94" s="11"/>
       <c r="G94" s="11"/>
       <c r="H94" s="10"/>
@@ -4301,7 +4303,9 @@
       <c r="D95" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E95" s="7"/>
+      <c r="E95" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F95" s="11"/>
       <c r="G95" s="11"/>
       <c r="H95" s="10"/>
@@ -4339,7 +4343,9 @@
       <c r="D96" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E96" s="7"/>
+      <c r="E96" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F96" s="11"/>
       <c r="G96" s="11"/>
       <c r="H96" s="10"/>
@@ -4415,7 +4421,9 @@
       <c r="D98" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E98" s="13"/>
+      <c r="E98" s="13" t="s">
+        <v>14</v>
+      </c>
       <c r="F98" s="11"/>
       <c r="G98" s="11"/>
       <c r="H98" s="10"/>
@@ -4453,7 +4461,9 @@
       <c r="D99" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E99" s="7"/>
+      <c r="E99" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F99" s="11"/>
       <c r="G99" s="11"/>
       <c r="H99" s="10"/>
@@ -4527,7 +4537,9 @@
       <c r="D101" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E101" s="7"/>
+      <c r="E101" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F101" s="11"/>
       <c r="G101" s="11"/>
       <c r="H101" s="10"/>
@@ -4565,7 +4577,9 @@
       <c r="D102" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E102" s="13"/>
+      <c r="E102" s="13" t="s">
+        <v>14</v>
+      </c>
       <c r="F102" s="11"/>
       <c r="G102" s="11"/>
       <c r="H102" s="10"/>
@@ -4603,7 +4617,9 @@
       <c r="D103" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E103" s="7"/>
+      <c r="E103" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F103" s="11"/>
       <c r="G103" s="11"/>
       <c r="H103" s="10"/>
@@ -4641,7 +4657,9 @@
       <c r="D104" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E104" s="7"/>
+      <c r="E104" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F104" s="11"/>
       <c r="G104" s="11"/>
       <c r="H104" s="10"/>
@@ -4679,7 +4697,9 @@
       <c r="D105" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E105" s="13"/>
+      <c r="E105" s="13" t="s">
+        <v>14</v>
+      </c>
       <c r="F105" s="11"/>
       <c r="G105" s="11"/>
       <c r="H105" s="10"/>
@@ -4755,7 +4775,9 @@
       <c r="D107" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E107" s="7"/>
+      <c r="E107" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F107" s="11"/>
       <c r="G107" s="11"/>
       <c r="H107" s="10"/>
@@ -4793,7 +4815,9 @@
       <c r="D108" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E108" s="7"/>
+      <c r="E108" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F108" s="11"/>
       <c r="G108" s="11"/>
       <c r="H108" s="10"/>
@@ -4867,7 +4891,9 @@
       <c r="D110" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E110" s="7"/>
+      <c r="E110" s="13" t="s">
+        <v>18</v>
+      </c>
       <c r="F110" s="11"/>
       <c r="G110" s="11"/>
       <c r="H110" s="10"/>
@@ -4905,7 +4931,9 @@
       <c r="D111" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E111" s="7"/>
+      <c r="E111" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F111" s="11"/>
       <c r="G111" s="11"/>
       <c r="H111" s="10"/>
@@ -11292,7 +11320,7 @@
   <customSheetViews>
     <customSheetView guid="{2A2FD979-9F8D-413C-9CCD-B7F26FC2F3D3}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="B3:G267" xr:uid="{B6203CFC-1741-4BED-82E3-075FBF726653}"/>
+      <autoFilter ref="B3:G267" xr:uid="{D46A364A-D434-413B-B3FB-8452B0961B9F}"/>
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="7"/>

--- a/work-book/cloudTech/SAP/[SAP-C02]AWS問題集チェックシート.xlsx
+++ b/work-book/cloudTech/SAP/[SAP-C02]AWS問題集チェックシート.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f8aaa7f11ecf284d/デスクトップ/program/readeing-learning-history/work-book/cloudTech/SAP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="74" documentId="13_ncr:1_{1B8999BD-FC05-4DF7-AFA1-082B8FD27174}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A8A23CCD-57B1-42FE-8A03-0060EEDC1630}"/>
+  <xr:revisionPtr revIDLastSave="123" documentId="13_ncr:1_{1B8999BD-FC05-4DF7-AFA1-082B8FD27174}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{70754CD6-39B4-478C-883C-8A9DB99C1BCA}"/>
   <bookViews>
-    <workbookView xWindow="17870" yWindow="0" windowWidth="4780" windowHeight="14410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="問題チェックシート" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="650" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="19">
   <si>
     <t>* [ファイル] ⇨ [コピーを作成] を選択し、コピーしてからお使いください</t>
   </si>
@@ -587,8 +587,8 @@
   <dimension ref="A1:AC303"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A100" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E111" sqref="E111"/>
+      <pane ySplit="3" topLeftCell="A166" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E182" sqref="E182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5081,7 +5081,9 @@
       <c r="D115" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E115" s="7"/>
+      <c r="E115" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F115" s="11"/>
       <c r="G115" s="11"/>
       <c r="H115" s="10"/>
@@ -5119,7 +5121,9 @@
       <c r="D116" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E116" s="7"/>
+      <c r="E116" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F116" s="11"/>
       <c r="G116" s="11"/>
       <c r="H116" s="10"/>
@@ -5157,7 +5161,9 @@
       <c r="D117" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E117" s="7"/>
+      <c r="E117" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F117" s="11"/>
       <c r="G117" s="11"/>
       <c r="H117" s="10"/>
@@ -5195,7 +5201,9 @@
       <c r="D118" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E118" s="7"/>
+      <c r="E118" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="F118" s="11"/>
       <c r="G118" s="11"/>
       <c r="H118" s="10"/>
@@ -5233,7 +5241,9 @@
       <c r="D119" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E119" s="7"/>
+      <c r="E119" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="F119" s="11"/>
       <c r="G119" s="11"/>
       <c r="H119" s="10"/>
@@ -5271,7 +5281,9 @@
       <c r="D120" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E120" s="7"/>
+      <c r="E120" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F120" s="11"/>
       <c r="G120" s="11"/>
       <c r="H120" s="10"/>
@@ -5309,7 +5321,9 @@
       <c r="D121" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E121" s="7"/>
+      <c r="E121" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F121" s="11"/>
       <c r="G121" s="11"/>
       <c r="H121" s="10"/>
@@ -5347,7 +5361,9 @@
       <c r="D122" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E122" s="7"/>
+      <c r="E122" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F122" s="11"/>
       <c r="G122" s="11"/>
       <c r="H122" s="10"/>
@@ -5385,7 +5401,9 @@
       <c r="D123" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E123" s="7"/>
+      <c r="E123" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F123" s="11"/>
       <c r="G123" s="11"/>
       <c r="H123" s="10"/>
@@ -5459,7 +5477,9 @@
       <c r="D125" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E125" s="7"/>
+      <c r="E125" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="F125" s="11"/>
       <c r="G125" s="11"/>
       <c r="H125" s="10"/>
@@ -5497,7 +5517,9 @@
       <c r="D126" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E126" s="7"/>
+      <c r="E126" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F126" s="11"/>
       <c r="G126" s="11"/>
       <c r="H126" s="10"/>
@@ -5573,7 +5595,9 @@
       <c r="D128" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E128" s="7"/>
+      <c r="E128" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F128" s="11"/>
       <c r="G128" s="11"/>
       <c r="H128" s="10"/>
@@ -5611,7 +5635,9 @@
       <c r="D129" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E129" s="7"/>
+      <c r="E129" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="F129" s="11"/>
       <c r="G129" s="11"/>
       <c r="H129" s="10"/>
@@ -5649,7 +5675,9 @@
       <c r="D130" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E130" s="7"/>
+      <c r="E130" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="F130" s="11"/>
       <c r="G130" s="11"/>
       <c r="H130" s="10"/>
@@ -5687,7 +5715,9 @@
       <c r="D131" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E131" s="7"/>
+      <c r="E131" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F131" s="11"/>
       <c r="G131" s="11"/>
       <c r="H131" s="10"/>
@@ -5763,7 +5793,9 @@
       <c r="D133" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E133" s="7"/>
+      <c r="E133" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F133" s="11"/>
       <c r="G133" s="11"/>
       <c r="H133" s="10"/>
@@ -5801,7 +5833,9 @@
       <c r="D134" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E134" s="7"/>
+      <c r="E134" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F134" s="11"/>
       <c r="G134" s="11"/>
       <c r="H134" s="10"/>
@@ -5839,7 +5873,9 @@
       <c r="D135" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E135" s="7"/>
+      <c r="E135" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="F135" s="11"/>
       <c r="G135" s="11"/>
       <c r="H135" s="10"/>
@@ -5915,7 +5951,9 @@
       <c r="D137" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E137" s="13"/>
+      <c r="E137" s="13" t="s">
+        <v>14</v>
+      </c>
       <c r="F137" s="11"/>
       <c r="G137" s="11"/>
       <c r="H137" s="10"/>
@@ -5991,7 +6029,9 @@
       <c r="D139" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E139" s="7"/>
+      <c r="E139" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F139" s="11"/>
       <c r="G139" s="11"/>
       <c r="H139" s="10"/>
@@ -6029,7 +6069,9 @@
       <c r="D140" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E140" s="7"/>
+      <c r="E140" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F140" s="11"/>
       <c r="G140" s="11"/>
       <c r="H140" s="10"/>
@@ -6067,7 +6109,9 @@
       <c r="D141" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E141" s="7"/>
+      <c r="E141" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F141" s="11"/>
       <c r="G141" s="11"/>
       <c r="H141" s="10"/>
@@ -6105,7 +6149,9 @@
       <c r="D142" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E142" s="7"/>
+      <c r="E142" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F142" s="11"/>
       <c r="G142" s="11"/>
       <c r="H142" s="10"/>
@@ -6143,7 +6189,9 @@
       <c r="D143" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E143" s="7"/>
+      <c r="E143" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F143" s="11"/>
       <c r="G143" s="11"/>
       <c r="H143" s="10"/>
@@ -6217,7 +6265,9 @@
       <c r="D145" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E145" s="7"/>
+      <c r="E145" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F145" s="11"/>
       <c r="G145" s="11"/>
       <c r="H145" s="10"/>
@@ -6255,7 +6305,9 @@
       <c r="D146" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E146" s="7"/>
+      <c r="E146" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F146" s="11"/>
       <c r="G146" s="11"/>
       <c r="H146" s="10"/>
@@ -6293,7 +6345,9 @@
       <c r="D147" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E147" s="7"/>
+      <c r="E147" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="F147" s="11"/>
       <c r="G147" s="11"/>
       <c r="H147" s="10"/>
@@ -6405,7 +6459,9 @@
       <c r="D150" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E150" s="7"/>
+      <c r="E150" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F150" s="11"/>
       <c r="G150" s="11"/>
       <c r="H150" s="10"/>
@@ -6443,7 +6499,9 @@
       <c r="D151" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E151" s="7"/>
+      <c r="E151" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F151" s="14"/>
       <c r="G151" s="11"/>
       <c r="H151" s="10"/>
@@ -6481,7 +6539,9 @@
       <c r="D152" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E152" s="7"/>
+      <c r="E152" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F152" s="11"/>
       <c r="G152" s="11"/>
       <c r="H152" s="10"/>
@@ -6519,7 +6579,9 @@
       <c r="D153" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E153" s="7"/>
+      <c r="E153" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="F153" s="11"/>
       <c r="G153" s="11"/>
       <c r="H153" s="10"/>
@@ -6557,7 +6619,9 @@
       <c r="D154" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E154" s="7"/>
+      <c r="E154" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F154" s="11"/>
       <c r="G154" s="11"/>
       <c r="H154" s="10"/>
@@ -6705,7 +6769,9 @@
       <c r="D158" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E158" s="7"/>
+      <c r="E158" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="F158" s="11"/>
       <c r="G158" s="11"/>
       <c r="H158" s="10"/>
@@ -6743,7 +6809,9 @@
       <c r="D159" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E159" s="7"/>
+      <c r="E159" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="F159" s="11"/>
       <c r="G159" s="11"/>
       <c r="H159" s="10"/>
@@ -6781,7 +6849,9 @@
       <c r="D160" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E160" s="7"/>
+      <c r="E160" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="F160" s="11"/>
       <c r="G160" s="11"/>
       <c r="H160" s="10"/>
@@ -6895,7 +6965,9 @@
       <c r="D163" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E163" s="7"/>
+      <c r="E163" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F163" s="11"/>
       <c r="G163" s="11"/>
       <c r="H163" s="10"/>
@@ -6971,7 +7043,9 @@
       <c r="D165" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E165" s="7"/>
+      <c r="E165" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F165" s="11"/>
       <c r="G165" s="11"/>
       <c r="H165" s="10"/>
@@ -7009,7 +7083,9 @@
       <c r="D166" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E166" s="7"/>
+      <c r="E166" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F166" s="11"/>
       <c r="G166" s="11"/>
       <c r="H166" s="10"/>
@@ -7123,7 +7199,9 @@
       <c r="D169" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E169" s="7"/>
+      <c r="E169" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="F169" s="11"/>
       <c r="G169" s="11"/>
       <c r="H169" s="10"/>
@@ -7161,7 +7239,9 @@
       <c r="D170" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E170" s="7"/>
+      <c r="E170" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="F170" s="11"/>
       <c r="G170" s="11"/>
       <c r="H170" s="10"/>
@@ -7199,7 +7279,9 @@
       <c r="D171" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E171" s="7"/>
+      <c r="E171" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="F171" s="11"/>
       <c r="G171" s="11"/>
       <c r="H171" s="10"/>
@@ -7237,7 +7319,9 @@
       <c r="D172" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E172" s="7"/>
+      <c r="E172" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="F172" s="11"/>
       <c r="G172" s="11"/>
       <c r="H172" s="10"/>
@@ -7275,7 +7359,9 @@
       <c r="D173" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E173" s="7"/>
+      <c r="E173" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="F173" s="11"/>
       <c r="G173" s="11"/>
       <c r="H173" s="10"/>
@@ -7351,7 +7437,9 @@
       <c r="D175" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E175" s="7"/>
+      <c r="E175" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="F175" s="11"/>
       <c r="G175" s="11"/>
       <c r="H175" s="10"/>
@@ -7389,7 +7477,9 @@
       <c r="D176" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E176" s="7"/>
+      <c r="E176" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="F176" s="11"/>
       <c r="G176" s="11"/>
       <c r="H176" s="10"/>
@@ -7427,7 +7517,9 @@
       <c r="D177" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E177" s="7"/>
+      <c r="E177" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F177" s="11"/>
       <c r="G177" s="11"/>
       <c r="H177" s="10"/>
@@ -7503,7 +7595,9 @@
       <c r="D179" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E179" s="7"/>
+      <c r="E179" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="F179" s="11"/>
       <c r="G179" s="11"/>
       <c r="H179" s="10"/>
@@ -7615,7 +7709,9 @@
       <c r="D182" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E182" s="7"/>
+      <c r="E182" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F182" s="11"/>
       <c r="G182" s="11"/>
       <c r="H182" s="10"/>
@@ -11320,7 +11416,7 @@
   <customSheetViews>
     <customSheetView guid="{2A2FD979-9F8D-413C-9CCD-B7F26FC2F3D3}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="B3:G267" xr:uid="{D46A364A-D434-413B-B3FB-8452B0961B9F}"/>
+      <autoFilter ref="B3:G267" xr:uid="{4568F4EE-CFE2-4A34-B44C-892FBED0B414}"/>
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="7"/>

--- a/work-book/cloudTech/SAP/[SAP-C02]AWS問題集チェックシート.xlsx
+++ b/work-book/cloudTech/SAP/[SAP-C02]AWS問題集チェックシート.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f8aaa7f11ecf284d/デスクトップ/program/readeing-learning-history/work-book/cloudTech/SAP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="123" documentId="13_ncr:1_{1B8999BD-FC05-4DF7-AFA1-082B8FD27174}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{70754CD6-39B4-478C-883C-8A9DB99C1BCA}"/>
+  <xr:revisionPtr revIDLastSave="166" documentId="13_ncr:1_{1B8999BD-FC05-4DF7-AFA1-082B8FD27174}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B247D8D7-7655-4C88-966D-C0A1777A3B81}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="問題チェックシート" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">問題チェックシート!$B$3:$G$263</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">問題チェックシート!$B$3:$G$303</definedName>
     <definedName name="Z_2A2FD979_9F8D_413C_9CCD_B7F26FC2F3D3_.wvu.FilterData" localSheetId="0" hidden="1">問題チェックシート!$B$3:$G$263</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="19">
   <si>
     <t>* [ファイル] ⇨ [コピーを作成] を選択し、コピーしてからお使いください</t>
   </si>
@@ -581,14 +581,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:AC303"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A166" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E182" sqref="E182"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A204" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E231" sqref="E231"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -807,7 +807,7 @@
       <c r="AB5" s="1"/>
       <c r="AC5" s="1"/>
     </row>
-    <row r="6" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:29" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="B6" s="10">
         <f t="shared" si="0"/>
@@ -845,7 +845,7 @@
       <c r="AB6" s="1"/>
       <c r="AC6" s="1"/>
     </row>
-    <row r="7" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:29" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
       <c r="B7" s="10">
         <f t="shared" si="0"/>
@@ -883,7 +883,7 @@
       <c r="AB7" s="1"/>
       <c r="AC7" s="1"/>
     </row>
-    <row r="8" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:29" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="B8" s="10">
         <f t="shared" si="0"/>
@@ -1281,7 +1281,7 @@
       <c r="AB17" s="1"/>
       <c r="AC17" s="1"/>
     </row>
-    <row r="18" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:29" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1"/>
       <c r="B18" s="10">
         <f t="shared" si="0"/>
@@ -1319,7 +1319,7 @@
       <c r="AB18" s="1"/>
       <c r="AC18" s="1"/>
     </row>
-    <row r="19" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:29" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
       <c r="B19" s="10">
         <f t="shared" si="0"/>
@@ -1437,7 +1437,7 @@
       <c r="AB21" s="1"/>
       <c r="AC21" s="1"/>
     </row>
-    <row r="22" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:29" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1"/>
       <c r="B22" s="10">
         <f t="shared" si="0"/>
@@ -1475,7 +1475,7 @@
       <c r="AB22" s="1"/>
       <c r="AC22" s="1"/>
     </row>
-    <row r="23" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:29" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1"/>
       <c r="B23" s="10">
         <f t="shared" si="0"/>
@@ -1553,7 +1553,7 @@
       <c r="AB24" s="1"/>
       <c r="AC24" s="1"/>
     </row>
-    <row r="25" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:29" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1"/>
       <c r="B25" s="10">
         <f t="shared" si="0"/>
@@ -1671,7 +1671,7 @@
       <c r="AB27" s="1"/>
       <c r="AC27" s="1"/>
     </row>
-    <row r="28" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:29" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1"/>
       <c r="B28" s="10">
         <f t="shared" si="0"/>
@@ -1709,7 +1709,7 @@
       <c r="AB28" s="1"/>
       <c r="AC28" s="1"/>
     </row>
-    <row r="29" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:29" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1"/>
       <c r="B29" s="10">
         <f t="shared" si="0"/>
@@ -1787,7 +1787,7 @@
       <c r="AB30" s="1"/>
       <c r="AC30" s="1"/>
     </row>
-    <row r="31" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:29" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1"/>
       <c r="B31" s="10">
         <f t="shared" si="0"/>
@@ -1905,7 +1905,7 @@
       <c r="AB33" s="1"/>
       <c r="AC33" s="1"/>
     </row>
-    <row r="34" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:29" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1"/>
       <c r="B34" s="10">
         <f t="shared" si="0"/>
@@ -2103,7 +2103,7 @@
       <c r="AB38" s="1"/>
       <c r="AC38" s="1"/>
     </row>
-    <row r="39" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:29" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="1"/>
       <c r="B39" s="10">
         <f t="shared" si="0"/>
@@ -2141,7 +2141,7 @@
       <c r="AB39" s="1"/>
       <c r="AC39" s="1"/>
     </row>
-    <row r="40" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:29" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="1"/>
       <c r="B40" s="10">
         <f t="shared" si="0"/>
@@ -2179,7 +2179,7 @@
       <c r="AB40" s="1"/>
       <c r="AC40" s="1"/>
     </row>
-    <row r="41" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:29" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="1"/>
       <c r="B41" s="10">
         <f t="shared" si="0"/>
@@ -2297,7 +2297,7 @@
       <c r="AB43" s="1"/>
       <c r="AC43" s="1"/>
     </row>
-    <row r="44" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:29" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="1"/>
       <c r="B44" s="10">
         <f t="shared" si="0"/>
@@ -2335,7 +2335,7 @@
       <c r="AB44" s="1"/>
       <c r="AC44" s="1"/>
     </row>
-    <row r="45" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:29" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="1"/>
       <c r="B45" s="10">
         <f t="shared" si="0"/>
@@ -2373,7 +2373,7 @@
       <c r="AB45" s="1"/>
       <c r="AC45" s="1"/>
     </row>
-    <row r="46" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:29" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="1"/>
       <c r="B46" s="10">
         <f t="shared" si="0"/>
@@ -2531,7 +2531,7 @@
       <c r="AB49" s="1"/>
       <c r="AC49" s="1"/>
     </row>
-    <row r="50" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:29" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="1"/>
       <c r="B50" s="10">
         <f t="shared" si="0"/>
@@ -2569,7 +2569,7 @@
       <c r="AB50" s="1"/>
       <c r="AC50" s="1"/>
     </row>
-    <row r="51" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:29" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="1"/>
       <c r="B51" s="10">
         <f t="shared" si="0"/>
@@ -2647,7 +2647,7 @@
       <c r="AB52" s="1"/>
       <c r="AC52" s="1"/>
     </row>
-    <row r="53" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:29" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="1"/>
       <c r="B53" s="10">
         <f t="shared" si="0"/>
@@ -2805,7 +2805,7 @@
       <c r="AB56" s="1"/>
       <c r="AC56" s="1"/>
     </row>
-    <row r="57" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:29" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="1"/>
       <c r="B57" s="10">
         <f t="shared" si="0"/>
@@ -2883,7 +2883,7 @@
       <c r="AB58" s="1"/>
       <c r="AC58" s="1"/>
     </row>
-    <row r="59" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59" s="1"/>
       <c r="B59" s="10">
         <f t="shared" si="0"/>
@@ -3001,7 +3001,7 @@
       <c r="AB61" s="1"/>
       <c r="AC61" s="1"/>
     </row>
-    <row r="62" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A62" s="1"/>
       <c r="B62" s="10">
         <f t="shared" si="0"/>
@@ -3119,7 +3119,7 @@
       <c r="AB64" s="1"/>
       <c r="AC64" s="1"/>
     </row>
-    <row r="65" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65" s="1"/>
       <c r="B65" s="10">
         <f t="shared" si="0"/>
@@ -3197,7 +3197,7 @@
       <c r="AB66" s="1"/>
       <c r="AC66" s="1"/>
     </row>
-    <row r="67" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A67" s="1"/>
       <c r="B67" s="10">
         <f t="shared" si="0"/>
@@ -3235,7 +3235,7 @@
       <c r="AB67" s="1"/>
       <c r="AC67" s="1"/>
     </row>
-    <row r="68" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A68" s="1"/>
       <c r="B68" s="10">
         <f t="shared" si="0"/>
@@ -3273,7 +3273,7 @@
       <c r="AB68" s="1"/>
       <c r="AC68" s="1"/>
     </row>
-    <row r="69" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A69" s="1"/>
       <c r="B69" s="10">
         <f t="shared" si="0"/>
@@ -3391,7 +3391,7 @@
       <c r="AB71" s="1"/>
       <c r="AC71" s="1"/>
     </row>
-    <row r="72" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A72" s="1"/>
       <c r="B72" s="10">
         <f t="shared" si="0"/>
@@ -3429,7 +3429,7 @@
       <c r="AB72" s="1"/>
       <c r="AC72" s="1"/>
     </row>
-    <row r="73" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A73" s="1"/>
       <c r="B73" s="10">
         <f t="shared" si="0"/>
@@ -3507,7 +3507,7 @@
       <c r="AB74" s="1"/>
       <c r="AC74" s="1"/>
     </row>
-    <row r="75" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A75" s="1"/>
       <c r="B75" s="10">
         <f t="shared" si="0"/>
@@ -3585,7 +3585,7 @@
       <c r="AB76" s="1"/>
       <c r="AC76" s="1"/>
     </row>
-    <row r="77" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A77" s="1"/>
       <c r="B77" s="10">
         <f t="shared" si="0"/>
@@ -3663,7 +3663,7 @@
       <c r="AB78" s="1"/>
       <c r="AC78" s="1"/>
     </row>
-    <row r="79" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A79" s="1"/>
       <c r="B79" s="10">
         <f t="shared" si="0"/>
@@ -3821,7 +3821,7 @@
       <c r="AB82" s="1"/>
       <c r="AC82" s="1"/>
     </row>
-    <row r="83" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A83" s="1"/>
       <c r="B83" s="10">
         <f t="shared" si="0"/>
@@ -3939,7 +3939,7 @@
       <c r="AB85" s="1"/>
       <c r="AC85" s="1"/>
     </row>
-    <row r="86" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A86" s="1"/>
       <c r="B86" s="10">
         <f t="shared" si="0"/>
@@ -4097,7 +4097,7 @@
       <c r="AB89" s="1"/>
       <c r="AC89" s="1"/>
     </row>
-    <row r="90" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A90" s="1"/>
       <c r="B90" s="10">
         <f t="shared" si="0"/>
@@ -4135,7 +4135,7 @@
       <c r="AB90" s="1"/>
       <c r="AC90" s="1"/>
     </row>
-    <row r="91" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A91" s="1"/>
       <c r="B91" s="10">
         <f t="shared" si="0"/>
@@ -4213,7 +4213,7 @@
       <c r="AB92" s="1"/>
       <c r="AC92" s="1"/>
     </row>
-    <row r="93" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A93" s="1"/>
       <c r="B93" s="10">
         <f t="shared" si="0"/>
@@ -4371,7 +4371,7 @@
       <c r="AB96" s="1"/>
       <c r="AC96" s="1"/>
     </row>
-    <row r="97" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A97" s="1"/>
       <c r="B97" s="10">
         <f t="shared" si="0"/>
@@ -4489,7 +4489,7 @@
       <c r="AB99" s="1"/>
       <c r="AC99" s="1"/>
     </row>
-    <row r="100" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A100" s="1"/>
       <c r="B100" s="10">
         <f t="shared" si="0"/>
@@ -4725,7 +4725,7 @@
       <c r="AB105" s="1"/>
       <c r="AC105" s="1"/>
     </row>
-    <row r="106" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A106" s="1"/>
       <c r="B106" s="10">
         <f t="shared" si="0"/>
@@ -4843,7 +4843,7 @@
       <c r="AB108" s="1"/>
       <c r="AC108" s="1"/>
     </row>
-    <row r="109" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A109" s="1"/>
       <c r="B109" s="10">
         <f t="shared" si="0"/>
@@ -4959,7 +4959,7 @@
       <c r="AB111" s="1"/>
       <c r="AC111" s="1"/>
     </row>
-    <row r="112" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A112" s="1"/>
       <c r="B112" s="10">
         <f t="shared" si="0"/>
@@ -4997,7 +4997,7 @@
       <c r="AB112" s="1"/>
       <c r="AC112" s="1"/>
     </row>
-    <row r="113" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A113" s="1"/>
       <c r="B113" s="10">
         <f t="shared" si="0"/>
@@ -5033,7 +5033,7 @@
       <c r="AB113" s="1"/>
       <c r="AC113" s="1"/>
     </row>
-    <row r="114" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A114" s="1"/>
       <c r="B114" s="10">
         <f t="shared" si="0"/>
@@ -5429,7 +5429,7 @@
       <c r="AB123" s="1"/>
       <c r="AC123" s="1"/>
     </row>
-    <row r="124" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A124" s="1"/>
       <c r="B124" s="10">
         <f t="shared" si="0"/>
@@ -5545,7 +5545,7 @@
       <c r="AB126" s="1"/>
       <c r="AC126" s="1"/>
     </row>
-    <row r="127" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A127" s="1"/>
       <c r="B127" s="10">
         <f t="shared" si="0"/>
@@ -5743,7 +5743,7 @@
       <c r="AB131" s="1"/>
       <c r="AC131" s="1"/>
     </row>
-    <row r="132" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A132" s="1"/>
       <c r="B132" s="10">
         <f t="shared" si="0"/>
@@ -5901,7 +5901,7 @@
       <c r="AB135" s="1"/>
       <c r="AC135" s="1"/>
     </row>
-    <row r="136" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A136" s="1"/>
       <c r="B136" s="10">
         <f t="shared" si="0"/>
@@ -5979,7 +5979,7 @@
       <c r="AB137" s="1"/>
       <c r="AC137" s="1"/>
     </row>
-    <row r="138" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A138" s="1"/>
       <c r="B138" s="10">
         <f t="shared" si="0"/>
@@ -6217,7 +6217,7 @@
       <c r="AB143" s="1"/>
       <c r="AC143" s="1"/>
     </row>
-    <row r="144" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A144" s="1"/>
       <c r="B144" s="10">
         <f t="shared" si="0"/>
@@ -6373,7 +6373,7 @@
       <c r="AB147" s="1"/>
       <c r="AC147" s="1"/>
     </row>
-    <row r="148" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A148" s="1"/>
       <c r="B148" s="10">
         <f t="shared" si="0"/>
@@ -6411,7 +6411,7 @@
       <c r="AB148" s="1"/>
       <c r="AC148" s="1"/>
     </row>
-    <row r="149" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A149" s="1"/>
       <c r="B149" s="10">
         <f t="shared" si="0"/>
@@ -6647,7 +6647,7 @@
       <c r="AB154" s="1"/>
       <c r="AC154" s="1"/>
     </row>
-    <row r="155" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A155" s="1"/>
       <c r="B155" s="10">
         <f t="shared" si="0"/>
@@ -6685,7 +6685,7 @@
       <c r="AB155" s="1"/>
       <c r="AC155" s="1"/>
     </row>
-    <row r="156" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A156" s="1"/>
       <c r="B156" s="10">
         <f t="shared" si="0"/>
@@ -6721,7 +6721,7 @@
       <c r="AB156" s="1"/>
       <c r="AC156" s="1"/>
     </row>
-    <row r="157" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A157" s="1"/>
       <c r="B157" s="10">
         <f t="shared" si="0"/>
@@ -6877,7 +6877,7 @@
       <c r="AB160" s="1"/>
       <c r="AC160" s="1"/>
     </row>
-    <row r="161" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A161" s="1"/>
       <c r="B161" s="10">
         <f t="shared" si="0"/>
@@ -6915,7 +6915,7 @@
       <c r="AB161" s="1"/>
       <c r="AC161" s="1"/>
     </row>
-    <row r="162" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A162" s="1"/>
       <c r="B162" s="10">
         <f t="shared" si="0"/>
@@ -6993,7 +6993,7 @@
       <c r="AB163" s="1"/>
       <c r="AC163" s="1"/>
     </row>
-    <row r="164" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A164" s="1"/>
       <c r="B164" s="10">
         <f t="shared" si="0"/>
@@ -7111,7 +7111,7 @@
       <c r="AB166" s="1"/>
       <c r="AC166" s="1"/>
     </row>
-    <row r="167" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A167" s="1"/>
       <c r="B167" s="10">
         <f t="shared" si="0"/>
@@ -7149,7 +7149,7 @@
       <c r="AB167" s="1"/>
       <c r="AC167" s="1"/>
     </row>
-    <row r="168" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A168" s="1"/>
       <c r="B168" s="10">
         <f t="shared" si="0"/>
@@ -7387,7 +7387,7 @@
       <c r="AB173" s="1"/>
       <c r="AC173" s="1"/>
     </row>
-    <row r="174" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A174" s="1"/>
       <c r="B174" s="10">
         <f t="shared" si="0"/>
@@ -7545,7 +7545,7 @@
       <c r="AB177" s="1"/>
       <c r="AC177" s="1"/>
     </row>
-    <row r="178" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A178" s="1"/>
       <c r="B178" s="10">
         <f t="shared" si="0"/>
@@ -7623,7 +7623,7 @@
       <c r="AB179" s="1"/>
       <c r="AC179" s="1"/>
     </row>
-    <row r="180" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A180" s="1"/>
       <c r="B180" s="10">
         <f t="shared" si="0"/>
@@ -7661,7 +7661,7 @@
       <c r="AB180" s="1"/>
       <c r="AC180" s="1"/>
     </row>
-    <row r="181" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A181" s="1"/>
       <c r="B181" s="10">
         <f t="shared" si="0"/>
@@ -7749,7 +7749,9 @@
       <c r="D183" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E183" s="7"/>
+      <c r="E183" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="F183" s="11"/>
       <c r="G183" s="11"/>
       <c r="H183" s="10"/>
@@ -7787,7 +7789,9 @@
       <c r="D184" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E184" s="7"/>
+      <c r="E184" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="F184" s="11"/>
       <c r="G184" s="11"/>
       <c r="H184" s="10"/>
@@ -7813,7 +7817,7 @@
       <c r="AB184" s="1"/>
       <c r="AC184" s="1"/>
     </row>
-    <row r="185" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A185" s="1"/>
       <c r="B185" s="10">
         <f t="shared" si="0"/>
@@ -7863,7 +7867,9 @@
       <c r="D186" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E186" s="7"/>
+      <c r="E186" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="F186" s="11"/>
       <c r="G186" s="11"/>
       <c r="H186" s="10"/>
@@ -7901,7 +7907,9 @@
       <c r="D187" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E187" s="7"/>
+      <c r="E187" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F187" s="11"/>
       <c r="G187" s="11"/>
       <c r="H187" s="10"/>
@@ -7939,7 +7947,9 @@
       <c r="D188" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E188" s="7"/>
+      <c r="E188" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F188" s="11"/>
       <c r="G188" s="11"/>
       <c r="H188" s="10"/>
@@ -7977,7 +7987,9 @@
       <c r="D189" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E189" s="7"/>
+      <c r="E189" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F189" s="11"/>
       <c r="G189" s="11"/>
       <c r="H189" s="10"/>
@@ -8015,7 +8027,9 @@
       <c r="D190" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E190" s="7"/>
+      <c r="E190" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="F190" s="11"/>
       <c r="G190" s="11"/>
       <c r="H190" s="10"/>
@@ -8053,7 +8067,9 @@
       <c r="D191" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E191" s="7"/>
+      <c r="E191" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F191" s="11"/>
       <c r="G191" s="11"/>
       <c r="H191" s="10"/>
@@ -8091,7 +8107,9 @@
       <c r="D192" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E192" s="7"/>
+      <c r="E192" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F192" s="11"/>
       <c r="G192" s="11"/>
       <c r="H192" s="10"/>
@@ -8129,7 +8147,9 @@
       <c r="D193" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E193" s="7"/>
+      <c r="E193" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="F193" s="11"/>
       <c r="G193" s="11"/>
       <c r="H193" s="10"/>
@@ -8155,7 +8175,7 @@
       <c r="AB193" s="1"/>
       <c r="AC193" s="1"/>
     </row>
-    <row r="194" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A194" s="1"/>
       <c r="B194" s="10">
         <f t="shared" si="0"/>
@@ -8193,7 +8213,7 @@
       <c r="AB194" s="1"/>
       <c r="AC194" s="1"/>
     </row>
-    <row r="195" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A195" s="1"/>
       <c r="B195" s="10">
         <f t="shared" si="0"/>
@@ -8229,7 +8249,7 @@
       <c r="AB195" s="1"/>
       <c r="AC195" s="1"/>
     </row>
-    <row r="196" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A196" s="1"/>
       <c r="B196" s="10">
         <f t="shared" si="0"/>
@@ -8277,7 +8297,9 @@
       <c r="D197" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E197" s="7"/>
+      <c r="E197" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F197" s="11"/>
       <c r="G197" s="11"/>
       <c r="H197" s="10"/>
@@ -8303,7 +8325,7 @@
       <c r="AB197" s="1"/>
       <c r="AC197" s="1"/>
     </row>
-    <row r="198" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A198" s="1"/>
       <c r="B198" s="10">
         <f t="shared" si="0"/>
@@ -8353,7 +8375,9 @@
       <c r="D199" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E199" s="7"/>
+      <c r="E199" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F199" s="11"/>
       <c r="G199" s="11"/>
       <c r="H199" s="10"/>
@@ -8391,7 +8415,9 @@
       <c r="D200" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="E200" s="7"/>
+      <c r="E200" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="F200" s="11"/>
       <c r="G200" s="11"/>
       <c r="H200" s="10"/>
@@ -8429,7 +8455,9 @@
       <c r="D201" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="E201" s="7"/>
+      <c r="E201" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F201" s="11"/>
       <c r="G201" s="11"/>
       <c r="H201" s="10"/>
@@ -8467,7 +8495,9 @@
       <c r="D202" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E202" s="7"/>
+      <c r="E202" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F202" s="11"/>
       <c r="G202" s="11"/>
       <c r="H202" s="10"/>
@@ -8493,7 +8523,7 @@
       <c r="AB202" s="1"/>
       <c r="AC202" s="1"/>
     </row>
-    <row r="203" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A203" s="1"/>
       <c r="B203" s="10">
         <f t="shared" si="0"/>
@@ -8543,7 +8573,9 @@
       <c r="D204" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E204" s="7"/>
+      <c r="E204" s="13" t="s">
+        <v>18</v>
+      </c>
       <c r="F204" s="11"/>
       <c r="G204" s="11"/>
       <c r="H204" s="10"/>
@@ -8569,7 +8601,7 @@
       <c r="AB204" s="1"/>
       <c r="AC204" s="1"/>
     </row>
-    <row r="205" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A205" s="1"/>
       <c r="B205" s="10">
         <f t="shared" si="0"/>
@@ -8617,7 +8649,9 @@
       <c r="D206" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E206" s="7"/>
+      <c r="E206" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="F206" s="11"/>
       <c r="G206" s="11"/>
       <c r="H206" s="10"/>
@@ -8655,7 +8689,9 @@
       <c r="D207" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E207" s="7"/>
+      <c r="E207" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="F207" s="11"/>
       <c r="G207" s="11"/>
       <c r="H207" s="10"/>
@@ -8693,7 +8729,9 @@
       <c r="D208" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E208" s="7"/>
+      <c r="E208" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F208" s="11"/>
       <c r="G208" s="11"/>
       <c r="H208" s="10"/>
@@ -8731,7 +8769,9 @@
       <c r="D209" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E209" s="7"/>
+      <c r="E209" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F209" s="11"/>
       <c r="G209" s="11"/>
       <c r="H209" s="10"/>
@@ -8769,7 +8809,9 @@
       <c r="D210" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E210" s="7"/>
+      <c r="E210" s="13" t="s">
+        <v>18</v>
+      </c>
       <c r="F210" s="11"/>
       <c r="G210" s="11"/>
       <c r="H210" s="10"/>
@@ -8795,7 +8837,7 @@
       <c r="AB210" s="1"/>
       <c r="AC210" s="1"/>
     </row>
-    <row r="211" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A211" s="1"/>
       <c r="B211" s="10">
         <f t="shared" si="0"/>
@@ -8833,7 +8875,7 @@
       <c r="AB211" s="1"/>
       <c r="AC211" s="1"/>
     </row>
-    <row r="212" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A212" s="1"/>
       <c r="B212" s="10">
         <f t="shared" si="0"/>
@@ -8869,7 +8911,7 @@
       <c r="AB212" s="1"/>
       <c r="AC212" s="1"/>
     </row>
-    <row r="213" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A213" s="1"/>
       <c r="B213" s="10">
         <f t="shared" si="0"/>
@@ -8905,7 +8947,7 @@
       <c r="AB213" s="1"/>
       <c r="AC213" s="1"/>
     </row>
-    <row r="214" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A214" s="1"/>
       <c r="B214" s="10">
         <f t="shared" si="0"/>
@@ -8953,7 +8995,9 @@
       <c r="D215" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E215" s="7"/>
+      <c r="E215" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="F215" s="11"/>
       <c r="G215" s="11"/>
       <c r="H215" s="10"/>
@@ -8991,7 +9035,9 @@
       <c r="D216" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E216" s="7"/>
+      <c r="E216" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F216" s="11"/>
       <c r="G216" s="11"/>
       <c r="H216" s="10"/>
@@ -9029,7 +9075,9 @@
       <c r="D217" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E217" s="7"/>
+      <c r="E217" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F217" s="11"/>
       <c r="G217" s="11"/>
       <c r="H217" s="10"/>
@@ -9055,7 +9103,7 @@
       <c r="AB217" s="1"/>
       <c r="AC217" s="1"/>
     </row>
-    <row r="218" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A218" s="1"/>
       <c r="B218" s="10">
         <f t="shared" si="0"/>
@@ -9093,7 +9141,7 @@
       <c r="AB218" s="1"/>
       <c r="AC218" s="1"/>
     </row>
-    <row r="219" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A219" s="1"/>
       <c r="B219" s="10">
         <f t="shared" si="0"/>
@@ -9143,7 +9191,9 @@
       <c r="D220" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E220" s="7"/>
+      <c r="E220" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="F220" s="11"/>
       <c r="G220" s="11"/>
       <c r="H220" s="10"/>
@@ -9169,7 +9219,7 @@
       <c r="AB220" s="1"/>
       <c r="AC220" s="1"/>
     </row>
-    <row r="221" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A221" s="1"/>
       <c r="B221" s="10">
         <f t="shared" si="0"/>
@@ -9217,7 +9267,9 @@
       <c r="D222" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E222" s="7"/>
+      <c r="E222" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="F222" s="11"/>
       <c r="G222" s="11"/>
       <c r="H222" s="10"/>
@@ -9255,7 +9307,9 @@
       <c r="D223" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E223" s="7"/>
+      <c r="E223" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="F223" s="11"/>
       <c r="G223" s="11"/>
       <c r="H223" s="10"/>
@@ -9293,7 +9347,9 @@
       <c r="D224" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E224" s="7"/>
+      <c r="E224" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F224" s="11"/>
       <c r="G224" s="11"/>
       <c r="H224" s="10"/>
@@ -9331,7 +9387,9 @@
       <c r="D225" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E225" s="7"/>
+      <c r="E225" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F225" s="11"/>
       <c r="G225" s="11"/>
       <c r="H225" s="10"/>
@@ -9369,7 +9427,9 @@
       <c r="D226" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E226" s="7"/>
+      <c r="E226" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="F226" s="11"/>
       <c r="G226" s="11"/>
       <c r="H226" s="10"/>
@@ -9395,7 +9455,7 @@
       <c r="AB226" s="1"/>
       <c r="AC226" s="1"/>
     </row>
-    <row r="227" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A227" s="1"/>
       <c r="B227" s="10">
         <f t="shared" si="0"/>
@@ -9443,7 +9503,9 @@
       <c r="D228" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E228" s="7"/>
+      <c r="E228" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="F228" s="11"/>
       <c r="G228" s="11"/>
       <c r="H228" s="10"/>
@@ -9469,7 +9531,7 @@
       <c r="AB228" s="1"/>
       <c r="AC228" s="1"/>
     </row>
-    <row r="229" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A229" s="1"/>
       <c r="B229" s="10">
         <f t="shared" si="0"/>
@@ -9505,7 +9567,7 @@
       <c r="AB229" s="1"/>
       <c r="AC229" s="1"/>
     </row>
-    <row r="230" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A230" s="1"/>
       <c r="B230" s="10">
         <f t="shared" si="0"/>
@@ -9553,7 +9615,9 @@
       <c r="D231" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E231" s="7"/>
+      <c r="E231" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="F231" s="11"/>
       <c r="G231" s="11"/>
       <c r="H231" s="10"/>
@@ -9579,7 +9643,7 @@
       <c r="AB231" s="1"/>
       <c r="AC231" s="1"/>
     </row>
-    <row r="232" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A232" s="1"/>
       <c r="B232" s="10">
         <f t="shared" si="0"/>
@@ -9617,7 +9681,7 @@
       <c r="AB232" s="1"/>
       <c r="AC232" s="1"/>
     </row>
-    <row r="233" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A233" s="1"/>
       <c r="B233" s="10">
         <f t="shared" si="0"/>
@@ -9769,7 +9833,7 @@
       <c r="AB236" s="1"/>
       <c r="AC236" s="1"/>
     </row>
-    <row r="237" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A237" s="1"/>
       <c r="B237" s="10">
         <f t="shared" si="1"/>
@@ -10109,7 +10173,7 @@
       <c r="AB245" s="1"/>
       <c r="AC245" s="1"/>
     </row>
-    <row r="246" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A246" s="1"/>
       <c r="B246" s="10">
         <f t="shared" si="1"/>
@@ -10145,7 +10209,7 @@
       <c r="AB246" s="1"/>
       <c r="AC246" s="1"/>
     </row>
-    <row r="247" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A247" s="1"/>
       <c r="B247" s="10">
         <f t="shared" si="1"/>
@@ -10183,7 +10247,7 @@
       <c r="AB247" s="1"/>
       <c r="AC247" s="1"/>
     </row>
-    <row r="248" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A248" s="1"/>
       <c r="B248" s="10">
         <f t="shared" si="1"/>
@@ -10221,7 +10285,7 @@
       <c r="AB248" s="1"/>
       <c r="AC248" s="1"/>
     </row>
-    <row r="249" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A249" s="1"/>
       <c r="B249" s="10">
         <f t="shared" si="1"/>
@@ -10411,7 +10475,7 @@
       <c r="AB253" s="1"/>
       <c r="AC253" s="1"/>
     </row>
-    <row r="254" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="254" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A254" s="1"/>
       <c r="B254" s="10">
         <f t="shared" si="1"/>
@@ -10485,7 +10549,7 @@
       <c r="AB255" s="1"/>
       <c r="AC255" s="1"/>
     </row>
-    <row r="256" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="256" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A256" s="1"/>
       <c r="B256" s="10">
         <f t="shared" si="1"/>
@@ -10559,7 +10623,7 @@
       <c r="AB257" s="1"/>
       <c r="AC257" s="1"/>
     </row>
-    <row r="258" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A258" s="1"/>
       <c r="B258" s="10">
         <f t="shared" si="1"/>
@@ -10595,7 +10659,7 @@
       <c r="AB258" s="1"/>
       <c r="AC258" s="1"/>
     </row>
-    <row r="259" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="259" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A259" s="1"/>
       <c r="B259" s="10">
         <f t="shared" si="1"/>
@@ -10747,7 +10811,7 @@
       <c r="AB262" s="1"/>
       <c r="AC262" s="1"/>
     </row>
-    <row r="263" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="263" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A263" s="1"/>
       <c r="B263" s="10">
         <f t="shared" si="1"/>
@@ -10799,7 +10863,7 @@
       <c r="G264" s="11"/>
       <c r="H264" s="10"/>
     </row>
-    <row r="265" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="265" spans="1:29" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B265" s="10">
         <f t="shared" si="1"/>
         <v>262</v>
@@ -10813,7 +10877,7 @@
       <c r="G265" s="11"/>
       <c r="H265" s="10"/>
     </row>
-    <row r="266" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="266" spans="1:29" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B266" s="10">
         <f t="shared" si="1"/>
         <v>263</v>
@@ -10893,7 +10957,7 @@
       <c r="G270" s="11"/>
       <c r="H270" s="10"/>
     </row>
-    <row r="271" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="271" spans="1:29" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B271" s="10">
         <f t="shared" si="1"/>
         <v>268</v>
@@ -10907,7 +10971,7 @@
       <c r="G271" s="11"/>
       <c r="H271" s="10"/>
     </row>
-    <row r="272" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="272" spans="1:29" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B272" s="10">
         <f t="shared" si="1"/>
         <v>269</v>
@@ -10955,7 +11019,7 @@
       <c r="G274" s="11"/>
       <c r="H274" s="10"/>
     </row>
-    <row r="275" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="275" spans="2:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B275" s="10">
         <f t="shared" si="1"/>
         <v>272</v>
@@ -10971,7 +11035,7 @@
       <c r="G275" s="11"/>
       <c r="H275" s="10"/>
     </row>
-    <row r="276" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="276" spans="2:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B276" s="10">
         <f t="shared" si="1"/>
         <v>273</v>
@@ -10987,7 +11051,7 @@
       <c r="G276" s="11"/>
       <c r="H276" s="10"/>
     </row>
-    <row r="277" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="277" spans="2:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B277" s="10">
         <f t="shared" si="1"/>
         <v>274</v>
@@ -11019,7 +11083,7 @@
       <c r="G278" s="11"/>
       <c r="H278" s="10"/>
     </row>
-    <row r="279" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="279" spans="2:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B279" s="10">
         <f t="shared" si="1"/>
         <v>276</v>
@@ -11115,7 +11179,7 @@
       <c r="G284" s="11"/>
       <c r="H284" s="10"/>
     </row>
-    <row r="285" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="285" spans="2:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B285" s="10">
         <f t="shared" si="1"/>
         <v>282</v>
@@ -11129,7 +11193,7 @@
       <c r="G285" s="11"/>
       <c r="H285" s="10"/>
     </row>
-    <row r="286" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="286" spans="2:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B286" s="10">
         <f t="shared" si="1"/>
         <v>283</v>
@@ -11177,7 +11241,7 @@
       <c r="G288" s="11"/>
       <c r="H288" s="10"/>
     </row>
-    <row r="289" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="289" spans="2:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B289" s="10">
         <f t="shared" si="1"/>
         <v>286</v>
@@ -11207,7 +11271,7 @@
       <c r="G290" s="11"/>
       <c r="H290" s="10"/>
     </row>
-    <row r="291" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="291" spans="2:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B291" s="10">
         <f t="shared" si="1"/>
         <v>288</v>
@@ -11237,7 +11301,7 @@
       <c r="G292" s="11"/>
       <c r="H292" s="10"/>
     </row>
-    <row r="293" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="293" spans="2:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B293" s="10">
         <f t="shared" si="1"/>
         <v>290</v>
@@ -11283,7 +11347,7 @@
       <c r="G295" s="11"/>
       <c r="H295" s="10"/>
     </row>
-    <row r="296" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="296" spans="2:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B296" s="10">
         <f t="shared" si="1"/>
         <v>293</v>
@@ -11363,7 +11427,7 @@
       <c r="G300" s="11"/>
       <c r="H300" s="10"/>
     </row>
-    <row r="301" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="301" spans="2:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B301" s="10">
         <f t="shared" si="2"/>
         <v>298</v>
@@ -11412,11 +11476,24 @@
       <c r="H303" s="10"/>
     </row>
   </sheetData>
-  <autoFilter ref="B3:G263" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="B3:G303" xr:uid="{00000000-0009-0000-0000-000000000000}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Again"/>
+        <filter val="NG"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="2">
+      <filters blank="1">
+        <filter val="Again"/>
+        <filter val="NG"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <customSheetViews>
     <customSheetView guid="{2A2FD979-9F8D-413C-9CCD-B7F26FC2F3D3}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="B3:G267" xr:uid="{4568F4EE-CFE2-4A34-B44C-892FBED0B414}"/>
+      <autoFilter ref="B3:G267" xr:uid="{4E47C7ED-1DD8-4FFF-ADEA-CC3DF23771DF}"/>
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="7"/>

--- a/work-book/cloudTech/SAP/[SAP-C02]AWS問題集チェックシート.xlsx
+++ b/work-book/cloudTech/SAP/[SAP-C02]AWS問題集チェックシート.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f8aaa7f11ecf284d/デスクトップ/program/readeing-learning-history/work-book/cloudTech/SAP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="166" documentId="13_ncr:1_{1B8999BD-FC05-4DF7-AFA1-082B8FD27174}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B247D8D7-7655-4C88-966D-C0A1777A3B81}"/>
+  <xr:revisionPtr revIDLastSave="191" documentId="13_ncr:1_{1B8999BD-FC05-4DF7-AFA1-082B8FD27174}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E6E9D8A8-B765-41F4-AF3C-B7D3F7C01F5B}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18090" yWindow="0" windowWidth="4560" windowHeight="14410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="問題チェックシート" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="19">
   <si>
     <t>* [ファイル] ⇨ [コピーを作成] を選択し、コピーしてからお使いください</t>
   </si>
@@ -587,8 +587,8 @@
   <dimension ref="A1:AC303"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A204" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E231" sqref="E231"/>
+      <pane ySplit="3" topLeftCell="A244" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E262" sqref="E262"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9731,7 +9731,9 @@
       <c r="D234" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E234" s="7"/>
+      <c r="E234" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="F234" s="11"/>
       <c r="G234" s="11"/>
       <c r="H234" s="10"/>
@@ -9769,7 +9771,9 @@
       <c r="D235" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E235" s="7"/>
+      <c r="E235" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F235" s="11"/>
       <c r="G235" s="11"/>
       <c r="H235" s="10"/>
@@ -9807,7 +9811,9 @@
       <c r="D236" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E236" s="7"/>
+      <c r="E236" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F236" s="11"/>
       <c r="G236" s="11"/>
       <c r="H236" s="10"/>
@@ -9881,7 +9887,9 @@
       <c r="D238" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E238" s="7"/>
+      <c r="E238" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="F238" s="11"/>
       <c r="G238" s="11"/>
       <c r="H238" s="10"/>
@@ -9919,7 +9927,9 @@
       <c r="D239" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E239" s="7"/>
+      <c r="E239" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F239" s="11"/>
       <c r="G239" s="11"/>
       <c r="H239" s="10"/>
@@ -9957,7 +9967,9 @@
       <c r="D240" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E240" s="7"/>
+      <c r="E240" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F240" s="11"/>
       <c r="G240" s="11"/>
       <c r="H240" s="10"/>
@@ -9995,7 +10007,9 @@
       <c r="D241" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E241" s="7"/>
+      <c r="E241" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F241" s="11"/>
       <c r="G241" s="11"/>
       <c r="H241" s="10"/>
@@ -10033,7 +10047,9 @@
       <c r="D242" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E242" s="7"/>
+      <c r="E242" s="13" t="s">
+        <v>17</v>
+      </c>
       <c r="F242" s="11"/>
       <c r="G242" s="11"/>
       <c r="H242" s="10"/>
@@ -10071,7 +10087,9 @@
       <c r="D243" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E243" s="7"/>
+      <c r="E243" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="F243" s="11"/>
       <c r="G243" s="11"/>
       <c r="H243" s="10"/>
@@ -10109,7 +10127,9 @@
       <c r="D244" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E244" s="7"/>
+      <c r="E244" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="F244" s="11"/>
       <c r="G244" s="11"/>
       <c r="H244" s="10"/>
@@ -10147,7 +10167,9 @@
       <c r="D245" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E245" s="7"/>
+      <c r="E245" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F245" s="11"/>
       <c r="G245" s="11"/>
       <c r="H245" s="10"/>
@@ -10335,7 +10357,9 @@
       <c r="D250" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E250" s="7"/>
+      <c r="E250" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F250" s="11"/>
       <c r="G250" s="11"/>
       <c r="H250" s="10"/>
@@ -10373,7 +10397,9 @@
       <c r="D251" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E251" s="7"/>
+      <c r="E251" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F251" s="11"/>
       <c r="G251" s="11"/>
       <c r="H251" s="10"/>
@@ -10411,7 +10437,9 @@
       <c r="D252" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E252" s="7"/>
+      <c r="E252" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="F252" s="11"/>
       <c r="G252" s="11"/>
       <c r="H252" s="10"/>
@@ -10449,7 +10477,9 @@
       <c r="D253" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E253" s="7"/>
+      <c r="E253" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="F253" s="11"/>
       <c r="G253" s="11"/>
       <c r="H253" s="10"/>
@@ -10523,7 +10553,9 @@
       <c r="D255" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E255" s="7"/>
+      <c r="E255" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F255" s="11"/>
       <c r="G255" s="11"/>
       <c r="H255" s="10"/>
@@ -10597,7 +10629,9 @@
       <c r="D257" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E257" s="13"/>
+      <c r="E257" s="13" t="s">
+        <v>5</v>
+      </c>
       <c r="F257" s="11"/>
       <c r="G257" s="11"/>
       <c r="H257" s="10"/>
@@ -10709,7 +10743,9 @@
       <c r="D260" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E260" s="7"/>
+      <c r="E260" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F260" s="11"/>
       <c r="G260" s="11"/>
       <c r="H260" s="10"/>
@@ -10747,7 +10783,9 @@
       <c r="D261" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E261" s="7"/>
+      <c r="E261" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F261" s="11"/>
       <c r="G261" s="11"/>
       <c r="H261" s="10"/>
@@ -10785,7 +10823,9 @@
       <c r="D262" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E262" s="7"/>
+      <c r="E262" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F262" s="11"/>
       <c r="G262" s="11"/>
       <c r="H262" s="10"/>
@@ -11493,7 +11533,7 @@
   <customSheetViews>
     <customSheetView guid="{2A2FD979-9F8D-413C-9CCD-B7F26FC2F3D3}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="B3:G267" xr:uid="{4E47C7ED-1DD8-4FFF-ADEA-CC3DF23771DF}"/>
+      <autoFilter ref="B3:G267" xr:uid="{1B4D6CBC-F816-4D6E-8DC3-BD94ABF96057}"/>
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="7"/>

--- a/work-book/cloudTech/SAP/[SAP-C02]AWS問題集チェックシート.xlsx
+++ b/work-book/cloudTech/SAP/[SAP-C02]AWS問題集チェックシート.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f8aaa7f11ecf284d/デスクトップ/program/readeing-learning-history/work-book/cloudTech/SAP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="191" documentId="13_ncr:1_{1B8999BD-FC05-4DF7-AFA1-082B8FD27174}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E6E9D8A8-B765-41F4-AF3C-B7D3F7C01F5B}"/>
+  <xr:revisionPtr revIDLastSave="215" documentId="13_ncr:1_{1B8999BD-FC05-4DF7-AFA1-082B8FD27174}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0D5455AA-6084-4F1B-8DC3-59BD2637682E}"/>
   <bookViews>
-    <workbookView xWindow="18090" yWindow="0" windowWidth="4560" windowHeight="14410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="問題チェックシート" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="750" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="19">
   <si>
     <t>* [ファイル] ⇨ [コピーを作成] を選択し、コピーしてからお使いください</t>
   </si>
@@ -587,8 +587,8 @@
   <dimension ref="A1:AC303"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A244" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E262" sqref="E262"/>
+      <pane ySplit="3" topLeftCell="A257" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E297" sqref="E297"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10898,7 +10898,9 @@
       <c r="D264" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E264" s="7"/>
+      <c r="E264" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F264" s="11"/>
       <c r="G264" s="11"/>
       <c r="H264" s="10"/>
@@ -10944,7 +10946,9 @@
       <c r="D267" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E267" s="7"/>
+      <c r="E267" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="F267" s="11"/>
       <c r="G267" s="11"/>
       <c r="H267" s="10"/>
@@ -10960,7 +10964,9 @@
       <c r="D268" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E268" s="7"/>
+      <c r="E268" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="F268" s="11"/>
       <c r="G268" s="11"/>
       <c r="H268" s="10"/>
@@ -10976,7 +10982,9 @@
       <c r="D269" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E269" s="7"/>
+      <c r="E269" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F269" s="11"/>
       <c r="G269" s="11"/>
       <c r="H269" s="10"/>
@@ -10992,7 +11000,9 @@
       <c r="D270" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E270" s="7"/>
+      <c r="E270" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F270" s="11"/>
       <c r="G270" s="11"/>
       <c r="H270" s="10"/>
@@ -11038,7 +11048,9 @@
       <c r="D273" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E273" s="7"/>
+      <c r="E273" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F273" s="11"/>
       <c r="G273" s="11"/>
       <c r="H273" s="10"/>
@@ -11054,7 +11066,9 @@
       <c r="D274" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E274" s="7"/>
+      <c r="E274" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F274" s="11"/>
       <c r="G274" s="11"/>
       <c r="H274" s="10"/>
@@ -11118,7 +11132,9 @@
       <c r="D278" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E278" s="7"/>
+      <c r="E278" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F278" s="11"/>
       <c r="G278" s="11"/>
       <c r="H278" s="10"/>
@@ -11150,7 +11166,9 @@
       <c r="D280" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E280" s="7"/>
+      <c r="E280" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F280" s="11"/>
       <c r="G280" s="11"/>
       <c r="H280" s="10"/>
@@ -11166,7 +11184,9 @@
       <c r="D281" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E281" s="7"/>
+      <c r="E281" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="F281" s="11"/>
       <c r="G281" s="11"/>
       <c r="H281" s="10"/>
@@ -11182,7 +11202,9 @@
       <c r="D282" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E282" s="7"/>
+      <c r="E282" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="F282" s="11"/>
       <c r="G282" s="11"/>
       <c r="H282" s="10"/>
@@ -11198,7 +11220,9 @@
       <c r="D283" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E283" s="7"/>
+      <c r="E283" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F283" s="11"/>
       <c r="G283" s="11"/>
       <c r="H283" s="10"/>
@@ -11214,7 +11238,9 @@
       <c r="D284" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E284" s="7"/>
+      <c r="E284" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F284" s="11"/>
       <c r="G284" s="11"/>
       <c r="H284" s="10"/>
@@ -11260,7 +11286,9 @@
       <c r="D287" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E287" s="7"/>
+      <c r="E287" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="F287" s="11"/>
       <c r="G287" s="11"/>
       <c r="H287" s="10"/>
@@ -11276,7 +11304,9 @@
       <c r="D288" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E288" s="7"/>
+      <c r="E288" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F288" s="11"/>
       <c r="G288" s="11"/>
       <c r="H288" s="10"/>
@@ -11306,7 +11336,9 @@
       <c r="D290" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E290" s="7"/>
+      <c r="E290" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="F290" s="11"/>
       <c r="G290" s="11"/>
       <c r="H290" s="10"/>
@@ -11336,7 +11368,9 @@
       <c r="D292" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E292" s="7"/>
+      <c r="E292" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="F292" s="11"/>
       <c r="G292" s="11"/>
       <c r="H292" s="10"/>
@@ -11366,7 +11400,9 @@
       <c r="D294" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E294" s="7"/>
+      <c r="E294" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="F294" s="11"/>
       <c r="G294" s="11"/>
       <c r="H294" s="10"/>
@@ -11382,7 +11418,9 @@
       <c r="D295" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E295" s="7"/>
+      <c r="E295" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="F295" s="11"/>
       <c r="G295" s="11"/>
       <c r="H295" s="10"/>
@@ -11414,7 +11452,9 @@
       <c r="D297" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E297" s="7"/>
+      <c r="E297" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="F297" s="11"/>
       <c r="G297" s="11"/>
       <c r="H297" s="10"/>
@@ -11533,7 +11573,7 @@
   <customSheetViews>
     <customSheetView guid="{2A2FD979-9F8D-413C-9CCD-B7F26FC2F3D3}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="B3:G267" xr:uid="{1B4D6CBC-F816-4D6E-8DC3-BD94ABF96057}"/>
+      <autoFilter ref="B3:G267" xr:uid="{2711E200-303A-4774-BE80-72B2CD8E7700}"/>
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="7"/>

--- a/work-book/cloudTech/SAP/[SAP-C02]AWS問題集チェックシート.xlsx
+++ b/work-book/cloudTech/SAP/[SAP-C02]AWS問題集チェックシート.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f8aaa7f11ecf284d/デスクトップ/program/readeing-learning-history/work-book/cloudTech/SAP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="215" documentId="13_ncr:1_{1B8999BD-FC05-4DF7-AFA1-082B8FD27174}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0D5455AA-6084-4F1B-8DC3-59BD2637682E}"/>
+  <xr:revisionPtr revIDLastSave="221" documentId="13_ncr:1_{1B8999BD-FC05-4DF7-AFA1-082B8FD27174}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1B746716-3708-40F4-831C-B177DC9B3CAA}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="770" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="19">
   <si>
     <t>* [ファイル] ⇨ [コピーを作成] を選択し、コピーしてからお使いください</t>
   </si>
@@ -587,8 +587,8 @@
   <dimension ref="A1:AC303"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A257" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E297" sqref="E297"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B303" sqref="B3:B303"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -727,7 +727,7 @@
       <c r="AB3" s="1"/>
       <c r="AC3" s="1"/>
     </row>
-    <row r="4" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:29" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="10">
         <f t="shared" ref="B4:B234" si="0">ROW()-3</f>
@@ -767,7 +767,7 @@
       <c r="AB4" s="1"/>
       <c r="AC4" s="1"/>
     </row>
-    <row r="5" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:29" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="10">
         <f t="shared" si="0"/>
@@ -921,7 +921,7 @@
       <c r="AB8" s="1"/>
       <c r="AC8" s="1"/>
     </row>
-    <row r="9" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:29" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
       <c r="B9" s="10">
         <f t="shared" si="0"/>
@@ -961,7 +961,7 @@
       <c r="AB9" s="1"/>
       <c r="AC9" s="1"/>
     </row>
-    <row r="10" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:29" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
       <c r="B10" s="10">
         <f t="shared" si="0"/>
@@ -1001,7 +1001,7 @@
       <c r="AB10" s="1"/>
       <c r="AC10" s="1"/>
     </row>
-    <row r="11" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:29" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
       <c r="B11" s="10">
         <f t="shared" si="0"/>
@@ -1041,7 +1041,7 @@
       <c r="AB11" s="1"/>
       <c r="AC11" s="1"/>
     </row>
-    <row r="12" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:29" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
       <c r="B12" s="10">
         <f t="shared" si="0"/>
@@ -1081,7 +1081,7 @@
       <c r="AB12" s="1"/>
       <c r="AC12" s="1"/>
     </row>
-    <row r="13" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:29" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
       <c r="B13" s="10">
         <f t="shared" si="0"/>
@@ -1121,7 +1121,7 @@
       <c r="AB13" s="1"/>
       <c r="AC13" s="1"/>
     </row>
-    <row r="14" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:29" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
       <c r="B14" s="10">
         <f t="shared" si="0"/>
@@ -1241,7 +1241,7 @@
       <c r="AB16" s="1"/>
       <c r="AC16" s="1"/>
     </row>
-    <row r="17" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:29" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1"/>
       <c r="B17" s="10">
         <f t="shared" si="0"/>
@@ -1513,7 +1513,7 @@
       <c r="AB23" s="1"/>
       <c r="AC23" s="1"/>
     </row>
-    <row r="24" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:29" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1"/>
       <c r="B24" s="10">
         <f t="shared" si="0"/>
@@ -1825,7 +1825,7 @@
       <c r="AB31" s="1"/>
       <c r="AC31" s="1"/>
     </row>
-    <row r="32" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:29" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1"/>
       <c r="B32" s="10">
         <f t="shared" si="0"/>
@@ -1943,7 +1943,7 @@
       <c r="AB34" s="1"/>
       <c r="AC34" s="1"/>
     </row>
-    <row r="35" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:29" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1"/>
       <c r="B35" s="10">
         <f t="shared" si="0"/>
@@ -2063,7 +2063,7 @@
       <c r="AB37" s="1"/>
       <c r="AC37" s="1"/>
     </row>
-    <row r="38" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:29" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="1"/>
       <c r="B38" s="10">
         <f t="shared" si="0"/>
@@ -2411,7 +2411,7 @@
       <c r="AB46" s="1"/>
       <c r="AC46" s="1"/>
     </row>
-    <row r="47" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:29" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="1"/>
       <c r="B47" s="10">
         <f t="shared" si="0"/>
@@ -2451,7 +2451,7 @@
       <c r="AB47" s="1"/>
       <c r="AC47" s="1"/>
     </row>
-    <row r="48" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:29" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="1"/>
       <c r="B48" s="10">
         <f t="shared" si="0"/>
@@ -2685,7 +2685,7 @@
       <c r="AB53" s="1"/>
       <c r="AC53" s="1"/>
     </row>
-    <row r="54" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:29" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="1"/>
       <c r="B54" s="10">
         <f t="shared" si="0"/>
@@ -2725,7 +2725,7 @@
       <c r="AB54" s="1"/>
       <c r="AC54" s="1"/>
     </row>
-    <row r="55" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:29" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="1"/>
       <c r="B55" s="10">
         <f t="shared" si="0"/>
@@ -2765,7 +2765,7 @@
       <c r="AB55" s="1"/>
       <c r="AC55" s="1"/>
     </row>
-    <row r="56" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:29" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="1"/>
       <c r="B56" s="10">
         <f t="shared" si="0"/>
@@ -2843,7 +2843,7 @@
       <c r="AB57" s="1"/>
       <c r="AC57" s="1"/>
     </row>
-    <row r="58" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58" s="1"/>
       <c r="B58" s="10">
         <f t="shared" si="0"/>
@@ -2921,7 +2921,7 @@
       <c r="AB59" s="1"/>
       <c r="AC59" s="1"/>
     </row>
-    <row r="60" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60" s="1"/>
       <c r="B60" s="10">
         <f t="shared" si="0"/>
@@ -2961,7 +2961,7 @@
       <c r="AB60" s="1"/>
       <c r="AC60" s="1"/>
     </row>
-    <row r="61" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61" s="1"/>
       <c r="B61" s="10">
         <f t="shared" si="0"/>
@@ -3079,7 +3079,7 @@
       <c r="AB63" s="1"/>
       <c r="AC63" s="1"/>
     </row>
-    <row r="64" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64" s="1"/>
       <c r="B64" s="10">
         <f t="shared" si="0"/>
@@ -3157,7 +3157,7 @@
       <c r="AB65" s="1"/>
       <c r="AC65" s="1"/>
     </row>
-    <row r="66" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A66" s="1"/>
       <c r="B66" s="10">
         <f t="shared" si="0"/>
@@ -3467,7 +3467,7 @@
       <c r="AB73" s="1"/>
       <c r="AC73" s="1"/>
     </row>
-    <row r="74" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A74" s="1"/>
       <c r="B74" s="10">
         <f t="shared" si="0"/>
@@ -3545,7 +3545,7 @@
       <c r="AB75" s="1"/>
       <c r="AC75" s="1"/>
     </row>
-    <row r="76" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A76" s="1"/>
       <c r="B76" s="10">
         <f t="shared" si="0"/>
@@ -3623,7 +3623,7 @@
       <c r="AB77" s="1"/>
       <c r="AC77" s="1"/>
     </row>
-    <row r="78" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A78" s="1"/>
       <c r="B78" s="10">
         <f t="shared" si="0"/>
@@ -3701,7 +3701,7 @@
       <c r="AB79" s="1"/>
       <c r="AC79" s="1"/>
     </row>
-    <row r="80" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A80" s="1"/>
       <c r="B80" s="10">
         <f t="shared" si="0"/>
@@ -3741,7 +3741,7 @@
       <c r="AB80" s="1"/>
       <c r="AC80" s="1"/>
     </row>
-    <row r="81" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A81" s="1"/>
       <c r="B81" s="10">
         <f t="shared" si="0"/>
@@ -3781,7 +3781,7 @@
       <c r="AB81" s="1"/>
       <c r="AC81" s="1"/>
     </row>
-    <row r="82" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A82" s="1"/>
       <c r="B82" s="10">
         <f t="shared" si="0"/>
@@ -3859,7 +3859,7 @@
       <c r="AB83" s="1"/>
       <c r="AC83" s="1"/>
     </row>
-    <row r="84" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A84" s="1"/>
       <c r="B84" s="10">
         <f t="shared" si="0"/>
@@ -3899,7 +3899,7 @@
       <c r="AB84" s="1"/>
       <c r="AC84" s="1"/>
     </row>
-    <row r="85" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A85" s="1"/>
       <c r="B85" s="10">
         <f t="shared" si="0"/>
@@ -3977,7 +3977,7 @@
       <c r="AB86" s="1"/>
       <c r="AC86" s="1"/>
     </row>
-    <row r="87" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A87" s="1"/>
       <c r="B87" s="10">
         <f t="shared" si="0"/>
@@ -4017,7 +4017,7 @@
       <c r="AB87" s="1"/>
       <c r="AC87" s="1"/>
     </row>
-    <row r="88" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A88" s="1"/>
       <c r="B88" s="10">
         <f t="shared" si="0"/>
@@ -4057,7 +4057,7 @@
       <c r="AB88" s="1"/>
       <c r="AC88" s="1"/>
     </row>
-    <row r="89" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A89" s="1"/>
       <c r="B89" s="10">
         <f t="shared" si="0"/>
@@ -4173,7 +4173,7 @@
       <c r="AB91" s="1"/>
       <c r="AC91" s="1"/>
     </row>
-    <row r="92" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A92" s="1"/>
       <c r="B92" s="10">
         <f t="shared" si="0"/>
@@ -4291,7 +4291,7 @@
       <c r="AB94" s="1"/>
       <c r="AC94" s="1"/>
     </row>
-    <row r="95" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A95" s="1"/>
       <c r="B95" s="10">
         <f t="shared" si="0"/>
@@ -4331,7 +4331,7 @@
       <c r="AB95" s="1"/>
       <c r="AC95" s="1"/>
     </row>
-    <row r="96" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A96" s="1"/>
       <c r="B96" s="10">
         <f t="shared" si="0"/>
@@ -4409,7 +4409,7 @@
       <c r="AB97" s="1"/>
       <c r="AC97" s="1"/>
     </row>
-    <row r="98" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A98" s="1"/>
       <c r="B98" s="10">
         <f t="shared" si="0"/>
@@ -4449,7 +4449,7 @@
       <c r="AB98" s="1"/>
       <c r="AC98" s="1"/>
     </row>
-    <row r="99" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A99" s="1"/>
       <c r="B99" s="10">
         <f t="shared" si="0"/>
@@ -4525,7 +4525,7 @@
       <c r="AB100" s="1"/>
       <c r="AC100" s="1"/>
     </row>
-    <row r="101" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A101" s="1"/>
       <c r="B101" s="10">
         <f t="shared" si="0"/>
@@ -4565,7 +4565,7 @@
       <c r="AB101" s="1"/>
       <c r="AC101" s="1"/>
     </row>
-    <row r="102" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A102" s="1"/>
       <c r="B102" s="10">
         <f t="shared" si="0"/>
@@ -4605,7 +4605,7 @@
       <c r="AB102" s="1"/>
       <c r="AC102" s="1"/>
     </row>
-    <row r="103" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A103" s="1"/>
       <c r="B103" s="10">
         <f t="shared" si="0"/>
@@ -4645,7 +4645,7 @@
       <c r="AB103" s="1"/>
       <c r="AC103" s="1"/>
     </row>
-    <row r="104" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A104" s="1"/>
       <c r="B104" s="10">
         <f t="shared" si="0"/>
@@ -4685,7 +4685,7 @@
       <c r="AB104" s="1"/>
       <c r="AC104" s="1"/>
     </row>
-    <row r="105" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A105" s="1"/>
       <c r="B105" s="10">
         <f t="shared" si="0"/>
@@ -4763,7 +4763,7 @@
       <c r="AB106" s="1"/>
       <c r="AC106" s="1"/>
     </row>
-    <row r="107" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A107" s="1"/>
       <c r="B107" s="10">
         <f t="shared" si="0"/>
@@ -4803,7 +4803,7 @@
       <c r="AB107" s="1"/>
       <c r="AC107" s="1"/>
     </row>
-    <row r="108" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A108" s="1"/>
       <c r="B108" s="10">
         <f t="shared" si="0"/>
@@ -4919,7 +4919,7 @@
       <c r="AB110" s="1"/>
       <c r="AC110" s="1"/>
     </row>
-    <row r="111" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A111" s="1"/>
       <c r="B111" s="10">
         <f t="shared" si="0"/>
@@ -5069,7 +5069,7 @@
       <c r="AB114" s="1"/>
       <c r="AC114" s="1"/>
     </row>
-    <row r="115" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A115" s="1"/>
       <c r="B115" s="10">
         <f t="shared" si="0"/>
@@ -5109,7 +5109,7 @@
       <c r="AB115" s="1"/>
       <c r="AC115" s="1"/>
     </row>
-    <row r="116" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A116" s="1"/>
       <c r="B116" s="10">
         <f t="shared" si="0"/>
@@ -5149,7 +5149,7 @@
       <c r="AB116" s="1"/>
       <c r="AC116" s="1"/>
     </row>
-    <row r="117" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A117" s="1"/>
       <c r="B117" s="10">
         <f t="shared" si="0"/>
@@ -5269,7 +5269,7 @@
       <c r="AB119" s="1"/>
       <c r="AC119" s="1"/>
     </row>
-    <row r="120" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A120" s="1"/>
       <c r="B120" s="10">
         <f t="shared" si="0"/>
@@ -5309,7 +5309,7 @@
       <c r="AB120" s="1"/>
       <c r="AC120" s="1"/>
     </row>
-    <row r="121" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A121" s="1"/>
       <c r="B121" s="10">
         <f t="shared" si="0"/>
@@ -5349,7 +5349,7 @@
       <c r="AB121" s="1"/>
       <c r="AC121" s="1"/>
     </row>
-    <row r="122" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A122" s="1"/>
       <c r="B122" s="10">
         <f t="shared" si="0"/>
@@ -5389,7 +5389,7 @@
       <c r="AB122" s="1"/>
       <c r="AC122" s="1"/>
     </row>
-    <row r="123" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A123" s="1"/>
       <c r="B123" s="10">
         <f t="shared" si="0"/>
@@ -5505,7 +5505,7 @@
       <c r="AB125" s="1"/>
       <c r="AC125" s="1"/>
     </row>
-    <row r="126" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A126" s="1"/>
       <c r="B126" s="10">
         <f t="shared" si="0"/>
@@ -5583,7 +5583,7 @@
       <c r="AB127" s="1"/>
       <c r="AC127" s="1"/>
     </row>
-    <row r="128" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A128" s="1"/>
       <c r="B128" s="10">
         <f t="shared" si="0"/>
@@ -5703,7 +5703,7 @@
       <c r="AB130" s="1"/>
       <c r="AC130" s="1"/>
     </row>
-    <row r="131" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A131" s="1"/>
       <c r="B131" s="10">
         <f t="shared" si="0"/>
@@ -5781,7 +5781,7 @@
       <c r="AB132" s="1"/>
       <c r="AC132" s="1"/>
     </row>
-    <row r="133" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A133" s="1"/>
       <c r="B133" s="10">
         <f t="shared" si="0"/>
@@ -5821,7 +5821,7 @@
       <c r="AB133" s="1"/>
       <c r="AC133" s="1"/>
     </row>
-    <row r="134" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A134" s="1"/>
       <c r="B134" s="10">
         <f t="shared" si="0"/>
@@ -5939,7 +5939,7 @@
       <c r="AB136" s="1"/>
       <c r="AC136" s="1"/>
     </row>
-    <row r="137" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A137" s="1"/>
       <c r="B137" s="10">
         <f t="shared" si="0"/>
@@ -6017,7 +6017,7 @@
       <c r="AB138" s="1"/>
       <c r="AC138" s="1"/>
     </row>
-    <row r="139" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A139" s="1"/>
       <c r="B139" s="10">
         <f t="shared" si="0"/>
@@ -6057,7 +6057,7 @@
       <c r="AB139" s="1"/>
       <c r="AC139" s="1"/>
     </row>
-    <row r="140" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A140" s="1"/>
       <c r="B140" s="10">
         <f t="shared" si="0"/>
@@ -6097,7 +6097,7 @@
       <c r="AB140" s="1"/>
       <c r="AC140" s="1"/>
     </row>
-    <row r="141" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A141" s="1"/>
       <c r="B141" s="10">
         <f t="shared" si="0"/>
@@ -6137,7 +6137,7 @@
       <c r="AB141" s="1"/>
       <c r="AC141" s="1"/>
     </row>
-    <row r="142" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A142" s="1"/>
       <c r="B142" s="10">
         <f t="shared" si="0"/>
@@ -6177,7 +6177,7 @@
       <c r="AB142" s="1"/>
       <c r="AC142" s="1"/>
     </row>
-    <row r="143" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A143" s="1"/>
       <c r="B143" s="10">
         <f t="shared" si="0"/>
@@ -6253,7 +6253,7 @@
       <c r="AB144" s="1"/>
       <c r="AC144" s="1"/>
     </row>
-    <row r="145" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A145" s="1"/>
       <c r="B145" s="10">
         <f t="shared" si="0"/>
@@ -6293,7 +6293,7 @@
       <c r="AB145" s="1"/>
       <c r="AC145" s="1"/>
     </row>
-    <row r="146" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A146" s="1"/>
       <c r="B146" s="10">
         <f t="shared" si="0"/>
@@ -6447,7 +6447,7 @@
       <c r="AB149" s="1"/>
       <c r="AC149" s="1"/>
     </row>
-    <row r="150" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A150" s="1"/>
       <c r="B150" s="10">
         <f t="shared" si="0"/>
@@ -6487,7 +6487,7 @@
       <c r="AB150" s="1"/>
       <c r="AC150" s="1"/>
     </row>
-    <row r="151" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A151" s="1"/>
       <c r="B151" s="10">
         <f t="shared" si="0"/>
@@ -6527,7 +6527,7 @@
       <c r="AB151" s="1"/>
       <c r="AC151" s="1"/>
     </row>
-    <row r="152" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A152" s="1"/>
       <c r="B152" s="10">
         <f t="shared" si="0"/>
@@ -6607,7 +6607,7 @@
       <c r="AB153" s="1"/>
       <c r="AC153" s="1"/>
     </row>
-    <row r="154" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A154" s="1"/>
       <c r="B154" s="10">
         <f t="shared" si="0"/>
@@ -6953,7 +6953,7 @@
       <c r="AB162" s="1"/>
       <c r="AC162" s="1"/>
     </row>
-    <row r="163" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A163" s="1"/>
       <c r="B163" s="10">
         <f t="shared" si="0"/>
@@ -7031,7 +7031,7 @@
       <c r="AB164" s="1"/>
       <c r="AC164" s="1"/>
     </row>
-    <row r="165" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A165" s="1"/>
       <c r="B165" s="10">
         <f t="shared" si="0"/>
@@ -7071,7 +7071,7 @@
       <c r="AB165" s="1"/>
       <c r="AC165" s="1"/>
     </row>
-    <row r="166" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A166" s="1"/>
       <c r="B166" s="10">
         <f t="shared" si="0"/>
@@ -7505,7 +7505,7 @@
       <c r="AB176" s="1"/>
       <c r="AC176" s="1"/>
     </row>
-    <row r="177" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A177" s="1"/>
       <c r="B177" s="10">
         <f t="shared" si="0"/>
@@ -7697,7 +7697,7 @@
       <c r="AB181" s="1"/>
       <c r="AC181" s="1"/>
     </row>
-    <row r="182" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A182" s="1"/>
       <c r="B182" s="10">
         <f t="shared" si="0"/>
@@ -7895,7 +7895,7 @@
       <c r="AB186" s="1"/>
       <c r="AC186" s="1"/>
     </row>
-    <row r="187" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A187" s="1"/>
       <c r="B187" s="10">
         <f t="shared" si="0"/>
@@ -7935,7 +7935,7 @@
       <c r="AB187" s="1"/>
       <c r="AC187" s="1"/>
     </row>
-    <row r="188" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A188" s="1"/>
       <c r="B188" s="10">
         <f t="shared" si="0"/>
@@ -7975,7 +7975,7 @@
       <c r="AB188" s="1"/>
       <c r="AC188" s="1"/>
     </row>
-    <row r="189" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A189" s="1"/>
       <c r="B189" s="10">
         <f t="shared" si="0"/>
@@ -8055,7 +8055,7 @@
       <c r="AB190" s="1"/>
       <c r="AC190" s="1"/>
     </row>
-    <row r="191" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A191" s="1"/>
       <c r="B191" s="10">
         <f t="shared" si="0"/>
@@ -8095,7 +8095,7 @@
       <c r="AB191" s="1"/>
       <c r="AC191" s="1"/>
     </row>
-    <row r="192" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A192" s="1"/>
       <c r="B192" s="10">
         <f t="shared" si="0"/>
@@ -8285,7 +8285,7 @@
       <c r="AB196" s="1"/>
       <c r="AC196" s="1"/>
     </row>
-    <row r="197" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A197" s="1"/>
       <c r="B197" s="10">
         <f t="shared" si="0"/>
@@ -8363,7 +8363,7 @@
       <c r="AB198" s="1"/>
       <c r="AC198" s="1"/>
     </row>
-    <row r="199" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A199" s="1"/>
       <c r="B199" s="10">
         <f t="shared" si="0"/>
@@ -8443,7 +8443,7 @@
       <c r="AB200" s="1"/>
       <c r="AC200" s="1"/>
     </row>
-    <row r="201" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A201" s="1"/>
       <c r="B201" s="10">
         <f t="shared" si="0"/>
@@ -8483,7 +8483,7 @@
       <c r="AB201" s="1"/>
       <c r="AC201" s="1"/>
     </row>
-    <row r="202" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A202" s="1"/>
       <c r="B202" s="10">
         <f t="shared" si="0"/>
@@ -8717,7 +8717,7 @@
       <c r="AB207" s="1"/>
       <c r="AC207" s="1"/>
     </row>
-    <row r="208" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A208" s="1"/>
       <c r="B208" s="10">
         <f t="shared" si="0"/>
@@ -8757,7 +8757,7 @@
       <c r="AB208" s="1"/>
       <c r="AC208" s="1"/>
     </row>
-    <row r="209" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A209" s="1"/>
       <c r="B209" s="10">
         <f t="shared" si="0"/>
@@ -9023,7 +9023,7 @@
       <c r="AB215" s="1"/>
       <c r="AC215" s="1"/>
     </row>
-    <row r="216" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A216" s="1"/>
       <c r="B216" s="10">
         <f t="shared" si="0"/>
@@ -9063,7 +9063,7 @@
       <c r="AB216" s="1"/>
       <c r="AC216" s="1"/>
     </row>
-    <row r="217" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A217" s="1"/>
       <c r="B217" s="10">
         <f t="shared" si="0"/>
@@ -9335,7 +9335,7 @@
       <c r="AB223" s="1"/>
       <c r="AC223" s="1"/>
     </row>
-    <row r="224" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A224" s="1"/>
       <c r="B224" s="10">
         <f t="shared" si="0"/>
@@ -9375,7 +9375,7 @@
       <c r="AB224" s="1"/>
       <c r="AC224" s="1"/>
     </row>
-    <row r="225" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A225" s="1"/>
       <c r="B225" s="10">
         <f t="shared" si="0"/>
@@ -9759,7 +9759,7 @@
       <c r="AB234" s="1"/>
       <c r="AC234" s="1"/>
     </row>
-    <row r="235" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A235" s="1"/>
       <c r="B235" s="10">
         <f t="shared" ref="B235:B299" si="1">ROW()-3</f>
@@ -9799,7 +9799,7 @@
       <c r="AB235" s="1"/>
       <c r="AC235" s="1"/>
     </row>
-    <row r="236" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A236" s="1"/>
       <c r="B236" s="10">
         <f t="shared" si="1"/>
@@ -9915,7 +9915,7 @@
       <c r="AB238" s="1"/>
       <c r="AC238" s="1"/>
     </row>
-    <row r="239" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A239" s="1"/>
       <c r="B239" s="10">
         <f t="shared" si="1"/>
@@ -9955,7 +9955,7 @@
       <c r="AB239" s="1"/>
       <c r="AC239" s="1"/>
     </row>
-    <row r="240" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A240" s="1"/>
       <c r="B240" s="10">
         <f t="shared" si="1"/>
@@ -9995,7 +9995,7 @@
       <c r="AB240" s="1"/>
       <c r="AC240" s="1"/>
     </row>
-    <row r="241" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A241" s="1"/>
       <c r="B241" s="10">
         <f t="shared" si="1"/>
@@ -10035,7 +10035,7 @@
       <c r="AB241" s="1"/>
       <c r="AC241" s="1"/>
     </row>
-    <row r="242" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A242" s="1"/>
       <c r="B242" s="10">
         <f t="shared" si="1"/>
@@ -10155,7 +10155,7 @@
       <c r="AB244" s="1"/>
       <c r="AC244" s="1"/>
     </row>
-    <row r="245" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A245" s="1"/>
       <c r="B245" s="10">
         <f t="shared" si="1"/>
@@ -10345,7 +10345,7 @@
       <c r="AB249" s="1"/>
       <c r="AC249" s="1"/>
     </row>
-    <row r="250" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A250" s="1"/>
       <c r="B250" s="10">
         <f t="shared" si="1"/>
@@ -10385,7 +10385,7 @@
       <c r="AB250" s="1"/>
       <c r="AC250" s="1"/>
     </row>
-    <row r="251" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A251" s="1"/>
       <c r="B251" s="10">
         <f t="shared" si="1"/>
@@ -10541,7 +10541,7 @@
       <c r="AB254" s="1"/>
       <c r="AC254" s="1"/>
     </row>
-    <row r="255" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A255" s="1"/>
       <c r="B255" s="10">
         <f t="shared" si="1"/>
@@ -10731,7 +10731,7 @@
       <c r="AB259" s="1"/>
       <c r="AC259" s="1"/>
     </row>
-    <row r="260" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A260" s="1"/>
       <c r="B260" s="10">
         <f t="shared" si="1"/>
@@ -10771,7 +10771,7 @@
       <c r="AB260" s="1"/>
       <c r="AC260" s="1"/>
     </row>
-    <row r="261" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="261" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A261" s="1"/>
       <c r="B261" s="10">
         <f t="shared" si="1"/>
@@ -10811,7 +10811,7 @@
       <c r="AB261" s="1"/>
       <c r="AC261" s="1"/>
     </row>
-    <row r="262" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A262" s="1"/>
       <c r="B262" s="10">
         <f t="shared" si="1"/>
@@ -10887,7 +10887,7 @@
       <c r="AB263" s="1"/>
       <c r="AC263" s="1"/>
     </row>
-    <row r="264" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:29" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B264" s="10">
         <f t="shared" si="1"/>
         <v>261</v>
@@ -10971,7 +10971,7 @@
       <c r="G268" s="11"/>
       <c r="H268" s="10"/>
     </row>
-    <row r="269" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:29" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B269" s="10">
         <f t="shared" si="1"/>
         <v>266</v>
@@ -10989,7 +10989,7 @@
       <c r="G269" s="11"/>
       <c r="H269" s="10"/>
     </row>
-    <row r="270" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="270" spans="1:29" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B270" s="10">
         <f t="shared" si="1"/>
         <v>267</v>
@@ -11037,7 +11037,7 @@
       <c r="G272" s="11"/>
       <c r="H272" s="10"/>
     </row>
-    <row r="273" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="273" spans="2:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B273" s="10">
         <f t="shared" si="1"/>
         <v>270</v>
@@ -11055,7 +11055,7 @@
       <c r="G273" s="11"/>
       <c r="H273" s="10"/>
     </row>
-    <row r="274" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="274" spans="2:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B274" s="10">
         <f t="shared" si="1"/>
         <v>271</v>
@@ -11121,7 +11121,7 @@
       <c r="G277" s="11"/>
       <c r="H277" s="10"/>
     </row>
-    <row r="278" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="278" spans="2:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B278" s="10">
         <f t="shared" si="1"/>
         <v>275</v>
@@ -11155,7 +11155,7 @@
       <c r="G279" s="11"/>
       <c r="H279" s="10"/>
     </row>
-    <row r="280" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="280" spans="2:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B280" s="10">
         <f t="shared" si="1"/>
         <v>277</v>
@@ -11209,7 +11209,7 @@
       <c r="G282" s="11"/>
       <c r="H282" s="10"/>
     </row>
-    <row r="283" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="283" spans="2:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B283" s="10">
         <f t="shared" si="1"/>
         <v>280</v>
@@ -11227,7 +11227,7 @@
       <c r="G283" s="11"/>
       <c r="H283" s="10"/>
     </row>
-    <row r="284" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="284" spans="2:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B284" s="10">
         <f t="shared" si="1"/>
         <v>281</v>
@@ -11293,7 +11293,7 @@
       <c r="G287" s="11"/>
       <c r="H287" s="10"/>
     </row>
-    <row r="288" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="288" spans="2:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B288" s="10">
         <f t="shared" si="1"/>
         <v>285</v>
@@ -11459,7 +11459,7 @@
       <c r="G297" s="11"/>
       <c r="H297" s="10"/>
     </row>
-    <row r="298" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="298" spans="2:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B298" s="10">
         <f t="shared" si="1"/>
         <v>295</v>
@@ -11470,12 +11470,14 @@
       <c r="D298" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E298" s="7"/>
+      <c r="E298" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F298" s="11"/>
       <c r="G298" s="11"/>
       <c r="H298" s="10"/>
     </row>
-    <row r="299" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="299" spans="2:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B299" s="10">
         <f t="shared" si="1"/>
         <v>296</v>
@@ -11486,12 +11488,14 @@
       <c r="D299" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E299" s="7"/>
+      <c r="E299" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F299" s="11"/>
       <c r="G299" s="11"/>
       <c r="H299" s="10"/>
     </row>
-    <row r="300" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="300" spans="2:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B300" s="10">
         <f t="shared" ref="B300:B303" si="2">ROW()-3</f>
         <v>297</v>
@@ -11502,7 +11506,9 @@
       <c r="D300" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E300" s="7"/>
+      <c r="E300" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F300" s="11"/>
       <c r="G300" s="11"/>
       <c r="H300" s="10"/>
@@ -11534,7 +11540,9 @@
       <c r="D302" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E302" s="7"/>
+      <c r="E302" s="7" t="s">
+        <v>2</v>
+      </c>
       <c r="F302" s="11"/>
       <c r="G302" s="11"/>
       <c r="H302" s="10"/>
@@ -11550,7 +11558,9 @@
       <c r="D303" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="E303" s="7"/>
+      <c r="E303" s="7" t="s">
+        <v>5</v>
+      </c>
       <c r="F303" s="11"/>
       <c r="G303" s="11"/>
       <c r="H303" s="10"/>
@@ -11569,11 +11579,17 @@
         <filter val="NG"/>
       </filters>
     </filterColumn>
+    <filterColumn colId="3">
+      <filters>
+        <filter val="Again"/>
+        <filter val="NG"/>
+      </filters>
+    </filterColumn>
   </autoFilter>
   <customSheetViews>
     <customSheetView guid="{2A2FD979-9F8D-413C-9CCD-B7F26FC2F3D3}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="B3:G267" xr:uid="{2711E200-303A-4774-BE80-72B2CD8E7700}"/>
+      <autoFilter ref="B3:G267" xr:uid="{BDF851A7-DD23-42BC-8A96-48AF466AB597}"/>
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="7"/>

--- a/work-book/cloudTech/SAP/[SAP-C02]AWS問題集チェックシート.xlsx
+++ b/work-book/cloudTech/SAP/[SAP-C02]AWS問題集チェックシート.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f8aaa7f11ecf284d/デスクトップ/program/readeing-learning-history/work-book/cloudTech/SAP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="221" documentId="13_ncr:1_{1B8999BD-FC05-4DF7-AFA1-082B8FD27174}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1B746716-3708-40F4-831C-B177DC9B3CAA}"/>
+  <xr:revisionPtr revIDLastSave="243" documentId="13_ncr:1_{1B8999BD-FC05-4DF7-AFA1-082B8FD27174}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{19F8C6CC-81D7-437F-BA24-070148EF50E6}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="15810" yWindow="0" windowWidth="6840" windowHeight="14410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="問題チェックシート" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="775" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="19">
   <si>
     <t>* [ファイル] ⇨ [コピーを作成] を選択し、コピーしてからお使いください</t>
   </si>
@@ -588,7 +588,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B303" sqref="B3:B303"/>
+      <selection pane="bottomLeft" activeCell="F15" sqref="F15:F94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -596,9 +596,10 @@
     <col min="1" max="1" width="7.6328125" hidden="1" customWidth="1"/>
     <col min="2" max="2" width="6" customWidth="1"/>
     <col min="3" max="3" width="7.453125" hidden="1" customWidth="1"/>
-    <col min="4" max="4" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.90625" hidden="1" customWidth="1"/>
     <col min="5" max="5" width="10.26953125" customWidth="1"/>
-    <col min="6" max="7" width="14.453125" customWidth="1"/>
+    <col min="6" max="6" width="9.453125" customWidth="1"/>
+    <col min="7" max="7" width="14.453125" customWidth="1"/>
     <col min="8" max="8" width="33.453125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1176,7 +1177,9 @@
       <c r="E15" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F15" s="11"/>
+      <c r="F15" s="11" t="s">
+        <v>2</v>
+      </c>
       <c r="G15" s="11"/>
       <c r="H15" s="10"/>
       <c r="I15" s="1"/>
@@ -1216,7 +1219,9 @@
       <c r="E16" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F16" s="11"/>
+      <c r="F16" s="11" t="s">
+        <v>14</v>
+      </c>
       <c r="G16" s="11"/>
       <c r="H16" s="10"/>
       <c r="I16" s="1"/>
@@ -1372,7 +1377,9 @@
       <c r="E20" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F20" s="11"/>
+      <c r="F20" s="11" t="s">
+        <v>14</v>
+      </c>
       <c r="G20" s="11"/>
       <c r="H20" s="10"/>
       <c r="I20" s="1"/>
@@ -1412,7 +1419,9 @@
       <c r="E21" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F21" s="11"/>
+      <c r="F21" s="11" t="s">
+        <v>14</v>
+      </c>
       <c r="G21" s="11"/>
       <c r="H21" s="10"/>
       <c r="I21" s="1"/>
@@ -1606,7 +1615,9 @@
       <c r="E26" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F26" s="11"/>
+      <c r="F26" s="11" t="s">
+        <v>5</v>
+      </c>
       <c r="G26" s="11"/>
       <c r="H26" s="10"/>
       <c r="I26" s="1"/>
@@ -1646,7 +1657,9 @@
       <c r="E27" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F27" s="11"/>
+      <c r="F27" s="11" t="s">
+        <v>14</v>
+      </c>
       <c r="G27" s="11"/>
       <c r="H27" s="10"/>
       <c r="I27" s="1"/>
@@ -1762,7 +1775,9 @@
       <c r="E30" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="F30" s="11"/>
+      <c r="F30" s="11" t="s">
+        <v>14</v>
+      </c>
       <c r="G30" s="11"/>
       <c r="H30" s="10"/>
       <c r="I30" s="1"/>
@@ -1880,7 +1895,9 @@
       <c r="E33" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F33" s="11"/>
+      <c r="F33" s="11" t="s">
+        <v>2</v>
+      </c>
       <c r="G33" s="11"/>
       <c r="H33" s="10"/>
       <c r="I33" s="1"/>
@@ -1998,7 +2015,9 @@
       <c r="E36" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F36" s="11"/>
+      <c r="F36" s="11" t="s">
+        <v>5</v>
+      </c>
       <c r="G36" s="11"/>
       <c r="H36" s="10"/>
       <c r="I36" s="1"/>
@@ -2038,7 +2057,9 @@
       <c r="E37" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F37" s="11"/>
+      <c r="F37" s="14" t="s">
+        <v>17</v>
+      </c>
       <c r="G37" s="11"/>
       <c r="H37" s="10"/>
       <c r="I37" s="1"/>
@@ -2232,7 +2253,9 @@
       <c r="E42" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F42" s="11"/>
+      <c r="F42" s="11" t="s">
+        <v>5</v>
+      </c>
       <c r="G42" s="11"/>
       <c r="H42" s="10"/>
       <c r="I42" s="1"/>
@@ -2272,7 +2295,9 @@
       <c r="E43" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F43" s="11"/>
+      <c r="F43" s="11" t="s">
+        <v>14</v>
+      </c>
       <c r="G43" s="11"/>
       <c r="H43" s="10"/>
       <c r="I43" s="1"/>
@@ -2506,7 +2531,9 @@
       <c r="E49" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F49" s="11"/>
+      <c r="F49" s="11" t="s">
+        <v>2</v>
+      </c>
       <c r="G49" s="11"/>
       <c r="H49" s="10"/>
       <c r="I49" s="1"/>
@@ -2622,7 +2649,9 @@
       <c r="E52" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F52" s="11"/>
+      <c r="F52" s="11" t="s">
+        <v>14</v>
+      </c>
       <c r="G52" s="11"/>
       <c r="H52" s="10"/>
       <c r="I52" s="1"/>
@@ -3054,7 +3083,9 @@
       <c r="E63" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F63" s="11"/>
+      <c r="F63" s="11" t="s">
+        <v>14</v>
+      </c>
       <c r="G63" s="11"/>
       <c r="H63" s="10"/>
       <c r="I63" s="1"/>
@@ -3326,7 +3357,9 @@
       <c r="E70" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F70" s="11"/>
+      <c r="F70" s="11" t="s">
+        <v>14</v>
+      </c>
       <c r="G70" s="11"/>
       <c r="H70" s="10"/>
       <c r="I70" s="1"/>
@@ -3366,7 +3399,9 @@
       <c r="E71" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F71" s="11"/>
+      <c r="F71" s="14" t="s">
+        <v>17</v>
+      </c>
       <c r="G71" s="11"/>
       <c r="H71" s="10"/>
       <c r="I71" s="1"/>
@@ -4266,7 +4301,9 @@
       <c r="E94" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F94" s="11"/>
+      <c r="F94" s="11" t="s">
+        <v>5</v>
+      </c>
       <c r="G94" s="11"/>
       <c r="H94" s="10"/>
       <c r="I94" s="1"/>
@@ -11589,7 +11626,7 @@
   <customSheetViews>
     <customSheetView guid="{2A2FD979-9F8D-413C-9CCD-B7F26FC2F3D3}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="B3:G267" xr:uid="{BDF851A7-DD23-42BC-8A96-48AF466AB597}"/>
+      <autoFilter ref="B3:G267" xr:uid="{3B3895B9-3D32-4C23-9CB0-E14DDEA94EDD}"/>
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="7"/>

--- a/work-book/cloudTech/SAP/[SAP-C02]AWS問題集チェックシート.xlsx
+++ b/work-book/cloudTech/SAP/[SAP-C02]AWS問題集チェックシート.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f8aaa7f11ecf284d/デスクトップ/program/readeing-learning-history/work-book/cloudTech/SAP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="243" documentId="13_ncr:1_{1B8999BD-FC05-4DF7-AFA1-082B8FD27174}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{19F8C6CC-81D7-437F-BA24-070148EF50E6}"/>
+  <xr:revisionPtr revIDLastSave="301" documentId="13_ncr:1_{1B8999BD-FC05-4DF7-AFA1-082B8FD27174}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1823E886-D26B-4D97-ADA3-4642FD9C3813}"/>
   <bookViews>
-    <workbookView xWindow="15810" yWindow="0" windowWidth="6840" windowHeight="14410" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="問題チェックシート" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="793" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="19">
   <si>
     <t>* [ファイル] ⇨ [コピーを作成] を選択し、コピーしてからお使いください</t>
   </si>
@@ -588,7 +588,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F15" sqref="F15:F94"/>
+      <selection pane="bottomLeft" activeCell="F303" sqref="F303"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1204,7 +1204,7 @@
       <c r="AB15" s="1"/>
       <c r="AC15" s="1"/>
     </row>
-    <row r="16" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:29" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
       <c r="B16" s="10">
         <f t="shared" si="0"/>
@@ -1362,7 +1362,7 @@
       <c r="AB19" s="1"/>
       <c r="AC19" s="1"/>
     </row>
-    <row r="20" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:29" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1"/>
       <c r="B20" s="10">
         <f t="shared" si="0"/>
@@ -1404,7 +1404,7 @@
       <c r="AB20" s="1"/>
       <c r="AC20" s="1"/>
     </row>
-    <row r="21" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:29" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1"/>
       <c r="B21" s="10">
         <f t="shared" si="0"/>
@@ -1642,7 +1642,7 @@
       <c r="AB26" s="1"/>
       <c r="AC26" s="1"/>
     </row>
-    <row r="27" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:29" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1"/>
       <c r="B27" s="10">
         <f t="shared" si="0"/>
@@ -1760,7 +1760,7 @@
       <c r="AB29" s="1"/>
       <c r="AC29" s="1"/>
     </row>
-    <row r="30" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:29" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1"/>
       <c r="B30" s="10">
         <f t="shared" si="0"/>
@@ -2042,7 +2042,7 @@
       <c r="AB36" s="1"/>
       <c r="AC36" s="1"/>
     </row>
-    <row r="37" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:29" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="1"/>
       <c r="B37" s="10">
         <f t="shared" si="0"/>
@@ -2280,7 +2280,7 @@
       <c r="AB42" s="1"/>
       <c r="AC42" s="1"/>
     </row>
-    <row r="43" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:29" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="1"/>
       <c r="B43" s="10">
         <f t="shared" si="0"/>
@@ -2634,7 +2634,7 @@
       <c r="AB51" s="1"/>
       <c r="AC51" s="1"/>
     </row>
-    <row r="52" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:29" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="1"/>
       <c r="B52" s="10">
         <f t="shared" si="0"/>
@@ -3068,7 +3068,7 @@
       <c r="AB62" s="1"/>
       <c r="AC62" s="1"/>
     </row>
-    <row r="63" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63" s="1"/>
       <c r="B63" s="10">
         <f t="shared" si="0"/>
@@ -3342,7 +3342,7 @@
       <c r="AB69" s="1"/>
       <c r="AC69" s="1"/>
     </row>
-    <row r="70" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A70" s="1"/>
       <c r="B70" s="10">
         <f t="shared" si="0"/>
@@ -3384,7 +3384,7 @@
       <c r="AB70" s="1"/>
       <c r="AC70" s="1"/>
     </row>
-    <row r="71" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A71" s="1"/>
       <c r="B71" s="10">
         <f t="shared" si="0"/>
@@ -4916,7 +4916,7 @@
       <c r="AB109" s="1"/>
       <c r="AC109" s="1"/>
     </row>
-    <row r="110" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A110" s="1"/>
       <c r="B110" s="10">
         <f t="shared" si="0"/>
@@ -4931,7 +4931,9 @@
       <c r="E110" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F110" s="11"/>
+      <c r="F110" s="11" t="s">
+        <v>14</v>
+      </c>
       <c r="G110" s="11"/>
       <c r="H110" s="10"/>
       <c r="I110" s="1"/>
@@ -5241,7 +5243,9 @@
       <c r="E118" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F118" s="11"/>
+      <c r="F118" s="11" t="s">
+        <v>5</v>
+      </c>
       <c r="G118" s="11"/>
       <c r="H118" s="10"/>
       <c r="I118" s="1"/>
@@ -5281,7 +5285,9 @@
       <c r="E119" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F119" s="11"/>
+      <c r="F119" s="11" t="s">
+        <v>5</v>
+      </c>
       <c r="G119" s="11"/>
       <c r="H119" s="10"/>
       <c r="I119" s="1"/>
@@ -5502,7 +5508,7 @@
       <c r="AB124" s="1"/>
       <c r="AC124" s="1"/>
     </row>
-    <row r="125" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A125" s="1"/>
       <c r="B125" s="10">
         <f t="shared" si="0"/>
@@ -5517,7 +5523,9 @@
       <c r="E125" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F125" s="11"/>
+      <c r="F125" s="11" t="s">
+        <v>14</v>
+      </c>
       <c r="G125" s="11"/>
       <c r="H125" s="10"/>
       <c r="I125" s="1"/>
@@ -5660,7 +5668,7 @@
       <c r="AB128" s="1"/>
       <c r="AC128" s="1"/>
     </row>
-    <row r="129" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A129" s="1"/>
       <c r="B129" s="10">
         <f t="shared" si="0"/>
@@ -5675,7 +5683,9 @@
       <c r="E129" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F129" s="11"/>
+      <c r="F129" s="11" t="s">
+        <v>14</v>
+      </c>
       <c r="G129" s="11"/>
       <c r="H129" s="10"/>
       <c r="I129" s="1"/>
@@ -5700,7 +5710,7 @@
       <c r="AB129" s="1"/>
       <c r="AC129" s="1"/>
     </row>
-    <row r="130" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A130" s="1"/>
       <c r="B130" s="10">
         <f t="shared" si="0"/>
@@ -5715,7 +5725,9 @@
       <c r="E130" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F130" s="11"/>
+      <c r="F130" s="11" t="s">
+        <v>14</v>
+      </c>
       <c r="G130" s="11"/>
       <c r="H130" s="10"/>
       <c r="I130" s="1"/>
@@ -5898,7 +5910,7 @@
       <c r="AB134" s="1"/>
       <c r="AC134" s="1"/>
     </row>
-    <row r="135" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A135" s="1"/>
       <c r="B135" s="10">
         <f t="shared" si="0"/>
@@ -5913,7 +5925,9 @@
       <c r="E135" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F135" s="11"/>
+      <c r="F135" s="11" t="s">
+        <v>14</v>
+      </c>
       <c r="G135" s="11"/>
       <c r="H135" s="10"/>
       <c r="I135" s="1"/>
@@ -6370,7 +6384,7 @@
       <c r="AB146" s="1"/>
       <c r="AC146" s="1"/>
     </row>
-    <row r="147" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A147" s="1"/>
       <c r="B147" s="10">
         <f t="shared" si="0"/>
@@ -6385,7 +6399,9 @@
       <c r="E147" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F147" s="11"/>
+      <c r="F147" s="11" t="s">
+        <v>14</v>
+      </c>
       <c r="G147" s="11"/>
       <c r="H147" s="10"/>
       <c r="I147" s="1"/>
@@ -6604,7 +6620,7 @@
       <c r="AB152" s="1"/>
       <c r="AC152" s="1"/>
     </row>
-    <row r="153" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A153" s="1"/>
       <c r="B153" s="10">
         <f t="shared" si="0"/>
@@ -6619,7 +6635,9 @@
       <c r="E153" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F153" s="11"/>
+      <c r="F153" s="11" t="s">
+        <v>14</v>
+      </c>
       <c r="G153" s="11"/>
       <c r="H153" s="10"/>
       <c r="I153" s="1"/>
@@ -6794,7 +6812,7 @@
       <c r="AB157" s="1"/>
       <c r="AC157" s="1"/>
     </row>
-    <row r="158" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A158" s="1"/>
       <c r="B158" s="10">
         <f t="shared" si="0"/>
@@ -6809,7 +6827,9 @@
       <c r="E158" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F158" s="11"/>
+      <c r="F158" s="14" t="s">
+        <v>17</v>
+      </c>
       <c r="G158" s="11"/>
       <c r="H158" s="10"/>
       <c r="I158" s="1"/>
@@ -6849,7 +6869,9 @@
       <c r="E159" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F159" s="11"/>
+      <c r="F159" s="11" t="s">
+        <v>2</v>
+      </c>
       <c r="G159" s="11"/>
       <c r="H159" s="10"/>
       <c r="I159" s="1"/>
@@ -6889,7 +6911,9 @@
       <c r="E160" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F160" s="11"/>
+      <c r="F160" s="11" t="s">
+        <v>2</v>
+      </c>
       <c r="G160" s="11"/>
       <c r="H160" s="10"/>
       <c r="I160" s="1"/>
@@ -7224,7 +7248,7 @@
       <c r="AB168" s="1"/>
       <c r="AC168" s="1"/>
     </row>
-    <row r="169" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A169" s="1"/>
       <c r="B169" s="10">
         <f t="shared" si="0"/>
@@ -7239,7 +7263,9 @@
       <c r="E169" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F169" s="11"/>
+      <c r="F169" s="11" t="s">
+        <v>14</v>
+      </c>
       <c r="G169" s="11"/>
       <c r="H169" s="10"/>
       <c r="I169" s="1"/>
@@ -7264,7 +7290,7 @@
       <c r="AB169" s="1"/>
       <c r="AC169" s="1"/>
     </row>
-    <row r="170" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A170" s="1"/>
       <c r="B170" s="10">
         <f t="shared" si="0"/>
@@ -7279,7 +7305,9 @@
       <c r="E170" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F170" s="11"/>
+      <c r="F170" s="11" t="s">
+        <v>14</v>
+      </c>
       <c r="G170" s="11"/>
       <c r="H170" s="10"/>
       <c r="I170" s="1"/>
@@ -7319,7 +7347,9 @@
       <c r="E171" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F171" s="11"/>
+      <c r="F171" s="11" t="s">
+        <v>2</v>
+      </c>
       <c r="G171" s="11"/>
       <c r="H171" s="10"/>
       <c r="I171" s="1"/>
@@ -7359,7 +7389,9 @@
       <c r="E172" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F172" s="11"/>
+      <c r="F172" s="11" t="s">
+        <v>2</v>
+      </c>
       <c r="G172" s="11"/>
       <c r="H172" s="10"/>
       <c r="I172" s="1"/>
@@ -7384,7 +7416,7 @@
       <c r="AB172" s="1"/>
       <c r="AC172" s="1"/>
     </row>
-    <row r="173" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A173" s="1"/>
       <c r="B173" s="10">
         <f t="shared" si="0"/>
@@ -7399,7 +7431,9 @@
       <c r="E173" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F173" s="11"/>
+      <c r="F173" s="11" t="s">
+        <v>14</v>
+      </c>
       <c r="G173" s="11"/>
       <c r="H173" s="10"/>
       <c r="I173" s="1"/>
@@ -7477,7 +7511,9 @@
       <c r="E175" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F175" s="11"/>
+      <c r="F175" s="11" t="s">
+        <v>2</v>
+      </c>
       <c r="G175" s="11"/>
       <c r="H175" s="10"/>
       <c r="I175" s="1"/>
@@ -7502,7 +7538,7 @@
       <c r="AB175" s="1"/>
       <c r="AC175" s="1"/>
     </row>
-    <row r="176" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A176" s="1"/>
       <c r="B176" s="10">
         <f t="shared" si="0"/>
@@ -7517,7 +7553,9 @@
       <c r="E176" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F176" s="11"/>
+      <c r="F176" s="11" t="s">
+        <v>14</v>
+      </c>
       <c r="G176" s="11"/>
       <c r="H176" s="10"/>
       <c r="I176" s="1"/>
@@ -7620,7 +7658,7 @@
       <c r="AB178" s="1"/>
       <c r="AC178" s="1"/>
     </row>
-    <row r="179" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A179" s="1"/>
       <c r="B179" s="10">
         <f t="shared" si="0"/>
@@ -7635,7 +7673,9 @@
       <c r="E179" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F179" s="11"/>
+      <c r="F179" s="11" t="s">
+        <v>14</v>
+      </c>
       <c r="G179" s="11"/>
       <c r="H179" s="10"/>
       <c r="I179" s="1"/>
@@ -7789,7 +7829,9 @@
       <c r="E183" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F183" s="11"/>
+      <c r="F183" s="11" t="s">
+        <v>2</v>
+      </c>
       <c r="G183" s="11"/>
       <c r="H183" s="10"/>
       <c r="I183" s="1"/>
@@ -7814,7 +7856,7 @@
       <c r="AB183" s="1"/>
       <c r="AC183" s="1"/>
     </row>
-    <row r="184" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A184" s="1"/>
       <c r="B184" s="10">
         <f t="shared" si="0"/>
@@ -7829,7 +7871,9 @@
       <c r="E184" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F184" s="11"/>
+      <c r="F184" s="11" t="s">
+        <v>14</v>
+      </c>
       <c r="G184" s="11"/>
       <c r="H184" s="10"/>
       <c r="I184" s="1"/>
@@ -7892,7 +7936,7 @@
       <c r="AB185" s="1"/>
       <c r="AC185" s="1"/>
     </row>
-    <row r="186" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A186" s="1"/>
       <c r="B186" s="10">
         <f t="shared" si="0"/>
@@ -7907,7 +7951,9 @@
       <c r="E186" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F186" s="11"/>
+      <c r="F186" s="11" t="s">
+        <v>14</v>
+      </c>
       <c r="G186" s="11"/>
       <c r="H186" s="10"/>
       <c r="I186" s="1"/>
@@ -8052,7 +8098,7 @@
       <c r="AB189" s="1"/>
       <c r="AC189" s="1"/>
     </row>
-    <row r="190" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A190" s="1"/>
       <c r="B190" s="10">
         <f t="shared" si="0"/>
@@ -8067,7 +8113,9 @@
       <c r="E190" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F190" s="11"/>
+      <c r="F190" s="11" t="s">
+        <v>14</v>
+      </c>
       <c r="G190" s="11"/>
       <c r="H190" s="10"/>
       <c r="I190" s="1"/>
@@ -8172,7 +8220,7 @@
       <c r="AB192" s="1"/>
       <c r="AC192" s="1"/>
     </row>
-    <row r="193" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A193" s="1"/>
       <c r="B193" s="10">
         <f t="shared" si="0"/>
@@ -8187,7 +8235,9 @@
       <c r="E193" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F193" s="11"/>
+      <c r="F193" s="11" t="s">
+        <v>14</v>
+      </c>
       <c r="G193" s="11"/>
       <c r="H193" s="10"/>
       <c r="I193" s="1"/>
@@ -8440,7 +8490,7 @@
       <c r="AB199" s="1"/>
       <c r="AC199" s="1"/>
     </row>
-    <row r="200" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A200" s="1"/>
       <c r="B200" s="10">
         <f t="shared" si="0"/>
@@ -8455,7 +8505,9 @@
       <c r="E200" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F200" s="11"/>
+      <c r="F200" s="11" t="s">
+        <v>14</v>
+      </c>
       <c r="G200" s="11"/>
       <c r="H200" s="10"/>
       <c r="I200" s="1"/>
@@ -8598,7 +8650,7 @@
       <c r="AB203" s="1"/>
       <c r="AC203" s="1"/>
     </row>
-    <row r="204" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A204" s="1"/>
       <c r="B204" s="10">
         <f t="shared" si="0"/>
@@ -8613,7 +8665,9 @@
       <c r="E204" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F204" s="11"/>
+      <c r="F204" s="11" t="s">
+        <v>14</v>
+      </c>
       <c r="G204" s="11"/>
       <c r="H204" s="10"/>
       <c r="I204" s="1"/>
@@ -8674,7 +8728,7 @@
       <c r="AB205" s="1"/>
       <c r="AC205" s="1"/>
     </row>
-    <row r="206" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A206" s="1"/>
       <c r="B206" s="10">
         <f t="shared" si="0"/>
@@ -8689,7 +8743,9 @@
       <c r="E206" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F206" s="11"/>
+      <c r="F206" s="11" t="s">
+        <v>14</v>
+      </c>
       <c r="G206" s="11"/>
       <c r="H206" s="10"/>
       <c r="I206" s="1"/>
@@ -8729,7 +8785,9 @@
       <c r="E207" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F207" s="11"/>
+      <c r="F207" s="11" t="s">
+        <v>2</v>
+      </c>
       <c r="G207" s="11"/>
       <c r="H207" s="10"/>
       <c r="I207" s="1"/>
@@ -8834,7 +8892,7 @@
       <c r="AB209" s="1"/>
       <c r="AC209" s="1"/>
     </row>
-    <row r="210" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A210" s="1"/>
       <c r="B210" s="10">
         <f t="shared" si="0"/>
@@ -8849,7 +8907,9 @@
       <c r="E210" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="F210" s="11"/>
+      <c r="F210" s="11" t="s">
+        <v>14</v>
+      </c>
       <c r="G210" s="11"/>
       <c r="H210" s="10"/>
       <c r="I210" s="1"/>
@@ -9020,7 +9080,7 @@
       <c r="AB214" s="1"/>
       <c r="AC214" s="1"/>
     </row>
-    <row r="215" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A215" s="1"/>
       <c r="B215" s="10">
         <f t="shared" si="0"/>
@@ -9035,7 +9095,9 @@
       <c r="E215" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F215" s="11"/>
+      <c r="F215" s="11" t="s">
+        <v>14</v>
+      </c>
       <c r="G215" s="11"/>
       <c r="H215" s="10"/>
       <c r="I215" s="1"/>
@@ -9231,7 +9293,9 @@
       <c r="E220" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F220" s="11"/>
+      <c r="F220" s="11" t="s">
+        <v>2</v>
+      </c>
       <c r="G220" s="11"/>
       <c r="H220" s="10"/>
       <c r="I220" s="1"/>
@@ -9292,7 +9356,7 @@
       <c r="AB221" s="1"/>
       <c r="AC221" s="1"/>
     </row>
-    <row r="222" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A222" s="1"/>
       <c r="B222" s="10">
         <f t="shared" si="0"/>
@@ -9307,7 +9371,9 @@
       <c r="E222" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F222" s="11"/>
+      <c r="F222" s="11" t="s">
+        <v>14</v>
+      </c>
       <c r="G222" s="11"/>
       <c r="H222" s="10"/>
       <c r="I222" s="1"/>
@@ -9332,7 +9398,7 @@
       <c r="AB222" s="1"/>
       <c r="AC222" s="1"/>
     </row>
-    <row r="223" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A223" s="1"/>
       <c r="B223" s="10">
         <f t="shared" si="0"/>
@@ -9347,7 +9413,9 @@
       <c r="E223" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F223" s="11"/>
+      <c r="F223" s="11" t="s">
+        <v>14</v>
+      </c>
       <c r="G223" s="11"/>
       <c r="H223" s="10"/>
       <c r="I223" s="1"/>
@@ -9452,7 +9520,7 @@
       <c r="AB225" s="1"/>
       <c r="AC225" s="1"/>
     </row>
-    <row r="226" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A226" s="1"/>
       <c r="B226" s="10">
         <f t="shared" si="0"/>
@@ -9467,7 +9535,9 @@
       <c r="E226" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F226" s="11"/>
+      <c r="F226" s="11" t="s">
+        <v>14</v>
+      </c>
       <c r="G226" s="11"/>
       <c r="H226" s="10"/>
       <c r="I226" s="1"/>
@@ -9528,7 +9598,7 @@
       <c r="AB227" s="1"/>
       <c r="AC227" s="1"/>
     </row>
-    <row r="228" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A228" s="1"/>
       <c r="B228" s="10">
         <f t="shared" si="0"/>
@@ -9543,7 +9613,9 @@
       <c r="E228" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F228" s="11"/>
+      <c r="F228" s="11" t="s">
+        <v>14</v>
+      </c>
       <c r="G228" s="11"/>
       <c r="H228" s="10"/>
       <c r="I228" s="1"/>
@@ -9640,7 +9712,7 @@
       <c r="AB230" s="1"/>
       <c r="AC230" s="1"/>
     </row>
-    <row r="231" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A231" s="1"/>
       <c r="B231" s="10">
         <f t="shared" si="0"/>
@@ -9655,7 +9727,9 @@
       <c r="E231" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F231" s="11"/>
+      <c r="F231" s="11" t="s">
+        <v>14</v>
+      </c>
       <c r="G231" s="11"/>
       <c r="H231" s="10"/>
       <c r="I231" s="1"/>
@@ -9756,7 +9830,7 @@
       <c r="AB233" s="1"/>
       <c r="AC233" s="1"/>
     </row>
-    <row r="234" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A234" s="1"/>
       <c r="B234" s="10">
         <f t="shared" si="0"/>
@@ -9771,7 +9845,9 @@
       <c r="E234" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F234" s="11"/>
+      <c r="F234" s="11" t="s">
+        <v>14</v>
+      </c>
       <c r="G234" s="11"/>
       <c r="H234" s="10"/>
       <c r="I234" s="1"/>
@@ -9912,7 +9988,7 @@
       <c r="AB237" s="1"/>
       <c r="AC237" s="1"/>
     </row>
-    <row r="238" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A238" s="1"/>
       <c r="B238" s="10">
         <f t="shared" si="1"/>
@@ -9927,7 +10003,9 @@
       <c r="E238" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F238" s="11"/>
+      <c r="F238" s="11" t="s">
+        <v>14</v>
+      </c>
       <c r="G238" s="11"/>
       <c r="H238" s="10"/>
       <c r="I238" s="1"/>
@@ -10112,7 +10190,7 @@
       <c r="AB242" s="1"/>
       <c r="AC242" s="1"/>
     </row>
-    <row r="243" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A243" s="1"/>
       <c r="B243" s="10">
         <f t="shared" si="1"/>
@@ -10127,7 +10205,9 @@
       <c r="E243" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F243" s="11"/>
+      <c r="F243" s="11" t="s">
+        <v>14</v>
+      </c>
       <c r="G243" s="11"/>
       <c r="H243" s="10"/>
       <c r="I243" s="1"/>
@@ -10152,7 +10232,7 @@
       <c r="AB243" s="1"/>
       <c r="AC243" s="1"/>
     </row>
-    <row r="244" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A244" s="1"/>
       <c r="B244" s="10">
         <f t="shared" si="1"/>
@@ -10167,7 +10247,9 @@
       <c r="E244" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F244" s="11"/>
+      <c r="F244" s="11" t="s">
+        <v>14</v>
+      </c>
       <c r="G244" s="11"/>
       <c r="H244" s="10"/>
       <c r="I244" s="1"/>
@@ -10462,7 +10544,7 @@
       <c r="AB251" s="1"/>
       <c r="AC251" s="1"/>
     </row>
-    <row r="252" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A252" s="1"/>
       <c r="B252" s="10">
         <f t="shared" si="1"/>
@@ -10477,7 +10559,9 @@
       <c r="E252" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F252" s="11"/>
+      <c r="F252" s="11" t="s">
+        <v>14</v>
+      </c>
       <c r="G252" s="11"/>
       <c r="H252" s="10"/>
       <c r="I252" s="1"/>
@@ -10502,7 +10586,7 @@
       <c r="AB252" s="1"/>
       <c r="AC252" s="1"/>
     </row>
-    <row r="253" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="253" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A253" s="1"/>
       <c r="B253" s="10">
         <f t="shared" si="1"/>
@@ -10517,7 +10601,9 @@
       <c r="E253" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F253" s="11"/>
+      <c r="F253" s="11" t="s">
+        <v>14</v>
+      </c>
       <c r="G253" s="11"/>
       <c r="H253" s="10"/>
       <c r="I253" s="1"/>
@@ -10654,7 +10740,7 @@
       <c r="AB256" s="1"/>
       <c r="AC256" s="1"/>
     </row>
-    <row r="257" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+    <row r="257" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A257" s="1"/>
       <c r="B257" s="10">
         <f t="shared" si="1"/>
@@ -10669,7 +10755,9 @@
       <c r="E257" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="F257" s="11"/>
+      <c r="F257" s="11" t="s">
+        <v>14</v>
+      </c>
       <c r="G257" s="11"/>
       <c r="H257" s="10"/>
       <c r="I257" s="1"/>
@@ -10972,7 +11060,7 @@
       <c r="G266" s="11"/>
       <c r="H266" s="10"/>
     </row>
-    <row r="267" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="267" spans="1:29" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B267" s="10">
         <f t="shared" si="1"/>
         <v>264</v>
@@ -10986,11 +11074,13 @@
       <c r="E267" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F267" s="11"/>
+      <c r="F267" s="11" t="s">
+        <v>14</v>
+      </c>
       <c r="G267" s="11"/>
       <c r="H267" s="10"/>
     </row>
-    <row r="268" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="268" spans="1:29" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B268" s="10">
         <f t="shared" si="1"/>
         <v>265</v>
@@ -11004,7 +11094,9 @@
       <c r="E268" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F268" s="11"/>
+      <c r="F268" s="11" t="s">
+        <v>14</v>
+      </c>
       <c r="G268" s="11"/>
       <c r="H268" s="10"/>
     </row>
@@ -11210,7 +11302,7 @@
       <c r="G280" s="11"/>
       <c r="H280" s="10"/>
     </row>
-    <row r="281" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="281" spans="2:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B281" s="10">
         <f t="shared" si="1"/>
         <v>278</v>
@@ -11224,11 +11316,13 @@
       <c r="E281" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F281" s="11"/>
+      <c r="F281" s="11" t="s">
+        <v>14</v>
+      </c>
       <c r="G281" s="11"/>
       <c r="H281" s="10"/>
     </row>
-    <row r="282" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="282" spans="2:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B282" s="10">
         <f t="shared" si="1"/>
         <v>279</v>
@@ -11242,7 +11336,9 @@
       <c r="E282" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F282" s="11"/>
+      <c r="F282" s="11" t="s">
+        <v>14</v>
+      </c>
       <c r="G282" s="11"/>
       <c r="H282" s="10"/>
     </row>
@@ -11312,7 +11408,7 @@
       <c r="G286" s="11"/>
       <c r="H286" s="10"/>
     </row>
-    <row r="287" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="287" spans="2:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B287" s="10">
         <f t="shared" si="1"/>
         <v>284</v>
@@ -11326,7 +11422,9 @@
       <c r="E287" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F287" s="11"/>
+      <c r="F287" s="11" t="s">
+        <v>14</v>
+      </c>
       <c r="G287" s="11"/>
       <c r="H287" s="10"/>
     </row>
@@ -11362,7 +11460,7 @@
       <c r="G289" s="11"/>
       <c r="H289" s="10"/>
     </row>
-    <row r="290" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="290" spans="2:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B290" s="10">
         <f t="shared" si="1"/>
         <v>287</v>
@@ -11376,7 +11474,9 @@
       <c r="E290" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F290" s="11"/>
+      <c r="F290" s="11" t="s">
+        <v>14</v>
+      </c>
       <c r="G290" s="11"/>
       <c r="H290" s="10"/>
     </row>
@@ -11408,7 +11508,9 @@
       <c r="E292" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F292" s="11"/>
+      <c r="F292" s="11" t="s">
+        <v>2</v>
+      </c>
       <c r="G292" s="11"/>
       <c r="H292" s="10"/>
     </row>
@@ -11426,7 +11528,7 @@
       <c r="G293" s="11"/>
       <c r="H293" s="10"/>
     </row>
-    <row r="294" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="294" spans="2:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B294" s="10">
         <f t="shared" si="1"/>
         <v>291</v>
@@ -11440,7 +11542,9 @@
       <c r="E294" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F294" s="11"/>
+      <c r="F294" s="11" t="s">
+        <v>14</v>
+      </c>
       <c r="G294" s="11"/>
       <c r="H294" s="10"/>
     </row>
@@ -11458,7 +11562,9 @@
       <c r="E295" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F295" s="11"/>
+      <c r="F295" s="11" t="s">
+        <v>2</v>
+      </c>
       <c r="G295" s="11"/>
       <c r="H295" s="10"/>
     </row>
@@ -11478,7 +11584,7 @@
       <c r="G296" s="11"/>
       <c r="H296" s="10"/>
     </row>
-    <row r="297" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="297" spans="2:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B297" s="10">
         <f t="shared" si="1"/>
         <v>294</v>
@@ -11492,7 +11598,9 @@
       <c r="E297" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F297" s="11"/>
+      <c r="F297" s="11" t="s">
+        <v>14</v>
+      </c>
       <c r="G297" s="11"/>
       <c r="H297" s="10"/>
     </row>
@@ -11580,11 +11688,13 @@
       <c r="E302" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="F302" s="11"/>
+      <c r="F302" s="11" t="s">
+        <v>5</v>
+      </c>
       <c r="G302" s="11"/>
       <c r="H302" s="10"/>
     </row>
-    <row r="303" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="303" spans="2:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B303" s="10">
         <f t="shared" si="2"/>
         <v>300</v>
@@ -11598,7 +11708,9 @@
       <c r="E303" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="F303" s="11"/>
+      <c r="F303" s="11" t="s">
+        <v>14</v>
+      </c>
       <c r="G303" s="11"/>
       <c r="H303" s="10"/>
     </row>
@@ -11622,11 +11734,17 @@
         <filter val="NG"/>
       </filters>
     </filterColumn>
+    <filterColumn colId="4">
+      <filters>
+        <filter val="Again"/>
+        <filter val="NG"/>
+      </filters>
+    </filterColumn>
   </autoFilter>
   <customSheetViews>
     <customSheetView guid="{2A2FD979-9F8D-413C-9CCD-B7F26FC2F3D3}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="B3:G267" xr:uid="{3B3895B9-3D32-4C23-9CB0-E14DDEA94EDD}"/>
+      <autoFilter ref="B3:G267" xr:uid="{2BDD13AA-96BC-443D-A888-EF83113A6062}"/>
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="7"/>

--- a/work-book/cloudTech/SAP/[SAP-C02]AWS問題集チェックシート.xlsx
+++ b/work-book/cloudTech/SAP/[SAP-C02]AWS問題集チェックシート.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f8aaa7f11ecf284d/デスクトップ/program/readeing-learning-history/work-book/cloudTech/SAP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="301" documentId="13_ncr:1_{1B8999BD-FC05-4DF7-AFA1-082B8FD27174}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1823E886-D26B-4D97-ADA3-4642FD9C3813}"/>
+  <xr:revisionPtr revIDLastSave="347" documentId="13_ncr:1_{1B8999BD-FC05-4DF7-AFA1-082B8FD27174}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{889A723C-B64D-4601-892F-59CC9EBD93A5}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="849" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="20">
   <si>
     <t>* [ファイル] ⇨ [コピーを作成] を選択し、コピーしてからお使いください</t>
   </si>
@@ -99,6 +99,10 @@
     <t>Again</t>
     <phoneticPr fontId="7"/>
   </si>
+  <si>
+    <t>回答6</t>
+    <phoneticPr fontId="7"/>
+  </si>
 </sst>
 </file>
 
@@ -107,7 +111,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="m/d"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -167,6 +171,14 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="3">
@@ -232,7 +244,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -262,6 +274,8 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="176" fontId="9" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -269,33 +283,8 @@
   <dxfs count="11">
     <dxf>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FFFF0000"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <color rgb="FF0000FF"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFB7E1CD"/>
-          <bgColor rgb="FFB7E1CD"/>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
         </patternFill>
       </fill>
     </dxf>
@@ -329,8 +318,33 @@
     </dxf>
     <dxf>
       <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFFFFF"/>
+          <bgColor rgb="FFFFFFFF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FFFF0000"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <color rgb="FF0000FF"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
         </patternFill>
       </fill>
     </dxf>
@@ -584,11 +598,11 @@
   <sheetPr filterMode="1">
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AC303"/>
+  <dimension ref="A1:AD303"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F303" sqref="F303"/>
+      <selection pane="bottomLeft" activeCell="H49" sqref="H49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -597,13 +611,13 @@
     <col min="2" max="2" width="6" customWidth="1"/>
     <col min="3" max="3" width="7.453125" hidden="1" customWidth="1"/>
     <col min="4" max="4" width="9.90625" hidden="1" customWidth="1"/>
-    <col min="5" max="5" width="10.26953125" customWidth="1"/>
+    <col min="5" max="5" width="10.26953125" hidden="1" customWidth="1"/>
     <col min="6" max="6" width="9.453125" customWidth="1"/>
-    <col min="7" max="7" width="14.453125" customWidth="1"/>
-    <col min="8" max="8" width="33.453125" customWidth="1"/>
+    <col min="7" max="8" width="11" customWidth="1"/>
+    <col min="9" max="9" width="33.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -613,19 +627,19 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1" t="s">
+      <c r="H1" s="2"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="L1" s="1"/>
-      <c r="M1" s="4"/>
-      <c r="N1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="4"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
       <c r="Q1" s="1"/>
@@ -641,8 +655,9 @@
       <c r="AA1" s="1"/>
       <c r="AB1" s="1"/>
       <c r="AC1" s="1"/>
-    </row>
-    <row r="2" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AD1" s="1"/>
+    </row>
+    <row r="2" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="5" t="s">
         <v>4</v>
       </c>
@@ -652,17 +667,17 @@
       <c r="E2" s="6"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
-      <c r="H2" s="1"/>
+      <c r="H2" s="15"/>
       <c r="I2" s="1"/>
-      <c r="J2" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="K2" s="1" t="s">
+      <c r="J2" s="1"/>
+      <c r="K2" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="L2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L2" s="1"/>
-      <c r="M2" s="4"/>
-      <c r="N2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="4"/>
       <c r="O2" s="1"/>
       <c r="P2" s="1"/>
       <c r="Q2" s="1"/>
@@ -678,8 +693,9 @@
       <c r="AA2" s="1"/>
       <c r="AB2" s="1"/>
       <c r="AC2" s="1"/>
-    </row>
-    <row r="3" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AD2" s="1"/>
+    </row>
+    <row r="3" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="1"/>
       <c r="B3" s="8" t="s">
         <v>7</v>
@@ -699,17 +715,19 @@
       <c r="G3" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="1"/>
-      <c r="J3" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K3" s="1" t="s">
+      <c r="J3" s="1"/>
+      <c r="K3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="1"/>
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
       <c r="O3" s="1"/>
@@ -727,8 +745,9 @@
       <c r="AA3" s="1"/>
       <c r="AB3" s="1"/>
       <c r="AC3" s="1"/>
-    </row>
-    <row r="4" spans="1:29" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AD3" s="1"/>
+    </row>
+    <row r="4" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1"/>
       <c r="B4" s="10">
         <f t="shared" ref="B4:B234" si="0">ROW()-3</f>
@@ -745,8 +764,8 @@
       </c>
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="1"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="10"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
       <c r="L4" s="1"/>
@@ -767,8 +786,9 @@
       <c r="AA4" s="1"/>
       <c r="AB4" s="1"/>
       <c r="AC4" s="1"/>
-    </row>
-    <row r="5" spans="1:29" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AD4" s="1"/>
+    </row>
+    <row r="5" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="1"/>
       <c r="B5" s="10">
         <f t="shared" si="0"/>
@@ -785,8 +805,8 @@
       </c>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="1"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="10"/>
       <c r="J5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -807,8 +827,9 @@
       <c r="AA5" s="1"/>
       <c r="AB5" s="1"/>
       <c r="AC5" s="1"/>
-    </row>
-    <row r="6" spans="1:29" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AD5" s="1"/>
+    </row>
+    <row r="6" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="1"/>
       <c r="B6" s="10">
         <f t="shared" si="0"/>
@@ -823,8 +844,8 @@
       <c r="E6" s="7"/>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="1"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="10"/>
       <c r="J6" s="1"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
@@ -845,8 +866,9 @@
       <c r="AA6" s="1"/>
       <c r="AB6" s="1"/>
       <c r="AC6" s="1"/>
-    </row>
-    <row r="7" spans="1:29" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AD6" s="1"/>
+    </row>
+    <row r="7" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="1"/>
       <c r="B7" s="10">
         <f t="shared" si="0"/>
@@ -861,8 +883,8 @@
       <c r="E7" s="7"/>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="1"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="10"/>
       <c r="J7" s="1"/>
       <c r="K7" s="1"/>
       <c r="L7" s="1"/>
@@ -883,8 +905,9 @@
       <c r="AA7" s="1"/>
       <c r="AB7" s="1"/>
       <c r="AC7" s="1"/>
-    </row>
-    <row r="8" spans="1:29" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AD7" s="1"/>
+    </row>
+    <row r="8" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="1"/>
       <c r="B8" s="10">
         <f t="shared" si="0"/>
@@ -899,8 +922,8 @@
       <c r="E8" s="7"/>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="1"/>
+      <c r="H8" s="11"/>
+      <c r="I8" s="10"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
       <c r="L8" s="1"/>
@@ -921,8 +944,9 @@
       <c r="AA8" s="1"/>
       <c r="AB8" s="1"/>
       <c r="AC8" s="1"/>
-    </row>
-    <row r="9" spans="1:29" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AD8" s="1"/>
+    </row>
+    <row r="9" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1"/>
       <c r="B9" s="10">
         <f t="shared" si="0"/>
@@ -939,8 +963,8 @@
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="1"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="10"/>
       <c r="J9" s="1"/>
       <c r="K9" s="1"/>
       <c r="L9" s="1"/>
@@ -961,8 +985,9 @@
       <c r="AA9" s="1"/>
       <c r="AB9" s="1"/>
       <c r="AC9" s="1"/>
-    </row>
-    <row r="10" spans="1:29" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AD9" s="1"/>
+    </row>
+    <row r="10" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="1"/>
       <c r="B10" s="10">
         <f t="shared" si="0"/>
@@ -979,8 +1004,8 @@
       </c>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="1"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="10"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1"/>
       <c r="L10" s="1"/>
@@ -1001,8 +1026,9 @@
       <c r="AA10" s="1"/>
       <c r="AB10" s="1"/>
       <c r="AC10" s="1"/>
-    </row>
-    <row r="11" spans="1:29" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AD10" s="1"/>
+    </row>
+    <row r="11" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1"/>
       <c r="B11" s="10">
         <f t="shared" si="0"/>
@@ -1019,8 +1045,8 @@
       </c>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="1"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="10"/>
       <c r="J11" s="1"/>
       <c r="K11" s="1"/>
       <c r="L11" s="1"/>
@@ -1041,8 +1067,9 @@
       <c r="AA11" s="1"/>
       <c r="AB11" s="1"/>
       <c r="AC11" s="1"/>
-    </row>
-    <row r="12" spans="1:29" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AD11" s="1"/>
+    </row>
+    <row r="12" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1"/>
       <c r="B12" s="10">
         <f t="shared" si="0"/>
@@ -1059,8 +1086,8 @@
       </c>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="1"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="10"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
       <c r="L12" s="1"/>
@@ -1081,8 +1108,9 @@
       <c r="AA12" s="1"/>
       <c r="AB12" s="1"/>
       <c r="AC12" s="1"/>
-    </row>
-    <row r="13" spans="1:29" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AD12" s="1"/>
+    </row>
+    <row r="13" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
       <c r="B13" s="10">
         <f t="shared" si="0"/>
@@ -1099,8 +1127,8 @@
       </c>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="1"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="10"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
@@ -1121,8 +1149,9 @@
       <c r="AA13" s="1"/>
       <c r="AB13" s="1"/>
       <c r="AC13" s="1"/>
-    </row>
-    <row r="14" spans="1:29" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AD13" s="1"/>
+    </row>
+    <row r="14" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
       <c r="B14" s="10">
         <f t="shared" si="0"/>
@@ -1139,8 +1168,8 @@
       </c>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="1"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="10"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
@@ -1161,8 +1190,9 @@
       <c r="AA14" s="1"/>
       <c r="AB14" s="1"/>
       <c r="AC14" s="1"/>
-    </row>
-    <row r="15" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AD14" s="1"/>
+    </row>
+    <row r="15" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
       <c r="B15" s="10">
         <f t="shared" si="0"/>
@@ -1180,9 +1210,11 @@
       <c r="F15" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="G15" s="11"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="1"/>
+      <c r="G15" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H15" s="11"/>
+      <c r="I15" s="10"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
       <c r="L15" s="1"/>
@@ -1203,8 +1235,9 @@
       <c r="AA15" s="1"/>
       <c r="AB15" s="1"/>
       <c r="AC15" s="1"/>
-    </row>
-    <row r="16" spans="1:29" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AD15" s="1"/>
+    </row>
+    <row r="16" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
       <c r="B16" s="10">
         <f t="shared" si="0"/>
@@ -1223,8 +1256,8 @@
         <v>14</v>
       </c>
       <c r="G16" s="11"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="1"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="10"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
@@ -1245,8 +1278,9 @@
       <c r="AA16" s="1"/>
       <c r="AB16" s="1"/>
       <c r="AC16" s="1"/>
-    </row>
-    <row r="17" spans="1:29" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AD16" s="1"/>
+    </row>
+    <row r="17" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1"/>
       <c r="B17" s="10">
         <f t="shared" si="0"/>
@@ -1263,8 +1297,8 @@
       </c>
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="1"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="10"/>
       <c r="J17" s="1"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
@@ -1285,8 +1319,9 @@
       <c r="AA17" s="1"/>
       <c r="AB17" s="1"/>
       <c r="AC17" s="1"/>
-    </row>
-    <row r="18" spans="1:29" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AD17" s="1"/>
+    </row>
+    <row r="18" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1"/>
       <c r="B18" s="10">
         <f t="shared" si="0"/>
@@ -1301,8 +1336,8 @@
       <c r="E18" s="7"/>
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="1"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="10"/>
       <c r="J18" s="1"/>
       <c r="K18" s="1"/>
       <c r="L18" s="1"/>
@@ -1323,8 +1358,9 @@
       <c r="AA18" s="1"/>
       <c r="AB18" s="1"/>
       <c r="AC18" s="1"/>
-    </row>
-    <row r="19" spans="1:29" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AD18" s="1"/>
+    </row>
+    <row r="19" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
       <c r="B19" s="10">
         <f t="shared" si="0"/>
@@ -1339,8 +1375,8 @@
       <c r="E19" s="7"/>
       <c r="F19" s="11"/>
       <c r="G19" s="11"/>
-      <c r="H19" s="10"/>
-      <c r="I19" s="1"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="10"/>
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="L19" s="1"/>
@@ -1361,8 +1397,9 @@
       <c r="AA19" s="1"/>
       <c r="AB19" s="1"/>
       <c r="AC19" s="1"/>
-    </row>
-    <row r="20" spans="1:29" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AD19" s="1"/>
+    </row>
+    <row r="20" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1"/>
       <c r="B20" s="10">
         <f t="shared" si="0"/>
@@ -1381,8 +1418,8 @@
         <v>14</v>
       </c>
       <c r="G20" s="11"/>
-      <c r="H20" s="10"/>
-      <c r="I20" s="1"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="10"/>
       <c r="J20" s="1"/>
       <c r="K20" s="1"/>
       <c r="L20" s="1"/>
@@ -1403,8 +1440,9 @@
       <c r="AA20" s="1"/>
       <c r="AB20" s="1"/>
       <c r="AC20" s="1"/>
-    </row>
-    <row r="21" spans="1:29" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AD20" s="1"/>
+    </row>
+    <row r="21" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1"/>
       <c r="B21" s="10">
         <f t="shared" si="0"/>
@@ -1423,8 +1461,8 @@
         <v>14</v>
       </c>
       <c r="G21" s="11"/>
-      <c r="H21" s="10"/>
-      <c r="I21" s="1"/>
+      <c r="H21" s="11"/>
+      <c r="I21" s="10"/>
       <c r="J21" s="1"/>
       <c r="K21" s="1"/>
       <c r="L21" s="1"/>
@@ -1445,8 +1483,9 @@
       <c r="AA21" s="1"/>
       <c r="AB21" s="1"/>
       <c r="AC21" s="1"/>
-    </row>
-    <row r="22" spans="1:29" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AD21" s="1"/>
+    </row>
+    <row r="22" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1"/>
       <c r="B22" s="10">
         <f t="shared" si="0"/>
@@ -1461,8 +1500,8 @@
       <c r="E22" s="7"/>
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
-      <c r="H22" s="10"/>
-      <c r="I22" s="1"/>
+      <c r="H22" s="11"/>
+      <c r="I22" s="10"/>
       <c r="J22" s="1"/>
       <c r="K22" s="1"/>
       <c r="L22" s="1"/>
@@ -1483,8 +1522,9 @@
       <c r="AA22" s="1"/>
       <c r="AB22" s="1"/>
       <c r="AC22" s="1"/>
-    </row>
-    <row r="23" spans="1:29" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AD22" s="1"/>
+    </row>
+    <row r="23" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="1"/>
       <c r="B23" s="10">
         <f t="shared" si="0"/>
@@ -1499,8 +1539,8 @@
       <c r="E23" s="7"/>
       <c r="F23" s="11"/>
       <c r="G23" s="11"/>
-      <c r="H23" s="10"/>
-      <c r="I23" s="1"/>
+      <c r="H23" s="11"/>
+      <c r="I23" s="10"/>
       <c r="J23" s="1"/>
       <c r="K23" s="1"/>
       <c r="L23" s="1"/>
@@ -1521,8 +1561,9 @@
       <c r="AA23" s="1"/>
       <c r="AB23" s="1"/>
       <c r="AC23" s="1"/>
-    </row>
-    <row r="24" spans="1:29" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AD23" s="1"/>
+    </row>
+    <row r="24" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="1"/>
       <c r="B24" s="10">
         <f t="shared" si="0"/>
@@ -1539,8 +1580,8 @@
       </c>
       <c r="F24" s="11"/>
       <c r="G24" s="11"/>
-      <c r="H24" s="10"/>
-      <c r="I24" s="1"/>
+      <c r="H24" s="11"/>
+      <c r="I24" s="10"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
       <c r="L24" s="1"/>
@@ -1561,8 +1602,9 @@
       <c r="AA24" s="1"/>
       <c r="AB24" s="1"/>
       <c r="AC24" s="1"/>
-    </row>
-    <row r="25" spans="1:29" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AD24" s="1"/>
+    </row>
+    <row r="25" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1"/>
       <c r="B25" s="10">
         <f t="shared" si="0"/>
@@ -1577,8 +1619,8 @@
       <c r="E25" s="7"/>
       <c r="F25" s="11"/>
       <c r="G25" s="11"/>
-      <c r="H25" s="10"/>
-      <c r="I25" s="1"/>
+      <c r="H25" s="11"/>
+      <c r="I25" s="10"/>
       <c r="J25" s="1"/>
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
@@ -1599,8 +1641,9 @@
       <c r="AA25" s="1"/>
       <c r="AB25" s="1"/>
       <c r="AC25" s="1"/>
-    </row>
-    <row r="26" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AD25" s="1"/>
+    </row>
+    <row r="26" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="1"/>
       <c r="B26" s="10">
         <f t="shared" si="0"/>
@@ -1618,9 +1661,11 @@
       <c r="F26" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G26" s="11"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="1"/>
+      <c r="G26" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H26" s="11"/>
+      <c r="I26" s="10"/>
       <c r="J26" s="1"/>
       <c r="K26" s="1"/>
       <c r="L26" s="1"/>
@@ -1641,8 +1686,9 @@
       <c r="AA26" s="1"/>
       <c r="AB26" s="1"/>
       <c r="AC26" s="1"/>
-    </row>
-    <row r="27" spans="1:29" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AD26" s="1"/>
+    </row>
+    <row r="27" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="1"/>
       <c r="B27" s="10">
         <f t="shared" si="0"/>
@@ -1661,8 +1707,8 @@
         <v>14</v>
       </c>
       <c r="G27" s="11"/>
-      <c r="H27" s="10"/>
-      <c r="I27" s="1"/>
+      <c r="H27" s="11"/>
+      <c r="I27" s="10"/>
       <c r="J27" s="1"/>
       <c r="K27" s="1"/>
       <c r="L27" s="1"/>
@@ -1683,8 +1729,9 @@
       <c r="AA27" s="1"/>
       <c r="AB27" s="1"/>
       <c r="AC27" s="1"/>
-    </row>
-    <row r="28" spans="1:29" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AD27" s="1"/>
+    </row>
+    <row r="28" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="1"/>
       <c r="B28" s="10">
         <f t="shared" si="0"/>
@@ -1699,8 +1746,8 @@
       <c r="E28" s="7"/>
       <c r="F28" s="11"/>
       <c r="G28" s="11"/>
-      <c r="H28" s="10"/>
-      <c r="I28" s="1"/>
+      <c r="H28" s="11"/>
+      <c r="I28" s="10"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
       <c r="L28" s="1"/>
@@ -1721,8 +1768,9 @@
       <c r="AA28" s="1"/>
       <c r="AB28" s="1"/>
       <c r="AC28" s="1"/>
-    </row>
-    <row r="29" spans="1:29" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AD28" s="1"/>
+    </row>
+    <row r="29" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="1"/>
       <c r="B29" s="10">
         <f t="shared" si="0"/>
@@ -1737,8 +1785,8 @@
       <c r="E29" s="7"/>
       <c r="F29" s="11"/>
       <c r="G29" s="11"/>
-      <c r="H29" s="10"/>
-      <c r="I29" s="1"/>
+      <c r="H29" s="11"/>
+      <c r="I29" s="10"/>
       <c r="J29" s="1"/>
       <c r="K29" s="1"/>
       <c r="L29" s="1"/>
@@ -1759,8 +1807,9 @@
       <c r="AA29" s="1"/>
       <c r="AB29" s="1"/>
       <c r="AC29" s="1"/>
-    </row>
-    <row r="30" spans="1:29" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AD29" s="1"/>
+    </row>
+    <row r="30" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="1"/>
       <c r="B30" s="10">
         <f t="shared" si="0"/>
@@ -1779,8 +1828,8 @@
         <v>14</v>
       </c>
       <c r="G30" s="11"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="1"/>
+      <c r="H30" s="11"/>
+      <c r="I30" s="10"/>
       <c r="J30" s="1"/>
       <c r="K30" s="1"/>
       <c r="L30" s="1"/>
@@ -1801,8 +1850,9 @@
       <c r="AA30" s="1"/>
       <c r="AB30" s="1"/>
       <c r="AC30" s="1"/>
-    </row>
-    <row r="31" spans="1:29" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AD30" s="1"/>
+    </row>
+    <row r="31" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="1"/>
       <c r="B31" s="10">
         <f t="shared" si="0"/>
@@ -1817,8 +1867,8 @@
       <c r="E31" s="7"/>
       <c r="F31" s="11"/>
       <c r="G31" s="11"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="1"/>
+      <c r="H31" s="11"/>
+      <c r="I31" s="10"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1"/>
       <c r="L31" s="1"/>
@@ -1839,8 +1889,9 @@
       <c r="AA31" s="1"/>
       <c r="AB31" s="1"/>
       <c r="AC31" s="1"/>
-    </row>
-    <row r="32" spans="1:29" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AD31" s="1"/>
+    </row>
+    <row r="32" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="1"/>
       <c r="B32" s="10">
         <f t="shared" si="0"/>
@@ -1857,8 +1908,8 @@
       </c>
       <c r="F32" s="11"/>
       <c r="G32" s="11"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="1"/>
+      <c r="H32" s="11"/>
+      <c r="I32" s="10"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
       <c r="L32" s="1"/>
@@ -1879,8 +1930,9 @@
       <c r="AA32" s="1"/>
       <c r="AB32" s="1"/>
       <c r="AC32" s="1"/>
-    </row>
-    <row r="33" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AD32" s="1"/>
+    </row>
+    <row r="33" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="1"/>
       <c r="B33" s="10">
         <f t="shared" si="0"/>
@@ -1898,9 +1950,11 @@
       <c r="F33" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="G33" s="11"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="1"/>
+      <c r="G33" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H33" s="11"/>
+      <c r="I33" s="10"/>
       <c r="J33" s="1"/>
       <c r="K33" s="1"/>
       <c r="L33" s="1"/>
@@ -1921,8 +1975,9 @@
       <c r="AA33" s="1"/>
       <c r="AB33" s="1"/>
       <c r="AC33" s="1"/>
-    </row>
-    <row r="34" spans="1:29" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AD33" s="1"/>
+    </row>
+    <row r="34" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="1"/>
       <c r="B34" s="10">
         <f t="shared" si="0"/>
@@ -1937,8 +1992,8 @@
       <c r="E34" s="7"/>
       <c r="F34" s="11"/>
       <c r="G34" s="11"/>
-      <c r="H34" s="10"/>
-      <c r="I34" s="1"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="10"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="L34" s="1"/>
@@ -1959,8 +2014,9 @@
       <c r="AA34" s="1"/>
       <c r="AB34" s="1"/>
       <c r="AC34" s="1"/>
-    </row>
-    <row r="35" spans="1:29" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AD34" s="1"/>
+    </row>
+    <row r="35" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="1"/>
       <c r="B35" s="10">
         <f t="shared" si="0"/>
@@ -1977,8 +2033,8 @@
       </c>
       <c r="F35" s="11"/>
       <c r="G35" s="11"/>
-      <c r="H35" s="10"/>
-      <c r="I35" s="1"/>
+      <c r="H35" s="11"/>
+      <c r="I35" s="10"/>
       <c r="J35" s="1"/>
       <c r="K35" s="1"/>
       <c r="L35" s="1"/>
@@ -1999,8 +2055,9 @@
       <c r="AA35" s="1"/>
       <c r="AB35" s="1"/>
       <c r="AC35" s="1"/>
-    </row>
-    <row r="36" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AD35" s="1"/>
+    </row>
+    <row r="36" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="1"/>
       <c r="B36" s="10">
         <f t="shared" si="0"/>
@@ -2018,9 +2075,11 @@
       <c r="F36" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G36" s="11"/>
-      <c r="H36" s="10"/>
-      <c r="I36" s="1"/>
+      <c r="G36" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H36" s="11"/>
+      <c r="I36" s="10"/>
       <c r="J36" s="1"/>
       <c r="K36" s="1"/>
       <c r="L36" s="1"/>
@@ -2041,8 +2100,9 @@
       <c r="AA36" s="1"/>
       <c r="AB36" s="1"/>
       <c r="AC36" s="1"/>
-    </row>
-    <row r="37" spans="1:29" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AD36" s="1"/>
+    </row>
+    <row r="37" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="1"/>
       <c r="B37" s="10">
         <f t="shared" si="0"/>
@@ -2061,8 +2121,8 @@
         <v>17</v>
       </c>
       <c r="G37" s="11"/>
-      <c r="H37" s="10"/>
-      <c r="I37" s="1"/>
+      <c r="H37" s="11"/>
+      <c r="I37" s="10"/>
       <c r="J37" s="1"/>
       <c r="K37" s="1"/>
       <c r="L37" s="1"/>
@@ -2083,8 +2143,9 @@
       <c r="AA37" s="1"/>
       <c r="AB37" s="1"/>
       <c r="AC37" s="1"/>
-    </row>
-    <row r="38" spans="1:29" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AD37" s="1"/>
+    </row>
+    <row r="38" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="1"/>
       <c r="B38" s="10">
         <f t="shared" si="0"/>
@@ -2101,8 +2162,8 @@
       </c>
       <c r="F38" s="11"/>
       <c r="G38" s="11"/>
-      <c r="H38" s="10"/>
-      <c r="I38" s="1"/>
+      <c r="H38" s="11"/>
+      <c r="I38" s="10"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1"/>
       <c r="L38" s="1"/>
@@ -2123,8 +2184,9 @@
       <c r="AA38" s="1"/>
       <c r="AB38" s="1"/>
       <c r="AC38" s="1"/>
-    </row>
-    <row r="39" spans="1:29" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AD38" s="1"/>
+    </row>
+    <row r="39" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="1"/>
       <c r="B39" s="10">
         <f t="shared" si="0"/>
@@ -2139,8 +2201,8 @@
       <c r="E39" s="13"/>
       <c r="F39" s="11"/>
       <c r="G39" s="11"/>
-      <c r="H39" s="10"/>
-      <c r="I39" s="1"/>
+      <c r="H39" s="11"/>
+      <c r="I39" s="10"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
       <c r="L39" s="1"/>
@@ -2161,8 +2223,9 @@
       <c r="AA39" s="1"/>
       <c r="AB39" s="1"/>
       <c r="AC39" s="1"/>
-    </row>
-    <row r="40" spans="1:29" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AD39" s="1"/>
+    </row>
+    <row r="40" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="1"/>
       <c r="B40" s="10">
         <f t="shared" si="0"/>
@@ -2177,8 +2240,8 @@
       <c r="E40" s="7"/>
       <c r="F40" s="11"/>
       <c r="G40" s="11"/>
-      <c r="H40" s="10"/>
-      <c r="I40" s="1"/>
+      <c r="H40" s="11"/>
+      <c r="I40" s="10"/>
       <c r="J40" s="1"/>
       <c r="K40" s="1"/>
       <c r="L40" s="1"/>
@@ -2199,8 +2262,9 @@
       <c r="AA40" s="1"/>
       <c r="AB40" s="1"/>
       <c r="AC40" s="1"/>
-    </row>
-    <row r="41" spans="1:29" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AD40" s="1"/>
+    </row>
+    <row r="41" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="1"/>
       <c r="B41" s="10">
         <f t="shared" si="0"/>
@@ -2215,8 +2279,8 @@
       <c r="E41" s="7"/>
       <c r="F41" s="11"/>
       <c r="G41" s="11"/>
-      <c r="H41" s="10"/>
-      <c r="I41" s="1"/>
+      <c r="H41" s="11"/>
+      <c r="I41" s="10"/>
       <c r="J41" s="1"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
@@ -2237,8 +2301,9 @@
       <c r="AA41" s="1"/>
       <c r="AB41" s="1"/>
       <c r="AC41" s="1"/>
-    </row>
-    <row r="42" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AD41" s="1"/>
+    </row>
+    <row r="42" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="1"/>
       <c r="B42" s="10">
         <f t="shared" si="0"/>
@@ -2256,9 +2321,11 @@
       <c r="F42" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G42" s="11"/>
-      <c r="H42" s="10"/>
-      <c r="I42" s="1"/>
+      <c r="G42" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H42" s="11"/>
+      <c r="I42" s="10"/>
       <c r="J42" s="1"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
@@ -2279,8 +2346,9 @@
       <c r="AA42" s="1"/>
       <c r="AB42" s="1"/>
       <c r="AC42" s="1"/>
-    </row>
-    <row r="43" spans="1:29" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AD42" s="1"/>
+    </row>
+    <row r="43" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="1"/>
       <c r="B43" s="10">
         <f t="shared" si="0"/>
@@ -2299,8 +2367,8 @@
         <v>14</v>
       </c>
       <c r="G43" s="11"/>
-      <c r="H43" s="10"/>
-      <c r="I43" s="1"/>
+      <c r="H43" s="11"/>
+      <c r="I43" s="10"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1"/>
       <c r="L43" s="1"/>
@@ -2321,8 +2389,9 @@
       <c r="AA43" s="1"/>
       <c r="AB43" s="1"/>
       <c r="AC43" s="1"/>
-    </row>
-    <row r="44" spans="1:29" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AD43" s="1"/>
+    </row>
+    <row r="44" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="1"/>
       <c r="B44" s="10">
         <f t="shared" si="0"/>
@@ -2337,8 +2406,8 @@
       <c r="E44" s="7"/>
       <c r="F44" s="11"/>
       <c r="G44" s="11"/>
-      <c r="H44" s="10"/>
-      <c r="I44" s="1"/>
+      <c r="H44" s="11"/>
+      <c r="I44" s="10"/>
       <c r="J44" s="1"/>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
@@ -2359,8 +2428,9 @@
       <c r="AA44" s="1"/>
       <c r="AB44" s="1"/>
       <c r="AC44" s="1"/>
-    </row>
-    <row r="45" spans="1:29" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AD44" s="1"/>
+    </row>
+    <row r="45" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="1"/>
       <c r="B45" s="10">
         <f t="shared" si="0"/>
@@ -2375,8 +2445,8 @@
       <c r="E45" s="7"/>
       <c r="F45" s="11"/>
       <c r="G45" s="11"/>
-      <c r="H45" s="10"/>
-      <c r="I45" s="1"/>
+      <c r="H45" s="11"/>
+      <c r="I45" s="10"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
       <c r="L45" s="1"/>
@@ -2397,8 +2467,9 @@
       <c r="AA45" s="1"/>
       <c r="AB45" s="1"/>
       <c r="AC45" s="1"/>
-    </row>
-    <row r="46" spans="1:29" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AD45" s="1"/>
+    </row>
+    <row r="46" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="1"/>
       <c r="B46" s="10">
         <f t="shared" si="0"/>
@@ -2413,8 +2484,8 @@
       <c r="E46" s="7"/>
       <c r="F46" s="11"/>
       <c r="G46" s="11"/>
-      <c r="H46" s="10"/>
-      <c r="I46" s="1"/>
+      <c r="H46" s="11"/>
+      <c r="I46" s="10"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
       <c r="L46" s="1"/>
@@ -2435,8 +2506,9 @@
       <c r="AA46" s="1"/>
       <c r="AB46" s="1"/>
       <c r="AC46" s="1"/>
-    </row>
-    <row r="47" spans="1:29" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AD46" s="1"/>
+    </row>
+    <row r="47" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="1"/>
       <c r="B47" s="10">
         <f t="shared" si="0"/>
@@ -2453,8 +2525,8 @@
       </c>
       <c r="F47" s="11"/>
       <c r="G47" s="11"/>
-      <c r="H47" s="10"/>
-      <c r="I47" s="1"/>
+      <c r="H47" s="11"/>
+      <c r="I47" s="10"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1"/>
       <c r="L47" s="1"/>
@@ -2475,8 +2547,9 @@
       <c r="AA47" s="1"/>
       <c r="AB47" s="1"/>
       <c r="AC47" s="1"/>
-    </row>
-    <row r="48" spans="1:29" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AD47" s="1"/>
+    </row>
+    <row r="48" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="1"/>
       <c r="B48" s="10">
         <f t="shared" si="0"/>
@@ -2493,8 +2566,8 @@
       </c>
       <c r="F48" s="11"/>
       <c r="G48" s="11"/>
-      <c r="H48" s="10"/>
-      <c r="I48" s="1"/>
+      <c r="H48" s="11"/>
+      <c r="I48" s="10"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
       <c r="L48" s="1"/>
@@ -2515,8 +2588,9 @@
       <c r="AA48" s="1"/>
       <c r="AB48" s="1"/>
       <c r="AC48" s="1"/>
-    </row>
-    <row r="49" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AD48" s="1"/>
+    </row>
+    <row r="49" spans="1:30" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="1"/>
       <c r="B49" s="10">
         <f t="shared" si="0"/>
@@ -2534,9 +2608,11 @@
       <c r="F49" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="G49" s="11"/>
-      <c r="H49" s="10"/>
-      <c r="I49" s="1"/>
+      <c r="G49" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="H49" s="11"/>
+      <c r="I49" s="10"/>
       <c r="J49" s="1"/>
       <c r="K49" s="1"/>
       <c r="L49" s="1"/>
@@ -2557,8 +2633,9 @@
       <c r="AA49" s="1"/>
       <c r="AB49" s="1"/>
       <c r="AC49" s="1"/>
-    </row>
-    <row r="50" spans="1:29" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AD49" s="1"/>
+    </row>
+    <row r="50" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="1"/>
       <c r="B50" s="10">
         <f t="shared" si="0"/>
@@ -2573,8 +2650,8 @@
       <c r="E50" s="7"/>
       <c r="F50" s="11"/>
       <c r="G50" s="11"/>
-      <c r="H50" s="10"/>
-      <c r="I50" s="1"/>
+      <c r="H50" s="11"/>
+      <c r="I50" s="10"/>
       <c r="J50" s="1"/>
       <c r="K50" s="1"/>
       <c r="L50" s="1"/>
@@ -2595,8 +2672,9 @@
       <c r="AA50" s="1"/>
       <c r="AB50" s="1"/>
       <c r="AC50" s="1"/>
-    </row>
-    <row r="51" spans="1:29" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AD50" s="1"/>
+    </row>
+    <row r="51" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="1"/>
       <c r="B51" s="10">
         <f t="shared" si="0"/>
@@ -2611,8 +2689,8 @@
       <c r="E51" s="7"/>
       <c r="F51" s="11"/>
       <c r="G51" s="11"/>
-      <c r="H51" s="10"/>
-      <c r="I51" s="1"/>
+      <c r="H51" s="11"/>
+      <c r="I51" s="10"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1"/>
       <c r="L51" s="1"/>
@@ -2633,8 +2711,9 @@
       <c r="AA51" s="1"/>
       <c r="AB51" s="1"/>
       <c r="AC51" s="1"/>
-    </row>
-    <row r="52" spans="1:29" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AD51" s="1"/>
+    </row>
+    <row r="52" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="1"/>
       <c r="B52" s="10">
         <f t="shared" si="0"/>
@@ -2653,8 +2732,8 @@
         <v>14</v>
       </c>
       <c r="G52" s="11"/>
-      <c r="H52" s="10"/>
-      <c r="I52" s="1"/>
+      <c r="H52" s="11"/>
+      <c r="I52" s="10"/>
       <c r="J52" s="1"/>
       <c r="K52" s="1"/>
       <c r="L52" s="1"/>
@@ -2675,8 +2754,9 @@
       <c r="AA52" s="1"/>
       <c r="AB52" s="1"/>
       <c r="AC52" s="1"/>
-    </row>
-    <row r="53" spans="1:29" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AD52" s="1"/>
+    </row>
+    <row r="53" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="1"/>
       <c r="B53" s="10">
         <f t="shared" si="0"/>
@@ -2691,8 +2771,8 @@
       <c r="E53" s="7"/>
       <c r="F53" s="11"/>
       <c r="G53" s="11"/>
-      <c r="H53" s="10"/>
-      <c r="I53" s="1"/>
+      <c r="H53" s="11"/>
+      <c r="I53" s="10"/>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
       <c r="L53" s="1"/>
@@ -2713,8 +2793,9 @@
       <c r="AA53" s="1"/>
       <c r="AB53" s="1"/>
       <c r="AC53" s="1"/>
-    </row>
-    <row r="54" spans="1:29" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AD53" s="1"/>
+    </row>
+    <row r="54" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="1"/>
       <c r="B54" s="10">
         <f t="shared" si="0"/>
@@ -2731,8 +2812,8 @@
       </c>
       <c r="F54" s="11"/>
       <c r="G54" s="11"/>
-      <c r="H54" s="10"/>
-      <c r="I54" s="1"/>
+      <c r="H54" s="11"/>
+      <c r="I54" s="10"/>
       <c r="J54" s="1"/>
       <c r="K54" s="1"/>
       <c r="L54" s="1"/>
@@ -2753,8 +2834,9 @@
       <c r="AA54" s="1"/>
       <c r="AB54" s="1"/>
       <c r="AC54" s="1"/>
-    </row>
-    <row r="55" spans="1:29" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AD54" s="1"/>
+    </row>
+    <row r="55" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="1"/>
       <c r="B55" s="10">
         <f t="shared" si="0"/>
@@ -2771,8 +2853,8 @@
       </c>
       <c r="F55" s="11"/>
       <c r="G55" s="11"/>
-      <c r="H55" s="10"/>
-      <c r="I55" s="1"/>
+      <c r="H55" s="11"/>
+      <c r="I55" s="10"/>
       <c r="J55" s="1"/>
       <c r="K55" s="1"/>
       <c r="L55" s="1"/>
@@ -2793,8 +2875,9 @@
       <c r="AA55" s="1"/>
       <c r="AB55" s="1"/>
       <c r="AC55" s="1"/>
-    </row>
-    <row r="56" spans="1:29" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AD55" s="1"/>
+    </row>
+    <row r="56" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="1"/>
       <c r="B56" s="10">
         <f t="shared" si="0"/>
@@ -2811,8 +2894,8 @@
       </c>
       <c r="F56" s="11"/>
       <c r="G56" s="11"/>
-      <c r="H56" s="10"/>
-      <c r="I56" s="1"/>
+      <c r="H56" s="11"/>
+      <c r="I56" s="10"/>
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
       <c r="L56" s="1"/>
@@ -2833,8 +2916,9 @@
       <c r="AA56" s="1"/>
       <c r="AB56" s="1"/>
       <c r="AC56" s="1"/>
-    </row>
-    <row r="57" spans="1:29" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AD56" s="1"/>
+    </row>
+    <row r="57" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="1"/>
       <c r="B57" s="10">
         <f t="shared" si="0"/>
@@ -2849,8 +2933,8 @@
       <c r="E57" s="7"/>
       <c r="F57" s="11"/>
       <c r="G57" s="11"/>
-      <c r="H57" s="10"/>
-      <c r="I57" s="1"/>
+      <c r="H57" s="11"/>
+      <c r="I57" s="10"/>
       <c r="J57" s="1"/>
       <c r="K57" s="1"/>
       <c r="L57" s="1"/>
@@ -2871,8 +2955,9 @@
       <c r="AA57" s="1"/>
       <c r="AB57" s="1"/>
       <c r="AC57" s="1"/>
-    </row>
-    <row r="58" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD57" s="1"/>
+    </row>
+    <row r="58" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A58" s="1"/>
       <c r="B58" s="10">
         <f t="shared" si="0"/>
@@ -2889,8 +2974,8 @@
       </c>
       <c r="F58" s="11"/>
       <c r="G58" s="11"/>
-      <c r="H58" s="10"/>
-      <c r="I58" s="1"/>
+      <c r="H58" s="11"/>
+      <c r="I58" s="10"/>
       <c r="J58" s="1"/>
       <c r="K58" s="1"/>
       <c r="L58" s="1"/>
@@ -2911,8 +2996,9 @@
       <c r="AA58" s="1"/>
       <c r="AB58" s="1"/>
       <c r="AC58" s="1"/>
-    </row>
-    <row r="59" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD58" s="1"/>
+    </row>
+    <row r="59" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A59" s="1"/>
       <c r="B59" s="10">
         <f t="shared" si="0"/>
@@ -2927,8 +3013,8 @@
       <c r="E59" s="7"/>
       <c r="F59" s="11"/>
       <c r="G59" s="11"/>
-      <c r="H59" s="10"/>
-      <c r="I59" s="1"/>
+      <c r="H59" s="11"/>
+      <c r="I59" s="10"/>
       <c r="J59" s="1"/>
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
@@ -2949,8 +3035,9 @@
       <c r="AA59" s="1"/>
       <c r="AB59" s="1"/>
       <c r="AC59" s="1"/>
-    </row>
-    <row r="60" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD59" s="1"/>
+    </row>
+    <row r="60" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A60" s="1"/>
       <c r="B60" s="10">
         <f t="shared" si="0"/>
@@ -2967,8 +3054,8 @@
       </c>
       <c r="F60" s="11"/>
       <c r="G60" s="11"/>
-      <c r="H60" s="10"/>
-      <c r="I60" s="1"/>
+      <c r="H60" s="11"/>
+      <c r="I60" s="10"/>
       <c r="J60" s="1"/>
       <c r="K60" s="1"/>
       <c r="L60" s="1"/>
@@ -2989,8 +3076,9 @@
       <c r="AA60" s="1"/>
       <c r="AB60" s="1"/>
       <c r="AC60" s="1"/>
-    </row>
-    <row r="61" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD60" s="1"/>
+    </row>
+    <row r="61" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A61" s="1"/>
       <c r="B61" s="10">
         <f t="shared" si="0"/>
@@ -3007,8 +3095,8 @@
       </c>
       <c r="F61" s="11"/>
       <c r="G61" s="11"/>
-      <c r="H61" s="10"/>
-      <c r="I61" s="1"/>
+      <c r="H61" s="11"/>
+      <c r="I61" s="10"/>
       <c r="J61" s="1"/>
       <c r="K61" s="1"/>
       <c r="L61" s="1"/>
@@ -3029,8 +3117,9 @@
       <c r="AA61" s="1"/>
       <c r="AB61" s="1"/>
       <c r="AC61" s="1"/>
-    </row>
-    <row r="62" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD61" s="1"/>
+    </row>
+    <row r="62" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A62" s="1"/>
       <c r="B62" s="10">
         <f t="shared" si="0"/>
@@ -3045,8 +3134,8 @@
       <c r="E62" s="7"/>
       <c r="F62" s="11"/>
       <c r="G62" s="11"/>
-      <c r="H62" s="10"/>
-      <c r="I62" s="1"/>
+      <c r="H62" s="11"/>
+      <c r="I62" s="10"/>
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
       <c r="L62" s="1"/>
@@ -3067,8 +3156,9 @@
       <c r="AA62" s="1"/>
       <c r="AB62" s="1"/>
       <c r="AC62" s="1"/>
-    </row>
-    <row r="63" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD62" s="1"/>
+    </row>
+    <row r="63" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A63" s="1"/>
       <c r="B63" s="10">
         <f t="shared" si="0"/>
@@ -3087,8 +3177,8 @@
         <v>14</v>
       </c>
       <c r="G63" s="11"/>
-      <c r="H63" s="10"/>
-      <c r="I63" s="1"/>
+      <c r="H63" s="11"/>
+      <c r="I63" s="10"/>
       <c r="J63" s="1"/>
       <c r="K63" s="1"/>
       <c r="L63" s="1"/>
@@ -3109,8 +3199,9 @@
       <c r="AA63" s="1"/>
       <c r="AB63" s="1"/>
       <c r="AC63" s="1"/>
-    </row>
-    <row r="64" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD63" s="1"/>
+    </row>
+    <row r="64" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A64" s="1"/>
       <c r="B64" s="10">
         <f t="shared" si="0"/>
@@ -3127,8 +3218,8 @@
       </c>
       <c r="F64" s="11"/>
       <c r="G64" s="11"/>
-      <c r="H64" s="10"/>
-      <c r="I64" s="1"/>
+      <c r="H64" s="11"/>
+      <c r="I64" s="10"/>
       <c r="J64" s="1"/>
       <c r="K64" s="1"/>
       <c r="L64" s="1"/>
@@ -3149,8 +3240,9 @@
       <c r="AA64" s="1"/>
       <c r="AB64" s="1"/>
       <c r="AC64" s="1"/>
-    </row>
-    <row r="65" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD64" s="1"/>
+    </row>
+    <row r="65" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A65" s="1"/>
       <c r="B65" s="10">
         <f t="shared" si="0"/>
@@ -3165,8 +3257,8 @@
       <c r="E65" s="7"/>
       <c r="F65" s="11"/>
       <c r="G65" s="11"/>
-      <c r="H65" s="10"/>
-      <c r="I65" s="1"/>
+      <c r="H65" s="11"/>
+      <c r="I65" s="10"/>
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
       <c r="L65" s="1"/>
@@ -3187,8 +3279,9 @@
       <c r="AA65" s="1"/>
       <c r="AB65" s="1"/>
       <c r="AC65" s="1"/>
-    </row>
-    <row r="66" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD65" s="1"/>
+    </row>
+    <row r="66" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A66" s="1"/>
       <c r="B66" s="10">
         <f t="shared" si="0"/>
@@ -3205,8 +3298,8 @@
       </c>
       <c r="F66" s="11"/>
       <c r="G66" s="11"/>
-      <c r="H66" s="10"/>
-      <c r="I66" s="1"/>
+      <c r="H66" s="11"/>
+      <c r="I66" s="10"/>
       <c r="J66" s="1"/>
       <c r="K66" s="1"/>
       <c r="L66" s="1"/>
@@ -3227,8 +3320,9 @@
       <c r="AA66" s="1"/>
       <c r="AB66" s="1"/>
       <c r="AC66" s="1"/>
-    </row>
-    <row r="67" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD66" s="1"/>
+    </row>
+    <row r="67" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A67" s="1"/>
       <c r="B67" s="10">
         <f t="shared" si="0"/>
@@ -3243,8 +3337,8 @@
       <c r="E67" s="7"/>
       <c r="F67" s="11"/>
       <c r="G67" s="11"/>
-      <c r="H67" s="10"/>
-      <c r="I67" s="1"/>
+      <c r="H67" s="11"/>
+      <c r="I67" s="10"/>
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
@@ -3265,8 +3359,9 @@
       <c r="AA67" s="1"/>
       <c r="AB67" s="1"/>
       <c r="AC67" s="1"/>
-    </row>
-    <row r="68" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD67" s="1"/>
+    </row>
+    <row r="68" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A68" s="1"/>
       <c r="B68" s="10">
         <f t="shared" si="0"/>
@@ -3281,8 +3376,8 @@
       <c r="E68" s="7"/>
       <c r="F68" s="11"/>
       <c r="G68" s="11"/>
-      <c r="H68" s="10"/>
-      <c r="I68" s="1"/>
+      <c r="H68" s="11"/>
+      <c r="I68" s="10"/>
       <c r="J68" s="1"/>
       <c r="K68" s="1"/>
       <c r="L68" s="1"/>
@@ -3303,8 +3398,9 @@
       <c r="AA68" s="1"/>
       <c r="AB68" s="1"/>
       <c r="AC68" s="1"/>
-    </row>
-    <row r="69" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD68" s="1"/>
+    </row>
+    <row r="69" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A69" s="1"/>
       <c r="B69" s="10">
         <f t="shared" si="0"/>
@@ -3319,8 +3415,8 @@
       <c r="E69" s="7"/>
       <c r="F69" s="11"/>
       <c r="G69" s="11"/>
-      <c r="H69" s="10"/>
-      <c r="I69" s="1"/>
+      <c r="H69" s="11"/>
+      <c r="I69" s="10"/>
       <c r="J69" s="1"/>
       <c r="K69" s="1"/>
       <c r="L69" s="1"/>
@@ -3341,8 +3437,9 @@
       <c r="AA69" s="1"/>
       <c r="AB69" s="1"/>
       <c r="AC69" s="1"/>
-    </row>
-    <row r="70" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD69" s="1"/>
+    </row>
+    <row r="70" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A70" s="1"/>
       <c r="B70" s="10">
         <f t="shared" si="0"/>
@@ -3361,8 +3458,8 @@
         <v>14</v>
       </c>
       <c r="G70" s="11"/>
-      <c r="H70" s="10"/>
-      <c r="I70" s="1"/>
+      <c r="H70" s="11"/>
+      <c r="I70" s="10"/>
       <c r="J70" s="1"/>
       <c r="K70" s="1"/>
       <c r="L70" s="1"/>
@@ -3383,8 +3480,9 @@
       <c r="AA70" s="1"/>
       <c r="AB70" s="1"/>
       <c r="AC70" s="1"/>
-    </row>
-    <row r="71" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD70" s="1"/>
+    </row>
+    <row r="71" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A71" s="1"/>
       <c r="B71" s="10">
         <f t="shared" si="0"/>
@@ -3403,8 +3501,8 @@
         <v>17</v>
       </c>
       <c r="G71" s="11"/>
-      <c r="H71" s="10"/>
-      <c r="I71" s="1"/>
+      <c r="H71" s="11"/>
+      <c r="I71" s="10"/>
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>
       <c r="L71" s="1"/>
@@ -3425,8 +3523,9 @@
       <c r="AA71" s="1"/>
       <c r="AB71" s="1"/>
       <c r="AC71" s="1"/>
-    </row>
-    <row r="72" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD71" s="1"/>
+    </row>
+    <row r="72" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A72" s="1"/>
       <c r="B72" s="10">
         <f t="shared" si="0"/>
@@ -3441,8 +3540,8 @@
       <c r="E72" s="7"/>
       <c r="F72" s="11"/>
       <c r="G72" s="11"/>
-      <c r="H72" s="10"/>
-      <c r="I72" s="1"/>
+      <c r="H72" s="11"/>
+      <c r="I72" s="10"/>
       <c r="J72" s="1"/>
       <c r="K72" s="1"/>
       <c r="L72" s="1"/>
@@ -3463,8 +3562,9 @@
       <c r="AA72" s="1"/>
       <c r="AB72" s="1"/>
       <c r="AC72" s="1"/>
-    </row>
-    <row r="73" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD72" s="1"/>
+    </row>
+    <row r="73" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A73" s="1"/>
       <c r="B73" s="10">
         <f t="shared" si="0"/>
@@ -3479,8 +3579,8 @@
       <c r="E73" s="7"/>
       <c r="F73" s="11"/>
       <c r="G73" s="11"/>
-      <c r="H73" s="10"/>
-      <c r="I73" s="1"/>
+      <c r="H73" s="11"/>
+      <c r="I73" s="10"/>
       <c r="J73" s="1"/>
       <c r="K73" s="1"/>
       <c r="L73" s="1"/>
@@ -3501,8 +3601,9 @@
       <c r="AA73" s="1"/>
       <c r="AB73" s="1"/>
       <c r="AC73" s="1"/>
-    </row>
-    <row r="74" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD73" s="1"/>
+    </row>
+    <row r="74" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A74" s="1"/>
       <c r="B74" s="10">
         <f t="shared" si="0"/>
@@ -3519,8 +3620,8 @@
       </c>
       <c r="F74" s="11"/>
       <c r="G74" s="11"/>
-      <c r="H74" s="10"/>
-      <c r="I74" s="1"/>
+      <c r="H74" s="11"/>
+      <c r="I74" s="10"/>
       <c r="J74" s="1"/>
       <c r="K74" s="1"/>
       <c r="L74" s="1"/>
@@ -3541,8 +3642,9 @@
       <c r="AA74" s="1"/>
       <c r="AB74" s="1"/>
       <c r="AC74" s="1"/>
-    </row>
-    <row r="75" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD74" s="1"/>
+    </row>
+    <row r="75" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A75" s="1"/>
       <c r="B75" s="10">
         <f t="shared" si="0"/>
@@ -3557,8 +3659,8 @@
       <c r="E75" s="7"/>
       <c r="F75" s="11"/>
       <c r="G75" s="11"/>
-      <c r="H75" s="10"/>
-      <c r="I75" s="1"/>
+      <c r="H75" s="11"/>
+      <c r="I75" s="10"/>
       <c r="J75" s="1"/>
       <c r="K75" s="1"/>
       <c r="L75" s="1"/>
@@ -3579,8 +3681,9 @@
       <c r="AA75" s="1"/>
       <c r="AB75" s="1"/>
       <c r="AC75" s="1"/>
-    </row>
-    <row r="76" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD75" s="1"/>
+    </row>
+    <row r="76" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A76" s="1"/>
       <c r="B76" s="10">
         <f t="shared" si="0"/>
@@ -3597,8 +3700,8 @@
       </c>
       <c r="F76" s="11"/>
       <c r="G76" s="11"/>
-      <c r="H76" s="10"/>
-      <c r="I76" s="1"/>
+      <c r="H76" s="11"/>
+      <c r="I76" s="10"/>
       <c r="J76" s="1"/>
       <c r="K76" s="1"/>
       <c r="L76" s="1"/>
@@ -3619,8 +3722,9 @@
       <c r="AA76" s="1"/>
       <c r="AB76" s="1"/>
       <c r="AC76" s="1"/>
-    </row>
-    <row r="77" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD76" s="1"/>
+    </row>
+    <row r="77" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A77" s="1"/>
       <c r="B77" s="10">
         <f t="shared" si="0"/>
@@ -3635,8 +3739,8 @@
       <c r="E77" s="7"/>
       <c r="F77" s="11"/>
       <c r="G77" s="11"/>
-      <c r="H77" s="10"/>
-      <c r="I77" s="1"/>
+      <c r="H77" s="11"/>
+      <c r="I77" s="10"/>
       <c r="J77" s="1"/>
       <c r="K77" s="1"/>
       <c r="L77" s="1"/>
@@ -3657,8 +3761,9 @@
       <c r="AA77" s="1"/>
       <c r="AB77" s="1"/>
       <c r="AC77" s="1"/>
-    </row>
-    <row r="78" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD77" s="1"/>
+    </row>
+    <row r="78" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A78" s="1"/>
       <c r="B78" s="10">
         <f t="shared" si="0"/>
@@ -3675,8 +3780,8 @@
       </c>
       <c r="F78" s="11"/>
       <c r="G78" s="11"/>
-      <c r="H78" s="10"/>
-      <c r="I78" s="1"/>
+      <c r="H78" s="11"/>
+      <c r="I78" s="10"/>
       <c r="J78" s="1"/>
       <c r="K78" s="1"/>
       <c r="L78" s="1"/>
@@ -3697,8 +3802,9 @@
       <c r="AA78" s="1"/>
       <c r="AB78" s="1"/>
       <c r="AC78" s="1"/>
-    </row>
-    <row r="79" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD78" s="1"/>
+    </row>
+    <row r="79" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A79" s="1"/>
       <c r="B79" s="10">
         <f t="shared" si="0"/>
@@ -3713,8 +3819,8 @@
       <c r="E79" s="7"/>
       <c r="F79" s="11"/>
       <c r="G79" s="11"/>
-      <c r="H79" s="10"/>
-      <c r="I79" s="1"/>
+      <c r="H79" s="11"/>
+      <c r="I79" s="10"/>
       <c r="J79" s="1"/>
       <c r="K79" s="1"/>
       <c r="L79" s="1"/>
@@ -3735,8 +3841,9 @@
       <c r="AA79" s="1"/>
       <c r="AB79" s="1"/>
       <c r="AC79" s="1"/>
-    </row>
-    <row r="80" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD79" s="1"/>
+    </row>
+    <row r="80" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A80" s="1"/>
       <c r="B80" s="10">
         <f t="shared" si="0"/>
@@ -3753,8 +3860,8 @@
       </c>
       <c r="F80" s="11"/>
       <c r="G80" s="11"/>
-      <c r="H80" s="10"/>
-      <c r="I80" s="1"/>
+      <c r="H80" s="11"/>
+      <c r="I80" s="10"/>
       <c r="J80" s="1"/>
       <c r="K80" s="1"/>
       <c r="L80" s="1"/>
@@ -3775,8 +3882,9 @@
       <c r="AA80" s="1"/>
       <c r="AB80" s="1"/>
       <c r="AC80" s="1"/>
-    </row>
-    <row r="81" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD80" s="1"/>
+    </row>
+    <row r="81" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A81" s="1"/>
       <c r="B81" s="10">
         <f t="shared" si="0"/>
@@ -3793,8 +3901,8 @@
       </c>
       <c r="F81" s="11"/>
       <c r="G81" s="11"/>
-      <c r="H81" s="10"/>
-      <c r="I81" s="1"/>
+      <c r="H81" s="11"/>
+      <c r="I81" s="10"/>
       <c r="J81" s="1"/>
       <c r="K81" s="1"/>
       <c r="L81" s="1"/>
@@ -3815,8 +3923,9 @@
       <c r="AA81" s="1"/>
       <c r="AB81" s="1"/>
       <c r="AC81" s="1"/>
-    </row>
-    <row r="82" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD81" s="1"/>
+    </row>
+    <row r="82" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A82" s="1"/>
       <c r="B82" s="10">
         <f t="shared" si="0"/>
@@ -3833,8 +3942,8 @@
       </c>
       <c r="F82" s="11"/>
       <c r="G82" s="11"/>
-      <c r="H82" s="10"/>
-      <c r="I82" s="1"/>
+      <c r="H82" s="11"/>
+      <c r="I82" s="10"/>
       <c r="J82" s="1"/>
       <c r="K82" s="1"/>
       <c r="L82" s="1"/>
@@ -3855,8 +3964,9 @@
       <c r="AA82" s="1"/>
       <c r="AB82" s="1"/>
       <c r="AC82" s="1"/>
-    </row>
-    <row r="83" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD82" s="1"/>
+    </row>
+    <row r="83" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A83" s="1"/>
       <c r="B83" s="10">
         <f t="shared" si="0"/>
@@ -3871,8 +3981,8 @@
       <c r="E83" s="7"/>
       <c r="F83" s="11"/>
       <c r="G83" s="11"/>
-      <c r="H83" s="10"/>
-      <c r="I83" s="1"/>
+      <c r="H83" s="11"/>
+      <c r="I83" s="10"/>
       <c r="J83" s="1"/>
       <c r="K83" s="1"/>
       <c r="L83" s="1"/>
@@ -3893,8 +4003,9 @@
       <c r="AA83" s="1"/>
       <c r="AB83" s="1"/>
       <c r="AC83" s="1"/>
-    </row>
-    <row r="84" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD83" s="1"/>
+    </row>
+    <row r="84" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A84" s="1"/>
       <c r="B84" s="10">
         <f t="shared" si="0"/>
@@ -3911,8 +4022,8 @@
       </c>
       <c r="F84" s="11"/>
       <c r="G84" s="11"/>
-      <c r="H84" s="10"/>
-      <c r="I84" s="1"/>
+      <c r="H84" s="11"/>
+      <c r="I84" s="10"/>
       <c r="J84" s="1"/>
       <c r="K84" s="1"/>
       <c r="L84" s="1"/>
@@ -3933,8 +4044,9 @@
       <c r="AA84" s="1"/>
       <c r="AB84" s="1"/>
       <c r="AC84" s="1"/>
-    </row>
-    <row r="85" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD84" s="1"/>
+    </row>
+    <row r="85" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A85" s="1"/>
       <c r="B85" s="10">
         <f t="shared" si="0"/>
@@ -3951,8 +4063,8 @@
       </c>
       <c r="F85" s="11"/>
       <c r="G85" s="11"/>
-      <c r="H85" s="10"/>
-      <c r="I85" s="1"/>
+      <c r="H85" s="11"/>
+      <c r="I85" s="10"/>
       <c r="J85" s="1"/>
       <c r="K85" s="1"/>
       <c r="L85" s="1"/>
@@ -3973,8 +4085,9 @@
       <c r="AA85" s="1"/>
       <c r="AB85" s="1"/>
       <c r="AC85" s="1"/>
-    </row>
-    <row r="86" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD85" s="1"/>
+    </row>
+    <row r="86" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A86" s="1"/>
       <c r="B86" s="10">
         <f t="shared" si="0"/>
@@ -3989,8 +4102,8 @@
       <c r="E86" s="7"/>
       <c r="F86" s="11"/>
       <c r="G86" s="11"/>
-      <c r="H86" s="10"/>
-      <c r="I86" s="1"/>
+      <c r="H86" s="11"/>
+      <c r="I86" s="10"/>
       <c r="J86" s="1"/>
       <c r="K86" s="1"/>
       <c r="L86" s="1"/>
@@ -4011,8 +4124,9 @@
       <c r="AA86" s="1"/>
       <c r="AB86" s="1"/>
       <c r="AC86" s="1"/>
-    </row>
-    <row r="87" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD86" s="1"/>
+    </row>
+    <row r="87" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A87" s="1"/>
       <c r="B87" s="10">
         <f t="shared" si="0"/>
@@ -4029,8 +4143,8 @@
       </c>
       <c r="F87" s="11"/>
       <c r="G87" s="11"/>
-      <c r="H87" s="10"/>
-      <c r="I87" s="1"/>
+      <c r="H87" s="11"/>
+      <c r="I87" s="10"/>
       <c r="J87" s="1"/>
       <c r="K87" s="1"/>
       <c r="L87" s="1"/>
@@ -4051,8 +4165,9 @@
       <c r="AA87" s="1"/>
       <c r="AB87" s="1"/>
       <c r="AC87" s="1"/>
-    </row>
-    <row r="88" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD87" s="1"/>
+    </row>
+    <row r="88" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A88" s="1"/>
       <c r="B88" s="10">
         <f t="shared" si="0"/>
@@ -4069,8 +4184,8 @@
       </c>
       <c r="F88" s="11"/>
       <c r="G88" s="11"/>
-      <c r="H88" s="10"/>
-      <c r="I88" s="1"/>
+      <c r="H88" s="11"/>
+      <c r="I88" s="10"/>
       <c r="J88" s="1"/>
       <c r="K88" s="1"/>
       <c r="L88" s="1"/>
@@ -4091,8 +4206,9 @@
       <c r="AA88" s="1"/>
       <c r="AB88" s="1"/>
       <c r="AC88" s="1"/>
-    </row>
-    <row r="89" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD88" s="1"/>
+    </row>
+    <row r="89" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A89" s="1"/>
       <c r="B89" s="10">
         <f t="shared" si="0"/>
@@ -4109,8 +4225,8 @@
       </c>
       <c r="F89" s="11"/>
       <c r="G89" s="11"/>
-      <c r="H89" s="10"/>
-      <c r="I89" s="1"/>
+      <c r="H89" s="11"/>
+      <c r="I89" s="10"/>
       <c r="J89" s="1"/>
       <c r="K89" s="1"/>
       <c r="L89" s="1"/>
@@ -4131,8 +4247,9 @@
       <c r="AA89" s="1"/>
       <c r="AB89" s="1"/>
       <c r="AC89" s="1"/>
-    </row>
-    <row r="90" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD89" s="1"/>
+    </row>
+    <row r="90" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A90" s="1"/>
       <c r="B90" s="10">
         <f t="shared" si="0"/>
@@ -4147,8 +4264,8 @@
       <c r="E90" s="7"/>
       <c r="F90" s="11"/>
       <c r="G90" s="11"/>
-      <c r="H90" s="10"/>
-      <c r="I90" s="1"/>
+      <c r="H90" s="11"/>
+      <c r="I90" s="10"/>
       <c r="J90" s="1"/>
       <c r="K90" s="1"/>
       <c r="L90" s="1"/>
@@ -4169,8 +4286,9 @@
       <c r="AA90" s="1"/>
       <c r="AB90" s="1"/>
       <c r="AC90" s="1"/>
-    </row>
-    <row r="91" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD90" s="1"/>
+    </row>
+    <row r="91" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A91" s="1"/>
       <c r="B91" s="10">
         <f t="shared" si="0"/>
@@ -4185,8 +4303,8 @@
       <c r="E91" s="7"/>
       <c r="F91" s="11"/>
       <c r="G91" s="11"/>
-      <c r="H91" s="10"/>
-      <c r="I91" s="1"/>
+      <c r="H91" s="11"/>
+      <c r="I91" s="10"/>
       <c r="J91" s="1"/>
       <c r="K91" s="1"/>
       <c r="L91" s="1"/>
@@ -4207,8 +4325,9 @@
       <c r="AA91" s="1"/>
       <c r="AB91" s="1"/>
       <c r="AC91" s="1"/>
-    </row>
-    <row r="92" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD91" s="1"/>
+    </row>
+    <row r="92" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A92" s="1"/>
       <c r="B92" s="10">
         <f t="shared" si="0"/>
@@ -4225,8 +4344,8 @@
       </c>
       <c r="F92" s="11"/>
       <c r="G92" s="11"/>
-      <c r="H92" s="10"/>
-      <c r="I92" s="1"/>
+      <c r="H92" s="11"/>
+      <c r="I92" s="10"/>
       <c r="J92" s="1"/>
       <c r="K92" s="1"/>
       <c r="L92" s="1"/>
@@ -4247,8 +4366,9 @@
       <c r="AA92" s="1"/>
       <c r="AB92" s="1"/>
       <c r="AC92" s="1"/>
-    </row>
-    <row r="93" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD92" s="1"/>
+    </row>
+    <row r="93" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A93" s="1"/>
       <c r="B93" s="10">
         <f t="shared" si="0"/>
@@ -4263,8 +4383,8 @@
       <c r="E93" s="7"/>
       <c r="F93" s="11"/>
       <c r="G93" s="11"/>
-      <c r="H93" s="10"/>
-      <c r="I93" s="1"/>
+      <c r="H93" s="11"/>
+      <c r="I93" s="10"/>
       <c r="J93" s="1"/>
       <c r="K93" s="1"/>
       <c r="L93" s="1"/>
@@ -4285,8 +4405,9 @@
       <c r="AA93" s="1"/>
       <c r="AB93" s="1"/>
       <c r="AC93" s="1"/>
-    </row>
-    <row r="94" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="AD93" s="1"/>
+    </row>
+    <row r="94" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A94" s="1"/>
       <c r="B94" s="10">
         <f t="shared" si="0"/>
@@ -4304,9 +4425,11 @@
       <c r="F94" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G94" s="11"/>
-      <c r="H94" s="10"/>
-      <c r="I94" s="1"/>
+      <c r="G94" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H94" s="11"/>
+      <c r="I94" s="10"/>
       <c r="J94" s="1"/>
       <c r="K94" s="1"/>
       <c r="L94" s="1"/>
@@ -4327,8 +4450,9 @@
       <c r="AA94" s="1"/>
       <c r="AB94" s="1"/>
       <c r="AC94" s="1"/>
-    </row>
-    <row r="95" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD94" s="1"/>
+    </row>
+    <row r="95" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A95" s="1"/>
       <c r="B95" s="10">
         <f t="shared" si="0"/>
@@ -4345,8 +4469,8 @@
       </c>
       <c r="F95" s="11"/>
       <c r="G95" s="11"/>
-      <c r="H95" s="10"/>
-      <c r="I95" s="1"/>
+      <c r="H95" s="11"/>
+      <c r="I95" s="10"/>
       <c r="J95" s="1"/>
       <c r="K95" s="1"/>
       <c r="L95" s="1"/>
@@ -4367,8 +4491,9 @@
       <c r="AA95" s="1"/>
       <c r="AB95" s="1"/>
       <c r="AC95" s="1"/>
-    </row>
-    <row r="96" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD95" s="1"/>
+    </row>
+    <row r="96" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A96" s="1"/>
       <c r="B96" s="10">
         <f t="shared" si="0"/>
@@ -4385,8 +4510,8 @@
       </c>
       <c r="F96" s="11"/>
       <c r="G96" s="11"/>
-      <c r="H96" s="10"/>
-      <c r="I96" s="1"/>
+      <c r="H96" s="11"/>
+      <c r="I96" s="10"/>
       <c r="J96" s="1"/>
       <c r="K96" s="1"/>
       <c r="L96" s="1"/>
@@ -4407,8 +4532,9 @@
       <c r="AA96" s="1"/>
       <c r="AB96" s="1"/>
       <c r="AC96" s="1"/>
-    </row>
-    <row r="97" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD96" s="1"/>
+    </row>
+    <row r="97" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A97" s="1"/>
       <c r="B97" s="10">
         <f t="shared" si="0"/>
@@ -4423,8 +4549,8 @@
       <c r="E97" s="7"/>
       <c r="F97" s="11"/>
       <c r="G97" s="11"/>
-      <c r="H97" s="10"/>
-      <c r="I97" s="1"/>
+      <c r="H97" s="11"/>
+      <c r="I97" s="10"/>
       <c r="J97" s="1"/>
       <c r="K97" s="1"/>
       <c r="L97" s="1"/>
@@ -4445,8 +4571,9 @@
       <c r="AA97" s="1"/>
       <c r="AB97" s="1"/>
       <c r="AC97" s="1"/>
-    </row>
-    <row r="98" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD97" s="1"/>
+    </row>
+    <row r="98" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A98" s="1"/>
       <c r="B98" s="10">
         <f t="shared" si="0"/>
@@ -4463,8 +4590,8 @@
       </c>
       <c r="F98" s="11"/>
       <c r="G98" s="11"/>
-      <c r="H98" s="10"/>
-      <c r="I98" s="1"/>
+      <c r="H98" s="11"/>
+      <c r="I98" s="10"/>
       <c r="J98" s="1"/>
       <c r="K98" s="1"/>
       <c r="L98" s="1"/>
@@ -4485,8 +4612,9 @@
       <c r="AA98" s="1"/>
       <c r="AB98" s="1"/>
       <c r="AC98" s="1"/>
-    </row>
-    <row r="99" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD98" s="1"/>
+    </row>
+    <row r="99" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A99" s="1"/>
       <c r="B99" s="10">
         <f t="shared" si="0"/>
@@ -4503,8 +4631,8 @@
       </c>
       <c r="F99" s="11"/>
       <c r="G99" s="11"/>
-      <c r="H99" s="10"/>
-      <c r="I99" s="1"/>
+      <c r="H99" s="11"/>
+      <c r="I99" s="10"/>
       <c r="J99" s="1"/>
       <c r="K99" s="1"/>
       <c r="L99" s="1"/>
@@ -4525,8 +4653,9 @@
       <c r="AA99" s="1"/>
       <c r="AB99" s="1"/>
       <c r="AC99" s="1"/>
-    </row>
-    <row r="100" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD99" s="1"/>
+    </row>
+    <row r="100" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A100" s="1"/>
       <c r="B100" s="10">
         <f t="shared" si="0"/>
@@ -4539,8 +4668,8 @@
       <c r="E100" s="7"/>
       <c r="F100" s="11"/>
       <c r="G100" s="11"/>
-      <c r="H100" s="10"/>
-      <c r="I100" s="1"/>
+      <c r="H100" s="11"/>
+      <c r="I100" s="10"/>
       <c r="J100" s="1"/>
       <c r="K100" s="1"/>
       <c r="L100" s="1"/>
@@ -4561,8 +4690,9 @@
       <c r="AA100" s="1"/>
       <c r="AB100" s="1"/>
       <c r="AC100" s="1"/>
-    </row>
-    <row r="101" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD100" s="1"/>
+    </row>
+    <row r="101" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A101" s="1"/>
       <c r="B101" s="10">
         <f t="shared" si="0"/>
@@ -4579,8 +4709,8 @@
       </c>
       <c r="F101" s="11"/>
       <c r="G101" s="11"/>
-      <c r="H101" s="10"/>
-      <c r="I101" s="1"/>
+      <c r="H101" s="11"/>
+      <c r="I101" s="10"/>
       <c r="J101" s="1"/>
       <c r="K101" s="1"/>
       <c r="L101" s="1"/>
@@ -4601,8 +4731,9 @@
       <c r="AA101" s="1"/>
       <c r="AB101" s="1"/>
       <c r="AC101" s="1"/>
-    </row>
-    <row r="102" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD101" s="1"/>
+    </row>
+    <row r="102" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A102" s="1"/>
       <c r="B102" s="10">
         <f t="shared" si="0"/>
@@ -4619,8 +4750,8 @@
       </c>
       <c r="F102" s="11"/>
       <c r="G102" s="11"/>
-      <c r="H102" s="10"/>
-      <c r="I102" s="1"/>
+      <c r="H102" s="11"/>
+      <c r="I102" s="10"/>
       <c r="J102" s="1"/>
       <c r="K102" s="1"/>
       <c r="L102" s="1"/>
@@ -4641,8 +4772,9 @@
       <c r="AA102" s="1"/>
       <c r="AB102" s="1"/>
       <c r="AC102" s="1"/>
-    </row>
-    <row r="103" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD102" s="1"/>
+    </row>
+    <row r="103" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A103" s="1"/>
       <c r="B103" s="10">
         <f t="shared" si="0"/>
@@ -4659,8 +4791,8 @@
       </c>
       <c r="F103" s="11"/>
       <c r="G103" s="11"/>
-      <c r="H103" s="10"/>
-      <c r="I103" s="1"/>
+      <c r="H103" s="11"/>
+      <c r="I103" s="10"/>
       <c r="J103" s="1"/>
       <c r="K103" s="1"/>
       <c r="L103" s="1"/>
@@ -4681,8 +4813,9 @@
       <c r="AA103" s="1"/>
       <c r="AB103" s="1"/>
       <c r="AC103" s="1"/>
-    </row>
-    <row r="104" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD103" s="1"/>
+    </row>
+    <row r="104" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A104" s="1"/>
       <c r="B104" s="10">
         <f t="shared" si="0"/>
@@ -4699,8 +4832,8 @@
       </c>
       <c r="F104" s="11"/>
       <c r="G104" s="11"/>
-      <c r="H104" s="10"/>
-      <c r="I104" s="1"/>
+      <c r="H104" s="11"/>
+      <c r="I104" s="10"/>
       <c r="J104" s="1"/>
       <c r="K104" s="1"/>
       <c r="L104" s="1"/>
@@ -4721,8 +4854,9 @@
       <c r="AA104" s="1"/>
       <c r="AB104" s="1"/>
       <c r="AC104" s="1"/>
-    </row>
-    <row r="105" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD104" s="1"/>
+    </row>
+    <row r="105" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A105" s="1"/>
       <c r="B105" s="10">
         <f t="shared" si="0"/>
@@ -4739,8 +4873,8 @@
       </c>
       <c r="F105" s="11"/>
       <c r="G105" s="11"/>
-      <c r="H105" s="10"/>
-      <c r="I105" s="1"/>
+      <c r="H105" s="11"/>
+      <c r="I105" s="10"/>
       <c r="J105" s="1"/>
       <c r="K105" s="1"/>
       <c r="L105" s="1"/>
@@ -4761,8 +4895,9 @@
       <c r="AA105" s="1"/>
       <c r="AB105" s="1"/>
       <c r="AC105" s="1"/>
-    </row>
-    <row r="106" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD105" s="1"/>
+    </row>
+    <row r="106" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A106" s="1"/>
       <c r="B106" s="10">
         <f t="shared" si="0"/>
@@ -4777,8 +4912,8 @@
       <c r="E106" s="7"/>
       <c r="F106" s="11"/>
       <c r="G106" s="11"/>
-      <c r="H106" s="10"/>
-      <c r="I106" s="1"/>
+      <c r="H106" s="11"/>
+      <c r="I106" s="10"/>
       <c r="J106" s="1"/>
       <c r="K106" s="1"/>
       <c r="L106" s="1"/>
@@ -4799,8 +4934,9 @@
       <c r="AA106" s="1"/>
       <c r="AB106" s="1"/>
       <c r="AC106" s="1"/>
-    </row>
-    <row r="107" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD106" s="1"/>
+    </row>
+    <row r="107" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A107" s="1"/>
       <c r="B107" s="10">
         <f t="shared" si="0"/>
@@ -4817,8 +4953,8 @@
       </c>
       <c r="F107" s="11"/>
       <c r="G107" s="11"/>
-      <c r="H107" s="10"/>
-      <c r="I107" s="1"/>
+      <c r="H107" s="11"/>
+      <c r="I107" s="10"/>
       <c r="J107" s="1"/>
       <c r="K107" s="1"/>
       <c r="L107" s="1"/>
@@ -4839,8 +4975,9 @@
       <c r="AA107" s="1"/>
       <c r="AB107" s="1"/>
       <c r="AC107" s="1"/>
-    </row>
-    <row r="108" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD107" s="1"/>
+    </row>
+    <row r="108" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A108" s="1"/>
       <c r="B108" s="10">
         <f t="shared" si="0"/>
@@ -4857,8 +4994,8 @@
       </c>
       <c r="F108" s="11"/>
       <c r="G108" s="11"/>
-      <c r="H108" s="10"/>
-      <c r="I108" s="1"/>
+      <c r="H108" s="11"/>
+      <c r="I108" s="10"/>
       <c r="J108" s="1"/>
       <c r="K108" s="1"/>
       <c r="L108" s="1"/>
@@ -4879,8 +5016,9 @@
       <c r="AA108" s="1"/>
       <c r="AB108" s="1"/>
       <c r="AC108" s="1"/>
-    </row>
-    <row r="109" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD108" s="1"/>
+    </row>
+    <row r="109" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A109" s="1"/>
       <c r="B109" s="10">
         <f t="shared" si="0"/>
@@ -4893,8 +5031,8 @@
       <c r="E109" s="7"/>
       <c r="F109" s="11"/>
       <c r="G109" s="11"/>
-      <c r="H109" s="10"/>
-      <c r="I109" s="1"/>
+      <c r="H109" s="11"/>
+      <c r="I109" s="10"/>
       <c r="J109" s="1"/>
       <c r="K109" s="1"/>
       <c r="L109" s="1"/>
@@ -4915,8 +5053,9 @@
       <c r="AA109" s="1"/>
       <c r="AB109" s="1"/>
       <c r="AC109" s="1"/>
-    </row>
-    <row r="110" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD109" s="1"/>
+    </row>
+    <row r="110" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A110" s="1"/>
       <c r="B110" s="10">
         <f t="shared" si="0"/>
@@ -4935,8 +5074,8 @@
         <v>14</v>
       </c>
       <c r="G110" s="11"/>
-      <c r="H110" s="10"/>
-      <c r="I110" s="1"/>
+      <c r="H110" s="11"/>
+      <c r="I110" s="10"/>
       <c r="J110" s="1"/>
       <c r="K110" s="1"/>
       <c r="L110" s="1"/>
@@ -4957,8 +5096,9 @@
       <c r="AA110" s="1"/>
       <c r="AB110" s="1"/>
       <c r="AC110" s="1"/>
-    </row>
-    <row r="111" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD110" s="1"/>
+    </row>
+    <row r="111" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A111" s="1"/>
       <c r="B111" s="10">
         <f t="shared" si="0"/>
@@ -4975,8 +5115,8 @@
       </c>
       <c r="F111" s="11"/>
       <c r="G111" s="11"/>
-      <c r="H111" s="10"/>
-      <c r="I111" s="1"/>
+      <c r="H111" s="11"/>
+      <c r="I111" s="10"/>
       <c r="J111" s="1"/>
       <c r="K111" s="1"/>
       <c r="L111" s="1"/>
@@ -4997,8 +5137,9 @@
       <c r="AA111" s="1"/>
       <c r="AB111" s="1"/>
       <c r="AC111" s="1"/>
-    </row>
-    <row r="112" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD111" s="1"/>
+    </row>
+    <row r="112" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A112" s="1"/>
       <c r="B112" s="10">
         <f t="shared" si="0"/>
@@ -5013,8 +5154,8 @@
       <c r="E112" s="7"/>
       <c r="F112" s="11"/>
       <c r="G112" s="11"/>
-      <c r="H112" s="10"/>
-      <c r="I112" s="1"/>
+      <c r="H112" s="11"/>
+      <c r="I112" s="10"/>
       <c r="J112" s="1"/>
       <c r="K112" s="1"/>
       <c r="L112" s="1"/>
@@ -5035,8 +5176,9 @@
       <c r="AA112" s="1"/>
       <c r="AB112" s="1"/>
       <c r="AC112" s="1"/>
-    </row>
-    <row r="113" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD112" s="1"/>
+    </row>
+    <row r="113" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A113" s="1"/>
       <c r="B113" s="10">
         <f t="shared" si="0"/>
@@ -5049,8 +5191,8 @@
       <c r="E113" s="7"/>
       <c r="F113" s="11"/>
       <c r="G113" s="11"/>
-      <c r="H113" s="10"/>
-      <c r="I113" s="1"/>
+      <c r="H113" s="11"/>
+      <c r="I113" s="10"/>
       <c r="J113" s="1"/>
       <c r="K113" s="1"/>
       <c r="L113" s="1"/>
@@ -5071,8 +5213,9 @@
       <c r="AA113" s="1"/>
       <c r="AB113" s="1"/>
       <c r="AC113" s="1"/>
-    </row>
-    <row r="114" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD113" s="1"/>
+    </row>
+    <row r="114" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A114" s="1"/>
       <c r="B114" s="10">
         <f t="shared" si="0"/>
@@ -5085,8 +5228,8 @@
       <c r="E114" s="7"/>
       <c r="F114" s="11"/>
       <c r="G114" s="11"/>
-      <c r="H114" s="10"/>
-      <c r="I114" s="1"/>
+      <c r="H114" s="11"/>
+      <c r="I114" s="10"/>
       <c r="J114" s="1"/>
       <c r="K114" s="1"/>
       <c r="L114" s="1"/>
@@ -5107,8 +5250,9 @@
       <c r="AA114" s="1"/>
       <c r="AB114" s="1"/>
       <c r="AC114" s="1"/>
-    </row>
-    <row r="115" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD114" s="1"/>
+    </row>
+    <row r="115" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A115" s="1"/>
       <c r="B115" s="10">
         <f t="shared" si="0"/>
@@ -5125,8 +5269,8 @@
       </c>
       <c r="F115" s="11"/>
       <c r="G115" s="11"/>
-      <c r="H115" s="10"/>
-      <c r="I115" s="1"/>
+      <c r="H115" s="11"/>
+      <c r="I115" s="10"/>
       <c r="J115" s="1"/>
       <c r="K115" s="1"/>
       <c r="L115" s="1"/>
@@ -5147,8 +5291,9 @@
       <c r="AA115" s="1"/>
       <c r="AB115" s="1"/>
       <c r="AC115" s="1"/>
-    </row>
-    <row r="116" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD115" s="1"/>
+    </row>
+    <row r="116" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A116" s="1"/>
       <c r="B116" s="10">
         <f t="shared" si="0"/>
@@ -5165,8 +5310,8 @@
       </c>
       <c r="F116" s="11"/>
       <c r="G116" s="11"/>
-      <c r="H116" s="10"/>
-      <c r="I116" s="1"/>
+      <c r="H116" s="11"/>
+      <c r="I116" s="10"/>
       <c r="J116" s="1"/>
       <c r="K116" s="1"/>
       <c r="L116" s="1"/>
@@ -5187,8 +5332,9 @@
       <c r="AA116" s="1"/>
       <c r="AB116" s="1"/>
       <c r="AC116" s="1"/>
-    </row>
-    <row r="117" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD116" s="1"/>
+    </row>
+    <row r="117" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A117" s="1"/>
       <c r="B117" s="10">
         <f t="shared" si="0"/>
@@ -5205,8 +5351,8 @@
       </c>
       <c r="F117" s="11"/>
       <c r="G117" s="11"/>
-      <c r="H117" s="10"/>
-      <c r="I117" s="1"/>
+      <c r="H117" s="11"/>
+      <c r="I117" s="10"/>
       <c r="J117" s="1"/>
       <c r="K117" s="1"/>
       <c r="L117" s="1"/>
@@ -5227,8 +5373,9 @@
       <c r="AA117" s="1"/>
       <c r="AB117" s="1"/>
       <c r="AC117" s="1"/>
-    </row>
-    <row r="118" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="AD117" s="1"/>
+    </row>
+    <row r="118" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A118" s="1"/>
       <c r="B118" s="10">
         <f t="shared" si="0"/>
@@ -5246,9 +5393,11 @@
       <c r="F118" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G118" s="11"/>
-      <c r="H118" s="10"/>
-      <c r="I118" s="1"/>
+      <c r="G118" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H118" s="11"/>
+      <c r="I118" s="10"/>
       <c r="J118" s="1"/>
       <c r="K118" s="1"/>
       <c r="L118" s="1"/>
@@ -5269,8 +5418,9 @@
       <c r="AA118" s="1"/>
       <c r="AB118" s="1"/>
       <c r="AC118" s="1"/>
-    </row>
-    <row r="119" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="AD118" s="1"/>
+    </row>
+    <row r="119" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A119" s="1"/>
       <c r="B119" s="10">
         <f t="shared" si="0"/>
@@ -5288,9 +5438,11 @@
       <c r="F119" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G119" s="11"/>
-      <c r="H119" s="10"/>
-      <c r="I119" s="1"/>
+      <c r="G119" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="H119" s="11"/>
+      <c r="I119" s="10"/>
       <c r="J119" s="1"/>
       <c r="K119" s="1"/>
       <c r="L119" s="1"/>
@@ -5311,8 +5463,9 @@
       <c r="AA119" s="1"/>
       <c r="AB119" s="1"/>
       <c r="AC119" s="1"/>
-    </row>
-    <row r="120" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD119" s="1"/>
+    </row>
+    <row r="120" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A120" s="1"/>
       <c r="B120" s="10">
         <f t="shared" si="0"/>
@@ -5329,8 +5482,8 @@
       </c>
       <c r="F120" s="11"/>
       <c r="G120" s="11"/>
-      <c r="H120" s="10"/>
-      <c r="I120" s="1"/>
+      <c r="H120" s="11"/>
+      <c r="I120" s="10"/>
       <c r="J120" s="1"/>
       <c r="K120" s="1"/>
       <c r="L120" s="1"/>
@@ -5351,8 +5504,9 @@
       <c r="AA120" s="1"/>
       <c r="AB120" s="1"/>
       <c r="AC120" s="1"/>
-    </row>
-    <row r="121" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD120" s="1"/>
+    </row>
+    <row r="121" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A121" s="1"/>
       <c r="B121" s="10">
         <f t="shared" si="0"/>
@@ -5369,8 +5523,8 @@
       </c>
       <c r="F121" s="11"/>
       <c r="G121" s="11"/>
-      <c r="H121" s="10"/>
-      <c r="I121" s="1"/>
+      <c r="H121" s="11"/>
+      <c r="I121" s="10"/>
       <c r="J121" s="1"/>
       <c r="K121" s="1"/>
       <c r="L121" s="1"/>
@@ -5391,8 +5545,9 @@
       <c r="AA121" s="1"/>
       <c r="AB121" s="1"/>
       <c r="AC121" s="1"/>
-    </row>
-    <row r="122" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD121" s="1"/>
+    </row>
+    <row r="122" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A122" s="1"/>
       <c r="B122" s="10">
         <f t="shared" si="0"/>
@@ -5409,8 +5564,8 @@
       </c>
       <c r="F122" s="11"/>
       <c r="G122" s="11"/>
-      <c r="H122" s="10"/>
-      <c r="I122" s="1"/>
+      <c r="H122" s="11"/>
+      <c r="I122" s="10"/>
       <c r="J122" s="1"/>
       <c r="K122" s="1"/>
       <c r="L122" s="1"/>
@@ -5431,8 +5586,9 @@
       <c r="AA122" s="1"/>
       <c r="AB122" s="1"/>
       <c r="AC122" s="1"/>
-    </row>
-    <row r="123" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD122" s="1"/>
+    </row>
+    <row r="123" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A123" s="1"/>
       <c r="B123" s="10">
         <f t="shared" si="0"/>
@@ -5449,8 +5605,8 @@
       </c>
       <c r="F123" s="11"/>
       <c r="G123" s="11"/>
-      <c r="H123" s="10"/>
-      <c r="I123" s="1"/>
+      <c r="H123" s="11"/>
+      <c r="I123" s="10"/>
       <c r="J123" s="1"/>
       <c r="K123" s="1"/>
       <c r="L123" s="1"/>
@@ -5471,8 +5627,9 @@
       <c r="AA123" s="1"/>
       <c r="AB123" s="1"/>
       <c r="AC123" s="1"/>
-    </row>
-    <row r="124" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD123" s="1"/>
+    </row>
+    <row r="124" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A124" s="1"/>
       <c r="B124" s="10">
         <f t="shared" si="0"/>
@@ -5485,8 +5642,8 @@
       <c r="E124" s="7"/>
       <c r="F124" s="11"/>
       <c r="G124" s="11"/>
-      <c r="H124" s="10"/>
-      <c r="I124" s="1"/>
+      <c r="H124" s="11"/>
+      <c r="I124" s="10"/>
       <c r="J124" s="1"/>
       <c r="K124" s="1"/>
       <c r="L124" s="1"/>
@@ -5507,8 +5664,9 @@
       <c r="AA124" s="1"/>
       <c r="AB124" s="1"/>
       <c r="AC124" s="1"/>
-    </row>
-    <row r="125" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD124" s="1"/>
+    </row>
+    <row r="125" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A125" s="1"/>
       <c r="B125" s="10">
         <f t="shared" si="0"/>
@@ -5527,8 +5685,8 @@
         <v>14</v>
       </c>
       <c r="G125" s="11"/>
-      <c r="H125" s="10"/>
-      <c r="I125" s="1"/>
+      <c r="H125" s="11"/>
+      <c r="I125" s="10"/>
       <c r="J125" s="1"/>
       <c r="K125" s="1"/>
       <c r="L125" s="1"/>
@@ -5549,8 +5707,9 @@
       <c r="AA125" s="1"/>
       <c r="AB125" s="1"/>
       <c r="AC125" s="1"/>
-    </row>
-    <row r="126" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD125" s="1"/>
+    </row>
+    <row r="126" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A126" s="1"/>
       <c r="B126" s="10">
         <f t="shared" si="0"/>
@@ -5567,8 +5726,8 @@
       </c>
       <c r="F126" s="11"/>
       <c r="G126" s="11"/>
-      <c r="H126" s="10"/>
-      <c r="I126" s="1"/>
+      <c r="H126" s="11"/>
+      <c r="I126" s="10"/>
       <c r="J126" s="1"/>
       <c r="K126" s="1"/>
       <c r="L126" s="1"/>
@@ -5589,8 +5748,9 @@
       <c r="AA126" s="1"/>
       <c r="AB126" s="1"/>
       <c r="AC126" s="1"/>
-    </row>
-    <row r="127" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD126" s="1"/>
+    </row>
+    <row r="127" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A127" s="1"/>
       <c r="B127" s="10">
         <f t="shared" si="0"/>
@@ -5605,8 +5765,8 @@
       <c r="E127" s="7"/>
       <c r="F127" s="11"/>
       <c r="G127" s="11"/>
-      <c r="H127" s="10"/>
-      <c r="I127" s="1"/>
+      <c r="H127" s="11"/>
+      <c r="I127" s="10"/>
       <c r="J127" s="1"/>
       <c r="K127" s="1"/>
       <c r="L127" s="1"/>
@@ -5627,8 +5787,9 @@
       <c r="AA127" s="1"/>
       <c r="AB127" s="1"/>
       <c r="AC127" s="1"/>
-    </row>
-    <row r="128" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD127" s="1"/>
+    </row>
+    <row r="128" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A128" s="1"/>
       <c r="B128" s="10">
         <f t="shared" si="0"/>
@@ -5645,8 +5806,8 @@
       </c>
       <c r="F128" s="11"/>
       <c r="G128" s="11"/>
-      <c r="H128" s="10"/>
-      <c r="I128" s="1"/>
+      <c r="H128" s="11"/>
+      <c r="I128" s="10"/>
       <c r="J128" s="1"/>
       <c r="K128" s="1"/>
       <c r="L128" s="1"/>
@@ -5667,8 +5828,9 @@
       <c r="AA128" s="1"/>
       <c r="AB128" s="1"/>
       <c r="AC128" s="1"/>
-    </row>
-    <row r="129" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD128" s="1"/>
+    </row>
+    <row r="129" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A129" s="1"/>
       <c r="B129" s="10">
         <f t="shared" si="0"/>
@@ -5687,8 +5849,8 @@
         <v>14</v>
       </c>
       <c r="G129" s="11"/>
-      <c r="H129" s="10"/>
-      <c r="I129" s="1"/>
+      <c r="H129" s="11"/>
+      <c r="I129" s="10"/>
       <c r="J129" s="1"/>
       <c r="K129" s="1"/>
       <c r="L129" s="1"/>
@@ -5709,8 +5871,9 @@
       <c r="AA129" s="1"/>
       <c r="AB129" s="1"/>
       <c r="AC129" s="1"/>
-    </row>
-    <row r="130" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD129" s="1"/>
+    </row>
+    <row r="130" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A130" s="1"/>
       <c r="B130" s="10">
         <f t="shared" si="0"/>
@@ -5729,8 +5892,8 @@
         <v>14</v>
       </c>
       <c r="G130" s="11"/>
-      <c r="H130" s="10"/>
-      <c r="I130" s="1"/>
+      <c r="H130" s="11"/>
+      <c r="I130" s="10"/>
       <c r="J130" s="1"/>
       <c r="K130" s="1"/>
       <c r="L130" s="1"/>
@@ -5751,8 +5914,9 @@
       <c r="AA130" s="1"/>
       <c r="AB130" s="1"/>
       <c r="AC130" s="1"/>
-    </row>
-    <row r="131" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD130" s="1"/>
+    </row>
+    <row r="131" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A131" s="1"/>
       <c r="B131" s="10">
         <f t="shared" si="0"/>
@@ -5769,8 +5933,8 @@
       </c>
       <c r="F131" s="11"/>
       <c r="G131" s="11"/>
-      <c r="H131" s="10"/>
-      <c r="I131" s="1"/>
+      <c r="H131" s="11"/>
+      <c r="I131" s="10"/>
       <c r="J131" s="1"/>
       <c r="K131" s="1"/>
       <c r="L131" s="1"/>
@@ -5791,8 +5955,9 @@
       <c r="AA131" s="1"/>
       <c r="AB131" s="1"/>
       <c r="AC131" s="1"/>
-    </row>
-    <row r="132" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD131" s="1"/>
+    </row>
+    <row r="132" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A132" s="1"/>
       <c r="B132" s="10">
         <f t="shared" si="0"/>
@@ -5807,8 +5972,8 @@
       <c r="E132" s="7"/>
       <c r="F132" s="11"/>
       <c r="G132" s="11"/>
-      <c r="H132" s="10"/>
-      <c r="I132" s="1"/>
+      <c r="H132" s="11"/>
+      <c r="I132" s="10"/>
       <c r="J132" s="1"/>
       <c r="K132" s="1"/>
       <c r="L132" s="1"/>
@@ -5829,8 +5994,9 @@
       <c r="AA132" s="1"/>
       <c r="AB132" s="1"/>
       <c r="AC132" s="1"/>
-    </row>
-    <row r="133" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD132" s="1"/>
+    </row>
+    <row r="133" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A133" s="1"/>
       <c r="B133" s="10">
         <f t="shared" si="0"/>
@@ -5847,8 +6013,8 @@
       </c>
       <c r="F133" s="11"/>
       <c r="G133" s="11"/>
-      <c r="H133" s="10"/>
-      <c r="I133" s="1"/>
+      <c r="H133" s="11"/>
+      <c r="I133" s="10"/>
       <c r="J133" s="1"/>
       <c r="K133" s="1"/>
       <c r="L133" s="1"/>
@@ -5869,8 +6035,9 @@
       <c r="AA133" s="1"/>
       <c r="AB133" s="1"/>
       <c r="AC133" s="1"/>
-    </row>
-    <row r="134" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD133" s="1"/>
+    </row>
+    <row r="134" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A134" s="1"/>
       <c r="B134" s="10">
         <f t="shared" si="0"/>
@@ -5887,8 +6054,8 @@
       </c>
       <c r="F134" s="11"/>
       <c r="G134" s="11"/>
-      <c r="H134" s="10"/>
-      <c r="I134" s="1"/>
+      <c r="H134" s="11"/>
+      <c r="I134" s="10"/>
       <c r="J134" s="1"/>
       <c r="K134" s="1"/>
       <c r="L134" s="1"/>
@@ -5909,8 +6076,9 @@
       <c r="AA134" s="1"/>
       <c r="AB134" s="1"/>
       <c r="AC134" s="1"/>
-    </row>
-    <row r="135" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD134" s="1"/>
+    </row>
+    <row r="135" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A135" s="1"/>
       <c r="B135" s="10">
         <f t="shared" si="0"/>
@@ -5929,8 +6097,8 @@
         <v>14</v>
       </c>
       <c r="G135" s="11"/>
-      <c r="H135" s="10"/>
-      <c r="I135" s="1"/>
+      <c r="H135" s="11"/>
+      <c r="I135" s="10"/>
       <c r="J135" s="1"/>
       <c r="K135" s="1"/>
       <c r="L135" s="1"/>
@@ -5951,8 +6119,9 @@
       <c r="AA135" s="1"/>
       <c r="AB135" s="1"/>
       <c r="AC135" s="1"/>
-    </row>
-    <row r="136" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD135" s="1"/>
+    </row>
+    <row r="136" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A136" s="1"/>
       <c r="B136" s="10">
         <f t="shared" si="0"/>
@@ -5967,8 +6136,8 @@
       <c r="E136" s="7"/>
       <c r="F136" s="11"/>
       <c r="G136" s="11"/>
-      <c r="H136" s="10"/>
-      <c r="I136" s="1"/>
+      <c r="H136" s="11"/>
+      <c r="I136" s="10"/>
       <c r="J136" s="1"/>
       <c r="K136" s="1"/>
       <c r="L136" s="1"/>
@@ -5989,8 +6158,9 @@
       <c r="AA136" s="1"/>
       <c r="AB136" s="1"/>
       <c r="AC136" s="1"/>
-    </row>
-    <row r="137" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD136" s="1"/>
+    </row>
+    <row r="137" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A137" s="1"/>
       <c r="B137" s="10">
         <f t="shared" si="0"/>
@@ -6007,8 +6177,8 @@
       </c>
       <c r="F137" s="11"/>
       <c r="G137" s="11"/>
-      <c r="H137" s="10"/>
-      <c r="I137" s="1"/>
+      <c r="H137" s="11"/>
+      <c r="I137" s="10"/>
       <c r="J137" s="1"/>
       <c r="K137" s="1"/>
       <c r="L137" s="1"/>
@@ -6029,8 +6199,9 @@
       <c r="AA137" s="1"/>
       <c r="AB137" s="1"/>
       <c r="AC137" s="1"/>
-    </row>
-    <row r="138" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD137" s="1"/>
+    </row>
+    <row r="138" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A138" s="1"/>
       <c r="B138" s="10">
         <f t="shared" si="0"/>
@@ -6045,8 +6216,8 @@
       <c r="E138" s="7"/>
       <c r="F138" s="11"/>
       <c r="G138" s="11"/>
-      <c r="H138" s="10"/>
-      <c r="I138" s="1"/>
+      <c r="H138" s="11"/>
+      <c r="I138" s="10"/>
       <c r="J138" s="1"/>
       <c r="K138" s="1"/>
       <c r="L138" s="1"/>
@@ -6067,8 +6238,9 @@
       <c r="AA138" s="1"/>
       <c r="AB138" s="1"/>
       <c r="AC138" s="1"/>
-    </row>
-    <row r="139" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD138" s="1"/>
+    </row>
+    <row r="139" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A139" s="1"/>
       <c r="B139" s="10">
         <f t="shared" si="0"/>
@@ -6085,8 +6257,8 @@
       </c>
       <c r="F139" s="11"/>
       <c r="G139" s="11"/>
-      <c r="H139" s="10"/>
-      <c r="I139" s="1"/>
+      <c r="H139" s="11"/>
+      <c r="I139" s="10"/>
       <c r="J139" s="1"/>
       <c r="K139" s="1"/>
       <c r="L139" s="1"/>
@@ -6107,8 +6279,9 @@
       <c r="AA139" s="1"/>
       <c r="AB139" s="1"/>
       <c r="AC139" s="1"/>
-    </row>
-    <row r="140" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD139" s="1"/>
+    </row>
+    <row r="140" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A140" s="1"/>
       <c r="B140" s="10">
         <f t="shared" si="0"/>
@@ -6125,8 +6298,8 @@
       </c>
       <c r="F140" s="11"/>
       <c r="G140" s="11"/>
-      <c r="H140" s="10"/>
-      <c r="I140" s="1"/>
+      <c r="H140" s="11"/>
+      <c r="I140" s="10"/>
       <c r="J140" s="1"/>
       <c r="K140" s="1"/>
       <c r="L140" s="1"/>
@@ -6147,8 +6320,9 @@
       <c r="AA140" s="1"/>
       <c r="AB140" s="1"/>
       <c r="AC140" s="1"/>
-    </row>
-    <row r="141" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD140" s="1"/>
+    </row>
+    <row r="141" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A141" s="1"/>
       <c r="B141" s="10">
         <f t="shared" si="0"/>
@@ -6165,8 +6339,8 @@
       </c>
       <c r="F141" s="11"/>
       <c r="G141" s="11"/>
-      <c r="H141" s="10"/>
-      <c r="I141" s="1"/>
+      <c r="H141" s="11"/>
+      <c r="I141" s="10"/>
       <c r="J141" s="1"/>
       <c r="K141" s="1"/>
       <c r="L141" s="1"/>
@@ -6187,8 +6361,9 @@
       <c r="AA141" s="1"/>
       <c r="AB141" s="1"/>
       <c r="AC141" s="1"/>
-    </row>
-    <row r="142" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD141" s="1"/>
+    </row>
+    <row r="142" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A142" s="1"/>
       <c r="B142" s="10">
         <f t="shared" si="0"/>
@@ -6205,8 +6380,8 @@
       </c>
       <c r="F142" s="11"/>
       <c r="G142" s="11"/>
-      <c r="H142" s="10"/>
-      <c r="I142" s="1"/>
+      <c r="H142" s="11"/>
+      <c r="I142" s="10"/>
       <c r="J142" s="1"/>
       <c r="K142" s="1"/>
       <c r="L142" s="1"/>
@@ -6227,8 +6402,9 @@
       <c r="AA142" s="1"/>
       <c r="AB142" s="1"/>
       <c r="AC142" s="1"/>
-    </row>
-    <row r="143" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD142" s="1"/>
+    </row>
+    <row r="143" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A143" s="1"/>
       <c r="B143" s="10">
         <f t="shared" si="0"/>
@@ -6245,8 +6421,8 @@
       </c>
       <c r="F143" s="11"/>
       <c r="G143" s="11"/>
-      <c r="H143" s="10"/>
-      <c r="I143" s="1"/>
+      <c r="H143" s="11"/>
+      <c r="I143" s="10"/>
       <c r="J143" s="1"/>
       <c r="K143" s="1"/>
       <c r="L143" s="1"/>
@@ -6267,8 +6443,9 @@
       <c r="AA143" s="1"/>
       <c r="AB143" s="1"/>
       <c r="AC143" s="1"/>
-    </row>
-    <row r="144" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD143" s="1"/>
+    </row>
+    <row r="144" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A144" s="1"/>
       <c r="B144" s="10">
         <f t="shared" si="0"/>
@@ -6281,8 +6458,8 @@
       <c r="E144" s="7"/>
       <c r="F144" s="11"/>
       <c r="G144" s="11"/>
-      <c r="H144" s="10"/>
-      <c r="I144" s="1"/>
+      <c r="H144" s="11"/>
+      <c r="I144" s="10"/>
       <c r="J144" s="1"/>
       <c r="K144" s="1"/>
       <c r="L144" s="1"/>
@@ -6303,8 +6480,9 @@
       <c r="AA144" s="1"/>
       <c r="AB144" s="1"/>
       <c r="AC144" s="1"/>
-    </row>
-    <row r="145" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD144" s="1"/>
+    </row>
+    <row r="145" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A145" s="1"/>
       <c r="B145" s="10">
         <f t="shared" si="0"/>
@@ -6321,8 +6499,8 @@
       </c>
       <c r="F145" s="11"/>
       <c r="G145" s="11"/>
-      <c r="H145" s="10"/>
-      <c r="I145" s="1"/>
+      <c r="H145" s="11"/>
+      <c r="I145" s="10"/>
       <c r="J145" s="1"/>
       <c r="K145" s="1"/>
       <c r="L145" s="1"/>
@@ -6343,8 +6521,9 @@
       <c r="AA145" s="1"/>
       <c r="AB145" s="1"/>
       <c r="AC145" s="1"/>
-    </row>
-    <row r="146" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD145" s="1"/>
+    </row>
+    <row r="146" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A146" s="1"/>
       <c r="B146" s="10">
         <f t="shared" si="0"/>
@@ -6361,8 +6540,8 @@
       </c>
       <c r="F146" s="11"/>
       <c r="G146" s="11"/>
-      <c r="H146" s="10"/>
-      <c r="I146" s="1"/>
+      <c r="H146" s="11"/>
+      <c r="I146" s="10"/>
       <c r="J146" s="1"/>
       <c r="K146" s="1"/>
       <c r="L146" s="1"/>
@@ -6383,8 +6562,9 @@
       <c r="AA146" s="1"/>
       <c r="AB146" s="1"/>
       <c r="AC146" s="1"/>
-    </row>
-    <row r="147" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD146" s="1"/>
+    </row>
+    <row r="147" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A147" s="1"/>
       <c r="B147" s="10">
         <f t="shared" si="0"/>
@@ -6403,8 +6583,8 @@
         <v>14</v>
       </c>
       <c r="G147" s="11"/>
-      <c r="H147" s="10"/>
-      <c r="I147" s="1"/>
+      <c r="H147" s="11"/>
+      <c r="I147" s="10"/>
       <c r="J147" s="1"/>
       <c r="K147" s="1"/>
       <c r="L147" s="1"/>
@@ -6425,8 +6605,9 @@
       <c r="AA147" s="1"/>
       <c r="AB147" s="1"/>
       <c r="AC147" s="1"/>
-    </row>
-    <row r="148" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD147" s="1"/>
+    </row>
+    <row r="148" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A148" s="1"/>
       <c r="B148" s="10">
         <f t="shared" si="0"/>
@@ -6441,8 +6622,8 @@
       <c r="E148" s="7"/>
       <c r="F148" s="11"/>
       <c r="G148" s="11"/>
-      <c r="H148" s="10"/>
-      <c r="I148" s="1"/>
+      <c r="H148" s="11"/>
+      <c r="I148" s="10"/>
       <c r="J148" s="1"/>
       <c r="K148" s="1"/>
       <c r="L148" s="1"/>
@@ -6463,8 +6644,9 @@
       <c r="AA148" s="1"/>
       <c r="AB148" s="1"/>
       <c r="AC148" s="1"/>
-    </row>
-    <row r="149" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD148" s="1"/>
+    </row>
+    <row r="149" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A149" s="1"/>
       <c r="B149" s="10">
         <f t="shared" si="0"/>
@@ -6477,8 +6659,8 @@
       <c r="E149" s="13"/>
       <c r="F149" s="11"/>
       <c r="G149" s="11"/>
-      <c r="H149" s="10"/>
-      <c r="I149" s="1"/>
+      <c r="H149" s="11"/>
+      <c r="I149" s="10"/>
       <c r="J149" s="1"/>
       <c r="K149" s="1"/>
       <c r="L149" s="1"/>
@@ -6499,8 +6681,9 @@
       <c r="AA149" s="1"/>
       <c r="AB149" s="1"/>
       <c r="AC149" s="1"/>
-    </row>
-    <row r="150" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD149" s="1"/>
+    </row>
+    <row r="150" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A150" s="1"/>
       <c r="B150" s="10">
         <f t="shared" si="0"/>
@@ -6517,8 +6700,8 @@
       </c>
       <c r="F150" s="11"/>
       <c r="G150" s="11"/>
-      <c r="H150" s="10"/>
-      <c r="I150" s="1"/>
+      <c r="H150" s="11"/>
+      <c r="I150" s="10"/>
       <c r="J150" s="1"/>
       <c r="K150" s="1"/>
       <c r="L150" s="1"/>
@@ -6539,8 +6722,9 @@
       <c r="AA150" s="1"/>
       <c r="AB150" s="1"/>
       <c r="AC150" s="1"/>
-    </row>
-    <row r="151" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD150" s="1"/>
+    </row>
+    <row r="151" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A151" s="1"/>
       <c r="B151" s="10">
         <f t="shared" si="0"/>
@@ -6557,8 +6741,8 @@
       </c>
       <c r="F151" s="14"/>
       <c r="G151" s="11"/>
-      <c r="H151" s="10"/>
-      <c r="I151" s="1"/>
+      <c r="H151" s="11"/>
+      <c r="I151" s="10"/>
       <c r="J151" s="1"/>
       <c r="K151" s="1"/>
       <c r="L151" s="1"/>
@@ -6579,8 +6763,9 @@
       <c r="AA151" s="1"/>
       <c r="AB151" s="1"/>
       <c r="AC151" s="1"/>
-    </row>
-    <row r="152" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD151" s="1"/>
+    </row>
+    <row r="152" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A152" s="1"/>
       <c r="B152" s="10">
         <f t="shared" si="0"/>
@@ -6597,8 +6782,8 @@
       </c>
       <c r="F152" s="11"/>
       <c r="G152" s="11"/>
-      <c r="H152" s="10"/>
-      <c r="I152" s="1"/>
+      <c r="H152" s="11"/>
+      <c r="I152" s="10"/>
       <c r="J152" s="1"/>
       <c r="K152" s="1"/>
       <c r="L152" s="1"/>
@@ -6619,8 +6804,9 @@
       <c r="AA152" s="1"/>
       <c r="AB152" s="1"/>
       <c r="AC152" s="1"/>
-    </row>
-    <row r="153" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD152" s="1"/>
+    </row>
+    <row r="153" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A153" s="1"/>
       <c r="B153" s="10">
         <f t="shared" si="0"/>
@@ -6639,8 +6825,8 @@
         <v>14</v>
       </c>
       <c r="G153" s="11"/>
-      <c r="H153" s="10"/>
-      <c r="I153" s="1"/>
+      <c r="H153" s="11"/>
+      <c r="I153" s="10"/>
       <c r="J153" s="1"/>
       <c r="K153" s="1"/>
       <c r="L153" s="1"/>
@@ -6661,8 +6847,9 @@
       <c r="AA153" s="1"/>
       <c r="AB153" s="1"/>
       <c r="AC153" s="1"/>
-    </row>
-    <row r="154" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD153" s="1"/>
+    </row>
+    <row r="154" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A154" s="1"/>
       <c r="B154" s="10">
         <f t="shared" si="0"/>
@@ -6679,8 +6866,8 @@
       </c>
       <c r="F154" s="11"/>
       <c r="G154" s="11"/>
-      <c r="H154" s="10"/>
-      <c r="I154" s="1"/>
+      <c r="H154" s="11"/>
+      <c r="I154" s="10"/>
       <c r="J154" s="1"/>
       <c r="K154" s="1"/>
       <c r="L154" s="1"/>
@@ -6701,8 +6888,9 @@
       <c r="AA154" s="1"/>
       <c r="AB154" s="1"/>
       <c r="AC154" s="1"/>
-    </row>
-    <row r="155" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD154" s="1"/>
+    </row>
+    <row r="155" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A155" s="1"/>
       <c r="B155" s="10">
         <f t="shared" si="0"/>
@@ -6717,8 +6905,8 @@
       <c r="E155" s="7"/>
       <c r="F155" s="11"/>
       <c r="G155" s="11"/>
-      <c r="H155" s="10"/>
-      <c r="I155" s="1"/>
+      <c r="H155" s="11"/>
+      <c r="I155" s="10"/>
       <c r="J155" s="1"/>
       <c r="K155" s="1"/>
       <c r="L155" s="1"/>
@@ -6739,8 +6927,9 @@
       <c r="AA155" s="1"/>
       <c r="AB155" s="1"/>
       <c r="AC155" s="1"/>
-    </row>
-    <row r="156" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD155" s="1"/>
+    </row>
+    <row r="156" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A156" s="1"/>
       <c r="B156" s="10">
         <f t="shared" si="0"/>
@@ -6753,8 +6942,8 @@
       <c r="E156" s="7"/>
       <c r="F156" s="11"/>
       <c r="G156" s="11"/>
-      <c r="H156" s="10"/>
-      <c r="I156" s="1"/>
+      <c r="H156" s="11"/>
+      <c r="I156" s="10"/>
       <c r="J156" s="1"/>
       <c r="K156" s="1"/>
       <c r="L156" s="1"/>
@@ -6775,8 +6964,9 @@
       <c r="AA156" s="1"/>
       <c r="AB156" s="1"/>
       <c r="AC156" s="1"/>
-    </row>
-    <row r="157" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD156" s="1"/>
+    </row>
+    <row r="157" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A157" s="1"/>
       <c r="B157" s="10">
         <f t="shared" si="0"/>
@@ -6789,8 +6979,8 @@
       <c r="E157" s="7"/>
       <c r="F157" s="11"/>
       <c r="G157" s="11"/>
-      <c r="H157" s="10"/>
-      <c r="I157" s="1"/>
+      <c r="H157" s="11"/>
+      <c r="I157" s="10"/>
       <c r="J157" s="1"/>
       <c r="K157" s="1"/>
       <c r="L157" s="1"/>
@@ -6811,8 +7001,9 @@
       <c r="AA157" s="1"/>
       <c r="AB157" s="1"/>
       <c r="AC157" s="1"/>
-    </row>
-    <row r="158" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD157" s="1"/>
+    </row>
+    <row r="158" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A158" s="1"/>
       <c r="B158" s="10">
         <f t="shared" si="0"/>
@@ -6831,8 +7022,8 @@
         <v>17</v>
       </c>
       <c r="G158" s="11"/>
-      <c r="H158" s="10"/>
-      <c r="I158" s="1"/>
+      <c r="H158" s="11"/>
+      <c r="I158" s="10"/>
       <c r="J158" s="1"/>
       <c r="K158" s="1"/>
       <c r="L158" s="1"/>
@@ -6853,8 +7044,9 @@
       <c r="AA158" s="1"/>
       <c r="AB158" s="1"/>
       <c r="AC158" s="1"/>
-    </row>
-    <row r="159" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="AD158" s="1"/>
+    </row>
+    <row r="159" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A159" s="1"/>
       <c r="B159" s="10">
         <f t="shared" si="0"/>
@@ -6872,9 +7064,11 @@
       <c r="F159" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="G159" s="11"/>
-      <c r="H159" s="10"/>
-      <c r="I159" s="1"/>
+      <c r="G159" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="H159" s="11"/>
+      <c r="I159" s="10"/>
       <c r="J159" s="1"/>
       <c r="K159" s="1"/>
       <c r="L159" s="1"/>
@@ -6895,8 +7089,9 @@
       <c r="AA159" s="1"/>
       <c r="AB159" s="1"/>
       <c r="AC159" s="1"/>
-    </row>
-    <row r="160" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="AD159" s="1"/>
+    </row>
+    <row r="160" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A160" s="1"/>
       <c r="B160" s="10">
         <f t="shared" si="0"/>
@@ -6914,9 +7109,11 @@
       <c r="F160" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="G160" s="11"/>
-      <c r="H160" s="10"/>
-      <c r="I160" s="1"/>
+      <c r="G160" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H160" s="11"/>
+      <c r="I160" s="10"/>
       <c r="J160" s="1"/>
       <c r="K160" s="1"/>
       <c r="L160" s="1"/>
@@ -6937,8 +7134,9 @@
       <c r="AA160" s="1"/>
       <c r="AB160" s="1"/>
       <c r="AC160" s="1"/>
-    </row>
-    <row r="161" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD160" s="1"/>
+    </row>
+    <row r="161" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A161" s="1"/>
       <c r="B161" s="10">
         <f t="shared" si="0"/>
@@ -6953,8 +7151,8 @@
       <c r="E161" s="7"/>
       <c r="F161" s="11"/>
       <c r="G161" s="11"/>
-      <c r="H161" s="10"/>
-      <c r="I161" s="1"/>
+      <c r="H161" s="11"/>
+      <c r="I161" s="10"/>
       <c r="J161" s="1"/>
       <c r="K161" s="1"/>
       <c r="L161" s="1"/>
@@ -6975,8 +7173,9 @@
       <c r="AA161" s="1"/>
       <c r="AB161" s="1"/>
       <c r="AC161" s="1"/>
-    </row>
-    <row r="162" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD161" s="1"/>
+    </row>
+    <row r="162" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A162" s="1"/>
       <c r="B162" s="10">
         <f t="shared" si="0"/>
@@ -6991,8 +7190,8 @@
       <c r="E162" s="7"/>
       <c r="F162" s="11"/>
       <c r="G162" s="11"/>
-      <c r="H162" s="10"/>
-      <c r="I162" s="1"/>
+      <c r="H162" s="11"/>
+      <c r="I162" s="10"/>
       <c r="J162" s="1"/>
       <c r="K162" s="1"/>
       <c r="L162" s="1"/>
@@ -7013,8 +7212,9 @@
       <c r="AA162" s="1"/>
       <c r="AB162" s="1"/>
       <c r="AC162" s="1"/>
-    </row>
-    <row r="163" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD162" s="1"/>
+    </row>
+    <row r="163" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A163" s="1"/>
       <c r="B163" s="10">
         <f t="shared" si="0"/>
@@ -7031,8 +7231,8 @@
       </c>
       <c r="F163" s="11"/>
       <c r="G163" s="11"/>
-      <c r="H163" s="10"/>
-      <c r="I163" s="1"/>
+      <c r="H163" s="11"/>
+      <c r="I163" s="10"/>
       <c r="J163" s="1"/>
       <c r="K163" s="1"/>
       <c r="L163" s="1"/>
@@ -7053,8 +7253,9 @@
       <c r="AA163" s="1"/>
       <c r="AB163" s="1"/>
       <c r="AC163" s="1"/>
-    </row>
-    <row r="164" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD163" s="1"/>
+    </row>
+    <row r="164" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A164" s="1"/>
       <c r="B164" s="10">
         <f t="shared" si="0"/>
@@ -7069,8 +7270,8 @@
       <c r="E164" s="7"/>
       <c r="F164" s="11"/>
       <c r="G164" s="11"/>
-      <c r="H164" s="10"/>
-      <c r="I164" s="1"/>
+      <c r="H164" s="11"/>
+      <c r="I164" s="10"/>
       <c r="J164" s="1"/>
       <c r="K164" s="1"/>
       <c r="L164" s="1"/>
@@ -7091,8 +7292,9 @@
       <c r="AA164" s="1"/>
       <c r="AB164" s="1"/>
       <c r="AC164" s="1"/>
-    </row>
-    <row r="165" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD164" s="1"/>
+    </row>
+    <row r="165" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A165" s="1"/>
       <c r="B165" s="10">
         <f t="shared" si="0"/>
@@ -7109,8 +7311,8 @@
       </c>
       <c r="F165" s="11"/>
       <c r="G165" s="11"/>
-      <c r="H165" s="10"/>
-      <c r="I165" s="1"/>
+      <c r="H165" s="11"/>
+      <c r="I165" s="10"/>
       <c r="J165" s="1"/>
       <c r="K165" s="1"/>
       <c r="L165" s="1"/>
@@ -7131,8 +7333,9 @@
       <c r="AA165" s="1"/>
       <c r="AB165" s="1"/>
       <c r="AC165" s="1"/>
-    </row>
-    <row r="166" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD165" s="1"/>
+    </row>
+    <row r="166" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A166" s="1"/>
       <c r="B166" s="10">
         <f t="shared" si="0"/>
@@ -7149,8 +7352,8 @@
       </c>
       <c r="F166" s="11"/>
       <c r="G166" s="11"/>
-      <c r="H166" s="10"/>
-      <c r="I166" s="1"/>
+      <c r="H166" s="11"/>
+      <c r="I166" s="10"/>
       <c r="J166" s="1"/>
       <c r="K166" s="1"/>
       <c r="L166" s="1"/>
@@ -7171,8 +7374,9 @@
       <c r="AA166" s="1"/>
       <c r="AB166" s="1"/>
       <c r="AC166" s="1"/>
-    </row>
-    <row r="167" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD166" s="1"/>
+    </row>
+    <row r="167" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A167" s="1"/>
       <c r="B167" s="10">
         <f t="shared" si="0"/>
@@ -7187,8 +7391,8 @@
       <c r="E167" s="7"/>
       <c r="F167" s="11"/>
       <c r="G167" s="11"/>
-      <c r="H167" s="10"/>
-      <c r="I167" s="1"/>
+      <c r="H167" s="11"/>
+      <c r="I167" s="10"/>
       <c r="J167" s="1"/>
       <c r="K167" s="1"/>
       <c r="L167" s="1"/>
@@ -7209,8 +7413,9 @@
       <c r="AA167" s="1"/>
       <c r="AB167" s="1"/>
       <c r="AC167" s="1"/>
-    </row>
-    <row r="168" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD167" s="1"/>
+    </row>
+    <row r="168" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A168" s="1"/>
       <c r="B168" s="10">
         <f t="shared" si="0"/>
@@ -7225,8 +7430,8 @@
       <c r="E168" s="7"/>
       <c r="F168" s="11"/>
       <c r="G168" s="11"/>
-      <c r="H168" s="10"/>
-      <c r="I168" s="1"/>
+      <c r="H168" s="11"/>
+      <c r="I168" s="10"/>
       <c r="J168" s="1"/>
       <c r="K168" s="1"/>
       <c r="L168" s="1"/>
@@ -7247,8 +7452,9 @@
       <c r="AA168" s="1"/>
       <c r="AB168" s="1"/>
       <c r="AC168" s="1"/>
-    </row>
-    <row r="169" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD168" s="1"/>
+    </row>
+    <row r="169" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A169" s="1"/>
       <c r="B169" s="10">
         <f t="shared" si="0"/>
@@ -7267,8 +7473,8 @@
         <v>14</v>
       </c>
       <c r="G169" s="11"/>
-      <c r="H169" s="10"/>
-      <c r="I169" s="1"/>
+      <c r="H169" s="11"/>
+      <c r="I169" s="10"/>
       <c r="J169" s="1"/>
       <c r="K169" s="1"/>
       <c r="L169" s="1"/>
@@ -7289,8 +7495,9 @@
       <c r="AA169" s="1"/>
       <c r="AB169" s="1"/>
       <c r="AC169" s="1"/>
-    </row>
-    <row r="170" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD169" s="1"/>
+    </row>
+    <row r="170" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A170" s="1"/>
       <c r="B170" s="10">
         <f t="shared" si="0"/>
@@ -7309,8 +7516,8 @@
         <v>14</v>
       </c>
       <c r="G170" s="11"/>
-      <c r="H170" s="10"/>
-      <c r="I170" s="1"/>
+      <c r="H170" s="11"/>
+      <c r="I170" s="10"/>
       <c r="J170" s="1"/>
       <c r="K170" s="1"/>
       <c r="L170" s="1"/>
@@ -7331,8 +7538,9 @@
       <c r="AA170" s="1"/>
       <c r="AB170" s="1"/>
       <c r="AC170" s="1"/>
-    </row>
-    <row r="171" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="AD170" s="1"/>
+    </row>
+    <row r="171" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A171" s="1"/>
       <c r="B171" s="10">
         <f t="shared" si="0"/>
@@ -7350,9 +7558,11 @@
       <c r="F171" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="G171" s="11"/>
-      <c r="H171" s="10"/>
-      <c r="I171" s="1"/>
+      <c r="G171" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="H171" s="11"/>
+      <c r="I171" s="10"/>
       <c r="J171" s="1"/>
       <c r="K171" s="1"/>
       <c r="L171" s="1"/>
@@ -7373,8 +7583,9 @@
       <c r="AA171" s="1"/>
       <c r="AB171" s="1"/>
       <c r="AC171" s="1"/>
-    </row>
-    <row r="172" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="AD171" s="1"/>
+    </row>
+    <row r="172" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A172" s="1"/>
       <c r="B172" s="10">
         <f t="shared" si="0"/>
@@ -7392,9 +7603,11 @@
       <c r="F172" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="G172" s="11"/>
-      <c r="H172" s="10"/>
-      <c r="I172" s="1"/>
+      <c r="G172" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="H172" s="11"/>
+      <c r="I172" s="10"/>
       <c r="J172" s="1"/>
       <c r="K172" s="1"/>
       <c r="L172" s="1"/>
@@ -7415,8 +7628,9 @@
       <c r="AA172" s="1"/>
       <c r="AB172" s="1"/>
       <c r="AC172" s="1"/>
-    </row>
-    <row r="173" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD172" s="1"/>
+    </row>
+    <row r="173" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A173" s="1"/>
       <c r="B173" s="10">
         <f t="shared" si="0"/>
@@ -7435,8 +7649,8 @@
         <v>14</v>
       </c>
       <c r="G173" s="11"/>
-      <c r="H173" s="10"/>
-      <c r="I173" s="1"/>
+      <c r="H173" s="11"/>
+      <c r="I173" s="10"/>
       <c r="J173" s="1"/>
       <c r="K173" s="1"/>
       <c r="L173" s="1"/>
@@ -7457,8 +7671,9 @@
       <c r="AA173" s="1"/>
       <c r="AB173" s="1"/>
       <c r="AC173" s="1"/>
-    </row>
-    <row r="174" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD173" s="1"/>
+    </row>
+    <row r="174" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A174" s="1"/>
       <c r="B174" s="10">
         <f t="shared" si="0"/>
@@ -7473,8 +7688,8 @@
       <c r="E174" s="7"/>
       <c r="F174" s="11"/>
       <c r="G174" s="11"/>
-      <c r="H174" s="10"/>
-      <c r="I174" s="1"/>
+      <c r="H174" s="11"/>
+      <c r="I174" s="10"/>
       <c r="J174" s="1"/>
       <c r="K174" s="1"/>
       <c r="L174" s="1"/>
@@ -7495,8 +7710,9 @@
       <c r="AA174" s="1"/>
       <c r="AB174" s="1"/>
       <c r="AC174" s="1"/>
-    </row>
-    <row r="175" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="AD174" s="1"/>
+    </row>
+    <row r="175" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A175" s="1"/>
       <c r="B175" s="10">
         <f t="shared" si="0"/>
@@ -7514,9 +7730,11 @@
       <c r="F175" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="G175" s="11"/>
-      <c r="H175" s="10"/>
-      <c r="I175" s="1"/>
+      <c r="G175" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H175" s="11"/>
+      <c r="I175" s="10"/>
       <c r="J175" s="1"/>
       <c r="K175" s="1"/>
       <c r="L175" s="1"/>
@@ -7537,8 +7755,9 @@
       <c r="AA175" s="1"/>
       <c r="AB175" s="1"/>
       <c r="AC175" s="1"/>
-    </row>
-    <row r="176" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD175" s="1"/>
+    </row>
+    <row r="176" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A176" s="1"/>
       <c r="B176" s="10">
         <f t="shared" si="0"/>
@@ -7557,8 +7776,8 @@
         <v>14</v>
       </c>
       <c r="G176" s="11"/>
-      <c r="H176" s="10"/>
-      <c r="I176" s="1"/>
+      <c r="H176" s="11"/>
+      <c r="I176" s="10"/>
       <c r="J176" s="1"/>
       <c r="K176" s="1"/>
       <c r="L176" s="1"/>
@@ -7579,8 +7798,9 @@
       <c r="AA176" s="1"/>
       <c r="AB176" s="1"/>
       <c r="AC176" s="1"/>
-    </row>
-    <row r="177" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD176" s="1"/>
+    </row>
+    <row r="177" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A177" s="1"/>
       <c r="B177" s="10">
         <f t="shared" si="0"/>
@@ -7597,8 +7817,8 @@
       </c>
       <c r="F177" s="11"/>
       <c r="G177" s="11"/>
-      <c r="H177" s="10"/>
-      <c r="I177" s="1"/>
+      <c r="H177" s="11"/>
+      <c r="I177" s="10"/>
       <c r="J177" s="1"/>
       <c r="K177" s="1"/>
       <c r="L177" s="1"/>
@@ -7619,8 +7839,9 @@
       <c r="AA177" s="1"/>
       <c r="AB177" s="1"/>
       <c r="AC177" s="1"/>
-    </row>
-    <row r="178" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD177" s="1"/>
+    </row>
+    <row r="178" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A178" s="1"/>
       <c r="B178" s="10">
         <f t="shared" si="0"/>
@@ -7635,8 +7856,8 @@
       <c r="E178" s="7"/>
       <c r="F178" s="11"/>
       <c r="G178" s="11"/>
-      <c r="H178" s="10"/>
-      <c r="I178" s="1"/>
+      <c r="H178" s="11"/>
+      <c r="I178" s="10"/>
       <c r="J178" s="1"/>
       <c r="K178" s="1"/>
       <c r="L178" s="1"/>
@@ -7657,8 +7878,9 @@
       <c r="AA178" s="1"/>
       <c r="AB178" s="1"/>
       <c r="AC178" s="1"/>
-    </row>
-    <row r="179" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD178" s="1"/>
+    </row>
+    <row r="179" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A179" s="1"/>
       <c r="B179" s="10">
         <f t="shared" si="0"/>
@@ -7677,8 +7899,8 @@
         <v>14</v>
       </c>
       <c r="G179" s="11"/>
-      <c r="H179" s="10"/>
-      <c r="I179" s="1"/>
+      <c r="H179" s="11"/>
+      <c r="I179" s="10"/>
       <c r="J179" s="1"/>
       <c r="K179" s="1"/>
       <c r="L179" s="1"/>
@@ -7699,8 +7921,9 @@
       <c r="AA179" s="1"/>
       <c r="AB179" s="1"/>
       <c r="AC179" s="1"/>
-    </row>
-    <row r="180" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD179" s="1"/>
+    </row>
+    <row r="180" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A180" s="1"/>
       <c r="B180" s="10">
         <f t="shared" si="0"/>
@@ -7715,8 +7938,8 @@
       <c r="E180" s="7"/>
       <c r="F180" s="11"/>
       <c r="G180" s="11"/>
-      <c r="H180" s="10"/>
-      <c r="I180" s="1"/>
+      <c r="H180" s="11"/>
+      <c r="I180" s="10"/>
       <c r="J180" s="1"/>
       <c r="K180" s="1"/>
       <c r="L180" s="1"/>
@@ -7737,8 +7960,9 @@
       <c r="AA180" s="1"/>
       <c r="AB180" s="1"/>
       <c r="AC180" s="1"/>
-    </row>
-    <row r="181" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD180" s="1"/>
+    </row>
+    <row r="181" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A181" s="1"/>
       <c r="B181" s="10">
         <f t="shared" si="0"/>
@@ -7751,8 +7975,8 @@
       <c r="E181" s="7"/>
       <c r="F181" s="11"/>
       <c r="G181" s="11"/>
-      <c r="H181" s="10"/>
-      <c r="I181" s="1"/>
+      <c r="H181" s="11"/>
+      <c r="I181" s="10"/>
       <c r="J181" s="1"/>
       <c r="K181" s="1"/>
       <c r="L181" s="1"/>
@@ -7773,8 +7997,9 @@
       <c r="AA181" s="1"/>
       <c r="AB181" s="1"/>
       <c r="AC181" s="1"/>
-    </row>
-    <row r="182" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD181" s="1"/>
+    </row>
+    <row r="182" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A182" s="1"/>
       <c r="B182" s="10">
         <f t="shared" si="0"/>
@@ -7791,8 +8016,8 @@
       </c>
       <c r="F182" s="11"/>
       <c r="G182" s="11"/>
-      <c r="H182" s="10"/>
-      <c r="I182" s="1"/>
+      <c r="H182" s="11"/>
+      <c r="I182" s="10"/>
       <c r="J182" s="1"/>
       <c r="K182" s="1"/>
       <c r="L182" s="1"/>
@@ -7813,8 +8038,9 @@
       <c r="AA182" s="1"/>
       <c r="AB182" s="1"/>
       <c r="AC182" s="1"/>
-    </row>
-    <row r="183" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="AD182" s="1"/>
+    </row>
+    <row r="183" spans="1:30" ht="16.5" x14ac:dyDescent="0.35">
       <c r="A183" s="1"/>
       <c r="B183" s="10">
         <f t="shared" si="0"/>
@@ -7832,9 +8058,11 @@
       <c r="F183" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="G183" s="11"/>
-      <c r="H183" s="10"/>
-      <c r="I183" s="1"/>
+      <c r="G183" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="H183" s="11"/>
+      <c r="I183" s="10"/>
       <c r="J183" s="1"/>
       <c r="K183" s="1"/>
       <c r="L183" s="1"/>
@@ -7855,8 +8083,9 @@
       <c r="AA183" s="1"/>
       <c r="AB183" s="1"/>
       <c r="AC183" s="1"/>
-    </row>
-    <row r="184" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD183" s="1"/>
+    </row>
+    <row r="184" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A184" s="1"/>
       <c r="B184" s="10">
         <f t="shared" si="0"/>
@@ -7875,8 +8104,8 @@
         <v>14</v>
       </c>
       <c r="G184" s="11"/>
-      <c r="H184" s="10"/>
-      <c r="I184" s="1"/>
+      <c r="H184" s="11"/>
+      <c r="I184" s="10"/>
       <c r="J184" s="1"/>
       <c r="K184" s="1"/>
       <c r="L184" s="1"/>
@@ -7897,8 +8126,9 @@
       <c r="AA184" s="1"/>
       <c r="AB184" s="1"/>
       <c r="AC184" s="1"/>
-    </row>
-    <row r="185" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD184" s="1"/>
+    </row>
+    <row r="185" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A185" s="1"/>
       <c r="B185" s="10">
         <f t="shared" si="0"/>
@@ -7913,8 +8143,8 @@
       <c r="E185" s="7"/>
       <c r="F185" s="11"/>
       <c r="G185" s="11"/>
-      <c r="H185" s="10"/>
-      <c r="I185" s="1"/>
+      <c r="H185" s="11"/>
+      <c r="I185" s="10"/>
       <c r="J185" s="1"/>
       <c r="K185" s="1"/>
       <c r="L185" s="1"/>
@@ -7935,8 +8165,9 @@
       <c r="AA185" s="1"/>
       <c r="AB185" s="1"/>
       <c r="AC185" s="1"/>
-    </row>
-    <row r="186" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD185" s="1"/>
+    </row>
+    <row r="186" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A186" s="1"/>
       <c r="B186" s="10">
         <f t="shared" si="0"/>
@@ -7955,8 +8186,8 @@
         <v>14</v>
       </c>
       <c r="G186" s="11"/>
-      <c r="H186" s="10"/>
-      <c r="I186" s="1"/>
+      <c r="H186" s="11"/>
+      <c r="I186" s="10"/>
       <c r="J186" s="1"/>
       <c r="K186" s="1"/>
       <c r="L186" s="1"/>
@@ -7977,8 +8208,9 @@
       <c r="AA186" s="1"/>
       <c r="AB186" s="1"/>
       <c r="AC186" s="1"/>
-    </row>
-    <row r="187" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD186" s="1"/>
+    </row>
+    <row r="187" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A187" s="1"/>
       <c r="B187" s="10">
         <f t="shared" si="0"/>
@@ -7995,8 +8227,8 @@
       </c>
       <c r="F187" s="11"/>
       <c r="G187" s="11"/>
-      <c r="H187" s="10"/>
-      <c r="I187" s="1"/>
+      <c r="H187" s="11"/>
+      <c r="I187" s="10"/>
       <c r="J187" s="1"/>
       <c r="K187" s="1"/>
       <c r="L187" s="1"/>
@@ -8017,8 +8249,9 @@
       <c r="AA187" s="1"/>
       <c r="AB187" s="1"/>
       <c r="AC187" s="1"/>
-    </row>
-    <row r="188" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD187" s="1"/>
+    </row>
+    <row r="188" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A188" s="1"/>
       <c r="B188" s="10">
         <f t="shared" si="0"/>
@@ -8035,8 +8268,8 @@
       </c>
       <c r="F188" s="11"/>
       <c r="G188" s="11"/>
-      <c r="H188" s="10"/>
-      <c r="I188" s="1"/>
+      <c r="H188" s="11"/>
+      <c r="I188" s="10"/>
       <c r="J188" s="1"/>
       <c r="K188" s="1"/>
       <c r="L188" s="1"/>
@@ -8057,8 +8290,9 @@
       <c r="AA188" s="1"/>
       <c r="AB188" s="1"/>
       <c r="AC188" s="1"/>
-    </row>
-    <row r="189" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD188" s="1"/>
+    </row>
+    <row r="189" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A189" s="1"/>
       <c r="B189" s="10">
         <f t="shared" si="0"/>
@@ -8075,8 +8309,8 @@
       </c>
       <c r="F189" s="11"/>
       <c r="G189" s="11"/>
-      <c r="H189" s="10"/>
-      <c r="I189" s="1"/>
+      <c r="H189" s="11"/>
+      <c r="I189" s="10"/>
       <c r="J189" s="1"/>
       <c r="K189" s="1"/>
       <c r="L189" s="1"/>
@@ -8097,8 +8331,9 @@
       <c r="AA189" s="1"/>
       <c r="AB189" s="1"/>
       <c r="AC189" s="1"/>
-    </row>
-    <row r="190" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD189" s="1"/>
+    </row>
+    <row r="190" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A190" s="1"/>
       <c r="B190" s="10">
         <f t="shared" si="0"/>
@@ -8117,8 +8352,8 @@
         <v>14</v>
       </c>
       <c r="G190" s="11"/>
-      <c r="H190" s="10"/>
-      <c r="I190" s="1"/>
+      <c r="H190" s="11"/>
+      <c r="I190" s="10"/>
       <c r="J190" s="1"/>
       <c r="K190" s="1"/>
       <c r="L190" s="1"/>
@@ -8139,8 +8374,9 @@
       <c r="AA190" s="1"/>
       <c r="AB190" s="1"/>
       <c r="AC190" s="1"/>
-    </row>
-    <row r="191" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD190" s="1"/>
+    </row>
+    <row r="191" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A191" s="1"/>
       <c r="B191" s="10">
         <f t="shared" si="0"/>
@@ -8157,8 +8393,8 @@
       </c>
       <c r="F191" s="11"/>
       <c r="G191" s="11"/>
-      <c r="H191" s="10"/>
-      <c r="I191" s="1"/>
+      <c r="H191" s="11"/>
+      <c r="I191" s="10"/>
       <c r="J191" s="1"/>
       <c r="K191" s="1"/>
       <c r="L191" s="1"/>
@@ -8179,8 +8415,9 @@
       <c r="AA191" s="1"/>
       <c r="AB191" s="1"/>
       <c r="AC191" s="1"/>
-    </row>
-    <row r="192" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD191" s="1"/>
+    </row>
+    <row r="192" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A192" s="1"/>
       <c r="B192" s="10">
         <f t="shared" si="0"/>
@@ -8197,8 +8434,8 @@
       </c>
       <c r="F192" s="11"/>
       <c r="G192" s="11"/>
-      <c r="H192" s="10"/>
-      <c r="I192" s="1"/>
+      <c r="H192" s="11"/>
+      <c r="I192" s="10"/>
       <c r="J192" s="1"/>
       <c r="K192" s="1"/>
       <c r="L192" s="1"/>
@@ -8219,8 +8456,9 @@
       <c r="AA192" s="1"/>
       <c r="AB192" s="1"/>
       <c r="AC192" s="1"/>
-    </row>
-    <row r="193" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD192" s="1"/>
+    </row>
+    <row r="193" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A193" s="1"/>
       <c r="B193" s="10">
         <f t="shared" si="0"/>
@@ -8239,8 +8477,8 @@
         <v>14</v>
       </c>
       <c r="G193" s="11"/>
-      <c r="H193" s="10"/>
-      <c r="I193" s="1"/>
+      <c r="H193" s="11"/>
+      <c r="I193" s="10"/>
       <c r="J193" s="1"/>
       <c r="K193" s="1"/>
       <c r="L193" s="1"/>
@@ -8261,8 +8499,9 @@
       <c r="AA193" s="1"/>
       <c r="AB193" s="1"/>
       <c r="AC193" s="1"/>
-    </row>
-    <row r="194" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD193" s="1"/>
+    </row>
+    <row r="194" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A194" s="1"/>
       <c r="B194" s="10">
         <f t="shared" si="0"/>
@@ -8277,8 +8516,8 @@
       <c r="E194" s="7"/>
       <c r="F194" s="11"/>
       <c r="G194" s="11"/>
-      <c r="H194" s="10"/>
-      <c r="I194" s="1"/>
+      <c r="H194" s="11"/>
+      <c r="I194" s="10"/>
       <c r="J194" s="1"/>
       <c r="K194" s="1"/>
       <c r="L194" s="1"/>
@@ -8299,8 +8538,9 @@
       <c r="AA194" s="1"/>
       <c r="AB194" s="1"/>
       <c r="AC194" s="1"/>
-    </row>
-    <row r="195" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD194" s="1"/>
+    </row>
+    <row r="195" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A195" s="1"/>
       <c r="B195" s="10">
         <f t="shared" si="0"/>
@@ -8313,8 +8553,8 @@
       <c r="E195" s="7"/>
       <c r="F195" s="11"/>
       <c r="G195" s="11"/>
-      <c r="H195" s="10"/>
-      <c r="I195" s="1"/>
+      <c r="H195" s="11"/>
+      <c r="I195" s="10"/>
       <c r="J195" s="1"/>
       <c r="K195" s="1"/>
       <c r="L195" s="1"/>
@@ -8335,8 +8575,9 @@
       <c r="AA195" s="1"/>
       <c r="AB195" s="1"/>
       <c r="AC195" s="1"/>
-    </row>
-    <row r="196" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD195" s="1"/>
+    </row>
+    <row r="196" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A196" s="1"/>
       <c r="B196" s="10">
         <f t="shared" si="0"/>
@@ -8349,8 +8590,8 @@
       <c r="E196" s="7"/>
       <c r="F196" s="11"/>
       <c r="G196" s="11"/>
-      <c r="H196" s="10"/>
-      <c r="I196" s="1"/>
+      <c r="H196" s="11"/>
+      <c r="I196" s="10"/>
       <c r="J196" s="1"/>
       <c r="K196" s="1"/>
       <c r="L196" s="1"/>
@@ -8371,8 +8612,9 @@
       <c r="AA196" s="1"/>
       <c r="AB196" s="1"/>
       <c r="AC196" s="1"/>
-    </row>
-    <row r="197" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD196" s="1"/>
+    </row>
+    <row r="197" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A197" s="1"/>
       <c r="B197" s="10">
         <f t="shared" si="0"/>
@@ -8389,8 +8631,8 @@
       </c>
       <c r="F197" s="11"/>
       <c r="G197" s="11"/>
-      <c r="H197" s="10"/>
-      <c r="I197" s="1"/>
+      <c r="H197" s="11"/>
+      <c r="I197" s="10"/>
       <c r="J197" s="1"/>
       <c r="K197" s="1"/>
       <c r="L197" s="1"/>
@@ -8411,8 +8653,9 @@
       <c r="AA197" s="1"/>
       <c r="AB197" s="1"/>
       <c r="AC197" s="1"/>
-    </row>
-    <row r="198" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD197" s="1"/>
+    </row>
+    <row r="198" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A198" s="1"/>
       <c r="B198" s="10">
         <f t="shared" si="0"/>
@@ -8427,8 +8670,8 @@
       <c r="E198" s="7"/>
       <c r="F198" s="11"/>
       <c r="G198" s="11"/>
-      <c r="H198" s="10"/>
-      <c r="I198" s="1"/>
+      <c r="H198" s="11"/>
+      <c r="I198" s="10"/>
       <c r="J198" s="1"/>
       <c r="K198" s="1"/>
       <c r="L198" s="1"/>
@@ -8449,8 +8692,9 @@
       <c r="AA198" s="1"/>
       <c r="AB198" s="1"/>
       <c r="AC198" s="1"/>
-    </row>
-    <row r="199" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD198" s="1"/>
+    </row>
+    <row r="199" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A199" s="1"/>
       <c r="B199" s="10">
         <f t="shared" si="0"/>
@@ -8467,8 +8711,8 @@
       </c>
       <c r="F199" s="11"/>
       <c r="G199" s="11"/>
-      <c r="H199" s="10"/>
-      <c r="I199" s="1"/>
+      <c r="H199" s="11"/>
+      <c r="I199" s="10"/>
       <c r="J199" s="1"/>
       <c r="K199" s="1"/>
       <c r="L199" s="1"/>
@@ -8489,8 +8733,9 @@
       <c r="AA199" s="1"/>
       <c r="AB199" s="1"/>
       <c r="AC199" s="1"/>
-    </row>
-    <row r="200" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD199" s="1"/>
+    </row>
+    <row r="200" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A200" s="1"/>
       <c r="B200" s="10">
         <f t="shared" si="0"/>
@@ -8509,8 +8754,8 @@
         <v>14</v>
       </c>
       <c r="G200" s="11"/>
-      <c r="H200" s="10"/>
-      <c r="I200" s="1"/>
+      <c r="H200" s="11"/>
+      <c r="I200" s="10"/>
       <c r="J200" s="1"/>
       <c r="K200" s="1"/>
       <c r="L200" s="1"/>
@@ -8531,8 +8776,9 @@
       <c r="AA200" s="1"/>
       <c r="AB200" s="1"/>
       <c r="AC200" s="1"/>
-    </row>
-    <row r="201" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD200" s="1"/>
+    </row>
+    <row r="201" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A201" s="1"/>
       <c r="B201" s="10">
         <f t="shared" si="0"/>
@@ -8549,8 +8795,8 @@
       </c>
       <c r="F201" s="11"/>
       <c r="G201" s="11"/>
-      <c r="H201" s="10"/>
-      <c r="I201" s="1"/>
+      <c r="H201" s="11"/>
+      <c r="I201" s="10"/>
       <c r="J201" s="1"/>
       <c r="K201" s="1"/>
       <c r="L201" s="1"/>
@@ -8571,8 +8817,9 @@
       <c r="AA201" s="1"/>
       <c r="AB201" s="1"/>
       <c r="AC201" s="1"/>
-    </row>
-    <row r="202" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD201" s="1"/>
+    </row>
+    <row r="202" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A202" s="1"/>
       <c r="B202" s="10">
         <f t="shared" si="0"/>
@@ -8589,8 +8836,8 @@
       </c>
       <c r="F202" s="11"/>
       <c r="G202" s="11"/>
-      <c r="H202" s="10"/>
-      <c r="I202" s="1"/>
+      <c r="H202" s="11"/>
+      <c r="I202" s="10"/>
       <c r="J202" s="1"/>
       <c r="K202" s="1"/>
       <c r="L202" s="1"/>
@@ -8611,8 +8858,9 @@
       <c r="AA202" s="1"/>
       <c r="AB202" s="1"/>
       <c r="AC202" s="1"/>
-    </row>
-    <row r="203" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD202" s="1"/>
+    </row>
+    <row r="203" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A203" s="1"/>
       <c r="B203" s="10">
         <f t="shared" si="0"/>
@@ -8627,8 +8875,8 @@
       <c r="E203" s="7"/>
       <c r="F203" s="11"/>
       <c r="G203" s="11"/>
-      <c r="H203" s="10"/>
-      <c r="I203" s="1"/>
+      <c r="H203" s="11"/>
+      <c r="I203" s="10"/>
       <c r="J203" s="1"/>
       <c r="K203" s="1"/>
       <c r="L203" s="1"/>
@@ -8649,8 +8897,9 @@
       <c r="AA203" s="1"/>
       <c r="AB203" s="1"/>
       <c r="AC203" s="1"/>
-    </row>
-    <row r="204" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD203" s="1"/>
+    </row>
+    <row r="204" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A204" s="1"/>
       <c r="B204" s="10">
         <f t="shared" si="0"/>
@@ -8669,8 +8918,8 @@
         <v>14</v>
       </c>
       <c r="G204" s="11"/>
-      <c r="H204" s="10"/>
-      <c r="I204" s="1"/>
+      <c r="H204" s="11"/>
+      <c r="I204" s="10"/>
       <c r="J204" s="1"/>
       <c r="K204" s="1"/>
       <c r="L204" s="1"/>
@@ -8691,8 +8940,9 @@
       <c r="AA204" s="1"/>
       <c r="AB204" s="1"/>
       <c r="AC204" s="1"/>
-    </row>
-    <row r="205" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD204" s="1"/>
+    </row>
+    <row r="205" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A205" s="1"/>
       <c r="B205" s="10">
         <f t="shared" si="0"/>
@@ -8705,8 +8955,8 @@
       <c r="E205" s="7"/>
       <c r="F205" s="11"/>
       <c r="G205" s="11"/>
-      <c r="H205" s="10"/>
-      <c r="I205" s="1"/>
+      <c r="H205" s="11"/>
+      <c r="I205" s="10"/>
       <c r="J205" s="1"/>
       <c r="K205" s="1"/>
       <c r="L205" s="1"/>
@@ -8727,8 +8977,9 @@
       <c r="AA205" s="1"/>
       <c r="AB205" s="1"/>
       <c r="AC205" s="1"/>
-    </row>
-    <row r="206" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD205" s="1"/>
+    </row>
+    <row r="206" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A206" s="1"/>
       <c r="B206" s="10">
         <f t="shared" si="0"/>
@@ -8747,8 +8998,8 @@
         <v>14</v>
       </c>
       <c r="G206" s="11"/>
-      <c r="H206" s="10"/>
-      <c r="I206" s="1"/>
+      <c r="H206" s="11"/>
+      <c r="I206" s="10"/>
       <c r="J206" s="1"/>
       <c r="K206" s="1"/>
       <c r="L206" s="1"/>
@@ -8769,8 +9020,9 @@
       <c r="AA206" s="1"/>
       <c r="AB206" s="1"/>
       <c r="AC206" s="1"/>
-    </row>
-    <row r="207" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="AD206" s="1"/>
+    </row>
+    <row r="207" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A207" s="1"/>
       <c r="B207" s="10">
         <f t="shared" si="0"/>
@@ -8788,9 +9040,11 @@
       <c r="F207" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="G207" s="11"/>
-      <c r="H207" s="10"/>
-      <c r="I207" s="1"/>
+      <c r="G207" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H207" s="11"/>
+      <c r="I207" s="10"/>
       <c r="J207" s="1"/>
       <c r="K207" s="1"/>
       <c r="L207" s="1"/>
@@ -8811,8 +9065,9 @@
       <c r="AA207" s="1"/>
       <c r="AB207" s="1"/>
       <c r="AC207" s="1"/>
-    </row>
-    <row r="208" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD207" s="1"/>
+    </row>
+    <row r="208" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A208" s="1"/>
       <c r="B208" s="10">
         <f t="shared" si="0"/>
@@ -8829,8 +9084,8 @@
       </c>
       <c r="F208" s="11"/>
       <c r="G208" s="11"/>
-      <c r="H208" s="10"/>
-      <c r="I208" s="1"/>
+      <c r="H208" s="11"/>
+      <c r="I208" s="10"/>
       <c r="J208" s="1"/>
       <c r="K208" s="1"/>
       <c r="L208" s="1"/>
@@ -8851,8 +9106,9 @@
       <c r="AA208" s="1"/>
       <c r="AB208" s="1"/>
       <c r="AC208" s="1"/>
-    </row>
-    <row r="209" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD208" s="1"/>
+    </row>
+    <row r="209" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A209" s="1"/>
       <c r="B209" s="10">
         <f t="shared" si="0"/>
@@ -8869,8 +9125,8 @@
       </c>
       <c r="F209" s="11"/>
       <c r="G209" s="11"/>
-      <c r="H209" s="10"/>
-      <c r="I209" s="1"/>
+      <c r="H209" s="11"/>
+      <c r="I209" s="10"/>
       <c r="J209" s="1"/>
       <c r="K209" s="1"/>
       <c r="L209" s="1"/>
@@ -8891,8 +9147,9 @@
       <c r="AA209" s="1"/>
       <c r="AB209" s="1"/>
       <c r="AC209" s="1"/>
-    </row>
-    <row r="210" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD209" s="1"/>
+    </row>
+    <row r="210" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A210" s="1"/>
       <c r="B210" s="10">
         <f t="shared" si="0"/>
@@ -8911,8 +9168,8 @@
         <v>14</v>
       </c>
       <c r="G210" s="11"/>
-      <c r="H210" s="10"/>
-      <c r="I210" s="1"/>
+      <c r="H210" s="11"/>
+      <c r="I210" s="10"/>
       <c r="J210" s="1"/>
       <c r="K210" s="1"/>
       <c r="L210" s="1"/>
@@ -8933,8 +9190,9 @@
       <c r="AA210" s="1"/>
       <c r="AB210" s="1"/>
       <c r="AC210" s="1"/>
-    </row>
-    <row r="211" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD210" s="1"/>
+    </row>
+    <row r="211" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A211" s="1"/>
       <c r="B211" s="10">
         <f t="shared" si="0"/>
@@ -8949,8 +9207,8 @@
       <c r="E211" s="7"/>
       <c r="F211" s="11"/>
       <c r="G211" s="11"/>
-      <c r="H211" s="10"/>
-      <c r="I211" s="1"/>
+      <c r="H211" s="11"/>
+      <c r="I211" s="10"/>
       <c r="J211" s="1"/>
       <c r="K211" s="1"/>
       <c r="L211" s="1"/>
@@ -8971,8 +9229,9 @@
       <c r="AA211" s="1"/>
       <c r="AB211" s="1"/>
       <c r="AC211" s="1"/>
-    </row>
-    <row r="212" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD211" s="1"/>
+    </row>
+    <row r="212" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A212" s="1"/>
       <c r="B212" s="10">
         <f t="shared" si="0"/>
@@ -8985,8 +9244,8 @@
       <c r="E212" s="7"/>
       <c r="F212" s="11"/>
       <c r="G212" s="11"/>
-      <c r="H212" s="10"/>
-      <c r="I212" s="1"/>
+      <c r="H212" s="11"/>
+      <c r="I212" s="10"/>
       <c r="J212" s="1"/>
       <c r="K212" s="1"/>
       <c r="L212" s="1"/>
@@ -9007,8 +9266,9 @@
       <c r="AA212" s="1"/>
       <c r="AB212" s="1"/>
       <c r="AC212" s="1"/>
-    </row>
-    <row r="213" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD212" s="1"/>
+    </row>
+    <row r="213" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A213" s="1"/>
       <c r="B213" s="10">
         <f t="shared" si="0"/>
@@ -9021,8 +9281,8 @@
       <c r="E213" s="7"/>
       <c r="F213" s="11"/>
       <c r="G213" s="11"/>
-      <c r="H213" s="10"/>
-      <c r="I213" s="1"/>
+      <c r="H213" s="11"/>
+      <c r="I213" s="10"/>
       <c r="J213" s="1"/>
       <c r="K213" s="1"/>
       <c r="L213" s="1"/>
@@ -9043,8 +9303,9 @@
       <c r="AA213" s="1"/>
       <c r="AB213" s="1"/>
       <c r="AC213" s="1"/>
-    </row>
-    <row r="214" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD213" s="1"/>
+    </row>
+    <row r="214" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A214" s="1"/>
       <c r="B214" s="10">
         <f t="shared" si="0"/>
@@ -9057,8 +9318,8 @@
       <c r="E214" s="7"/>
       <c r="F214" s="11"/>
       <c r="G214" s="11"/>
-      <c r="H214" s="10"/>
-      <c r="I214" s="1"/>
+      <c r="H214" s="11"/>
+      <c r="I214" s="10"/>
       <c r="J214" s="1"/>
       <c r="K214" s="1"/>
       <c r="L214" s="1"/>
@@ -9079,8 +9340,9 @@
       <c r="AA214" s="1"/>
       <c r="AB214" s="1"/>
       <c r="AC214" s="1"/>
-    </row>
-    <row r="215" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD214" s="1"/>
+    </row>
+    <row r="215" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A215" s="1"/>
       <c r="B215" s="10">
         <f t="shared" si="0"/>
@@ -9099,8 +9361,8 @@
         <v>14</v>
       </c>
       <c r="G215" s="11"/>
-      <c r="H215" s="10"/>
-      <c r="I215" s="1"/>
+      <c r="H215" s="11"/>
+      <c r="I215" s="10"/>
       <c r="J215" s="1"/>
       <c r="K215" s="1"/>
       <c r="L215" s="1"/>
@@ -9121,8 +9383,9 @@
       <c r="AA215" s="1"/>
       <c r="AB215" s="1"/>
       <c r="AC215" s="1"/>
-    </row>
-    <row r="216" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD215" s="1"/>
+    </row>
+    <row r="216" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A216" s="1"/>
       <c r="B216" s="10">
         <f t="shared" si="0"/>
@@ -9139,8 +9402,8 @@
       </c>
       <c r="F216" s="11"/>
       <c r="G216" s="11"/>
-      <c r="H216" s="10"/>
-      <c r="I216" s="1"/>
+      <c r="H216" s="11"/>
+      <c r="I216" s="10"/>
       <c r="J216" s="1"/>
       <c r="K216" s="1"/>
       <c r="L216" s="1"/>
@@ -9161,8 +9424,9 @@
       <c r="AA216" s="1"/>
       <c r="AB216" s="1"/>
       <c r="AC216" s="1"/>
-    </row>
-    <row r="217" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD216" s="1"/>
+    </row>
+    <row r="217" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A217" s="1"/>
       <c r="B217" s="10">
         <f t="shared" si="0"/>
@@ -9179,8 +9443,8 @@
       </c>
       <c r="F217" s="11"/>
       <c r="G217" s="11"/>
-      <c r="H217" s="10"/>
-      <c r="I217" s="1"/>
+      <c r="H217" s="11"/>
+      <c r="I217" s="10"/>
       <c r="J217" s="1"/>
       <c r="K217" s="1"/>
       <c r="L217" s="1"/>
@@ -9201,8 +9465,9 @@
       <c r="AA217" s="1"/>
       <c r="AB217" s="1"/>
       <c r="AC217" s="1"/>
-    </row>
-    <row r="218" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD217" s="1"/>
+    </row>
+    <row r="218" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A218" s="1"/>
       <c r="B218" s="10">
         <f t="shared" si="0"/>
@@ -9217,8 +9482,8 @@
       <c r="E218" s="7"/>
       <c r="F218" s="11"/>
       <c r="G218" s="11"/>
-      <c r="H218" s="10"/>
-      <c r="I218" s="1"/>
+      <c r="H218" s="11"/>
+      <c r="I218" s="10"/>
       <c r="J218" s="1"/>
       <c r="K218" s="1"/>
       <c r="L218" s="1"/>
@@ -9239,8 +9504,9 @@
       <c r="AA218" s="1"/>
       <c r="AB218" s="1"/>
       <c r="AC218" s="1"/>
-    </row>
-    <row r="219" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD218" s="1"/>
+    </row>
+    <row r="219" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A219" s="1"/>
       <c r="B219" s="10">
         <f t="shared" si="0"/>
@@ -9255,8 +9521,8 @@
       <c r="E219" s="7"/>
       <c r="F219" s="11"/>
       <c r="G219" s="11"/>
-      <c r="H219" s="10"/>
-      <c r="I219" s="1"/>
+      <c r="H219" s="11"/>
+      <c r="I219" s="10"/>
       <c r="J219" s="1"/>
       <c r="K219" s="1"/>
       <c r="L219" s="1"/>
@@ -9277,8 +9543,9 @@
       <c r="AA219" s="1"/>
       <c r="AB219" s="1"/>
       <c r="AC219" s="1"/>
-    </row>
-    <row r="220" spans="1:29" ht="16.5" x14ac:dyDescent="0.35">
+      <c r="AD219" s="1"/>
+    </row>
+    <row r="220" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A220" s="1"/>
       <c r="B220" s="10">
         <f t="shared" si="0"/>
@@ -9296,9 +9563,11 @@
       <c r="F220" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="G220" s="11"/>
-      <c r="H220" s="10"/>
-      <c r="I220" s="1"/>
+      <c r="G220" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H220" s="11"/>
+      <c r="I220" s="10"/>
       <c r="J220" s="1"/>
       <c r="K220" s="1"/>
       <c r="L220" s="1"/>
@@ -9319,8 +9588,9 @@
       <c r="AA220" s="1"/>
       <c r="AB220" s="1"/>
       <c r="AC220" s="1"/>
-    </row>
-    <row r="221" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD220" s="1"/>
+    </row>
+    <row r="221" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A221" s="1"/>
       <c r="B221" s="10">
         <f t="shared" si="0"/>
@@ -9333,8 +9603,8 @@
       <c r="E221" s="7"/>
       <c r="F221" s="11"/>
       <c r="G221" s="11"/>
-      <c r="H221" s="10"/>
-      <c r="I221" s="1"/>
+      <c r="H221" s="11"/>
+      <c r="I221" s="10"/>
       <c r="J221" s="1"/>
       <c r="K221" s="1"/>
       <c r="L221" s="1"/>
@@ -9355,8 +9625,9 @@
       <c r="AA221" s="1"/>
       <c r="AB221" s="1"/>
       <c r="AC221" s="1"/>
-    </row>
-    <row r="222" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD221" s="1"/>
+    </row>
+    <row r="222" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A222" s="1"/>
       <c r="B222" s="10">
         <f t="shared" si="0"/>
@@ -9375,8 +9646,8 @@
         <v>14</v>
       </c>
       <c r="G222" s="11"/>
-      <c r="H222" s="10"/>
-      <c r="I222" s="1"/>
+      <c r="H222" s="11"/>
+      <c r="I222" s="10"/>
       <c r="J222" s="1"/>
       <c r="K222" s="1"/>
       <c r="L222" s="1"/>
@@ -9397,8 +9668,9 @@
       <c r="AA222" s="1"/>
       <c r="AB222" s="1"/>
       <c r="AC222" s="1"/>
-    </row>
-    <row r="223" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD222" s="1"/>
+    </row>
+    <row r="223" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A223" s="1"/>
       <c r="B223" s="10">
         <f t="shared" si="0"/>
@@ -9417,8 +9689,8 @@
         <v>14</v>
       </c>
       <c r="G223" s="11"/>
-      <c r="H223" s="10"/>
-      <c r="I223" s="1"/>
+      <c r="H223" s="11"/>
+      <c r="I223" s="10"/>
       <c r="J223" s="1"/>
       <c r="K223" s="1"/>
       <c r="L223" s="1"/>
@@ -9439,8 +9711,9 @@
       <c r="AA223" s="1"/>
       <c r="AB223" s="1"/>
       <c r="AC223" s="1"/>
-    </row>
-    <row r="224" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD223" s="1"/>
+    </row>
+    <row r="224" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A224" s="1"/>
       <c r="B224" s="10">
         <f t="shared" si="0"/>
@@ -9457,8 +9730,8 @@
       </c>
       <c r="F224" s="11"/>
       <c r="G224" s="11"/>
-      <c r="H224" s="10"/>
-      <c r="I224" s="1"/>
+      <c r="H224" s="11"/>
+      <c r="I224" s="10"/>
       <c r="J224" s="1"/>
       <c r="K224" s="1"/>
       <c r="L224" s="1"/>
@@ -9479,8 +9752,9 @@
       <c r="AA224" s="1"/>
       <c r="AB224" s="1"/>
       <c r="AC224" s="1"/>
-    </row>
-    <row r="225" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD224" s="1"/>
+    </row>
+    <row r="225" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A225" s="1"/>
       <c r="B225" s="10">
         <f t="shared" si="0"/>
@@ -9497,8 +9771,8 @@
       </c>
       <c r="F225" s="11"/>
       <c r="G225" s="11"/>
-      <c r="H225" s="10"/>
-      <c r="I225" s="1"/>
+      <c r="H225" s="11"/>
+      <c r="I225" s="10"/>
       <c r="J225" s="1"/>
       <c r="K225" s="1"/>
       <c r="L225" s="1"/>
@@ -9519,8 +9793,9 @@
       <c r="AA225" s="1"/>
       <c r="AB225" s="1"/>
       <c r="AC225" s="1"/>
-    </row>
-    <row r="226" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD225" s="1"/>
+    </row>
+    <row r="226" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A226" s="1"/>
       <c r="B226" s="10">
         <f t="shared" si="0"/>
@@ -9539,8 +9814,8 @@
         <v>14</v>
       </c>
       <c r="G226" s="11"/>
-      <c r="H226" s="10"/>
-      <c r="I226" s="1"/>
+      <c r="H226" s="11"/>
+      <c r="I226" s="10"/>
       <c r="J226" s="1"/>
       <c r="K226" s="1"/>
       <c r="L226" s="1"/>
@@ -9561,8 +9836,9 @@
       <c r="AA226" s="1"/>
       <c r="AB226" s="1"/>
       <c r="AC226" s="1"/>
-    </row>
-    <row r="227" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD226" s="1"/>
+    </row>
+    <row r="227" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A227" s="1"/>
       <c r="B227" s="10">
         <f t="shared" si="0"/>
@@ -9575,8 +9851,8 @@
       <c r="E227" s="7"/>
       <c r="F227" s="11"/>
       <c r="G227" s="11"/>
-      <c r="H227" s="10"/>
-      <c r="I227" s="1"/>
+      <c r="H227" s="11"/>
+      <c r="I227" s="10"/>
       <c r="J227" s="1"/>
       <c r="K227" s="1"/>
       <c r="L227" s="1"/>
@@ -9597,8 +9873,9 @@
       <c r="AA227" s="1"/>
       <c r="AB227" s="1"/>
       <c r="AC227" s="1"/>
-    </row>
-    <row r="228" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD227" s="1"/>
+    </row>
+    <row r="228" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A228" s="1"/>
       <c r="B228" s="10">
         <f t="shared" si="0"/>
@@ -9617,8 +9894,8 @@
         <v>14</v>
       </c>
       <c r="G228" s="11"/>
-      <c r="H228" s="10"/>
-      <c r="I228" s="1"/>
+      <c r="H228" s="11"/>
+      <c r="I228" s="10"/>
       <c r="J228" s="1"/>
       <c r="K228" s="1"/>
       <c r="L228" s="1"/>
@@ -9639,8 +9916,9 @@
       <c r="AA228" s="1"/>
       <c r="AB228" s="1"/>
       <c r="AC228" s="1"/>
-    </row>
-    <row r="229" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD228" s="1"/>
+    </row>
+    <row r="229" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A229" s="1"/>
       <c r="B229" s="10">
         <f t="shared" si="0"/>
@@ -9653,8 +9931,8 @@
       <c r="E229" s="7"/>
       <c r="F229" s="11"/>
       <c r="G229" s="11"/>
-      <c r="H229" s="10"/>
-      <c r="I229" s="1"/>
+      <c r="H229" s="11"/>
+      <c r="I229" s="10"/>
       <c r="J229" s="1"/>
       <c r="K229" s="1"/>
       <c r="L229" s="1"/>
@@ -9675,8 +9953,9 @@
       <c r="AA229" s="1"/>
       <c r="AB229" s="1"/>
       <c r="AC229" s="1"/>
-    </row>
-    <row r="230" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD229" s="1"/>
+    </row>
+    <row r="230" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A230" s="1"/>
       <c r="B230" s="10">
         <f t="shared" si="0"/>
@@ -9689,8 +9968,8 @@
       <c r="E230" s="7"/>
       <c r="F230" s="11"/>
       <c r="G230" s="11"/>
-      <c r="H230" s="10"/>
-      <c r="I230" s="1"/>
+      <c r="H230" s="11"/>
+      <c r="I230" s="10"/>
       <c r="J230" s="1"/>
       <c r="K230" s="1"/>
       <c r="L230" s="1"/>
@@ -9711,8 +9990,9 @@
       <c r="AA230" s="1"/>
       <c r="AB230" s="1"/>
       <c r="AC230" s="1"/>
-    </row>
-    <row r="231" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD230" s="1"/>
+    </row>
+    <row r="231" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A231" s="1"/>
       <c r="B231" s="10">
         <f t="shared" si="0"/>
@@ -9731,8 +10011,8 @@
         <v>14</v>
       </c>
       <c r="G231" s="11"/>
-      <c r="H231" s="10"/>
-      <c r="I231" s="1"/>
+      <c r="H231" s="11"/>
+      <c r="I231" s="10"/>
       <c r="J231" s="1"/>
       <c r="K231" s="1"/>
       <c r="L231" s="1"/>
@@ -9753,8 +10033,9 @@
       <c r="AA231" s="1"/>
       <c r="AB231" s="1"/>
       <c r="AC231" s="1"/>
-    </row>
-    <row r="232" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD231" s="1"/>
+    </row>
+    <row r="232" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A232" s="1"/>
       <c r="B232" s="10">
         <f t="shared" si="0"/>
@@ -9769,8 +10050,8 @@
       <c r="E232" s="7"/>
       <c r="F232" s="11"/>
       <c r="G232" s="11"/>
-      <c r="H232" s="10"/>
-      <c r="I232" s="1"/>
+      <c r="H232" s="11"/>
+      <c r="I232" s="10"/>
       <c r="J232" s="1"/>
       <c r="K232" s="1"/>
       <c r="L232" s="1"/>
@@ -9791,8 +10072,9 @@
       <c r="AA232" s="1"/>
       <c r="AB232" s="1"/>
       <c r="AC232" s="1"/>
-    </row>
-    <row r="233" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD232" s="1"/>
+    </row>
+    <row r="233" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A233" s="1"/>
       <c r="B233" s="10">
         <f t="shared" si="0"/>
@@ -9807,8 +10089,8 @@
       <c r="E233" s="7"/>
       <c r="F233" s="11"/>
       <c r="G233" s="11"/>
-      <c r="H233" s="10"/>
-      <c r="I233" s="1"/>
+      <c r="H233" s="11"/>
+      <c r="I233" s="10"/>
       <c r="J233" s="1"/>
       <c r="K233" s="1"/>
       <c r="L233" s="1"/>
@@ -9829,8 +10111,9 @@
       <c r="AA233" s="1"/>
       <c r="AB233" s="1"/>
       <c r="AC233" s="1"/>
-    </row>
-    <row r="234" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD233" s="1"/>
+    </row>
+    <row r="234" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A234" s="1"/>
       <c r="B234" s="10">
         <f t="shared" si="0"/>
@@ -9849,8 +10132,8 @@
         <v>14</v>
       </c>
       <c r="G234" s="11"/>
-      <c r="H234" s="10"/>
-      <c r="I234" s="1"/>
+      <c r="H234" s="11"/>
+      <c r="I234" s="10"/>
       <c r="J234" s="1"/>
       <c r="K234" s="1"/>
       <c r="L234" s="1"/>
@@ -9871,8 +10154,9 @@
       <c r="AA234" s="1"/>
       <c r="AB234" s="1"/>
       <c r="AC234" s="1"/>
-    </row>
-    <row r="235" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD234" s="1"/>
+    </row>
+    <row r="235" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A235" s="1"/>
       <c r="B235" s="10">
         <f t="shared" ref="B235:B299" si="1">ROW()-3</f>
@@ -9889,8 +10173,8 @@
       </c>
       <c r="F235" s="11"/>
       <c r="G235" s="11"/>
-      <c r="H235" s="10"/>
-      <c r="I235" s="1"/>
+      <c r="H235" s="11"/>
+      <c r="I235" s="10"/>
       <c r="J235" s="1"/>
       <c r="K235" s="1"/>
       <c r="L235" s="1"/>
@@ -9911,8 +10195,9 @@
       <c r="AA235" s="1"/>
       <c r="AB235" s="1"/>
       <c r="AC235" s="1"/>
-    </row>
-    <row r="236" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD235" s="1"/>
+    </row>
+    <row r="236" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A236" s="1"/>
       <c r="B236" s="10">
         <f t="shared" si="1"/>
@@ -9929,8 +10214,8 @@
       </c>
       <c r="F236" s="11"/>
       <c r="G236" s="11"/>
-      <c r="H236" s="10"/>
-      <c r="I236" s="1"/>
+      <c r="H236" s="11"/>
+      <c r="I236" s="10"/>
       <c r="J236" s="1"/>
       <c r="K236" s="1"/>
       <c r="L236" s="1"/>
@@ -9951,8 +10236,9 @@
       <c r="AA236" s="1"/>
       <c r="AB236" s="1"/>
       <c r="AC236" s="1"/>
-    </row>
-    <row r="237" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD236" s="1"/>
+    </row>
+    <row r="237" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A237" s="1"/>
       <c r="B237" s="10">
         <f t="shared" si="1"/>
@@ -9965,8 +10251,8 @@
       <c r="E237" s="7"/>
       <c r="F237" s="11"/>
       <c r="G237" s="11"/>
-      <c r="H237" s="10"/>
-      <c r="I237" s="1"/>
+      <c r="H237" s="11"/>
+      <c r="I237" s="10"/>
       <c r="J237" s="1"/>
       <c r="K237" s="1"/>
       <c r="L237" s="1"/>
@@ -9987,8 +10273,9 @@
       <c r="AA237" s="1"/>
       <c r="AB237" s="1"/>
       <c r="AC237" s="1"/>
-    </row>
-    <row r="238" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD237" s="1"/>
+    </row>
+    <row r="238" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A238" s="1"/>
       <c r="B238" s="10">
         <f t="shared" si="1"/>
@@ -10007,8 +10294,8 @@
         <v>14</v>
       </c>
       <c r="G238" s="11"/>
-      <c r="H238" s="10"/>
-      <c r="I238" s="1"/>
+      <c r="H238" s="11"/>
+      <c r="I238" s="10"/>
       <c r="J238" s="1"/>
       <c r="K238" s="1"/>
       <c r="L238" s="1"/>
@@ -10029,8 +10316,9 @@
       <c r="AA238" s="1"/>
       <c r="AB238" s="1"/>
       <c r="AC238" s="1"/>
-    </row>
-    <row r="239" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD238" s="1"/>
+    </row>
+    <row r="239" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A239" s="1"/>
       <c r="B239" s="10">
         <f t="shared" si="1"/>
@@ -10047,8 +10335,8 @@
       </c>
       <c r="F239" s="11"/>
       <c r="G239" s="11"/>
-      <c r="H239" s="10"/>
-      <c r="I239" s="1"/>
+      <c r="H239" s="11"/>
+      <c r="I239" s="10"/>
       <c r="J239" s="1"/>
       <c r="K239" s="1"/>
       <c r="L239" s="1"/>
@@ -10069,8 +10357,9 @@
       <c r="AA239" s="1"/>
       <c r="AB239" s="1"/>
       <c r="AC239" s="1"/>
-    </row>
-    <row r="240" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD239" s="1"/>
+    </row>
+    <row r="240" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A240" s="1"/>
       <c r="B240" s="10">
         <f t="shared" si="1"/>
@@ -10087,8 +10376,8 @@
       </c>
       <c r="F240" s="11"/>
       <c r="G240" s="11"/>
-      <c r="H240" s="10"/>
-      <c r="I240" s="1"/>
+      <c r="H240" s="11"/>
+      <c r="I240" s="10"/>
       <c r="J240" s="1"/>
       <c r="K240" s="1"/>
       <c r="L240" s="1"/>
@@ -10109,8 +10398,9 @@
       <c r="AA240" s="1"/>
       <c r="AB240" s="1"/>
       <c r="AC240" s="1"/>
-    </row>
-    <row r="241" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD240" s="1"/>
+    </row>
+    <row r="241" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A241" s="1"/>
       <c r="B241" s="10">
         <f t="shared" si="1"/>
@@ -10127,8 +10417,8 @@
       </c>
       <c r="F241" s="11"/>
       <c r="G241" s="11"/>
-      <c r="H241" s="10"/>
-      <c r="I241" s="1"/>
+      <c r="H241" s="11"/>
+      <c r="I241" s="10"/>
       <c r="J241" s="1"/>
       <c r="K241" s="1"/>
       <c r="L241" s="1"/>
@@ -10149,8 +10439,9 @@
       <c r="AA241" s="1"/>
       <c r="AB241" s="1"/>
       <c r="AC241" s="1"/>
-    </row>
-    <row r="242" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD241" s="1"/>
+    </row>
+    <row r="242" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A242" s="1"/>
       <c r="B242" s="10">
         <f t="shared" si="1"/>
@@ -10167,8 +10458,8 @@
       </c>
       <c r="F242" s="11"/>
       <c r="G242" s="11"/>
-      <c r="H242" s="10"/>
-      <c r="I242" s="1"/>
+      <c r="H242" s="11"/>
+      <c r="I242" s="10"/>
       <c r="J242" s="1"/>
       <c r="K242" s="1"/>
       <c r="L242" s="1"/>
@@ -10189,8 +10480,9 @@
       <c r="AA242" s="1"/>
       <c r="AB242" s="1"/>
       <c r="AC242" s="1"/>
-    </row>
-    <row r="243" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD242" s="1"/>
+    </row>
+    <row r="243" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A243" s="1"/>
       <c r="B243" s="10">
         <f t="shared" si="1"/>
@@ -10209,8 +10501,8 @@
         <v>14</v>
       </c>
       <c r="G243" s="11"/>
-      <c r="H243" s="10"/>
-      <c r="I243" s="1"/>
+      <c r="H243" s="11"/>
+      <c r="I243" s="10"/>
       <c r="J243" s="1"/>
       <c r="K243" s="1"/>
       <c r="L243" s="1"/>
@@ -10231,8 +10523,9 @@
       <c r="AA243" s="1"/>
       <c r="AB243" s="1"/>
       <c r="AC243" s="1"/>
-    </row>
-    <row r="244" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD243" s="1"/>
+    </row>
+    <row r="244" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A244" s="1"/>
       <c r="B244" s="10">
         <f t="shared" si="1"/>
@@ -10251,8 +10544,8 @@
         <v>14</v>
       </c>
       <c r="G244" s="11"/>
-      <c r="H244" s="10"/>
-      <c r="I244" s="1"/>
+      <c r="H244" s="11"/>
+      <c r="I244" s="10"/>
       <c r="J244" s="1"/>
       <c r="K244" s="1"/>
       <c r="L244" s="1"/>
@@ -10273,8 +10566,9 @@
       <c r="AA244" s="1"/>
       <c r="AB244" s="1"/>
       <c r="AC244" s="1"/>
-    </row>
-    <row r="245" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD244" s="1"/>
+    </row>
+    <row r="245" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A245" s="1"/>
       <c r="B245" s="10">
         <f t="shared" si="1"/>
@@ -10291,8 +10585,8 @@
       </c>
       <c r="F245" s="11"/>
       <c r="G245" s="11"/>
-      <c r="H245" s="10"/>
-      <c r="I245" s="1"/>
+      <c r="H245" s="11"/>
+      <c r="I245" s="10"/>
       <c r="J245" s="1"/>
       <c r="K245" s="1"/>
       <c r="L245" s="1"/>
@@ -10313,8 +10607,9 @@
       <c r="AA245" s="1"/>
       <c r="AB245" s="1"/>
       <c r="AC245" s="1"/>
-    </row>
-    <row r="246" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD245" s="1"/>
+    </row>
+    <row r="246" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A246" s="1"/>
       <c r="B246" s="10">
         <f t="shared" si="1"/>
@@ -10327,8 +10622,8 @@
       <c r="E246" s="7"/>
       <c r="F246" s="11"/>
       <c r="G246" s="11"/>
-      <c r="H246" s="10"/>
-      <c r="I246" s="1"/>
+      <c r="H246" s="11"/>
+      <c r="I246" s="10"/>
       <c r="J246" s="1"/>
       <c r="K246" s="1"/>
       <c r="L246" s="1"/>
@@ -10349,8 +10644,9 @@
       <c r="AA246" s="1"/>
       <c r="AB246" s="1"/>
       <c r="AC246" s="1"/>
-    </row>
-    <row r="247" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD246" s="1"/>
+    </row>
+    <row r="247" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A247" s="1"/>
       <c r="B247" s="10">
         <f t="shared" si="1"/>
@@ -10365,8 +10661,8 @@
       <c r="E247" s="7"/>
       <c r="F247" s="11"/>
       <c r="G247" s="11"/>
-      <c r="H247" s="10"/>
-      <c r="I247" s="1"/>
+      <c r="H247" s="11"/>
+      <c r="I247" s="10"/>
       <c r="J247" s="1"/>
       <c r="K247" s="1"/>
       <c r="L247" s="1"/>
@@ -10387,8 +10683,9 @@
       <c r="AA247" s="1"/>
       <c r="AB247" s="1"/>
       <c r="AC247" s="1"/>
-    </row>
-    <row r="248" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD247" s="1"/>
+    </row>
+    <row r="248" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A248" s="1"/>
       <c r="B248" s="10">
         <f t="shared" si="1"/>
@@ -10403,8 +10700,8 @@
       <c r="E248" s="7"/>
       <c r="F248" s="11"/>
       <c r="G248" s="11"/>
-      <c r="H248" s="10"/>
-      <c r="I248" s="1"/>
+      <c r="H248" s="11"/>
+      <c r="I248" s="10"/>
       <c r="J248" s="1"/>
       <c r="K248" s="1"/>
       <c r="L248" s="1"/>
@@ -10425,8 +10722,9 @@
       <c r="AA248" s="1"/>
       <c r="AB248" s="1"/>
       <c r="AC248" s="1"/>
-    </row>
-    <row r="249" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD248" s="1"/>
+    </row>
+    <row r="249" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A249" s="1"/>
       <c r="B249" s="10">
         <f t="shared" si="1"/>
@@ -10441,8 +10739,8 @@
       <c r="E249" s="7"/>
       <c r="F249" s="11"/>
       <c r="G249" s="11"/>
-      <c r="H249" s="10"/>
-      <c r="I249" s="1"/>
+      <c r="H249" s="11"/>
+      <c r="I249" s="10"/>
       <c r="J249" s="1"/>
       <c r="K249" s="1"/>
       <c r="L249" s="1"/>
@@ -10463,8 +10761,9 @@
       <c r="AA249" s="1"/>
       <c r="AB249" s="1"/>
       <c r="AC249" s="1"/>
-    </row>
-    <row r="250" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD249" s="1"/>
+    </row>
+    <row r="250" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A250" s="1"/>
       <c r="B250" s="10">
         <f t="shared" si="1"/>
@@ -10481,8 +10780,8 @@
       </c>
       <c r="F250" s="11"/>
       <c r="G250" s="11"/>
-      <c r="H250" s="10"/>
-      <c r="I250" s="1"/>
+      <c r="H250" s="11"/>
+      <c r="I250" s="10"/>
       <c r="J250" s="1"/>
       <c r="K250" s="1"/>
       <c r="L250" s="1"/>
@@ -10503,8 +10802,9 @@
       <c r="AA250" s="1"/>
       <c r="AB250" s="1"/>
       <c r="AC250" s="1"/>
-    </row>
-    <row r="251" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD250" s="1"/>
+    </row>
+    <row r="251" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A251" s="1"/>
       <c r="B251" s="10">
         <f t="shared" si="1"/>
@@ -10521,8 +10821,8 @@
       </c>
       <c r="F251" s="11"/>
       <c r="G251" s="11"/>
-      <c r="H251" s="10"/>
-      <c r="I251" s="1"/>
+      <c r="H251" s="11"/>
+      <c r="I251" s="10"/>
       <c r="J251" s="1"/>
       <c r="K251" s="1"/>
       <c r="L251" s="1"/>
@@ -10543,8 +10843,9 @@
       <c r="AA251" s="1"/>
       <c r="AB251" s="1"/>
       <c r="AC251" s="1"/>
-    </row>
-    <row r="252" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD251" s="1"/>
+    </row>
+    <row r="252" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A252" s="1"/>
       <c r="B252" s="10">
         <f t="shared" si="1"/>
@@ -10563,8 +10864,8 @@
         <v>14</v>
       </c>
       <c r="G252" s="11"/>
-      <c r="H252" s="10"/>
-      <c r="I252" s="1"/>
+      <c r="H252" s="11"/>
+      <c r="I252" s="10"/>
       <c r="J252" s="1"/>
       <c r="K252" s="1"/>
       <c r="L252" s="1"/>
@@ -10585,8 +10886,9 @@
       <c r="AA252" s="1"/>
       <c r="AB252" s="1"/>
       <c r="AC252" s="1"/>
-    </row>
-    <row r="253" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD252" s="1"/>
+    </row>
+    <row r="253" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A253" s="1"/>
       <c r="B253" s="10">
         <f t="shared" si="1"/>
@@ -10605,8 +10907,8 @@
         <v>14</v>
       </c>
       <c r="G253" s="11"/>
-      <c r="H253" s="10"/>
-      <c r="I253" s="1"/>
+      <c r="H253" s="11"/>
+      <c r="I253" s="10"/>
       <c r="J253" s="1"/>
       <c r="K253" s="1"/>
       <c r="L253" s="1"/>
@@ -10627,8 +10929,9 @@
       <c r="AA253" s="1"/>
       <c r="AB253" s="1"/>
       <c r="AC253" s="1"/>
-    </row>
-    <row r="254" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD253" s="1"/>
+    </row>
+    <row r="254" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A254" s="1"/>
       <c r="B254" s="10">
         <f t="shared" si="1"/>
@@ -10641,8 +10944,8 @@
       <c r="E254" s="7"/>
       <c r="F254" s="11"/>
       <c r="G254" s="11"/>
-      <c r="H254" s="10"/>
-      <c r="I254" s="1"/>
+      <c r="H254" s="11"/>
+      <c r="I254" s="10"/>
       <c r="J254" s="1"/>
       <c r="K254" s="1"/>
       <c r="L254" s="1"/>
@@ -10663,8 +10966,9 @@
       <c r="AA254" s="1"/>
       <c r="AB254" s="1"/>
       <c r="AC254" s="1"/>
-    </row>
-    <row r="255" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD254" s="1"/>
+    </row>
+    <row r="255" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A255" s="1"/>
       <c r="B255" s="10">
         <f t="shared" si="1"/>
@@ -10681,8 +10985,8 @@
       </c>
       <c r="F255" s="11"/>
       <c r="G255" s="11"/>
-      <c r="H255" s="10"/>
-      <c r="I255" s="1"/>
+      <c r="H255" s="11"/>
+      <c r="I255" s="10"/>
       <c r="J255" s="1"/>
       <c r="K255" s="1"/>
       <c r="L255" s="1"/>
@@ -10703,8 +11007,9 @@
       <c r="AA255" s="1"/>
       <c r="AB255" s="1"/>
       <c r="AC255" s="1"/>
-    </row>
-    <row r="256" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD255" s="1"/>
+    </row>
+    <row r="256" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A256" s="1"/>
       <c r="B256" s="10">
         <f t="shared" si="1"/>
@@ -10717,8 +11022,8 @@
       <c r="E256" s="7"/>
       <c r="F256" s="11"/>
       <c r="G256" s="11"/>
-      <c r="H256" s="10"/>
-      <c r="I256" s="1"/>
+      <c r="H256" s="11"/>
+      <c r="I256" s="10"/>
       <c r="J256" s="1"/>
       <c r="K256" s="1"/>
       <c r="L256" s="1"/>
@@ -10739,8 +11044,9 @@
       <c r="AA256" s="1"/>
       <c r="AB256" s="1"/>
       <c r="AC256" s="1"/>
-    </row>
-    <row r="257" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD256" s="1"/>
+    </row>
+    <row r="257" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A257" s="1"/>
       <c r="B257" s="10">
         <f t="shared" si="1"/>
@@ -10759,8 +11065,8 @@
         <v>14</v>
       </c>
       <c r="G257" s="11"/>
-      <c r="H257" s="10"/>
-      <c r="I257" s="1"/>
+      <c r="H257" s="11"/>
+      <c r="I257" s="10"/>
       <c r="J257" s="1"/>
       <c r="K257" s="1"/>
       <c r="L257" s="1"/>
@@ -10781,8 +11087,9 @@
       <c r="AA257" s="1"/>
       <c r="AB257" s="1"/>
       <c r="AC257" s="1"/>
-    </row>
-    <row r="258" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD257" s="1"/>
+    </row>
+    <row r="258" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A258" s="1"/>
       <c r="B258" s="10">
         <f t="shared" si="1"/>
@@ -10795,8 +11102,8 @@
       <c r="E258" s="7"/>
       <c r="F258" s="11"/>
       <c r="G258" s="11"/>
-      <c r="H258" s="10"/>
-      <c r="I258" s="1"/>
+      <c r="H258" s="11"/>
+      <c r="I258" s="10"/>
       <c r="J258" s="1"/>
       <c r="K258" s="1"/>
       <c r="L258" s="1"/>
@@ -10817,8 +11124,9 @@
       <c r="AA258" s="1"/>
       <c r="AB258" s="1"/>
       <c r="AC258" s="1"/>
-    </row>
-    <row r="259" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD258" s="1"/>
+    </row>
+    <row r="259" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A259" s="1"/>
       <c r="B259" s="10">
         <f t="shared" si="1"/>
@@ -10833,8 +11141,8 @@
       <c r="E259" s="7"/>
       <c r="F259" s="11"/>
       <c r="G259" s="11"/>
-      <c r="H259" s="10"/>
-      <c r="I259" s="1"/>
+      <c r="H259" s="11"/>
+      <c r="I259" s="10"/>
       <c r="J259" s="1"/>
       <c r="K259" s="1"/>
       <c r="L259" s="1"/>
@@ -10855,8 +11163,9 @@
       <c r="AA259" s="1"/>
       <c r="AB259" s="1"/>
       <c r="AC259" s="1"/>
-    </row>
-    <row r="260" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD259" s="1"/>
+    </row>
+    <row r="260" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A260" s="1"/>
       <c r="B260" s="10">
         <f t="shared" si="1"/>
@@ -10873,8 +11182,8 @@
       </c>
       <c r="F260" s="11"/>
       <c r="G260" s="11"/>
-      <c r="H260" s="10"/>
-      <c r="I260" s="1"/>
+      <c r="H260" s="11"/>
+      <c r="I260" s="10"/>
       <c r="J260" s="1"/>
       <c r="K260" s="1"/>
       <c r="L260" s="1"/>
@@ -10895,8 +11204,9 @@
       <c r="AA260" s="1"/>
       <c r="AB260" s="1"/>
       <c r="AC260" s="1"/>
-    </row>
-    <row r="261" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD260" s="1"/>
+    </row>
+    <row r="261" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A261" s="1"/>
       <c r="B261" s="10">
         <f t="shared" si="1"/>
@@ -10913,8 +11223,8 @@
       </c>
       <c r="F261" s="11"/>
       <c r="G261" s="11"/>
-      <c r="H261" s="10"/>
-      <c r="I261" s="1"/>
+      <c r="H261" s="11"/>
+      <c r="I261" s="10"/>
       <c r="J261" s="1"/>
       <c r="K261" s="1"/>
       <c r="L261" s="1"/>
@@ -10935,8 +11245,9 @@
       <c r="AA261" s="1"/>
       <c r="AB261" s="1"/>
       <c r="AC261" s="1"/>
-    </row>
-    <row r="262" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD261" s="1"/>
+    </row>
+    <row r="262" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A262" s="1"/>
       <c r="B262" s="10">
         <f t="shared" si="1"/>
@@ -10953,8 +11264,8 @@
       </c>
       <c r="F262" s="11"/>
       <c r="G262" s="11"/>
-      <c r="H262" s="10"/>
-      <c r="I262" s="1"/>
+      <c r="H262" s="11"/>
+      <c r="I262" s="10"/>
       <c r="J262" s="1"/>
       <c r="K262" s="1"/>
       <c r="L262" s="1"/>
@@ -10975,8 +11286,9 @@
       <c r="AA262" s="1"/>
       <c r="AB262" s="1"/>
       <c r="AC262" s="1"/>
-    </row>
-    <row r="263" spans="1:29" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="AD262" s="1"/>
+    </row>
+    <row r="263" spans="1:30" ht="16.5" hidden="1" x14ac:dyDescent="0.35">
       <c r="A263" s="1"/>
       <c r="B263" s="10">
         <f t="shared" si="1"/>
@@ -10989,8 +11301,8 @@
       <c r="E263" s="7"/>
       <c r="F263" s="11"/>
       <c r="G263" s="11"/>
-      <c r="H263" s="10"/>
-      <c r="I263" s="1"/>
+      <c r="H263" s="11"/>
+      <c r="I263" s="10"/>
       <c r="J263" s="1"/>
       <c r="K263" s="1"/>
       <c r="L263" s="1"/>
@@ -11011,8 +11323,9 @@
       <c r="AA263" s="1"/>
       <c r="AB263" s="1"/>
       <c r="AC263" s="1"/>
-    </row>
-    <row r="264" spans="1:29" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="AD263" s="1"/>
+    </row>
+    <row r="264" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B264" s="10">
         <f t="shared" si="1"/>
         <v>261</v>
@@ -11028,9 +11341,10 @@
       </c>
       <c r="F264" s="11"/>
       <c r="G264" s="11"/>
-      <c r="H264" s="10"/>
-    </row>
-    <row r="265" spans="1:29" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H264" s="11"/>
+      <c r="I264" s="10"/>
+    </row>
+    <row r="265" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B265" s="10">
         <f t="shared" si="1"/>
         <v>262</v>
@@ -11042,9 +11356,10 @@
       <c r="E265" s="7"/>
       <c r="F265" s="11"/>
       <c r="G265" s="11"/>
-      <c r="H265" s="10"/>
-    </row>
-    <row r="266" spans="1:29" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H265" s="11"/>
+      <c r="I265" s="10"/>
+    </row>
+    <row r="266" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B266" s="10">
         <f t="shared" si="1"/>
         <v>263</v>
@@ -11058,9 +11373,10 @@
       <c r="E266" s="7"/>
       <c r="F266" s="11"/>
       <c r="G266" s="11"/>
-      <c r="H266" s="10"/>
-    </row>
-    <row r="267" spans="1:29" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H266" s="11"/>
+      <c r="I266" s="10"/>
+    </row>
+    <row r="267" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B267" s="10">
         <f t="shared" si="1"/>
         <v>264</v>
@@ -11078,9 +11394,10 @@
         <v>14</v>
       </c>
       <c r="G267" s="11"/>
-      <c r="H267" s="10"/>
-    </row>
-    <row r="268" spans="1:29" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H267" s="11"/>
+      <c r="I267" s="10"/>
+    </row>
+    <row r="268" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B268" s="10">
         <f t="shared" si="1"/>
         <v>265</v>
@@ -11098,9 +11415,10 @@
         <v>14</v>
       </c>
       <c r="G268" s="11"/>
-      <c r="H268" s="10"/>
-    </row>
-    <row r="269" spans="1:29" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H268" s="11"/>
+      <c r="I268" s="10"/>
+    </row>
+    <row r="269" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B269" s="10">
         <f t="shared" si="1"/>
         <v>266</v>
@@ -11116,9 +11434,10 @@
       </c>
       <c r="F269" s="11"/>
       <c r="G269" s="11"/>
-      <c r="H269" s="10"/>
-    </row>
-    <row r="270" spans="1:29" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H269" s="11"/>
+      <c r="I269" s="10"/>
+    </row>
+    <row r="270" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B270" s="10">
         <f t="shared" si="1"/>
         <v>267</v>
@@ -11134,9 +11453,10 @@
       </c>
       <c r="F270" s="11"/>
       <c r="G270" s="11"/>
-      <c r="H270" s="10"/>
-    </row>
-    <row r="271" spans="1:29" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H270" s="11"/>
+      <c r="I270" s="10"/>
+    </row>
+    <row r="271" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B271" s="10">
         <f t="shared" si="1"/>
         <v>268</v>
@@ -11148,9 +11468,10 @@
       <c r="E271" s="7"/>
       <c r="F271" s="11"/>
       <c r="G271" s="11"/>
-      <c r="H271" s="10"/>
-    </row>
-    <row r="272" spans="1:29" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H271" s="11"/>
+      <c r="I271" s="10"/>
+    </row>
+    <row r="272" spans="1:30" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B272" s="10">
         <f t="shared" si="1"/>
         <v>269</v>
@@ -11164,9 +11485,10 @@
       <c r="E272" s="7"/>
       <c r="F272" s="11"/>
       <c r="G272" s="11"/>
-      <c r="H272" s="10"/>
-    </row>
-    <row r="273" spans="2:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H272" s="11"/>
+      <c r="I272" s="10"/>
+    </row>
+    <row r="273" spans="2:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B273" s="10">
         <f t="shared" si="1"/>
         <v>270</v>
@@ -11182,9 +11504,10 @@
       </c>
       <c r="F273" s="11"/>
       <c r="G273" s="11"/>
-      <c r="H273" s="10"/>
-    </row>
-    <row r="274" spans="2:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H273" s="11"/>
+      <c r="I273" s="10"/>
+    </row>
+    <row r="274" spans="2:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B274" s="10">
         <f t="shared" si="1"/>
         <v>271</v>
@@ -11200,9 +11523,10 @@
       </c>
       <c r="F274" s="11"/>
       <c r="G274" s="11"/>
-      <c r="H274" s="10"/>
-    </row>
-    <row r="275" spans="2:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H274" s="11"/>
+      <c r="I274" s="10"/>
+    </row>
+    <row r="275" spans="2:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B275" s="10">
         <f t="shared" si="1"/>
         <v>272</v>
@@ -11216,9 +11540,10 @@
       <c r="E275" s="7"/>
       <c r="F275" s="11"/>
       <c r="G275" s="11"/>
-      <c r="H275" s="10"/>
-    </row>
-    <row r="276" spans="2:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H275" s="11"/>
+      <c r="I275" s="10"/>
+    </row>
+    <row r="276" spans="2:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B276" s="10">
         <f t="shared" si="1"/>
         <v>273</v>
@@ -11232,9 +11557,10 @@
       <c r="E276" s="7"/>
       <c r="F276" s="11"/>
       <c r="G276" s="11"/>
-      <c r="H276" s="10"/>
-    </row>
-    <row r="277" spans="2:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H276" s="11"/>
+      <c r="I276" s="10"/>
+    </row>
+    <row r="277" spans="2:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B277" s="10">
         <f t="shared" si="1"/>
         <v>274</v>
@@ -11248,9 +11574,10 @@
       <c r="E277" s="7"/>
       <c r="F277" s="11"/>
       <c r="G277" s="11"/>
-      <c r="H277" s="10"/>
-    </row>
-    <row r="278" spans="2:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H277" s="11"/>
+      <c r="I277" s="10"/>
+    </row>
+    <row r="278" spans="2:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B278" s="10">
         <f t="shared" si="1"/>
         <v>275</v>
@@ -11266,9 +11593,10 @@
       </c>
       <c r="F278" s="11"/>
       <c r="G278" s="11"/>
-      <c r="H278" s="10"/>
-    </row>
-    <row r="279" spans="2:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H278" s="11"/>
+      <c r="I278" s="10"/>
+    </row>
+    <row r="279" spans="2:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B279" s="10">
         <f t="shared" si="1"/>
         <v>276</v>
@@ -11282,9 +11610,10 @@
       <c r="E279" s="7"/>
       <c r="F279" s="11"/>
       <c r="G279" s="11"/>
-      <c r="H279" s="10"/>
-    </row>
-    <row r="280" spans="2:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H279" s="11"/>
+      <c r="I279" s="10"/>
+    </row>
+    <row r="280" spans="2:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B280" s="10">
         <f t="shared" si="1"/>
         <v>277</v>
@@ -11300,9 +11629,10 @@
       </c>
       <c r="F280" s="11"/>
       <c r="G280" s="11"/>
-      <c r="H280" s="10"/>
-    </row>
-    <row r="281" spans="2:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H280" s="11"/>
+      <c r="I280" s="10"/>
+    </row>
+    <row r="281" spans="2:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B281" s="10">
         <f t="shared" si="1"/>
         <v>278</v>
@@ -11320,9 +11650,10 @@
         <v>14</v>
       </c>
       <c r="G281" s="11"/>
-      <c r="H281" s="10"/>
-    </row>
-    <row r="282" spans="2:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H281" s="11"/>
+      <c r="I281" s="10"/>
+    </row>
+    <row r="282" spans="2:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B282" s="10">
         <f t="shared" si="1"/>
         <v>279</v>
@@ -11340,9 +11671,10 @@
         <v>14</v>
       </c>
       <c r="G282" s="11"/>
-      <c r="H282" s="10"/>
-    </row>
-    <row r="283" spans="2:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H282" s="11"/>
+      <c r="I282" s="10"/>
+    </row>
+    <row r="283" spans="2:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B283" s="10">
         <f t="shared" si="1"/>
         <v>280</v>
@@ -11358,9 +11690,10 @@
       </c>
       <c r="F283" s="11"/>
       <c r="G283" s="11"/>
-      <c r="H283" s="10"/>
-    </row>
-    <row r="284" spans="2:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H283" s="11"/>
+      <c r="I283" s="10"/>
+    </row>
+    <row r="284" spans="2:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B284" s="10">
         <f t="shared" si="1"/>
         <v>281</v>
@@ -11376,9 +11709,10 @@
       </c>
       <c r="F284" s="11"/>
       <c r="G284" s="11"/>
-      <c r="H284" s="10"/>
-    </row>
-    <row r="285" spans="2:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H284" s="11"/>
+      <c r="I284" s="10"/>
+    </row>
+    <row r="285" spans="2:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B285" s="10">
         <f t="shared" si="1"/>
         <v>282</v>
@@ -11390,9 +11724,10 @@
       <c r="E285" s="7"/>
       <c r="F285" s="11"/>
       <c r="G285" s="11"/>
-      <c r="H285" s="10"/>
-    </row>
-    <row r="286" spans="2:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H285" s="11"/>
+      <c r="I285" s="10"/>
+    </row>
+    <row r="286" spans="2:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B286" s="10">
         <f t="shared" si="1"/>
         <v>283</v>
@@ -11406,9 +11741,10 @@
       <c r="E286" s="7"/>
       <c r="F286" s="11"/>
       <c r="G286" s="11"/>
-      <c r="H286" s="10"/>
-    </row>
-    <row r="287" spans="2:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H286" s="11"/>
+      <c r="I286" s="10"/>
+    </row>
+    <row r="287" spans="2:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B287" s="10">
         <f t="shared" si="1"/>
         <v>284</v>
@@ -11426,9 +11762,10 @@
         <v>14</v>
       </c>
       <c r="G287" s="11"/>
-      <c r="H287" s="10"/>
-    </row>
-    <row r="288" spans="2:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H287" s="11"/>
+      <c r="I287" s="10"/>
+    </row>
+    <row r="288" spans="2:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B288" s="10">
         <f t="shared" si="1"/>
         <v>285</v>
@@ -11444,9 +11781,10 @@
       </c>
       <c r="F288" s="11"/>
       <c r="G288" s="11"/>
-      <c r="H288" s="10"/>
-    </row>
-    <row r="289" spans="2:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H288" s="11"/>
+      <c r="I288" s="10"/>
+    </row>
+    <row r="289" spans="2:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B289" s="10">
         <f t="shared" si="1"/>
         <v>286</v>
@@ -11458,9 +11796,10 @@
       <c r="E289" s="7"/>
       <c r="F289" s="11"/>
       <c r="G289" s="11"/>
-      <c r="H289" s="10"/>
-    </row>
-    <row r="290" spans="2:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H289" s="11"/>
+      <c r="I289" s="10"/>
+    </row>
+    <row r="290" spans="2:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B290" s="10">
         <f t="shared" si="1"/>
         <v>287</v>
@@ -11478,9 +11817,10 @@
         <v>14</v>
       </c>
       <c r="G290" s="11"/>
-      <c r="H290" s="10"/>
-    </row>
-    <row r="291" spans="2:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H290" s="11"/>
+      <c r="I290" s="10"/>
+    </row>
+    <row r="291" spans="2:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B291" s="10">
         <f t="shared" si="1"/>
         <v>288</v>
@@ -11492,9 +11832,10 @@
       <c r="E291" s="7"/>
       <c r="F291" s="11"/>
       <c r="G291" s="11"/>
-      <c r="H291" s="10"/>
-    </row>
-    <row r="292" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H291" s="11"/>
+      <c r="I291" s="10"/>
+    </row>
+    <row r="292" spans="2:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B292" s="10">
         <f t="shared" si="1"/>
         <v>289</v>
@@ -11511,10 +11852,13 @@
       <c r="F292" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="G292" s="11"/>
-      <c r="H292" s="10"/>
-    </row>
-    <row r="293" spans="2:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G292" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="H292" s="11"/>
+      <c r="I292" s="10"/>
+    </row>
+    <row r="293" spans="2:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B293" s="10">
         <f t="shared" si="1"/>
         <v>290</v>
@@ -11526,9 +11870,10 @@
       <c r="E293" s="7"/>
       <c r="F293" s="11"/>
       <c r="G293" s="11"/>
-      <c r="H293" s="10"/>
-    </row>
-    <row r="294" spans="2:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H293" s="11"/>
+      <c r="I293" s="10"/>
+    </row>
+    <row r="294" spans="2:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B294" s="10">
         <f t="shared" si="1"/>
         <v>291</v>
@@ -11546,9 +11891,10 @@
         <v>14</v>
       </c>
       <c r="G294" s="11"/>
-      <c r="H294" s="10"/>
-    </row>
-    <row r="295" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H294" s="11"/>
+      <c r="I294" s="10"/>
+    </row>
+    <row r="295" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B295" s="10">
         <f t="shared" si="1"/>
         <v>292</v>
@@ -11565,10 +11911,13 @@
       <c r="F295" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="G295" s="11"/>
-      <c r="H295" s="10"/>
-    </row>
-    <row r="296" spans="2:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G295" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="H295" s="11"/>
+      <c r="I295" s="10"/>
+    </row>
+    <row r="296" spans="2:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B296" s="10">
         <f t="shared" si="1"/>
         <v>293</v>
@@ -11582,9 +11931,10 @@
       <c r="E296" s="7"/>
       <c r="F296" s="11"/>
       <c r="G296" s="11"/>
-      <c r="H296" s="10"/>
-    </row>
-    <row r="297" spans="2:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H296" s="11"/>
+      <c r="I296" s="10"/>
+    </row>
+    <row r="297" spans="2:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B297" s="10">
         <f t="shared" si="1"/>
         <v>294</v>
@@ -11602,9 +11952,10 @@
         <v>14</v>
       </c>
       <c r="G297" s="11"/>
-      <c r="H297" s="10"/>
-    </row>
-    <row r="298" spans="2:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H297" s="11"/>
+      <c r="I297" s="10"/>
+    </row>
+    <row r="298" spans="2:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B298" s="10">
         <f t="shared" si="1"/>
         <v>295</v>
@@ -11620,9 +11971,10 @@
       </c>
       <c r="F298" s="11"/>
       <c r="G298" s="11"/>
-      <c r="H298" s="10"/>
-    </row>
-    <row r="299" spans="2:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H298" s="11"/>
+      <c r="I298" s="10"/>
+    </row>
+    <row r="299" spans="2:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B299" s="10">
         <f t="shared" si="1"/>
         <v>296</v>
@@ -11638,9 +11990,10 @@
       </c>
       <c r="F299" s="11"/>
       <c r="G299" s="11"/>
-      <c r="H299" s="10"/>
-    </row>
-    <row r="300" spans="2:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H299" s="11"/>
+      <c r="I299" s="10"/>
+    </row>
+    <row r="300" spans="2:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B300" s="10">
         <f t="shared" ref="B300:B303" si="2">ROW()-3</f>
         <v>297</v>
@@ -11656,9 +12009,10 @@
       </c>
       <c r="F300" s="11"/>
       <c r="G300" s="11"/>
-      <c r="H300" s="10"/>
-    </row>
-    <row r="301" spans="2:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H300" s="11"/>
+      <c r="I300" s="10"/>
+    </row>
+    <row r="301" spans="2:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B301" s="10">
         <f t="shared" si="2"/>
         <v>298</v>
@@ -11672,9 +12026,10 @@
       <c r="E301" s="7"/>
       <c r="F301" s="11"/>
       <c r="G301" s="11"/>
-      <c r="H301" s="10"/>
-    </row>
-    <row r="302" spans="2:8" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="H301" s="11"/>
+      <c r="I301" s="10"/>
+    </row>
+    <row r="302" spans="2:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B302" s="10">
         <f t="shared" si="2"/>
         <v>299</v>
@@ -11691,10 +12046,13 @@
       <c r="F302" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="G302" s="11"/>
-      <c r="H302" s="10"/>
-    </row>
-    <row r="303" spans="2:8" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="G302" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="H302" s="11"/>
+      <c r="I302" s="10"/>
+    </row>
+    <row r="303" spans="2:9" ht="15.75" hidden="1" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B303" s="10">
         <f t="shared" si="2"/>
         <v>300</v>
@@ -11712,7 +12070,8 @@
         <v>14</v>
       </c>
       <c r="G303" s="11"/>
-      <c r="H303" s="10"/>
+      <c r="H303" s="11"/>
+      <c r="I303" s="10"/>
     </row>
   </sheetData>
   <autoFilter ref="B3:G303" xr:uid="{00000000-0009-0000-0000-000000000000}">
@@ -11740,63 +12099,69 @@
         <filter val="NG"/>
       </filters>
     </filterColumn>
+    <filterColumn colId="5">
+      <filters>
+        <filter val="Again"/>
+        <filter val="NG"/>
+      </filters>
+    </filterColumn>
   </autoFilter>
   <customSheetViews>
     <customSheetView guid="{2A2FD979-9F8D-413C-9CCD-B7F26FC2F3D3}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="B3:G267" xr:uid="{2BDD13AA-96BC-443D-A888-EF83113A6062}"/>
+      <autoFilter ref="B3:G267" xr:uid="{17EFC2C4-D72C-4133-9CF6-2ADC7275088D}"/>
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="7"/>
-  <conditionalFormatting sqref="C4:G303">
-    <cfRule type="cellIs" dxfId="10" priority="6" operator="equal">
+  <conditionalFormatting sqref="C4:H303">
+    <cfRule type="cellIs" dxfId="7" priority="6" operator="equal">
       <formula>"Again"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="7" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="8" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C4:H303">
-    <cfRule type="expression" dxfId="7" priority="4">
+  <conditionalFormatting sqref="C4:I303">
+    <cfRule type="expression" dxfId="4" priority="4">
       <formula>$C4="OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D4:H303">
-    <cfRule type="expression" dxfId="6" priority="5">
+  <conditionalFormatting sqref="D4:I303">
+    <cfRule type="expression" dxfId="3" priority="5">
       <formula>$D4="OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E4:H303">
-    <cfRule type="expression" dxfId="5" priority="3">
+  <conditionalFormatting sqref="E4:I303">
+    <cfRule type="expression" dxfId="2" priority="3">
       <formula>$E4="OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F4:H303">
-    <cfRule type="expression" dxfId="4" priority="2">
+  <conditionalFormatting sqref="F4:I303">
+    <cfRule type="expression" dxfId="1" priority="2">
       <formula>$F4="OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G4:H303">
-    <cfRule type="expression" dxfId="3" priority="1">
+  <conditionalFormatting sqref="G4:I303">
+    <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G4="OK"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="J1:J3">
-    <cfRule type="cellIs" dxfId="2" priority="27" operator="equal">
+  <conditionalFormatting sqref="K1:K3">
+    <cfRule type="cellIs" dxfId="10" priority="27" operator="equal">
       <formula>"Again"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="28" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="29" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" sqref="J1:J3 C4:G303" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" sqref="K1:K3 C4:H303" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"NG,Again,OK"</formula1>
     </dataValidation>
   </dataValidations>

--- a/work-book/cloudTech/SAP/[SAP-C02]AWS問題集チェックシート.xlsx
+++ b/work-book/cloudTech/SAP/[SAP-C02]AWS問題集チェックシート.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f8aaa7f11ecf284d/デスクトップ/program/readeing-learning-history/work-book/cloudTech/SAP/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="419" documentId="13_ncr:1_{1B8999BD-FC05-4DF7-AFA1-082B8FD27174}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8C801C11-FF2D-4CA9-B763-481A87D16352}"/>
+  <xr:revisionPtr revIDLastSave="434" documentId="13_ncr:1_{1B8999BD-FC05-4DF7-AFA1-082B8FD27174}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D8E4409E-A2C2-4999-956F-F33F62DA1DF8}"/>
   <bookViews>
     <workbookView xWindow="16830" yWindow="0" windowWidth="5820" windowHeight="14410" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="954" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="969" uniqueCount="20">
   <si>
     <t>* [ファイル] ⇨ [コピーを作成] を選択し、コピーしてからお使いください</t>
   </si>
@@ -288,13 +288,6 @@
   <dxfs count="34">
     <dxf>
       <fill>
-        <patternFill>
-          <bgColor theme="1" tint="0.499984740745262"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FFFFFFFF"/>
           <bgColor rgb="FFFFFFFF"/>
@@ -389,6 +382,13 @@
         <patternFill patternType="solid">
           <fgColor rgb="FFB7E1CD"/>
           <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1" tint="0.499984740745262"/>
         </patternFill>
       </fill>
     </dxf>
@@ -12335,7 +12335,7 @@
   <customSheetViews>
     <customSheetView guid="{2A2FD979-9F8D-413C-9CCD-B7F26FC2F3D3}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="B3:G267" xr:uid="{E013C7B2-DB99-4827-AAC1-791FB9626CC0}"/>
+      <autoFilter ref="B3:G267" xr:uid="{63B01D82-A98A-45AC-8348-A93CBB97C585}"/>
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="7"/>
@@ -12408,7 +12408,7 @@
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
+      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -12557,7 +12557,9 @@
       <c r="C4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D4" s="7"/>
+      <c r="D4" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="E4" s="7"/>
       <c r="F4" s="11"/>
       <c r="G4" s="11"/>
@@ -12593,7 +12595,9 @@
       <c r="C5" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="7"/>
+      <c r="D5" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="E5" s="7"/>
       <c r="F5" s="11"/>
       <c r="G5" s="11"/>
@@ -12629,7 +12633,9 @@
       <c r="C6" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="7"/>
+      <c r="D6" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="E6" s="7"/>
       <c r="F6" s="11"/>
       <c r="G6" s="11"/>
@@ -12665,7 +12671,9 @@
       <c r="C7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="7"/>
+      <c r="D7" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="E7" s="7"/>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
@@ -12701,7 +12709,9 @@
       <c r="C8" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="7"/>
+      <c r="D8" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="E8" s="7"/>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
@@ -12737,7 +12747,9 @@
       <c r="C9" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D9" s="7"/>
+      <c r="D9" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="E9" s="7"/>
       <c r="F9" s="11"/>
       <c r="G9" s="11"/>
@@ -12773,7 +12785,9 @@
       <c r="C10" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D10" s="7"/>
+      <c r="D10" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="E10" s="7"/>
       <c r="F10" s="11"/>
       <c r="G10" s="11"/>
@@ -12809,7 +12823,9 @@
       <c r="C11" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="7"/>
+      <c r="D11" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="E11" s="7"/>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
@@ -12845,7 +12861,9 @@
       <c r="C12" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="7"/>
+      <c r="D12" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="E12" s="7"/>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
@@ -12881,7 +12899,9 @@
       <c r="C13" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="7"/>
+      <c r="D13" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="E13" s="13"/>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
@@ -21960,7 +21980,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
+      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -22260,7 +22280,9 @@
       <c r="D8" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="7"/>
+      <c r="E8" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F8" s="11"/>
       <c r="G8" s="11"/>
       <c r="H8" s="10"/>
@@ -22448,7 +22470,9 @@
       <c r="D13" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E13" s="13"/>
+      <c r="E13" s="13" t="s">
+        <v>14</v>
+      </c>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
       <c r="H13" s="10"/>
@@ -22486,7 +22510,9 @@
       <c r="D14" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="7"/>
+      <c r="E14" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F14" s="11"/>
       <c r="G14" s="11"/>
       <c r="H14" s="10"/>
@@ -22598,7 +22624,9 @@
       <c r="D17" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E17" s="7"/>
+      <c r="E17" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F17" s="11"/>
       <c r="G17" s="11"/>
       <c r="H17" s="10"/>
@@ -22636,7 +22664,9 @@
       <c r="D18" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="E18" s="7"/>
+      <c r="E18" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="F18" s="11"/>
       <c r="G18" s="11"/>
       <c r="H18" s="10"/>
@@ -31491,56 +31521,56 @@
   </sheetData>
   <autoFilter ref="B3:G303" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <phoneticPr fontId="7"/>
+  <conditionalFormatting sqref="C4:C23">
+    <cfRule type="expression" dxfId="11" priority="1">
+      <formula>$D4="OK"</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="C4:G303">
-    <cfRule type="cellIs" dxfId="11" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="7" operator="equal">
       <formula>"Again"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="8" operator="equal">
+    <cfRule type="cellIs" dxfId="9" priority="8" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
       <formula>"OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4:H303">
-    <cfRule type="expression" dxfId="8" priority="5">
+    <cfRule type="expression" dxfId="7" priority="5">
       <formula>$C4="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D4:H303">
-    <cfRule type="expression" dxfId="7" priority="6">
+    <cfRule type="expression" dxfId="6" priority="6">
       <formula>$D4="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E4:H303">
-    <cfRule type="expression" dxfId="6" priority="4">
+    <cfRule type="expression" dxfId="5" priority="4">
       <formula>$E4="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F4:H303">
-    <cfRule type="expression" dxfId="5" priority="3">
+    <cfRule type="expression" dxfId="4" priority="3">
       <formula>$F4="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="G4:H303">
-    <cfRule type="expression" dxfId="4" priority="2">
+    <cfRule type="expression" dxfId="3" priority="2">
       <formula>$G4="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J1:J3">
-    <cfRule type="cellIs" dxfId="3" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="10" operator="equal">
       <formula>"Again"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="11" operator="equal">
       <formula>"NG"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="12" operator="equal">
       <formula>"OK"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="C4:C23">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$D4="OK"</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">

--- a/work-book/cloudTech/SAP/[SAP-C02]AWS問題集チェックシート.xlsx
+++ b/work-book/cloudTech/SAP/[SAP-C02]AWS問題集チェックシート.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="434" documentId="13_ncr:1_{1B8999BD-FC05-4DF7-AFA1-082B8FD27174}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D8E4409E-A2C2-4999-956F-F33F62DA1DF8}"/>
   <bookViews>
-    <workbookView xWindow="16830" yWindow="0" windowWidth="5820" windowHeight="14410" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="16370" yWindow="80" windowWidth="6080" windowHeight="14240" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="問題チェックシート" sheetId="1" r:id="rId1"/>
@@ -12335,7 +12335,7 @@
   <customSheetViews>
     <customSheetView guid="{2A2FD979-9F8D-413C-9CCD-B7F26FC2F3D3}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="B3:G267" xr:uid="{63B01D82-A98A-45AC-8348-A93CBB97C585}"/>
+      <autoFilter ref="B3:G267" xr:uid="{D03223C7-67BA-40B3-B2AC-9681A92B010F}"/>
     </customSheetView>
   </customSheetViews>
   <phoneticPr fontId="7"/>
